--- a/excelout/lootdifs.xlsx
+++ b/excelout/lootdifs.xlsx
@@ -450,17 +450,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\corellia\afarathu_brute.lua</t>
+          <t>path</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "pelgo_aqua", chance = 100 * (100000)},\n\t\t\t},\n\t\t\tlootChance = 3 * (100000)\n\t\t}', '{\n\t\t\t\t{group = "pelgo_aqua", chance = 100 * (100000)},\n\t\t\t}', '{group = "pelgo_aqua", chance = 100 * (100000)}')]</t>
+          <t>oldLG</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 7000000},\n\t\t\t\t{group = "loot_kit_parts", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 1000000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 7000000},\n\t\t\t\t{group = "loot_kit_parts", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 1000000}\n\t\t\t}', '{group = "tailor_components", chance = 1000000}')]</t>
+          <t>newLG</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\corellia\afarathu_cult_bodyguard.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\corellia\afarathu_brute.lua</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -480,7 +480,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "pelgo_aqua", chance = 100 * (100000)},\n\t\t\t},\n\t\t\tlootChance = 2 * (100000)\n\t\t}', '{\n\t\t\t\t{group = "pelgo_aqua", chance = 100 * (100000)},\n\t\t\t}', '{group = "pelgo_aqua", chance = 100 * (100000)}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 7000000},\n\t\t\t\t{group = "loot_kit_parts", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 1000000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 7000000},\n\t\t\t\t{group = "loot_kit_parts", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 1000000}\n\t\t\t}', '{group = "tailor_components", chance = 1000000}')]</t>
         </is>
       </c>
     </row>
@@ -490,7 +490,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\corellia\afarathu_cult_follower.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\corellia\afarathu_cult_bodyguard.lua</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -510,7 +510,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\corellia\afarathu_cult_leader.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\corellia\afarathu_cult_follower.lua</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -530,7 +530,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\corellia\afarathu_cult_zealot.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\corellia\afarathu_cult_leader.lua</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -550,7 +550,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\corellia\afarathu_hellion.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\corellia\afarathu_cult_zealot.lua</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -570,7 +570,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\corellia\afarathu_ruffian.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\corellia\afarathu_hellion.lua</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -590,17 +590,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\corellia\afarathu_savage.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\corellia\afarathu_ruffian.lua</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "pelgo_aqua", chance = 100 * (100000)},\n\t\t\t},\n\t\t\tlootChance = 3 * (100000)\n\t\t}', '{\n\t\t\t\t{group = "pelgo_aqua", chance = 100 * (100000)},\n\t\t\t}', '{group = "pelgo_aqua", chance = 100 * (100000)}')]</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "pelgo_aqua", chance = 100 * (100000)},\n\t\t\t},\n\t\t\tlootChance = 2 * (100000)\n\t\t}', '{\n\t\t\t\t{group = "pelgo_aqua", chance = 100 * (100000)},\n\t\t\t}', '{group = "pelgo_aqua", chance = 100 * (100000)}')]</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 7000000},\n\t\t\t\t{group = "loot_kit_parts", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 1000000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 7000000},\n\t\t\t\t{group = "loot_kit_parts", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 1000000}\n\t\t\t}', '{group = "tailor_components", chance = 1000000}')]</t>
         </is>
       </c>
     </row>
@@ -610,17 +610,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\corellia\beldonnas_league_enforcer.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\corellia\afarathu_savage.lua</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = \n\t\t\t{\n\t\t\t\t{group = "eta1_armor_group", chance = 10000000},\n\t\t\t},\n\t\t\tlootChance = 8 * (100000), -- 2% chance for this group\n\t\t}', '{\n\t\t\t\t{group = "eta1_armor_group", chance = 10000000},\n\t\t\t}', '{group = "eta1_armor_group", chance = 10000000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "pelgo_aqua", chance = 100 * (100000)},\n\t\t\t},\n\t\t\tlootChance = 2 * (100000)\n\t\t}', '{\n\t\t\t\t{group = "pelgo_aqua", chance = 100 * (100000)},\n\t\t\t}', '{group = "pelgo_aqua", chance = 100 * (100000)}')]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 3000000},\n\t\t\t\t{group = "wearables_common", chance = 2000000},\n\t\t\t\t{group = "loot_kit_parts", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 1000000},\n\t\t\t\t{group = "beldonnas_common", chance = 2000000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 3000000},\n\t\t\t\t{group = "wearables_common", chance = 2000000},\n\t\t\t\t{group = "loot_kit_parts", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 1000000},\n\t\t\t\t{group = "beldonnas_common", chance = 2000000}\n\t\t\t}', '{group = "beldonnas_common", chance = 2000000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 7000000},\n\t\t\t\t{group = "loot_kit_parts", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 1000000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 7000000},\n\t\t\t\t{group = "loot_kit_parts", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 1000000}\n\t\t\t}', '{group = "tailor_components", chance = 1000000}')]</t>
         </is>
       </c>
     </row>
@@ -630,7 +630,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\corellia\beldonnas_league_marshal.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\corellia\beldonnas_league_enforcer.lua</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -640,7 +640,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 3000000},\n\t\t\t\t{group = "wearables_all", chance = 2000000},\n\t\t\t\t{group = "loot_kit_parts", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 1000000},\n\t\t\t\t{group = "beldonnas_common", chance = 2000000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 3000000},\n\t\t\t\t{group = "wearables_all", chance = 2000000},\n\t\t\t\t{group = "loot_kit_parts", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 1000000},\n\t\t\t\t{group = "beldonnas_common", chance = 2000000}\n\t\t\t}', '{group = "beldonnas_common", chance = 2000000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 3000000},\n\t\t\t\t{group = "wearables_common", chance = 2000000},\n\t\t\t\t{group = "loot_kit_parts", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 1000000},\n\t\t\t\t{group = "beldonnas_common", chance = 2000000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 3000000},\n\t\t\t\t{group = "wearables_common", chance = 2000000},\n\t\t\t\t{group = "loot_kit_parts", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 1000000},\n\t\t\t\t{group = "beldonnas_common", chance = 2000000}\n\t\t\t}', '{group = "beldonnas_common", chance = 2000000}')]</t>
         </is>
       </c>
     </row>
@@ -650,17 +650,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\corellia\beldonnas_league_scout.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\corellia\beldonnas_league_marshal.lua</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = \n\t\t\t{\n\t\t\t\t{group = "eta1_armor_group", chance = 10000000},\n\t\t\t},\n\t\t\tlootChance = 7 * (100000), -- 2% chance for this group\n\t\t}', '{\n\t\t\t\t{group = "eta1_armor_group", chance = 10000000},\n\t\t\t}', '{group = "eta1_armor_group", chance = 10000000}')]</t>
+          <t>[('{\n\t\t\tgroups = \n\t\t\t{\n\t\t\t\t{group = "eta1_armor_group", chance = 10000000},\n\t\t\t},\n\t\t\tlootChance = 8 * (100000), -- 2% chance for this group\n\t\t}', '{\n\t\t\t\t{group = "eta1_armor_group", chance = 10000000},\n\t\t\t}', '{group = "eta1_armor_group", chance = 10000000}')]</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 3000000},\n\t\t\t\t{group = "wearables_common", chance = 2000000},\n\t\t\t\t{group = "loot_kit_parts", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 1000000},\n\t\t\t\t{group = "beldonnas_common", chance = 2000000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 3000000},\n\t\t\t\t{group = "wearables_common", chance = 2000000},\n\t\t\t\t{group = "loot_kit_parts", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 1000000},\n\t\t\t\t{group = "beldonnas_common", chance = 2000000}\n\t\t\t}', '{group = "beldonnas_common", chance = 2000000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 3000000},\n\t\t\t\t{group = "wearables_all", chance = 2000000},\n\t\t\t\t{group = "loot_kit_parts", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 1000000},\n\t\t\t\t{group = "beldonnas_common", chance = 2000000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 3000000},\n\t\t\t\t{group = "wearables_all", chance = 2000000},\n\t\t\t\t{group = "loot_kit_parts", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 1000000},\n\t\t\t\t{group = "beldonnas_common", chance = 2000000}\n\t\t\t}', '{group = "beldonnas_common", chance = 2000000}')]</t>
         </is>
       </c>
     </row>
@@ -670,12 +670,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\corellia\beldonnas_league_soldier.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\corellia\beldonnas_league_scout.lua</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = \n\t\t\t{\n\t\t\t\t{group = "eta1_armor_group", chance = 10000000},\n\t\t\t},\n\t\t\tlootChance = 6 * (100000), -- 2% chance for this group\n\t\t}', '{\n\t\t\t\t{group = "eta1_armor_group", chance = 10000000},\n\t\t\t}', '{group = "eta1_armor_group", chance = 10000000}')]</t>
+          <t>[('{\n\t\t\tgroups = \n\t\t\t{\n\t\t\t\t{group = "eta1_armor_group", chance = 10000000},\n\t\t\t},\n\t\t\tlootChance = 7 * (100000), -- 2% chance for this group\n\t\t}', '{\n\t\t\t\t{group = "eta1_armor_group", chance = 10000000},\n\t\t\t}', '{group = "eta1_armor_group", chance = 10000000}')]</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -690,17 +690,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\corellia\drall_abbot.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\corellia\beldonnas_league_soldier.lua</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = \n\t\t\t{\n\t\t\t\t{group = "eta1_leather_group", chance = 100 * (100000)},\n\t\t\t},\n\t\t\tlootChance = 7 * (100000), -- 2% chance for this group\n\t\t}', '{\n\t\t\t\t{group = "eta1_leather_group", chance = 100 * (100000)},\n\t\t\t}', '{group = "eta1_leather_group", chance = 100 * (100000)}')]</t>
+          <t>[('{\n\t\t\tgroups = \n\t\t\t{\n\t\t\t\t{group = "eta1_armor_group", chance = 10000000},\n\t\t\t},\n\t\t\tlootChance = 6 * (100000), -- 2% chance for this group\n\t\t}', '{\n\t\t\t\t{group = "eta1_armor_group", chance = 10000000},\n\t\t\t}', '{group = "eta1_armor_group", chance = 10000000}')]</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 7000000},\n\t\t\t\t{group = "loot_kit_parts", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 1000000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 7000000},\n\t\t\t\t{group = "loot_kit_parts", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 1000000}\n\t\t\t}', '{group = "tailor_components", chance = 1000000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 3000000},\n\t\t\t\t{group = "wearables_common", chance = 2000000},\n\t\t\t\t{group = "loot_kit_parts", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 1000000},\n\t\t\t\t{group = "beldonnas_common", chance = 2000000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 3000000},\n\t\t\t\t{group = "wearables_common", chance = 2000000},\n\t\t\t\t{group = "loot_kit_parts", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 1000000},\n\t\t\t\t{group = "beldonnas_common", chance = 2000000}\n\t\t\t}', '{group = "beldonnas_common", chance = 2000000}')]</t>
         </is>
       </c>
     </row>
@@ -710,7 +710,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\corellia\drall_chieftain.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\corellia\drall_abbot.lua</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -730,7 +730,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\corellia\drall_guard.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\corellia\drall_chieftain.lua</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -750,7 +750,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\corellia\drall_master.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\corellia\drall_guard.lua</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -770,7 +770,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\corellia\drall_monk.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\corellia\drall_master.lua</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -790,7 +790,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\corellia\drall_patriot.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\corellia\drall_monk.lua</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -810,7 +810,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\corellia\drall_patriot_conqueror.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\corellia\drall_patriot.lua</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -830,7 +830,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\corellia\drall_patriot_foot_soldier.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\corellia\drall_patriot_conqueror.lua</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -850,7 +850,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\corellia\drall_patriot_legionnaire.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\corellia\drall_patriot_foot_soldier.lua</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -870,17 +870,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\corellia\flail_boss.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\corellia\drall_patriot_legionnaire.lua</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = \n\t\t\t{\n\t\t\t\t{group = "eta1_cockpit_group", chance = 10000000},\n\t\t\t},\n\t\t\tlootChance = 8 * (100000), \n\t\t}', '{\n\t\t\t\t{group = "eta1_cockpit_group", chance = 10000000},\n\t\t\t}', '{group = "eta1_cockpit_group", chance = 10000000}')]</t>
+          <t>[('{\n\t\t\tgroups = \n\t\t\t{\n\t\t\t\t{group = "eta1_leather_group", chance = 100 * (100000)},\n\t\t\t},\n\t\t\tlootChance = 7 * (100000), -- 2% chance for this group\n\t\t}', '{\n\t\t\t\t{group = "eta1_leather_group", chance = 100 * (100000)},\n\t\t\t}', '{group = "eta1_leather_group", chance = 100 * (100000)}')]</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 3500000},\n\t\t\t\t{group = "wearables_all", chance = 3000000},\n\t\t\t\t{group = "rifles", chance = 2000000},\n\t\t\t\t{group = "color_crystals", chance = 1000000},\n\t\t\t\t{group = "flail_common", chance = 500000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 3500000},\n\t\t\t\t{group = "wearables_all", chance = 3000000},\n\t\t\t\t{group = "rifles", chance = 2000000},\n\t\t\t\t{group = "color_crystals", chance = 1000000},\n\t\t\t\t{group = "flail_common", chance = 500000}\n\t\t\t}', '{group = "flail_common", chance = 500000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 7000000},\n\t\t\t\t{group = "loot_kit_parts", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 1000000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 7000000},\n\t\t\t\t{group = "loot_kit_parts", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 1000000}\n\t\t\t}', '{group = "tailor_components", chance = 1000000}')]</t>
         </is>
       </c>
     </row>
@@ -890,17 +890,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\corellia\flail_butcher.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\corellia\flail_boss.lua</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = \n\t\t\t{\n\t\t\t\t{group = "eta1_cockpit_group", chance = 10000000},\n\t\t\t},\n\t\t\tlootChance = 9 * (100000), \n\t\t}', '{\n\t\t\t\t{group = "eta1_cockpit_group", chance = 10000000},\n\t\t\t}', '{group = "eta1_cockpit_group", chance = 10000000}')]</t>
+          <t>[('{\n\t\t\tgroups = \n\t\t\t{\n\t\t\t\t{group = "eta1_cockpit_group", chance = 10000000},\n\t\t\t},\n\t\t\tlootChance = 8 * (100000), \n\t\t}', '{\n\t\t\t\t{group = "eta1_cockpit_group", chance = 10000000},\n\t\t\t}', '{group = "eta1_cockpit_group", chance = 10000000}')]</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 3500000},\n\t\t\t\t{group = "wearables_common", chance = 3000000},\n\t\t\t\t{group = "rifles", chance = 2000000},\n\t\t\t\t{group = "color_crystals", chance = 1000000},\n\t\t\t\t{group = "flail_common", chance = 500000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 3500000},\n\t\t\t\t{group = "wearables_common", chance = 3000000},\n\t\t\t\t{group = "rifles", chance = 2000000},\n\t\t\t\t{group = "color_crystals", chance = 1000000},\n\t\t\t\t{group = "flail_common", chance = 500000}\n\t\t\t}', '{group = "flail_common", chance = 500000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 3500000},\n\t\t\t\t{group = "wearables_all", chance = 3000000},\n\t\t\t\t{group = "rifles", chance = 2000000},\n\t\t\t\t{group = "color_crystals", chance = 1000000},\n\t\t\t\t{group = "flail_common", chance = 500000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 3500000},\n\t\t\t\t{group = "wearables_all", chance = 3000000},\n\t\t\t\t{group = "rifles", chance = 2000000},\n\t\t\t\t{group = "color_crystals", chance = 1000000},\n\t\t\t\t{group = "flail_common", chance = 500000}\n\t\t\t}', '{group = "flail_common", chance = 500000}')]</t>
         </is>
       </c>
     </row>
@@ -910,12 +910,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\corellia\flail_cutthroat.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\corellia\flail_butcher.lua</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = \n\t\t\t{\n\t\t\t\t{group = "eta1_cockpit_group", chance = 10000000},\n\t\t\t},\n\t\t\tlootChance = 8 * (100000), \n\t\t}', '{\n\t\t\t\t{group = "eta1_cockpit_group", chance = 10000000},\n\t\t\t}', '{group = "eta1_cockpit_group", chance = 10000000}')]</t>
+          <t>[('{\n\t\t\tgroups = \n\t\t\t{\n\t\t\t\t{group = "eta1_cockpit_group", chance = 10000000},\n\t\t\t},\n\t\t\tlootChance = 9 * (100000), \n\t\t}', '{\n\t\t\t\t{group = "eta1_cockpit_group", chance = 10000000},\n\t\t\t}', '{group = "eta1_cockpit_group", chance = 10000000}')]</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -930,7 +930,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\corellia\flail_enforcer.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\corellia\flail_cutthroat.lua</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -950,7 +950,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\corellia\flail_executioner.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\corellia\flail_enforcer.lua</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -970,7 +970,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\corellia\flail_killer.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\corellia\flail_executioner.lua</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -990,7 +990,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\corellia\flail_slayer.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\corellia\flail_killer.lua</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1010,17 +1010,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\corellia\grecks_smuggler.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\corellia\flail_slayer.lua</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups =\n\t\t\t{\n\t\t\t\t{group = "slicing_station_group", chance = 100 * (100000)}\n\t\t\t},\n\t\t\tlootChance = 3 * (100000)\n\t\t}', '{\n\t\t\t\t{group = "slicing_station_group", chance = 100 * (100000)}\n\t\t\t}', '{group = "slicing_station_group", chance = 100 * (100000)}')]</t>
+          <t>[('{\n\t\t\tgroups = \n\t\t\t{\n\t\t\t\t{group = "eta1_cockpit_group", chance = 10000000},\n\t\t\t},\n\t\t\tlootChance = 8 * (100000), \n\t\t}', '{\n\t\t\t\t{group = "eta1_cockpit_group", chance = 10000000},\n\t\t\t}', '{group = "eta1_cockpit_group", chance = 10000000}')]</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 7000000},\n\t\t\t\t{group = "loot_kit_parts", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 1000000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 7000000},\n\t\t\t\t{group = "loot_kit_parts", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 1000000}\n\t\t\t}', '{group = "tailor_components", chance = 1000000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 3500000},\n\t\t\t\t{group = "wearables_common", chance = 3000000},\n\t\t\t\t{group = "rifles", chance = 2000000},\n\t\t\t\t{group = "color_crystals", chance = 1000000},\n\t\t\t\t{group = "flail_common", chance = 500000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 3500000},\n\t\t\t\t{group = "wearables_common", chance = 3000000},\n\t\t\t\t{group = "rifles", chance = 2000000},\n\t\t\t\t{group = "color_crystals", chance = 1000000},\n\t\t\t\t{group = "flail_common", chance = 500000}\n\t\t\t}', '{group = "flail_common", chance = 500000}')]</t>
         </is>
       </c>
     </row>
@@ -1030,17 +1030,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\corellia\hidden_daggers_leader.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\corellia\grecks_smuggler.lua</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 2300000},\n\t\t\t\t{group = "loot_kit_parts", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 1000000},\n\t\t\t\t{group = "hidden_dagger_common", chance = 2200000},\n\t\t\t\t{group = "wearables_all", chance = 1000000},\n\t\t\t\t{group = "art_illum6", chance = 1500000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 2300000},\n\t\t\t\t{group = "loot_kit_parts", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 1000000},\n\t\t\t\t{group = "hidden_dagger_common", chance = 2200000},\n\t\t\t\t{group = "wearables_all", chance = 1000000},\n\t\t\t\t{group = "art_illum6", chance = 1500000}\n\t\t\t}', '{group = "art_illum6", chance = 1500000}')]</t>
+          <t>[('{\n\t\t\tgroups =\n\t\t\t{\n\t\t\t\t{group = "slicing_station_group", chance = 100 * (100000)}\n\t\t\t},\n\t\t\tlootChance = 3 * (100000)\n\t\t}', '{\n\t\t\t\t{group = "slicing_station_group", chance = 100 * (100000)}\n\t\t\t}', '{group = "slicing_station_group", chance = 100 * (100000)}')]</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 3300000},\n\t\t\t\t{group = "loot_kit_parts", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 1000000},\n\t\t\t\t{group = "hidden_dagger_common", chance = 2700000},\n\t\t\t\t{group = "wearables_all", chance = 1000000},\n\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 3300000},\n\t\t\t\t{group = "loot_kit_parts", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 1000000},\n\t\t\t\t{group = "hidden_dagger_common", chance = 2700000},\n\t\t\t\t{group = "wearables_all", chance = 1000000},\n\n\t\t\t}', '{group = "wearables_all", chance = 1000000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 7000000},\n\t\t\t\t{group = "loot_kit_parts", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 1000000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 7000000},\n\t\t\t\t{group = "loot_kit_parts", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 1000000}\n\t\t\t}', '{group = "tailor_components", chance = 1000000}')]</t>
         </is>
       </c>
     </row>
@@ -1050,17 +1050,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\corellia\hidden_daggers_lieutenant.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\corellia\hidden_daggers_leader.lua</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 4000000},\n\t\t\t\t{group = "loot_kit_parts", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 1000000},\n\t\t\t\t{group = "hidden_dagger_common", chance = 2100000},\n\t\t\t\t{group = "art_illum7", chance = 900000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 4000000},\n\t\t\t\t{group = "loot_kit_parts", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 1000000},\n\t\t\t\t{group = "hidden_dagger_common", chance = 2100000},\n\t\t\t\t{group = "art_illum7", chance = 900000}\n\t\t\t}', '{group = "art_illum7", chance = 900000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 2300000},\n\t\t\t\t{group = "loot_kit_parts", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 1000000},\n\t\t\t\t{group = "hidden_dagger_common", chance = 2200000},\n\t\t\t\t{group = "wearables_all", chance = 1000000},\n\t\t\t\t{group = "art_illum6", chance = 1500000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 2300000},\n\t\t\t\t{group = "loot_kit_parts", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 1000000},\n\t\t\t\t{group = "hidden_dagger_common", chance = 2200000},\n\t\t\t\t{group = "wearables_all", chance = 1000000},\n\t\t\t\t{group = "art_illum6", chance = 1500000}\n\t\t\t}', '{group = "art_illum6", chance = 1500000}')]</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 4300000},\n\t\t\t\t{group = "loot_kit_parts", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 1000000},\n\t\t\t\t{group = "hidden_dagger_common", chance = 2700000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 4300000},\n\t\t\t\t{group = "loot_kit_parts", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 1000000},\n\t\t\t\t{group = "hidden_dagger_common", chance = 2700000}\n\t\t\t}', '{group = "hidden_dagger_common", chance = 2700000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 3300000},\n\t\t\t\t{group = "loot_kit_parts", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 1000000},\n\t\t\t\t{group = "hidden_dagger_common", chance = 2700000},\n\t\t\t\t{group = "wearables_all", chance = 1000000},\n\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 3300000},\n\t\t\t\t{group = "loot_kit_parts", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 1000000},\n\t\t\t\t{group = "hidden_dagger_common", chance = 2700000},\n\t\t\t\t{group = "wearables_all", chance = 1000000},\n\n\t\t\t}', '{group = "wearables_all", chance = 1000000}')]</t>
         </is>
       </c>
     </row>
@@ -1070,17 +1070,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\corellia\lord_nyax.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\corellia\hidden_daggers_lieutenant.lua</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>[('{\n\t    \t\tgroups =\n\t\t\t{\n\t\t\t\t{group = "veteran_rewards_810_days", chance = 10000000},\n\t\t\t},\n\t\t\tlootChance = 1000000,\n\t\t}', '{\n\t\t\t\t{group = "veteran_rewards_810_days", chance = 10000000},\n\t\t\t}', '{group = "veteran_rewards_810_days", chance = 10000000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 4000000},\n\t\t\t\t{group = "loot_kit_parts", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 1000000},\n\t\t\t\t{group = "hidden_dagger_common", chance = 2100000},\n\t\t\t\t{group = "art_illum7", chance = 900000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 4000000},\n\t\t\t\t{group = "loot_kit_parts", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 1000000},\n\t\t\t\t{group = "hidden_dagger_common", chance = 2100000},\n\t\t\t\t{group = "art_illum7", chance = 900000}\n\t\t\t}', '{group = "art_illum7", chance = 900000}')]</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>[('{\n\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 4000000},\n\t\t\t\t{group = "nyax", chance = 3000000},\n\t\t\t\t{group = "grenades_looted", chance = 1000000},\n\t\t\t\t{group = "armor_attachments", chance = 1000000},\n\t\t\t\t{group = "clothing_attachments", chance = 1000000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 4000000},\n\t\t\t\t{group = "nyax", chance = 3000000},\n\t\t\t\t{group = "grenades_looted", chance = 1000000},\n\t\t\t\t{group = "armor_attachments", chance = 1000000},\n\t\t\t\t{group = "clothing_attachments", chance = 1000000}\n\t\t\t}', '{group = "clothing_attachments", chance = 1000000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 4300000},\n\t\t\t\t{group = "loot_kit_parts", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 1000000},\n\t\t\t\t{group = "hidden_dagger_common", chance = 2700000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 4300000},\n\t\t\t\t{group = "loot_kit_parts", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 1000000},\n\t\t\t\t{group = "hidden_dagger_common", chance = 2700000}\n\t\t\t}', '{group = "hidden_dagger_common", chance = 2700000}')]</t>
         </is>
       </c>
     </row>
@@ -1090,17 +1090,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\corellia\meatlump_buffoon.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\corellia\lord_nyax.lua</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>[('{\n\tgroups = {\n\t\t{group = "junk", chance = 3000000},\n\t\t{group = "loot_kit_parts", chance = 1000000},\n\t\t--{group = "color_crystals", chance = 100000},\n\t\t{group = "tailor_components", chance = 500000},\n\t\t{group = "meatlump_common", chance = 2500000},\n\t\t--{group = "armor_attachments", chance = 5000000},\n\t\t{group = "clothing_attachments", chance = 500000},\n\t\t\t\t{group = "art_illum21", chance = 2500000}\n\t}\n}', '{\n\t\t{group = "junk", chance = 3000000},\n\t\t{group = "loot_kit_parts", chance = 1000000},\n\t\t--{group = "color_crystals", chance = 100000},\n\t\t{group = "tailor_components", chance = 500000},\n\t\t{group = "meatlump_common", chance = 2500000},\n\t\t--{group = "armor_attachments", chance = 5000000},\n\t\t{group = "clothing_attachments", chance = 500000},\n\t\t\t\t{group = "art_illum21", chance = 2500000}\n\t}', '{group = "art_illum21", chance = 2500000}')]</t>
+          <t>[('{\n\t    \t\tgroups =\n\t\t\t{\n\t\t\t\t{group = "veteran_rewards_810_days", chance = 10000000},\n\t\t\t},\n\t\t\tlootChance = 1000000,\n\t\t}', '{\n\t\t\t\t{group = "veteran_rewards_810_days", chance = 10000000},\n\t\t\t}', '{group = "veteran_rewards_810_days", chance = 10000000}')]</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 2900000},\n\t\t\t\t{group = "loot_kit_parts", chance = 1500000},\n\t\t\t\t{group = "color_crystals", chance = 100000},\n\t\t\t\t{group = "tailor_components", chance = 500000},\n\t\t\t\t{group = "meatlump_common", chance = 5000000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 2900000},\n\t\t\t\t{group = "loot_kit_parts", chance = 1500000},\n\t\t\t\t{group = "color_crystals", chance = 100000},\n\t\t\t\t{group = "tailor_components", chance = 500000},\n\t\t\t\t{group = "meatlump_common", chance = 5000000}\n\t\t\t}', '{group = "meatlump_common", chance = 5000000}')]</t>
+          <t>[('{\n\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 4000000},\n\t\t\t\t{group = "nyax", chance = 3000000},\n\t\t\t\t{group = "grenades_looted", chance = 1000000},\n\t\t\t\t{group = "armor_attachments", chance = 1000000},\n\t\t\t\t{group = "clothing_attachments", chance = 1000000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 4000000},\n\t\t\t\t{group = "nyax", chance = 3000000},\n\t\t\t\t{group = "grenades_looted", chance = 1000000},\n\t\t\t\t{group = "armor_attachments", chance = 1000000},\n\t\t\t\t{group = "clothing_attachments", chance = 1000000}\n\t\t\t}', '{group = "clothing_attachments", chance = 1000000}')]</t>
         </is>
       </c>
     </row>
@@ -1110,12 +1110,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\corellia\meatlump_clod.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\corellia\meatlump_buffoon.lua</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>[('{\n\tgroups = {\n\t\t{group = "junk", chance = 4000000},\n\t\t{group = "loot_kit_parts", chance = 1000000},\n\t\t--{group = "color_crystals", chance = 100000},\n\t\t{group = "tailor_components", chance = 500000},\n\t\t{group = "meatlump_common", chance = 3500000},\n\t\t--{group = "armor_attachments", chance = 5000000},\n\t\t{group = "clothing_attachments", chance = 500000},\n\t\t\t\t{group = "art_illum21", chance = 500000}\n\t}\n}', '{\n\t\t{group = "junk", chance = 4000000},\n\t\t{group = "loot_kit_parts", chance = 1000000},\n\t\t--{group = "color_crystals", chance = 100000},\n\t\t{group = "tailor_components", chance = 500000},\n\t\t{group = "meatlump_common", chance = 3500000},\n\t\t--{group = "armor_attachments", chance = 5000000},\n\t\t{group = "clothing_attachments", chance = 500000},\n\t\t\t\t{group = "art_illum21", chance = 500000}\n\t}', '{group = "art_illum21", chance = 500000}')]</t>
+          <t>[('{\n\tgroups = {\n\t\t{group = "junk", chance = 3000000},\n\t\t{group = "loot_kit_parts", chance = 1000000},\n\t\t--{group = "color_crystals", chance = 100000},\n\t\t{group = "tailor_components", chance = 500000},\n\t\t{group = "meatlump_common", chance = 2500000},\n\t\t--{group = "armor_attachments", chance = 5000000},\n\t\t{group = "clothing_attachments", chance = 500000},\n\t\t\t\t{group = "art_illum21", chance = 2500000}\n\t}\n}', '{\n\t\t{group = "junk", chance = 3000000},\n\t\t{group = "loot_kit_parts", chance = 1000000},\n\t\t--{group = "color_crystals", chance = 100000},\n\t\t{group = "tailor_components", chance = 500000},\n\t\t{group = "meatlump_common", chance = 2500000},\n\t\t--{group = "armor_attachments", chance = 5000000},\n\t\t{group = "clothing_attachments", chance = 500000},\n\t\t\t\t{group = "art_illum21", chance = 2500000}\n\t}', '{group = "art_illum21", chance = 2500000}')]</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1130,12 +1130,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\corellia\meatlump_cretin.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\corellia\meatlump_clod.lua</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>[('{\n\tgroups = {\n\t\t{group = "junk", chance = 4500000},\n\t\t{group = "loot_kit_parts", chance = 1000000},\n\t\t--{group = "color_crystals", chance = 100000},\n\t\t{group = "tailor_components", chance = 500000},\n\t\t{group = "meatlump_common", chance = 3500000},\n\t\t--{group = "armor_attachments", chance = 5000000},\n\t\t{group = "clothing_attachments", chance = 500000},\n\t}\n}', '{\n\t\t{group = "junk", chance = 4500000},\n\t\t{group = "loot_kit_parts", chance = 1000000},\n\t\t--{group = "color_crystals", chance = 100000},\n\t\t{group = "tailor_components", chance = 500000},\n\t\t{group = "meatlump_common", chance = 3500000},\n\t\t--{group = "armor_attachments", chance = 5000000},\n\t\t{group = "clothing_attachments", chance = 500000},\n\t}', '{group = "clothing_attachments", chance = 500000}')]</t>
+          <t>[('{\n\tgroups = {\n\t\t{group = "junk", chance = 4000000},\n\t\t{group = "loot_kit_parts", chance = 1000000},\n\t\t--{group = "color_crystals", chance = 100000},\n\t\t{group = "tailor_components", chance = 500000},\n\t\t{group = "meatlump_common", chance = 3500000},\n\t\t--{group = "armor_attachments", chance = 5000000},\n\t\t{group = "clothing_attachments", chance = 500000},\n\t\t\t\t{group = "art_illum21", chance = 500000}\n\t}\n}', '{\n\t\t{group = "junk", chance = 4000000},\n\t\t{group = "loot_kit_parts", chance = 1000000},\n\t\t--{group = "color_crystals", chance = 100000},\n\t\t{group = "tailor_components", chance = 500000},\n\t\t{group = "meatlump_common", chance = 3500000},\n\t\t--{group = "armor_attachments", chance = 5000000},\n\t\t{group = "clothing_attachments", chance = 500000},\n\t\t\t\t{group = "art_illum21", chance = 500000}\n\t}', '{group = "art_illum21", chance = 500000}')]</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1150,12 +1150,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\corellia\meatlump_fool.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\corellia\meatlump_cretin.lua</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>[('{\n\tgroups = {\n\t\t{group = "junk", chance = 3000000},\n\t\t{group = "loot_kit_parts", chance = 1000000},\n\t\t--{group = "color_crystals", chance = 100000},\n\t\t{group = "tailor_components", chance = 500000},\n\t\t{group = "meatlump_common", chance = 3500000},\n\t\t--{group = "armor_attachments", chance = 5000000},\n\t\t{group = "clothing_attachments", chance = 500000},\n\t\t\t\t{group = "art_illum21", chance = 1500000}\n\t}\n}', '{\n\t\t{group = "junk", chance = 3000000},\n\t\t{group = "loot_kit_parts", chance = 1000000},\n\t\t--{group = "color_crystals", chance = 100000},\n\t\t{group = "tailor_components", chance = 500000},\n\t\t{group = "meatlump_common", chance = 3500000},\n\t\t--{group = "armor_attachments", chance = 5000000},\n\t\t{group = "clothing_attachments", chance = 500000},\n\t\t\t\t{group = "art_illum21", chance = 1500000}\n\t}', '{group = "art_illum21", chance = 1500000}')]</t>
+          <t>[('{\n\tgroups = {\n\t\t{group = "junk", chance = 4500000},\n\t\t{group = "loot_kit_parts", chance = 1000000},\n\t\t--{group = "color_crystals", chance = 100000},\n\t\t{group = "tailor_components", chance = 500000},\n\t\t{group = "meatlump_common", chance = 3500000},\n\t\t--{group = "armor_attachments", chance = 5000000},\n\t\t{group = "clothing_attachments", chance = 500000},\n\t}\n}', '{\n\t\t{group = "junk", chance = 4500000},\n\t\t{group = "loot_kit_parts", chance = 1000000},\n\t\t--{group = "color_crystals", chance = 100000},\n\t\t{group = "tailor_components", chance = 500000},\n\t\t{group = "meatlump_common", chance = 3500000},\n\t\t--{group = "armor_attachments", chance = 5000000},\n\t\t{group = "clothing_attachments", chance = 500000},\n\t}', '{group = "clothing_attachments", chance = 500000}')]</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1170,12 +1170,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\corellia\meatlump_loon.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\corellia\meatlump_fool.lua</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>[('{\n\tgroups = {\n\t\t{group = "junk", chance = 4500000},\n\t\t{group = "loot_kit_parts", chance = 1000000},\n\t\t--{group = "color_crystals", chance = 100000},\n\t\t{group = "tailor_components", chance = 500000},\n\t\t{group = "meatlump_common", chance = 3500000},\n\t\t--{group = "armor_attachments", chance = 5000000},\n\t\t{group = "clothing_attachments", chance = 500000},\n\t}\n}', '{\n\t\t{group = "junk", chance = 4500000},\n\t\t{group = "loot_kit_parts", chance = 1000000},\n\t\t--{group = "color_crystals", chance = 100000},\n\t\t{group = "tailor_components", chance = 500000},\n\t\t{group = "meatlump_common", chance = 3500000},\n\t\t--{group = "armor_attachments", chance = 5000000},\n\t\t{group = "clothing_attachments", chance = 500000},\n\t}', '{group = "clothing_attachments", chance = 500000}')]</t>
+          <t>[('{\n\tgroups = {\n\t\t{group = "junk", chance = 3000000},\n\t\t{group = "loot_kit_parts", chance = 1000000},\n\t\t--{group = "color_crystals", chance = 100000},\n\t\t{group = "tailor_components", chance = 500000},\n\t\t{group = "meatlump_common", chance = 3500000},\n\t\t--{group = "armor_attachments", chance = 5000000},\n\t\t{group = "clothing_attachments", chance = 500000},\n\t\t\t\t{group = "art_illum21", chance = 1500000}\n\t}\n}', '{\n\t\t{group = "junk", chance = 3000000},\n\t\t{group = "loot_kit_parts", chance = 1000000},\n\t\t--{group = "color_crystals", chance = 100000},\n\t\t{group = "tailor_components", chance = 500000},\n\t\t{group = "meatlump_common", chance = 3500000},\n\t\t--{group = "armor_attachments", chance = 5000000},\n\t\t{group = "clothing_attachments", chance = 500000},\n\t\t\t\t{group = "art_illum21", chance = 1500000}\n\t}', '{group = "art_illum21", chance = 1500000}')]</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1190,7 +1190,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\corellia\meatlump_oaf.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\corellia\meatlump_loon.lua</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1210,12 +1210,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\corellia\meatlump_stooge.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\corellia\meatlump_oaf.lua</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>[('{\n\t\tgroups = {\n\t\t\t{group = "junk", chance = 4500000},\n\t\t\t{group = "loot_kit_parts", chance = 1000000},\n\t\t\t--{group = "color_crystals", chance = 100000},\n\t\t\t{group = "tailor_components", chance = 500000},\n\t\t\t{group = "meatlump_common", chance = 3500000},\n\t\t\t--{group = "armor_attachments", chance = 5000000},\n\t\t\t{group = "clothing_attachments", chance = 500000},\n\t\t}\n\t}', '{\n\t\t\t{group = "junk", chance = 4500000},\n\t\t\t{group = "loot_kit_parts", chance = 1000000},\n\t\t\t--{group = "color_crystals", chance = 100000},\n\t\t\t{group = "tailor_components", chance = 500000},\n\t\t\t{group = "meatlump_common", chance = 3500000},\n\t\t\t--{group = "armor_attachments", chance = 5000000},\n\t\t\t{group = "clothing_attachments", chance = 500000},\n\t\t}', '{group = "clothing_attachments", chance = 500000}')]</t>
+          <t>[('{\n\tgroups = {\n\t\t{group = "junk", chance = 4500000},\n\t\t{group = "loot_kit_parts", chance = 1000000},\n\t\t--{group = "color_crystals", chance = 100000},\n\t\t{group = "tailor_components", chance = 500000},\n\t\t{group = "meatlump_common", chance = 3500000},\n\t\t--{group = "armor_attachments", chance = 5000000},\n\t\t{group = "clothing_attachments", chance = 500000},\n\t}\n}', '{\n\t\t{group = "junk", chance = 4500000},\n\t\t{group = "loot_kit_parts", chance = 1000000},\n\t\t--{group = "color_crystals", chance = 100000},\n\t\t{group = "tailor_components", chance = 500000},\n\t\t{group = "meatlump_common", chance = 3500000},\n\t\t--{group = "armor_attachments", chance = 5000000},\n\t\t{group = "clothing_attachments", chance = 500000},\n\t}', '{group = "clothing_attachments", chance = 500000}')]</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1230,17 +1230,17 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\corellia\monumenter_marauder.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\corellia\meatlump_stooge.lua</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 3500000},\n\t\t\t\t{group = "wearables_common", chance = 2000000},\n\t\t\t\t{group = "rifles", chance = 1000000},\n\t\t\t\t{group = "pistols", chance = 1000000},\n\t\t\t\t{group = "melee_weapons", chance = 1000000},\n\t\t\t\t{group = "carbines", chance = 500000 },\n\t\t\t\t{group = "art_illum23", chance = 1000000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 3500000},\n\t\t\t\t{group = "wearables_common", chance = 2000000},\n\t\t\t\t{group = "rifles", chance = 1000000},\n\t\t\t\t{group = "pistols", chance = 1000000},\n\t\t\t\t{group = "melee_weapons", chance = 1000000},\n\t\t\t\t{group = "carbines", chance = 500000 },\n\t\t\t\t{group = "art_illum23", chance = 1000000}\n\t\t\t}', '{group = "art_illum23", chance = 1000000}')]</t>
+          <t>[('{\n\t\tgroups = {\n\t\t\t{group = "junk", chance = 4500000},\n\t\t\t{group = "loot_kit_parts", chance = 1000000},\n\t\t\t--{group = "color_crystals", chance = 100000},\n\t\t\t{group = "tailor_components", chance = 500000},\n\t\t\t{group = "meatlump_common", chance = 3500000},\n\t\t\t--{group = "armor_attachments", chance = 5000000},\n\t\t\t{group = "clothing_attachments", chance = 500000},\n\t\t}\n\t}', '{\n\t\t\t{group = "junk", chance = 4500000},\n\t\t\t{group = "loot_kit_parts", chance = 1000000},\n\t\t\t--{group = "color_crystals", chance = 100000},\n\t\t\t{group = "tailor_components", chance = 500000},\n\t\t\t{group = "meatlump_common", chance = 3500000},\n\t\t\t--{group = "armor_attachments", chance = 5000000},\n\t\t\t{group = "clothing_attachments", chance = 500000},\n\t\t}', '{group = "clothing_attachments", chance = 500000}')]</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 4000000},\n\t\t\t\t{group = "wearables_common", chance = 2000000},\n\t\t\t\t{group = "rifles", chance = 1000000},\n\t\t\t\t{group = "pistols", chance = 1000000},\n\t\t\t\t{group = "melee_weapons", chance = 1000000},\n\t\t\t\t{group = "carbines", chance = 1000000},\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 4000000},\n\t\t\t\t{group = "wearables_common", chance = 2000000},\n\t\t\t\t{group = "rifles", chance = 1000000},\n\t\t\t\t{group = "pistols", chance = 1000000},\n\t\t\t\t{group = "melee_weapons", chance = 1000000},\n\t\t\t\t{group = "carbines", chance = 1000000},\n\t\t\t}', '{group = "carbines", chance = 1000000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 2900000},\n\t\t\t\t{group = "loot_kit_parts", chance = 1500000},\n\t\t\t\t{group = "color_crystals", chance = 100000},\n\t\t\t\t{group = "tailor_components", chance = 500000},\n\t\t\t\t{group = "meatlump_common", chance = 5000000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 2900000},\n\t\t\t\t{group = "loot_kit_parts", chance = 1500000},\n\t\t\t\t{group = "color_crystals", chance = 100000},\n\t\t\t\t{group = "tailor_components", chance = 500000},\n\t\t\t\t{group = "meatlump_common", chance = 5000000}\n\t\t\t}', '{group = "meatlump_common", chance = 5000000}')]</t>
         </is>
       </c>
     </row>
@@ -1250,12 +1250,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\corellia\monumenter_smuggler.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\corellia\monumenter_marauder.lua</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "slicing_station_group", chance = 100 * (100000)}\n\t\t\t},\n\t\t\tlootChance = 4 * (100000)\n\t\t}', '{\n\t\t\t\t{group = "slicing_station_group", chance = 100 * (100000)}\n\t\t\t}', '{group = "slicing_station_group", chance = 100 * (100000)}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 3500000},\n\t\t\t\t{group = "wearables_common", chance = 2000000},\n\t\t\t\t{group = "rifles", chance = 1000000},\n\t\t\t\t{group = "pistols", chance = 1000000},\n\t\t\t\t{group = "melee_weapons", chance = 1000000},\n\t\t\t\t{group = "carbines", chance = 500000 },\n\t\t\t\t{group = "art_illum23", chance = 1000000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 3500000},\n\t\t\t\t{group = "wearables_common", chance = 2000000},\n\t\t\t\t{group = "rifles", chance = 1000000},\n\t\t\t\t{group = "pistols", chance = 1000000},\n\t\t\t\t{group = "melee_weapons", chance = 1000000},\n\t\t\t\t{group = "carbines", chance = 500000 },\n\t\t\t\t{group = "art_illum23", chance = 1000000}\n\t\t\t}', '{group = "art_illum23", chance = 1000000}')]</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1270,17 +1270,17 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\corellia\ragtag_mercenary.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\corellia\monumenter_smuggler.lua</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 2000000},\n\t\t\t\t{group = "wearables_common", chance = 3000000},\n\t\t\t\t{group = "loot_kit_parts", chance = 1500000},\n\t\t\t\t{group = "power_crystals", chance = 500000},\n\t\t\t\t{group = "tailor_components", chance = 1000000},\n\t\t\t\t{group = "art_illum21", chance = 2000000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 2000000},\n\t\t\t\t{group = "wearables_common", chance = 3000000},\n\t\t\t\t{group = "loot_kit_parts", chance = 1500000},\n\t\t\t\t{group = "power_crystals", chance = 500000},\n\t\t\t\t{group = "tailor_components", chance = 1000000},\n\t\t\t\t{group = "art_illum21", chance = 2000000}\n\t\t\t}', '{group = "art_illum21", chance = 2000000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "slicing_station_group", chance = 100 * (100000)}\n\t\t\t},\n\t\t\tlootChance = 4 * (100000)\n\t\t}', '{\n\t\t\t\t{group = "slicing_station_group", chance = 100 * (100000)}\n\t\t\t}', '{group = "slicing_station_group", chance = 100 * (100000)}')]</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 4000000},\n\t\t\t\t{group = "wearables_common", chance = 3000000},\n\t\t\t\t{group = "loot_kit_parts", chance = 1500000},\n\t\t\t\t{group = "power_crystals", chance = 500000},\n\t\t\t\t{group = "tailor_components", chance = 1000000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 4000000},\n\t\t\t\t{group = "wearables_common", chance = 3000000},\n\t\t\t\t{group = "loot_kit_parts", chance = 1500000},\n\t\t\t\t{group = "power_crystals", chance = 500000},\n\t\t\t\t{group = "tailor_components", chance = 1000000}\n\t\t\t}', '{group = "tailor_components", chance = 1000000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 4000000},\n\t\t\t\t{group = "wearables_common", chance = 2000000},\n\t\t\t\t{group = "rifles", chance = 1000000},\n\t\t\t\t{group = "pistols", chance = 1000000},\n\t\t\t\t{group = "melee_weapons", chance = 1000000},\n\t\t\t\t{group = "carbines", chance = 1000000},\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 4000000},\n\t\t\t\t{group = "wearables_common", chance = 2000000},\n\t\t\t\t{group = "rifles", chance = 1000000},\n\t\t\t\t{group = "pistols", chance = 1000000},\n\t\t\t\t{group = "melee_weapons", chance = 1000000},\n\t\t\t\t{group = "carbines", chance = 1000000},\n\t\t\t}', '{group = "carbines", chance = 1000000}')]</t>
         </is>
       </c>
     </row>
@@ -1290,17 +1290,17 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\corellia\swooper_leader.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\corellia\ragtag_mercenary.lua</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 3300000},\n\t\t\t\t{group = "loot_kit_parts", chance = 500000},\n\t\t\t\t{group = "tailor_components", chance = 1500000},\n\t\t\t\t{group = "printer_parts", chance = 1000000},\n\t\t\t\t{group = "swooper_common", chance = 2000000},\n\t\t\t\t{group = "art_illum16", chance = 1700000 }\n\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 3300000},\n\t\t\t\t{group = "loot_kit_parts", chance = 500000},\n\t\t\t\t{group = "tailor_components", chance = 1500000},\n\t\t\t\t{group = "printer_parts", chance = 1000000},\n\t\t\t\t{group = "swooper_common", chance = 2000000},\n\t\t\t\t{group = "art_illum16", chance = 1700000 }\n\n\t\t\t}', '{group = "art_illum16", chance = 1700000 }')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 2000000},\n\t\t\t\t{group = "wearables_common", chance = 3000000},\n\t\t\t\t{group = "loot_kit_parts", chance = 1500000},\n\t\t\t\t{group = "power_crystals", chance = 500000},\n\t\t\t\t{group = "tailor_components", chance = 1000000},\n\t\t\t\t{group = "art_illum21", chance = 2000000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 2000000},\n\t\t\t\t{group = "wearables_common", chance = 3000000},\n\t\t\t\t{group = "loot_kit_parts", chance = 1500000},\n\t\t\t\t{group = "power_crystals", chance = 500000},\n\t\t\t\t{group = "tailor_components", chance = 1000000},\n\t\t\t\t{group = "art_illum21", chance = 2000000}\n\t\t\t}', '{group = "art_illum21", chance = 2000000}')]</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 3500000},\n\t\t\t\t{group = "loot_kit_parts", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 1500000},\n\t\t\t\t{group = "printer_parts", chance = 1000000},\n\t\t\t\t{group = "swooper_common", chance = 2000000}\n\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 3500000},\n\t\t\t\t{group = "loot_kit_parts", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 1500000},\n\t\t\t\t{group = "printer_parts", chance = 1000000},\n\t\t\t\t{group = "swooper_common", chance = 2000000}\n\n\t\t\t}', '{group = "swooper_common", chance = 2000000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 4000000},\n\t\t\t\t{group = "wearables_common", chance = 3000000},\n\t\t\t\t{group = "loot_kit_parts", chance = 1500000},\n\t\t\t\t{group = "power_crystals", chance = 500000},\n\t\t\t\t{group = "tailor_components", chance = 1000000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 4000000},\n\t\t\t\t{group = "wearables_common", chance = 3000000},\n\t\t\t\t{group = "loot_kit_parts", chance = 1500000},\n\t\t\t\t{group = "power_crystals", chance = 500000},\n\t\t\t\t{group = "tailor_components", chance = 1000000}\n\t\t\t}', '{group = "tailor_components", chance = 1000000}')]</t>
         </is>
       </c>
     </row>
@@ -1310,17 +1310,17 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\corellia\zealot_of_lord_nyax.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\corellia\swooper_leader.lua</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "combat_practice", chance = 100 * (100000)}\n\t\t\t},\n\t\t\tlootChance = 25 * (100000)\n\t\t}', '{\n\t\t\t\t{group = "combat_practice", chance = 100 * (100000)}\n\t\t\t}', '{group = "combat_practice", chance = 100 * (100000)}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 3300000},\n\t\t\t\t{group = "loot_kit_parts", chance = 500000},\n\t\t\t\t{group = "tailor_components", chance = 1500000},\n\t\t\t\t{group = "printer_parts", chance = 1000000},\n\t\t\t\t{group = "swooper_common", chance = 2000000},\n\t\t\t\t{group = "art_illum16", chance = 1700000 }\n\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 3300000},\n\t\t\t\t{group = "loot_kit_parts", chance = 500000},\n\t\t\t\t{group = "tailor_components", chance = 1500000},\n\t\t\t\t{group = "printer_parts", chance = 1000000},\n\t\t\t\t{group = "swooper_common", chance = 2000000},\n\t\t\t\t{group = "art_illum16", chance = 1700000 }\n\n\t\t\t}', '{group = "art_illum16", chance = 1700000 }')]</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 7000000},\n\t\t\t\t{group = "pistols", chance = 1000000},\n\t\t\t\t{group = "rifles", chance = 1000000},\n\t\t\t\t{group = "carbines", chance = 1000000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 7000000},\n\t\t\t\t{group = "pistols", chance = 1000000},\n\t\t\t\t{group = "rifles", chance = 1000000},\n\t\t\t\t{group = "carbines", chance = 1000000}\n\t\t\t}', '{group = "carbines", chance = 1000000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 3500000},\n\t\t\t\t{group = "loot_kit_parts", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 1500000},\n\t\t\t\t{group = "printer_parts", chance = 1000000},\n\t\t\t\t{group = "swooper_common", chance = 2000000}\n\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 3500000},\n\t\t\t\t{group = "loot_kit_parts", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 1500000},\n\t\t\t\t{group = "printer_parts", chance = 1000000},\n\t\t\t\t{group = "swooper_common", chance = 2000000}\n\n\t\t\t}', '{group = "swooper_common", chance = 2000000}')]</t>
         </is>
       </c>
     </row>
@@ -1330,17 +1330,17 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\binayre_hooligan.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\corellia\zealot_of_lord_nyax.lua</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "pelgo_red", chance = 100 * (100000)},\n\t\t\t},\n\t\t\tlootChance = 3 * (100000)\n\t\t}', '{\n\t\t\t\t{group = "pelgo_red", chance = 100 * (100000)},\n\t\t\t}', '{group = "pelgo_red", chance = 100 * (100000)}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "combat_practice", chance = 100 * (100000)}\n\t\t\t},\n\t\t\tlootChance = 25 * (100000)\n\t\t}', '{\n\t\t\t\t{group = "combat_practice", chance = 100 * (100000)}\n\t\t\t}', '{group = "combat_practice", chance = 100 * (100000)}')]</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 2450000},\n\t\t\t\t{group = "tailor_components", chance = 1500000},\n\t\t\t\t{group = "loot_kit_parts", chance = 1500000},\n\t\t\t\t{group = "binayre_common", chance = 4550000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 2450000},\n\t\t\t\t{group = "tailor_components", chance = 1500000},\n\t\t\t\t{group = "loot_kit_parts", chance = 1500000},\n\t\t\t\t{group = "binayre_common", chance = 4550000}\n\t\t\t}', '{group = "binayre_common", chance = 4550000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 7000000},\n\t\t\t\t{group = "pistols", chance = 1000000},\n\t\t\t\t{group = "rifles", chance = 1000000},\n\t\t\t\t{group = "carbines", chance = 1000000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 7000000},\n\t\t\t\t{group = "pistols", chance = 1000000},\n\t\t\t\t{group = "rifles", chance = 1000000},\n\t\t\t\t{group = "carbines", chance = 1000000}\n\t\t\t}', '{group = "carbines", chance = 1000000}')]</t>
         </is>
       </c>
     </row>
@@ -1350,7 +1350,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\binayre_pirate.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\binayre_hooligan.lua</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1370,7 +1370,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\binayre_ruffian.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\binayre_pirate.lua</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1390,7 +1390,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\binayre_scalawag.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\binayre_ruffian.lua</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1410,17 +1410,17 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\binayre_smuggler.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\binayre_scalawag.lua</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "pelgo_red", chance = 100 * (100000)},\n\t\t\t},\n\t\t\tlootChance = 6 * (100000)\n\t\t}', '{\n\t\t\t\t{group = "pelgo_red", chance = 100 * (100000)},\n\t\t\t}', '{group = "pelgo_red", chance = 100 * (100000)}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "pelgo_red", chance = 100 * (100000)},\n\t\t\t},\n\t\t\tlootChance = 3 * (100000)\n\t\t}', '{\n\t\t\t\t{group = "pelgo_red", chance = 100 * (100000)},\n\t\t\t}', '{group = "pelgo_red", chance = 100 * (100000)}')]</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "art_illum25", chance = 10000000}\n\t\t\t},\n\t\t\tlootChance = 3500000\n\t\t}', '{\n\t\t\t\t{group = "art_illum25", chance = 10000000}\n\t\t\t}', '{group = "art_illum25", chance = 10000000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 2450000},\n\t\t\t\t{group = "tailor_components", chance = 1500000},\n\t\t\t\t{group = "loot_kit_parts", chance = 1500000},\n\t\t\t\t{group = "binayre_common", chance = 4550000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 2450000},\n\t\t\t\t{group = "tailor_components", chance = 1500000},\n\t\t\t\t{group = "loot_kit_parts", chance = 1500000},\n\t\t\t\t{group = "binayre_common", chance = 4550000}\n\t\t\t}', '{group = "binayre_common", chance = 4550000}')]</t>
         </is>
       </c>
     </row>
@@ -1430,7 +1430,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\binayre_swindler.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\binayre_smuggler.lua</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1440,7 +1440,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 1500000},\n\t\t\t\t{group = "loot_kit_parts", chance = 1500000},\n\t\t\t\t{group = "binayre_common", chance = 4550000},\n\t\t\t\t{group = "color_crystals", chance = 450000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 1500000},\n\t\t\t\t{group = "loot_kit_parts", chance = 1500000},\n\t\t\t\t{group = "binayre_common", chance = 4550000},\n\t\t\t\t{group = "color_crystals", chance = 450000}\n\t\t\t}', '{group = "color_crystals", chance = 450000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "art_illum25", chance = 10000000}\n\t\t\t},\n\t\t\tlootChance = 3500000\n\t\t}', '{\n\t\t\t\t{group = "art_illum25", chance = 10000000}\n\t\t\t}', '{group = "art_illum25", chance = 10000000}')]</t>
         </is>
       </c>
     </row>
@@ -1450,17 +1450,17 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\blister_rot_mite_queen.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\binayre_swindler.lua</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>[('', '', '')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "pelgo_red", chance = 100 * (100000)},\n\t\t\t},\n\t\t\tlootChance = 6 * (100000)\n\t\t}', '{\n\t\t\t\t{group = "pelgo_red", chance = 100 * (100000)},\n\t\t\t}', '{group = "pelgo_red", chance = 100 * (100000)}')]</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 1500000},\n\t\t\t\t{group = "loot_kit_parts", chance = 1500000},\n\t\t\t\t{group = "binayre_common", chance = 4550000},\n\t\t\t\t{group = "color_crystals", chance = 450000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 1500000},\n\t\t\t\t{group = "loot_kit_parts", chance = 1500000},\n\t\t\t\t{group = "binayre_common", chance = 4550000},\n\t\t\t\t{group = "color_crystals", chance = 450000}\n\t\t\t}', '{group = "color_crystals", chance = 450000}')]</t>
         </is>
       </c>
     </row>
@@ -1470,17 +1470,17 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\chunker_nitwit_b.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\blister_rot_mite_queen.lua</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\t\tgroups = {\n\t\t\t\t\t{group = "chunker_common",       chance = 20 * (100000)},\n\t\t\t\t\t{group = "junk",                 chance = 20 * (100000)},\n\t\t\t\t\t{group = "wearables_common",     chance = 20 * (100000)},\n\t\t\t\t\t{group = "tailor_components",    chance = 20 * (100000)},\n\t\t\t\t\t{group = "melee_knife",          chance = 20 * (100000)},\n\t\t\t\t},\n\t\t\t\tlootChance = 50 * (100000)\n\t\t\t}', '{\n\t\t\t\t\t{group = "chunker_common",       chance = 20 * (100000)},\n\t\t\t\t\t{group = "junk",                 chance = 20 * (100000)},\n\t\t\t\t\t{group = "wearables_common",     chance = 20 * (100000)},\n\t\t\t\t\t{group = "tailor_components",    chance = 20 * (100000)},\n\t\t\t\t\t{group = "melee_knife",          chance = 20 * (100000)},\n\t\t\t\t}', '{group = "melee_knife",          chance = 20 * (100000)}')]</t>
+          <t>[('', '', '')]</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "chunker_common",       chance = 20 * (100000)},\n\t\t\t\t{group = "junk",                 chance = 20 * (100000)},\n\t\t\t\t{group = "wearables_common",     chance = 20 * (100000)},\n\t\t\t\t{group = "tailor_components",    chance = 20 * (100000)},\n\t\t\t\t{group = "melee_knife",          chance = 20 * (100000)},\n\t\t\t},\n\t\t\tlootChance = 50 * (100000)\n\t\t}', '{\n\t\t\t\t{group = "chunker_common",       chance = 20 * (100000)},\n\t\t\t\t{group = "junk",                 chance = 20 * (100000)},\n\t\t\t\t{group = "wearables_common",     chance = 20 * (100000)},\n\t\t\t\t{group = "tailor_components",    chance = 20 * (100000)},\n\t\t\t\t{group = "melee_knife",          chance = 20 * (100000)},\n\t\t\t}', '{group = "melee_knife",          chance = 20 * (100000)}')]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1490,7 +1490,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\chunker_swindler_b.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\chunker_nitwit_b.lua</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1510,17 +1510,17 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\crazed_roba.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\chunker_swindler_b.lua</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>[('', '', '')]</t>
+          <t>[('{\n\t\t\t\tgroups = {\n\t\t\t\t\t{group = "chunker_common",       chance = 20 * (100000)},\n\t\t\t\t\t{group = "junk",                 chance = 20 * (100000)},\n\t\t\t\t\t{group = "wearables_common",     chance = 20 * (100000)},\n\t\t\t\t\t{group = "tailor_components",    chance = 20 * (100000)},\n\t\t\t\t\t{group = "melee_knife",          chance = 20 * (100000)},\n\t\t\t\t},\n\t\t\t\tlootChance = 50 * (100000)\n\t\t\t}', '{\n\t\t\t\t\t{group = "chunker_common",       chance = 20 * (100000)},\n\t\t\t\t\t{group = "junk",                 chance = 20 * (100000)},\n\t\t\t\t\t{group = "wearables_common",     chance = 20 * (100000)},\n\t\t\t\t\t{group = "tailor_components",    chance = 20 * (100000)},\n\t\t\t\t\t{group = "melee_knife",          chance = 20 * (100000)},\n\t\t\t\t}', '{group = "melee_knife",          chance = 20 * (100000)}')]</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "chunker_common",       chance = 20 * (100000)},\n\t\t\t\t{group = "junk",                 chance = 20 * (100000)},\n\t\t\t\t{group = "wearables_common",     chance = 20 * (100000)},\n\t\t\t\t{group = "tailor_components",    chance = 20 * (100000)},\n\t\t\t\t{group = "melee_knife",          chance = 20 * (100000)},\n\t\t\t},\n\t\t\tlootChance = 50 * (100000)\n\t\t}', '{\n\t\t\t\t{group = "chunker_common",       chance = 20 * (100000)},\n\t\t\t\t{group = "junk",                 chance = 20 * (100000)},\n\t\t\t\t{group = "wearables_common",     chance = 20 * (100000)},\n\t\t\t\t{group = "tailor_components",    chance = 20 * (100000)},\n\t\t\t\t{group = "melee_knife",          chance = 20 * (100000)},\n\t\t\t}', '{group = "melee_knife",          chance = 20 * (100000)}')]</t>
         </is>
       </c>
     </row>
@@ -1530,7 +1530,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\cyst_covered_rot_mite_guard.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\crazed_roba.lua</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1550,7 +1550,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\decay_mite.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\cyst_covered_rot_mite_guard.lua</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1570,7 +1570,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\docile_kahmurra.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\decay_mite.lua</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -1590,7 +1590,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\dung_mite.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\docile_kahmurra.lua</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -1610,7 +1610,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\dung_mite_worker.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\dung_mite.lua</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -1630,7 +1630,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\famished_sludge_panther.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\dung_mite_worker.lua</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -1650,7 +1650,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\feared_fynock_youth.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\famished_sludge_panther.lua</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -1670,7 +1670,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\fearful_fynock_youth.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\feared_fynock_youth.lua</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -1690,7 +1690,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\feeble_kima.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\fearful_fynock_youth.lua</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -1710,7 +1710,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\female_roba.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\feeble_kima.lua</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -1730,7 +1730,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\ferine_razorfang.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\female_roba.lua</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -1750,7 +1750,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\festering_dung_mite_queen.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\ferine_razorfang.lua</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -1770,7 +1770,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\flite_rasp.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\festering_dung_mite_queen.lua</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -1790,7 +1790,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\foaming_vynock.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\flite_rasp.lua</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -1810,7 +1810,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\frenzied_fynock_guardian.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\foaming_vynock.lua</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -1830,7 +1830,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\fynock.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\frenzied_fynock_guardian.lua</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -1850,7 +1850,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\genetically_enhanced_kahmurra.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\fynock.lua</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -1870,7 +1870,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\giant_decay_mite_guardian.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\genetically_enhanced_kahmurra.lua</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -1890,7 +1890,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\giant_decay_mite_harvester.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\giant_decay_mite_guardian.lua</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -1910,7 +1910,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\giant_decay_mite_hatchling.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\giant_decay_mite_harvester.lua</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -1930,7 +1930,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\giant_decay_mite_protector.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\giant_decay_mite_hatchling.lua</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -1950,7 +1950,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\giant_decay_mite_queen.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\giant_decay_mite_protector.lua</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -1970,7 +1970,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\giant_decay_mite_sentry.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\giant_decay_mite_queen.lua</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -1990,7 +1990,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\giant_decay_mite_soldier.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\giant_decay_mite_sentry.lua</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2010,7 +2010,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\giant_fynock.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\giant_decay_mite_soldier.lua</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -2030,7 +2030,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\giant_fynock_defiler.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\giant_fynock.lua</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -2050,7 +2050,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\giga_flite_rasp.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\giant_fynock_defiler.lua</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -2070,7 +2070,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\glutted_fynock_queen.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\giga_flite_rasp.lua</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -2090,7 +2090,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\greater_sludge_panther.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\glutted_fynock_queen.lua</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -2110,7 +2110,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\guf_drolg.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\greater_sludge_panther.lua</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -2130,7 +2130,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\guf_drolg_female.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\guf_drolg.lua</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -2150,7 +2150,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\hilltop_kima.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\guf_drolg_female.lua</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -2170,7 +2170,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\huf_dun.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\hilltop_kima.lua</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -2190,7 +2190,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\huf_dun_bull.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\huf_dun.lua</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -2210,7 +2210,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\jungle_fynock.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\huf_dun_bull.lua</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -2230,7 +2230,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\kahmurra.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\jungle_fynock.lua</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -2250,7 +2250,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\kima.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\kahmurra.lua</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -2270,17 +2270,17 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\lost_aqualish_bomber.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\kima.lua</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "pelgo_blue", chance = 100 * (100000)},\n\t\t\t},\n\t\t\tlootChance = 3 * (100000)\n\t\t}', '{\n\t\t\t\t{group = "pelgo_blue", chance = 100 * (100000)},\n\t\t\t}', '{group = "pelgo_blue", chance = 100 * (100000)}')]</t>
+          <t>[('', '', '')]</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "art_newhope1",       chance = 100 * (100000)},\n\t\t\t},\n\t\t\tlootChance = 3 * (100000)\n\t\t}', '{\n\t\t\t\t{group = "art_newhope1",       chance = 100 * (100000)},\n\t\t\t}', '{group = "art_newhope1",       chance = 100 * (100000)}')]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2290,7 +2290,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\lost_aqualish_captain.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\lost_aqualish_bomber.lua</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -2300,7 +2300,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "captain_ring_group", chance = 10000000},\n\t\t\t},\n\t\t\tlootChance = .25 * (100000)\n\t\t}', '{\n\t\t\t\t{group = "captain_ring_group", chance = 10000000},\n\t\t\t}', '{group = "captain_ring_group", chance = 10000000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "art_newhope1",       chance = 100 * (100000)},\n\t\t\t},\n\t\t\tlootChance = 3 * (100000)\n\t\t}', '{\n\t\t\t\t{group = "art_newhope1",       chance = 100 * (100000)},\n\t\t\t}', '{group = "art_newhope1",       chance = 100 * (100000)}')]</t>
         </is>
       </c>
     </row>
@@ -2310,7 +2310,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\lost_aqualish_commando.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\lost_aqualish_captain.lua</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -2320,7 +2320,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "art_newhope1",       chance = 100 * (100000)},\n\t\t\t},\n\t\t\tlootChance = 3 * (100000)\n\t\t}', '{\n\t\t\t\t{group = "art_newhope1",       chance = 100 * (100000)},\n\t\t\t}', '{group = "art_newhope1",       chance = 100 * (100000)}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "captain_ring_group", chance = 10000000},\n\t\t\t},\n\t\t\tlootChance = .25 * (100000)\n\t\t}', '{\n\t\t\t\t{group = "captain_ring_group", chance = 10000000},\n\t\t\t}', '{group = "captain_ring_group", chance = 10000000}')]</t>
         </is>
       </c>
     </row>
@@ -2330,7 +2330,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\lost_aqualish_infiltrator.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\lost_aqualish_commando.lua</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -2340,7 +2340,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 3000000},\n\t\t\t\t{group = "wearables_common", chance = 2000000},\n\t\t\t\t{group = "melee_weapons", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 1500000},\n\t\t\t\t{group = "loot_kit_parts", chance = 1500000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 3000000},\n\t\t\t\t{group = "wearables_common", chance = 2000000},\n\t\t\t\t{group = "melee_weapons", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 1500000},\n\t\t\t\t{group = "loot_kit_parts", chance = 1500000}\n\t\t\t}', '{group = "loot_kit_parts", chance = 1500000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "art_newhope1",       chance = 100 * (100000)},\n\t\t\t},\n\t\t\tlootChance = 3 * (100000)\n\t\t}', '{\n\t\t\t\t{group = "art_newhope1",       chance = 100 * (100000)},\n\t\t\t}', '{group = "art_newhope1",       chance = 100 * (100000)}')]</t>
         </is>
       </c>
     </row>
@@ -2350,7 +2350,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\lost_aqualish_lookout.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\lost_aqualish_infiltrator.lua</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -2360,7 +2360,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 3000000},\n\t\t\t\t{group = "wearables_common", chance = 2000000},\n\t\t\t\t{group = "carbines", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 1500000},\n\t\t\t\t{group = "loot_kit_parts", chance = 1500000}\n\t\t\t},\n\t\t\tlootChance = 2200000\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 3000000},\n\t\t\t\t{group = "wearables_common", chance = 2000000},\n\t\t\t\t{group = "carbines", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 1500000},\n\t\t\t\t{group = "loot_kit_parts", chance = 1500000}\n\t\t\t}', '{group = "loot_kit_parts", chance = 1500000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 3000000},\n\t\t\t\t{group = "wearables_common", chance = 2000000},\n\t\t\t\t{group = "melee_weapons", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 1500000},\n\t\t\t\t{group = "loot_kit_parts", chance = 1500000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 3000000},\n\t\t\t\t{group = "wearables_common", chance = 2000000},\n\t\t\t\t{group = "melee_weapons", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 1500000},\n\t\t\t\t{group = "loot_kit_parts", chance = 1500000}\n\t\t\t}', '{group = "loot_kit_parts", chance = 1500000}')]</t>
         </is>
       </c>
     </row>
@@ -2370,7 +2370,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\lost_aqualish_marksman.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\lost_aqualish_lookout.lua</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -2380,7 +2380,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 2500000},\n\t\t\t\t{group = "wearables_common", chance = 2000000},\n\t\t\t\t{group = "rifles", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 1500000},\n\t\t\t\t{group = "loot_kit_parts", chance = 1500000},\n\t\t\t\t{group = "color_crystals", chance = 500000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 2500000},\n\t\t\t\t{group = "wearables_common", chance = 2000000},\n\t\t\t\t{group = "rifles", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 1500000},\n\t\t\t\t{group = "loot_kit_parts", chance = 1500000},\n\t\t\t\t{group = "color_crystals", chance = 500000}\n\t\t\t}', '{group = "color_crystals", chance = 500000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 3000000},\n\t\t\t\t{group = "wearables_common", chance = 2000000},\n\t\t\t\t{group = "carbines", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 1500000},\n\t\t\t\t{group = "loot_kit_parts", chance = 1500000}\n\t\t\t},\n\t\t\tlootChance = 2200000\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 3000000},\n\t\t\t\t{group = "wearables_common", chance = 2000000},\n\t\t\t\t{group = "carbines", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 1500000},\n\t\t\t\t{group = "loot_kit_parts", chance = 1500000}\n\t\t\t}', '{group = "loot_kit_parts", chance = 1500000}')]</t>
         </is>
       </c>
     </row>
@@ -2390,7 +2390,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\lost_aqualish_marshal.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\lost_aqualish_marksman.lua</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -2400,7 +2400,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "art_newhope1",       chance = 100 * (100000)},\n\t\t\t},\n\t\t\tlootChance = 8 * (100000)\n\t\t}', '{\n\t\t\t\t{group = "art_newhope1",       chance = 100 * (100000)},\n\t\t\t}', '{group = "art_newhope1",       chance = 100 * (100000)}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 2500000},\n\t\t\t\t{group = "wearables_common", chance = 2000000},\n\t\t\t\t{group = "rifles", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 1500000},\n\t\t\t\t{group = "loot_kit_parts", chance = 1500000},\n\t\t\t\t{group = "color_crystals", chance = 500000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 2500000},\n\t\t\t\t{group = "wearables_common", chance = 2000000},\n\t\t\t\t{group = "rifles", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 1500000},\n\t\t\t\t{group = "loot_kit_parts", chance = 1500000},\n\t\t\t\t{group = "color_crystals", chance = 500000}\n\t\t\t}', '{group = "color_crystals", chance = 500000}')]</t>
         </is>
       </c>
     </row>
@@ -2410,7 +2410,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\lost_aqualish_outrider.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\lost_aqualish_marshal.lua</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -2420,7 +2420,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 3000000},\n\t\t\t\t{group = "wearables_common", chance = 2000000},\n\t\t\t\t{group = "rifles", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 1500000},\n\t\t\t\t{group = "loot_kit_parts", chance = 1500000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 3000000},\n\t\t\t\t{group = "wearables_common", chance = 2000000},\n\t\t\t\t{group = "rifles", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 1500000},\n\t\t\t\t{group = "loot_kit_parts", chance = 1500000}\n\t\t\t}', '{group = "loot_kit_parts", chance = 1500000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "art_newhope1",       chance = 100 * (100000)},\n\t\t\t},\n\t\t\tlootChance = 8 * (100000)\n\t\t}', '{\n\t\t\t\t{group = "art_newhope1",       chance = 100 * (100000)},\n\t\t\t}', '{group = "art_newhope1",       chance = 100 * (100000)}')]</t>
         </is>
       </c>
     </row>
@@ -2430,7 +2430,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\lost_aqualish_scout.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\lost_aqualish_outrider.lua</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 3000000},\n\t\t\t\t{group = "wearables_common", chance = 2000000},\n\t\t\t\t{group = "pistols", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 1500000},\n\t\t\t\t{group = "loot_kit_parts", chance = 1500000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 3000000},\n\t\t\t\t{group = "wearables_common", chance = 2000000},\n\t\t\t\t{group = "pistols", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 1500000},\n\t\t\t\t{group = "loot_kit_parts", chance = 1500000}\n\t\t\t}', '{group = "loot_kit_parts", chance = 1500000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 3000000},\n\t\t\t\t{group = "wearables_common", chance = 2000000},\n\t\t\t\t{group = "rifles", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 1500000},\n\t\t\t\t{group = "loot_kit_parts", chance = 1500000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 3000000},\n\t\t\t\t{group = "wearables_common", chance = 2000000},\n\t\t\t\t{group = "rifles", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 1500000},\n\t\t\t\t{group = "loot_kit_parts", chance = 1500000}\n\t\t\t}', '{group = "loot_kit_parts", chance = 1500000}')]</t>
         </is>
       </c>
     </row>
@@ -2450,7 +2450,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\lost_aqualish_warrior.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\lost_aqualish_scout.lua</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -2470,17 +2470,17 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\male_roba.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\lost_aqualish_warrior.lua</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>[('', '', '')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "pelgo_blue", chance = 100 * (100000)},\n\t\t\t},\n\t\t\tlootChance = 3 * (100000)\n\t\t}', '{\n\t\t\t\t{group = "pelgo_blue", chance = 100 * (100000)},\n\t\t\t}', '{group = "pelgo_blue", chance = 100 * (100000)}')]</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 3000000},\n\t\t\t\t{group = "wearables_common", chance = 2000000},\n\t\t\t\t{group = "pistols", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 1500000},\n\t\t\t\t{group = "loot_kit_parts", chance = 1500000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 3000000},\n\t\t\t\t{group = "wearables_common", chance = 2000000},\n\t\t\t\t{group = "pistols", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 1500000},\n\t\t\t\t{group = "loot_kit_parts", chance = 1500000}\n\t\t\t}', '{group = "loot_kit_parts", chance = 1500000}')]</t>
         </is>
       </c>
     </row>
@@ -2490,7 +2490,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\meager_tortur.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\male_roba.lua</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -2510,7 +2510,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\minor_guf_drolg.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\meager_tortur.lua</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -2530,7 +2530,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\minor_sludge_panther.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\minor_guf_drolg.lua</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -2550,7 +2550,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\mire_marauder.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\minor_sludge_panther.lua</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -2570,7 +2570,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\mutated_kahmurra.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\mire_marauder.lua</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -2590,7 +2590,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\oozing_dung_mite_guardian.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\mutated_kahmurra.lua</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -2610,7 +2610,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\percussive_rasp.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\oozing_dung_mite_guardian.lua</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -2630,7 +2630,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\puss_covered_decay_mite_soldier.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\percussive_rasp.lua</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -2650,7 +2650,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\putrid_decay_mite_hatchling.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\puss_covered_decay_mite_soldier.lua</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -2670,7 +2670,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\rabid_mutant_kahmurra.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\putrid_decay_mite_hatchling.lua</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -2690,7 +2690,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\ravenous_rasp.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\rabid_mutant_kahmurra.lua</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -2710,7 +2710,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\repugnant_dung_mite_crawler.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\ravenous_rasp.lua</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -2730,7 +2730,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\rotting_decay_mite_guard.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\repugnant_dung_mite_crawler.lua</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -2750,7 +2750,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\rot_mite.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\rotting_decay_mite_guard.lua</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -2770,7 +2770,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\savage_guf_drolg.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\rot_mite.lua</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -2790,7 +2790,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\sickly_decay_mite_queen.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\savage_guf_drolg.lua</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -2810,7 +2810,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\sludge_panther.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\sickly_decay_mite_queen.lua</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -2830,7 +2830,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\song_rasp.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\sludge_panther.lua</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -2850,7 +2850,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\stunted_huf_dun.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\song_rasp.lua</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -2870,7 +2870,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\talus_acicular_defender.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\stunted_huf_dun.lua</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -2890,7 +2890,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\talus_bloodstained_prowler.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\talus_acicular_defender.lua</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -2910,7 +2910,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\talus_dalyrake.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\talus_bloodstained_prowler.lua</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -2930,7 +2930,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\talus_devil_gulginaw.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\talus_dalyrake.lua</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -2950,7 +2950,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\talus_giant_dalyrake.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\talus_devil_gulginaw.lua</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -2970,7 +2970,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\talus_giant_gubbur.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\talus_giant_dalyrake.lua</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -2990,7 +2990,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\talus_grand_wrix.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\talus_giant_gubbur.lua</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -3010,7 +3010,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\talus_gulginaw.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\talus_grand_wrix.lua</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -3030,7 +3030,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\talus_humbaba.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\talus_gulginaw.lua</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -3050,7 +3050,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\talus_mottled_wrix.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\talus_humbaba.lua</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -3070,7 +3070,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\talus_paralope.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\talus_mottled_wrix.lua</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -3090,7 +3090,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\talus_savage_humbaba.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\talus_paralope.lua</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -3110,7 +3110,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\talus_vynock.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\talus_savage_humbaba.lua</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -3130,7 +3130,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\talus_wrix.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\talus_vynock.lua</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -3150,7 +3150,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\tortur.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\talus_wrix.lua</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -3170,7 +3170,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\tortur_bull.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\tortur.lua</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -3190,7 +3190,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\vicious_huf_dun.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\tortur_bull.lua</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -3210,7 +3210,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\voracious_rasp.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\vicious_huf_dun.lua</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -3230,7 +3230,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\wolf_kima.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\voracious_rasp.lua</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -3250,7 +3250,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\woodland_kima.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\wolf_kima.lua</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -3270,17 +3270,17 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dantooine\dantari_battlelord.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\custom_content\talus\woodland_kima.lua</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "coffee_table_group", chance = 100 * (100000)}\n\t\t\t},\n\t\t\tlootChance = 9 * (100000)\n\t\t}', '{\n\t\t\t\t{group = "coffee_table_group", chance = 100 * (100000)}\n\t\t\t}', '{group = "coffee_table_group", chance = 100 * (100000)}')]</t>
+          <t>[('', '', '')]</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 4000000},\n\t\t\t\t{group = "loot_kit_parts", chance = 3000000},\n\t\t\t\t{group = "armor_attachments", chance = 500000},\n\t\t\t\t{group = "clothing_attachments", chance = 500000},\n\t\t\t\t{group = "wearables_common", chance = 2000000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 4000000},\n\t\t\t\t{group = "loot_kit_parts", chance = 3000000},\n\t\t\t\t{group = "armor_attachments", chance = 500000},\n\t\t\t\t{group = "clothing_attachments", chance = 500000},\n\t\t\t\t{group = "wearables_common", chance = 2000000}\n\t\t\t}', '{group = "wearables_common", chance = 2000000}')]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -3290,17 +3290,17 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dantooine\dantari_chief.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dantooine\dantari_battlelord.lua</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "coffee_table_group", chance = 100 * (100000)}\n\t\t\t},\n\t\t\tlootChance = 15 * (100000)\n\t\t}', '{\n\t\t\t\t{group = "coffee_table_group", chance = 100 * (100000)}\n\t\t\t}', '{group = "coffee_table_group", chance = 100 * (100000)}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "coffee_table_group", chance = 100 * (100000)}\n\t\t\t},\n\t\t\tlootChance = 9 * (100000)\n\t\t}', '{\n\t\t\t\t{group = "coffee_table_group", chance = 100 * (100000)}\n\t\t\t}', '{group = "coffee_table_group", chance = 100 * (100000)}')]</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 4000000},\n\t\t\t\t{group = "loot_kit_parts", chance = 3000000},\n\t\t\t\t{group = "armor_attachments", chance = 500000},\n\t\t\t\t{group = "clothing_attachments", chance = 500000},\n\t\t\t\t{group = "wearables_all", chance = 2000000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 4000000},\n\t\t\t\t{group = "loot_kit_parts", chance = 3000000},\n\t\t\t\t{group = "armor_attachments", chance = 500000},\n\t\t\t\t{group = "clothing_attachments", chance = 500000},\n\t\t\t\t{group = "wearables_all", chance = 2000000}\n\t\t\t}', '{group = "wearables_all", chance = 2000000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 4000000},\n\t\t\t\t{group = "loot_kit_parts", chance = 3000000},\n\t\t\t\t{group = "armor_attachments", chance = 500000},\n\t\t\t\t{group = "clothing_attachments", chance = 500000},\n\t\t\t\t{group = "wearables_common", chance = 2000000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 4000000},\n\t\t\t\t{group = "loot_kit_parts", chance = 3000000},\n\t\t\t\t{group = "armor_attachments", chance = 500000},\n\t\t\t\t{group = "clothing_attachments", chance = 500000},\n\t\t\t\t{group = "wearables_common", chance = 2000000}\n\t\t\t}', '{group = "wearables_common", chance = 2000000}')]</t>
         </is>
       </c>
     </row>
@@ -3310,17 +3310,17 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dantooine\dantari_raider.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dantooine\dantari_chief.lua</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "combat_practice", chance = 100 * (100000)}\n\t\t\t},\n\t\t\tlootChance = 25 * (100000)\n\t\t}', '{\n\t\t\t\t{group = "combat_practice", chance = 100 * (100000)}\n\t\t\t}', '{group = "combat_practice", chance = 100 * (100000)}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "coffee_table_group", chance = 100 * (100000)}\n\t\t\t},\n\t\t\tlootChance = 15 * (100000)\n\t\t}', '{\n\t\t\t\t{group = "coffee_table_group", chance = 100 * (100000)}\n\t\t\t}', '{group = "coffee_table_group", chance = 100 * (100000)}')]</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 4000000},\n\t\t\t\t{group = "loot_kit_parts", chance = 3000000},\n\t\t\t\t{group = "armor_attachments", chance = 500000},\n\t\t\t\t{group = "clothing_attachments", chance = 500000},\n\t\t\t\t{group = "wearables_common", chance = 2000000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 4000000},\n\t\t\t\t{group = "loot_kit_parts", chance = 3000000},\n\t\t\t\t{group = "armor_attachments", chance = 500000},\n\t\t\t\t{group = "clothing_attachments", chance = 500000},\n\t\t\t\t{group = "wearables_common", chance = 2000000}\n\t\t\t}', '{group = "wearables_common", chance = 2000000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 4000000},\n\t\t\t\t{group = "loot_kit_parts", chance = 3000000},\n\t\t\t\t{group = "armor_attachments", chance = 500000},\n\t\t\t\t{group = "clothing_attachments", chance = 500000},\n\t\t\t\t{group = "wearables_all", chance = 2000000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 4000000},\n\t\t\t\t{group = "loot_kit_parts", chance = 3000000},\n\t\t\t\t{group = "armor_attachments", chance = 500000},\n\t\t\t\t{group = "clothing_attachments", chance = 500000},\n\t\t\t\t{group = "wearables_all", chance = 2000000}\n\t\t\t}', '{group = "wearables_all", chance = 2000000}')]</t>
         </is>
       </c>
     </row>
@@ -3330,12 +3330,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dantooine\dantari_strategist.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dantooine\dantari_raider.lua</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "dantari_common", chance = 100 * (100000)}\n\t\t\t},\n\t\t\tlootChance = 50 * (100000)\n\t\t}', '{\n\t\t\t\t{group = "dantari_common", chance = 100 * (100000)}\n\t\t\t}', '{group = "dantari_common", chance = 100 * (100000)}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "combat_practice", chance = 100 * (100000)}\n\t\t\t},\n\t\t\tlootChance = 25 * (100000)\n\t\t}', '{\n\t\t\t\t{group = "combat_practice", chance = 100 * (100000)}\n\t\t\t}', '{group = "combat_practice", chance = 100 * (100000)}')]</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -3350,17 +3350,17 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dantooine\force_crystal_hunter.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dantooine\dantari_strategist.lua</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>[('{ -- Jedi Specific Loot Group\n\t\t\tgroups =\n\t\t\t{\n\t\t\t\t{group = "jedi_clothing_attachments", chance = 4000000},\n\t\t\t\t{group = "named_crystals", chance = 6000000},\n\t\t\t},\n\t\t\tlootChance = 500000,\n\t\t}', '{\n\t\t\t\t{group = "jedi_clothing_attachments", chance = 4000000},\n\t\t\t\t{group = "named_crystals", chance = 6000000},\n\t\t\t}', '{group = "named_crystals", chance = 6000000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "dantari_common", chance = 100 * (100000)}\n\t\t\t},\n\t\t\tlootChance = 50 * (100000)\n\t\t}', '{\n\t\t\t\t{group = "dantari_common", chance = 100 * (100000)}\n\t\t\t}', '{group = "dantari_common", chance = 100 * (100000)}')]</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 3000000},\n\t\t\t\t{group = "power_crystals", chance = 800000},\n\t\t\t\t{group = "color_crystals", chance = 700000},\n\t\t\t\t{group = "holocron_dark", chance = 500000},\n\t\t\t\t{group = "holocron_light", chance = 500000},\n\t\t\t\t{group = "melee_weapons", chance = 1000000},\n\t\t\t\t{group = "armor_attachments", chance = 1000000},\n\t\t\t\t{group = "clothing_attachments", chance = 1000000},\n\t\t\t\t{group = "wearables_all", chance = 1400000},\n\t\t\t\t{group = "force_hunter_rare", chance = 100000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 3000000},\n\t\t\t\t{group = "power_crystals", chance = 800000},\n\t\t\t\t{group = "color_crystals", chance = 700000},\n\t\t\t\t{group = "holocron_dark", chance = 500000},\n\t\t\t\t{group = "holocron_light", chance = 500000},\n\t\t\t\t{group = "melee_weapons", chance = 1000000},\n\t\t\t\t{group = "armor_attachments", chance = 1000000},\n\t\t\t\t{group = "clothing_attachments", chance = 1000000},\n\t\t\t\t{group = "wearables_all", chance = 1400000},\n\t\t\t\t{group = "force_hunter_rare", chance = 100000}\n\t\t\t}', '{group = "force_hunter_rare", chance = 100000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 4000000},\n\t\t\t\t{group = "loot_kit_parts", chance = 3000000},\n\t\t\t\t{group = "armor_attachments", chance = 500000},\n\t\t\t\t{group = "clothing_attachments", chance = 500000},\n\t\t\t\t{group = "wearables_common", chance = 2000000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 4000000},\n\t\t\t\t{group = "loot_kit_parts", chance = 3000000},\n\t\t\t\t{group = "armor_attachments", chance = 500000},\n\t\t\t\t{group = "clothing_attachments", chance = 500000},\n\t\t\t\t{group = "wearables_common", chance = 2000000}\n\t\t\t}', '{group = "wearables_common", chance = 2000000}')]</t>
         </is>
       </c>
     </row>
@@ -3370,17 +3370,17 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dantooine\janta_clan_leader.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dantooine\force_crystal_hunter.lua</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "janta_common", chance = 5000000},\n\t\t\t\t{group = "junk", chance = 5000000}\n\t\t\t},\n\t\t\tlootChance = 10000000\n\t\t}', '{\n\t\t\t\t{group = "janta_common", chance = 5000000},\n\t\t\t\t{group = "junk", chance = 5000000}\n\t\t\t}', '{group = "junk", chance = 5000000}')]</t>
+          <t>[('{ -- Jedi Specific Loot Group\n\t\t\tgroups =\n\t\t\t{\n\t\t\t\t{group = "jedi_clothing_attachments", chance = 4000000},\n\t\t\t\t{group = "named_crystals", chance = 6000000},\n\t\t\t},\n\t\t\tlootChance = 500000,\n\t\t}', '{\n\t\t\t\t{group = "jedi_clothing_attachments", chance = 4000000},\n\t\t\t\t{group = "named_crystals", chance = 6000000},\n\t\t\t}', '{group = "named_crystals", chance = 6000000}')]</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 5000000},\n\t\t\t\t{group = "janta_common", chance = 1500000},\n\t\t\t\t{group = "loot_kit_parts", chance = 3000000},\n\t\t\t\t{group = "wearables_all", chance = 500000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 5000000},\n\t\t\t\t{group = "janta_common", chance = 1500000},\n\t\t\t\t{group = "loot_kit_parts", chance = 3000000},\n\t\t\t\t{group = "wearables_all", chance = 500000}\n\t\t\t}', '{group = "wearables_all", chance = 500000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 3000000},\n\t\t\t\t{group = "power_crystals", chance = 800000},\n\t\t\t\t{group = "color_crystals", chance = 700000},\n\t\t\t\t{group = "holocron_dark", chance = 500000},\n\t\t\t\t{group = "holocron_light", chance = 500000},\n\t\t\t\t{group = "melee_weapons", chance = 1000000},\n\t\t\t\t{group = "armor_attachments", chance = 1000000},\n\t\t\t\t{group = "clothing_attachments", chance = 1000000},\n\t\t\t\t{group = "wearables_all", chance = 1400000},\n\t\t\t\t{group = "force_hunter_rare", chance = 100000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 3000000},\n\t\t\t\t{group = "power_crystals", chance = 800000},\n\t\t\t\t{group = "color_crystals", chance = 700000},\n\t\t\t\t{group = "holocron_dark", chance = 500000},\n\t\t\t\t{group = "holocron_light", chance = 500000},\n\t\t\t\t{group = "melee_weapons", chance = 1000000},\n\t\t\t\t{group = "armor_attachments", chance = 1000000},\n\t\t\t\t{group = "clothing_attachments", chance = 1000000},\n\t\t\t\t{group = "wearables_all", chance = 1400000},\n\t\t\t\t{group = "force_hunter_rare", chance = 100000}\n\t\t\t}', '{group = "force_hunter_rare", chance = 100000}')]</t>
         </is>
       </c>
     </row>
@@ -3390,7 +3390,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dantooine\janta_harvester.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dantooine\janta_clan_leader.lua</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 5500000},\n\t\t\t\t{group = "janta_common", chance = 1500000},\n\t\t\t\t{group = "loot_kit_parts", chance = 3000000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 5500000},\n\t\t\t\t{group = "janta_common", chance = 1500000},\n\t\t\t\t{group = "loot_kit_parts", chance = 3000000}\n\t\t\t}', '{group = "loot_kit_parts", chance = 3000000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 5000000},\n\t\t\t\t{group = "janta_common", chance = 1500000},\n\t\t\t\t{group = "loot_kit_parts", chance = 3000000},\n\t\t\t\t{group = "wearables_all", chance = 500000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 5000000},\n\t\t\t\t{group = "janta_common", chance = 1500000},\n\t\t\t\t{group = "loot_kit_parts", chance = 3000000},\n\t\t\t\t{group = "wearables_all", chance = 500000}\n\t\t\t}', '{group = "wearables_all", chance = 500000}')]</t>
         </is>
       </c>
     </row>
@@ -3410,12 +3410,12 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dantooine\janta_herbalist.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dantooine\janta_harvester.lua</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>[('{\n\t groups = {\n\t\t {group = "janta_common", chance = 5000000},\n\t\t {group = "melee_weapons", chance = 2500000},\n\t\t {group = "junk", chance = 2500000}\n\t },\n\t lootChance = 10000000\n\t\t}', '{\n\t\t {group = "janta_common", chance = 5000000},\n\t\t {group = "melee_weapons", chance = 2500000},\n\t\t {group = "junk", chance = 2500000}\n\t }', '{group = "junk", chance = 2500000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "janta_common", chance = 5000000},\n\t\t\t\t{group = "junk", chance = 5000000}\n\t\t\t},\n\t\t\tlootChance = 10000000\n\t\t}', '{\n\t\t\t\t{group = "janta_common", chance = 5000000},\n\t\t\t\t{group = "junk", chance = 5000000}\n\t\t\t}', '{group = "junk", chance = 5000000}')]</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -3430,7 +3430,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dantooine\janta_hunter.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dantooine\janta_herbalist.lua</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -3450,12 +3450,12 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dantooine\janta_loreweaver.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dantooine\janta_hunter.lua</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "janta_common", chance = 50 * (100000)},\n\t\t\t\t{group = "junk", chance = 50 * (100000)}\n\t\t\t},\n\t\t\tlootChance = 100 * (100000)\n\t\t}', '{\n\t\t\t\t{group = "janta_common", chance = 50 * (100000)},\n\t\t\t\t{group = "junk", chance = 50 * (100000)}\n\t\t\t}', '{group = "junk", chance = 50 * (100000)}')]</t>
+          <t>[('{\n\t groups = {\n\t\t {group = "janta_common", chance = 5000000},\n\t\t {group = "melee_weapons", chance = 2500000},\n\t\t {group = "junk", chance = 2500000}\n\t },\n\t lootChance = 10000000\n\t\t}', '{\n\t\t {group = "janta_common", chance = 5000000},\n\t\t {group = "melee_weapons", chance = 2500000},\n\t\t {group = "junk", chance = 2500000}\n\t }', '{group = "junk", chance = 2500000}')]</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -3470,12 +3470,12 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dantooine\janta_primalist.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dantooine\janta_loreweaver.lua</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>[('{\n\t groups = {\n\t\t {group = "janta_common", chance = 5000000},\n\t\t {group = "melee_weapons", chance = 2500000},\n\t\t {group = "junk", chance = 2500000}\n\t },\n\t lootChance = 10000000\n\t\t}', '{\n\t\t {group = "janta_common", chance = 5000000},\n\t\t {group = "melee_weapons", chance = 2500000},\n\t\t {group = "junk", chance = 2500000}\n\t }', '{group = "junk", chance = 2500000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "janta_common", chance = 50 * (100000)},\n\t\t\t\t{group = "junk", chance = 50 * (100000)}\n\t\t\t},\n\t\t\tlootChance = 100 * (100000)\n\t\t}', '{\n\t\t\t\t{group = "janta_common", chance = 50 * (100000)},\n\t\t\t\t{group = "junk", chance = 50 * (100000)}\n\t\t\t}', '{group = "junk", chance = 50 * (100000)}')]</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -3490,17 +3490,17 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dantooine\janta_rockshaper.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dantooine\janta_primalist.lua</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>[('{\n\t groups = {\n\t\t {group = "janta_common", chance = 5000000},\n\t\t {group = "melee_weapons", chance = 2500000},\n\t\t {group = "clothing_attachments", chance = 2500000}\n\t },\n\t lootChance = 10000000\n\t\t}', '{\n\t\t {group = "janta_common", chance = 5000000},\n\t\t {group = "melee_weapons", chance = 2500000},\n\t\t {group = "clothing_attachments", chance = 2500000}\n\t }', '{group = "clothing_attachments", chance = 2500000}')]</t>
+          <t>[('{\n\t groups = {\n\t\t {group = "janta_common", chance = 5000000},\n\t\t {group = "melee_weapons", chance = 2500000},\n\t\t {group = "junk", chance = 2500000}\n\t },\n\t lootChance = 10000000\n\t\t}', '{\n\t\t {group = "janta_common", chance = 5000000},\n\t\t {group = "melee_weapons", chance = 2500000},\n\t\t {group = "junk", chance = 2500000}\n\t }', '{group = "junk", chance = 2500000}')]</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 5000000},\n\t\t\t\t{group = "janta_common", chance = 1500000},\n\t\t\t\t{group = "loot_kit_parts", chance = 3000000},\n\t\t\t\t{group = "wearables_all", chance = 500000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 5000000},\n\t\t\t\t{group = "janta_common", chance = 1500000},\n\t\t\t\t{group = "loot_kit_parts", chance = 3000000},\n\t\t\t\t{group = "wearables_all", chance = 500000}\n\t\t\t}', '{group = "wearables_all", chance = 500000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 5500000},\n\t\t\t\t{group = "janta_common", chance = 1500000},\n\t\t\t\t{group = "loot_kit_parts", chance = 3000000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 5500000},\n\t\t\t\t{group = "janta_common", chance = 1500000},\n\t\t\t\t{group = "loot_kit_parts", chance = 3000000}\n\t\t\t}', '{group = "loot_kit_parts", chance = 3000000}')]</t>
         </is>
       </c>
     </row>
@@ -3510,17 +3510,17 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dantooine\janta_scout.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dantooine\janta_rockshaper.lua</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>[('{\n\t groups = {\n\t\t {group = "janta_common", chance = 5000000},\n\t\t {group = "melee_weapons", chance = 2500000},\n\t\t {group = "junk", chance = 2500000}\n\t },\n\t lootChance = 10000000\n\t\t}', '{\n\t\t {group = "janta_common", chance = 5000000},\n\t\t {group = "melee_weapons", chance = 2500000},\n\t\t {group = "junk", chance = 2500000}\n\t }', '{group = "junk", chance = 2500000}')]</t>
+          <t>[('{\n\t groups = {\n\t\t {group = "janta_common", chance = 5000000},\n\t\t {group = "melee_weapons", chance = 2500000},\n\t\t {group = "clothing_attachments", chance = 2500000}\n\t },\n\t lootChance = 10000000\n\t\t}', '{\n\t\t {group = "janta_common", chance = 5000000},\n\t\t {group = "melee_weapons", chance = 2500000},\n\t\t {group = "clothing_attachments", chance = 2500000}\n\t }', '{group = "clothing_attachments", chance = 2500000}')]</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 5500000},\n\t\t\t\t{group = "janta_common", chance = 1500000},\n\t\t\t\t{group = "loot_kit_parts", chance = 3000000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 5500000},\n\t\t\t\t{group = "janta_common", chance = 1500000},\n\t\t\t\t{group = "loot_kit_parts", chance = 3000000}\n\t\t\t}', '{group = "loot_kit_parts", chance = 3000000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 5000000},\n\t\t\t\t{group = "janta_common", chance = 1500000},\n\t\t\t\t{group = "loot_kit_parts", chance = 3000000},\n\t\t\t\t{group = "wearables_all", chance = 500000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 5000000},\n\t\t\t\t{group = "janta_common", chance = 1500000},\n\t\t\t\t{group = "loot_kit_parts", chance = 3000000},\n\t\t\t\t{group = "wearables_all", chance = 500000}\n\t\t\t}', '{group = "wearables_all", chance = 500000}')]</t>
         </is>
       </c>
     </row>
@@ -3530,7 +3530,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dantooine\janta_shaman.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dantooine\janta_scout.lua</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -3550,7 +3550,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dantooine\janta_soothsayer.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dantooine\janta_shaman.lua</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -3570,7 +3570,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dantooine\janta_tribesman.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dantooine\janta_soothsayer.lua</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -3590,12 +3590,12 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dantooine\janta_warrior.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dantooine\janta_tribesman.lua</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "combat_practice", chance = 100 * (100000)}\n\t\t\t},\n\t\t\tlootChance = 25 * (100000)\n\t\t}', '{\n\t\t\t\t{group = "combat_practice", chance = 100 * (100000)}\n\t\t\t}', '{group = "combat_practice", chance = 100 * (100000)}')]</t>
+          <t>[('{\n\t groups = {\n\t\t {group = "janta_common", chance = 5000000},\n\t\t {group = "melee_weapons", chance = 2500000},\n\t\t {group = "junk", chance = 2500000}\n\t },\n\t lootChance = 10000000\n\t\t}', '{\n\t\t {group = "janta_common", chance = 5000000},\n\t\t {group = "melee_weapons", chance = 2500000},\n\t\t {group = "junk", chance = 2500000}\n\t }', '{group = "junk", chance = 2500000}')]</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -3610,17 +3610,17 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dantooine\kunga_clan_leader.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dantooine\janta_warrior.lua</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "kunga_common", chance = 100 * (100000)}\n\t\t\t},\n\t\t\tlootChance = 50 * (100000)\n\t\t}', '{\n\t\t\t\t{group = "kunga_common", chance = 100 * (100000)}\n\t\t\t}', '{group = "kunga_common", chance = 100 * (100000)}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "combat_practice", chance = 100 * (100000)}\n\t\t\t},\n\t\t\tlootChance = 25 * (100000)\n\t\t}', '{\n\t\t\t\t{group = "combat_practice", chance = 100 * (100000)}\n\t\t\t}', '{group = "combat_practice", chance = 100 * (100000)}')]</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 3500000},\n\t\t\t\t{group = "loot_kit_parts", chance = 3000000},\n\t\t\t\t{group = "armor_attachments", chance = 500000},\n\t\t\t\t{group = "clothing_attachments", chance = 500000},\n\t\t\t\t{group = "wearables_all", chance = 2000000},\n\t\t\t\t{group = "power_crystals", chance = 500000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 3500000},\n\t\t\t\t{group = "loot_kit_parts", chance = 3000000},\n\t\t\t\t{group = "armor_attachments", chance = 500000},\n\t\t\t\t{group = "clothing_attachments", chance = 500000},\n\t\t\t\t{group = "wearables_all", chance = 2000000},\n\t\t\t\t{group = "power_crystals", chance = 500000}\n\t\t\t}', '{group = "power_crystals", chance = 500000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 5500000},\n\t\t\t\t{group = "janta_common", chance = 1500000},\n\t\t\t\t{group = "loot_kit_parts", chance = 3000000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 5500000},\n\t\t\t\t{group = "janta_common", chance = 1500000},\n\t\t\t\t{group = "loot_kit_parts", chance = 3000000}\n\t\t\t}', '{group = "loot_kit_parts", chance = 3000000}')]</t>
         </is>
       </c>
     </row>
@@ -3630,7 +3630,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dantooine\kunga_clan_primalist.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dantooine\kunga_clan_leader.lua</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 3500000},\n\t\t\t\t{group = "loot_kit_parts", chance = 3000000},\n\t\t\t\t{group = "armor_attachments", chance = 500000},\n\t\t\t\t{group = "clothing_attachments", chance = 500000},\n\t\t\t\t{group = "wearables_common", chance = 1000000},\n\t\t\t\t{group = "wearables_uncommon", chance = 1000000},\n\t\t\t\t{group = "power_crystals", chance = 500000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 3500000},\n\t\t\t\t{group = "loot_kit_parts", chance = 3000000},\n\t\t\t\t{group = "armor_attachments", chance = 500000},\n\t\t\t\t{group = "clothing_attachments", chance = 500000},\n\t\t\t\t{group = "wearables_common", chance = 1000000},\n\t\t\t\t{group = "wearables_uncommon", chance = 1000000},\n\t\t\t\t{group = "power_crystals", chance = 500000}\n\t\t\t}', '{group = "power_crystals", chance = 500000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 3500000},\n\t\t\t\t{group = "loot_kit_parts", chance = 3000000},\n\t\t\t\t{group = "armor_attachments", chance = 500000},\n\t\t\t\t{group = "clothing_attachments", chance = 500000},\n\t\t\t\t{group = "wearables_all", chance = 2000000},\n\t\t\t\t{group = "power_crystals", chance = 500000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 3500000},\n\t\t\t\t{group = "loot_kit_parts", chance = 3000000},\n\t\t\t\t{group = "armor_attachments", chance = 500000},\n\t\t\t\t{group = "clothing_attachments", chance = 500000},\n\t\t\t\t{group = "wearables_all", chance = 2000000},\n\t\t\t\t{group = "power_crystals", chance = 500000}\n\t\t\t}', '{group = "power_crystals", chance = 500000}')]</t>
         </is>
       </c>
     </row>
@@ -3650,7 +3650,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dantooine\kunga_harvester.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dantooine\kunga_clan_primalist.lua</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -3670,7 +3670,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dantooine\kunga_herbalist.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dantooine\kunga_harvester.lua</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -3690,12 +3690,12 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dantooine\kunga_hunter.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dantooine\kunga_herbalist.lua</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "combat_practice", chance = 100 * (100000)}\n\t\t\t},\n\t\t\tlootChance = 25 * (100000)\n\t\t}', '{\n\t\t\t\t{group = "combat_practice", chance = 100 * (100000)}\n\t\t\t}', '{group = "combat_practice", chance = 100 * (100000)}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "kunga_common", chance = 100 * (100000)}\n\t\t\t},\n\t\t\tlootChance = 50 * (100000)\n\t\t}', '{\n\t\t\t\t{group = "kunga_common", chance = 100 * (100000)}\n\t\t\t}', '{group = "kunga_common", chance = 100 * (100000)}')]</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -3710,12 +3710,12 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dantooine\kunga_loreweaver.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dantooine\kunga_hunter.lua</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "kunga_common", chance = 100 * (100000)}\n\t\t\t},\n\t\t\tlootChance = 50 * (100000)\n\t\t}', '{\n\t\t\t\t{group = "kunga_common", chance = 100 * (100000)}\n\t\t\t}', '{group = "kunga_common", chance = 100 * (100000)}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "combat_practice", chance = 100 * (100000)}\n\t\t\t},\n\t\t\tlootChance = 25 * (100000)\n\t\t}', '{\n\t\t\t\t{group = "combat_practice", chance = 100 * (100000)}\n\t\t\t}', '{group = "combat_practice", chance = 100 * (100000)}')]</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -3730,7 +3730,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dantooine\kunga_rockshaper.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dantooine\kunga_loreweaver.lua</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -3740,7 +3740,7 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 3500000},\n\t\t\t\t{group = "loot_kit_parts", chance = 3000000},\n\t\t\t\t{group = "armor_attachments", chance = 500000},\n\t\t\t\t{group = "clothing_attachments", chance = 500000},\n\t\t\t\t{group = "wearables_all", chance = 2000000},\n\t\t\t\t{group = "power_crystals", chance = 500000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 3500000},\n\t\t\t\t{group = "loot_kit_parts", chance = 3000000},\n\t\t\t\t{group = "armor_attachments", chance = 500000},\n\t\t\t\t{group = "clothing_attachments", chance = 500000},\n\t\t\t\t{group = "wearables_all", chance = 2000000},\n\t\t\t\t{group = "power_crystals", chance = 500000}\n\t\t\t}', '{group = "power_crystals", chance = 500000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 3500000},\n\t\t\t\t{group = "loot_kit_parts", chance = 3000000},\n\t\t\t\t{group = "armor_attachments", chance = 500000},\n\t\t\t\t{group = "clothing_attachments", chance = 500000},\n\t\t\t\t{group = "wearables_common", chance = 1000000},\n\t\t\t\t{group = "wearables_uncommon", chance = 1000000},\n\t\t\t\t{group = "power_crystals", chance = 500000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 3500000},\n\t\t\t\t{group = "loot_kit_parts", chance = 3000000},\n\t\t\t\t{group = "armor_attachments", chance = 500000},\n\t\t\t\t{group = "clothing_attachments", chance = 500000},\n\t\t\t\t{group = "wearables_common", chance = 1000000},\n\t\t\t\t{group = "wearables_uncommon", chance = 1000000},\n\t\t\t\t{group = "power_crystals", chance = 500000}\n\t\t\t}', '{group = "power_crystals", chance = 500000}')]</t>
         </is>
       </c>
     </row>
@@ -3750,7 +3750,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dantooine\kunga_scout.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dantooine\kunga_rockshaper.lua</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -3760,7 +3760,7 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 3500000},\n\t\t\t\t{group = "loot_kit_parts", chance = 3000000},\n\t\t\t\t{group = "armor_attachments", chance = 500000},\n\t\t\t\t{group = "clothing_attachments", chance = 500000},\n\t\t\t\t{group = "wearables_common", chance = 1000000},\n\t\t\t\t{group = "wearables_uncommon", chance = 1000000},\n\t\t\t\t{group = "power_crystals", chance = 500000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 3500000},\n\t\t\t\t{group = "loot_kit_parts", chance = 3000000},\n\t\t\t\t{group = "armor_attachments", chance = 500000},\n\t\t\t\t{group = "clothing_attachments", chance = 500000},\n\t\t\t\t{group = "wearables_common", chance = 1000000},\n\t\t\t\t{group = "wearables_uncommon", chance = 1000000},\n\t\t\t\t{group = "power_crystals", chance = 500000}\n\t\t\t}', '{group = "power_crystals", chance = 500000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 3500000},\n\t\t\t\t{group = "loot_kit_parts", chance = 3000000},\n\t\t\t\t{group = "armor_attachments", chance = 500000},\n\t\t\t\t{group = "clothing_attachments", chance = 500000},\n\t\t\t\t{group = "wearables_all", chance = 2000000},\n\t\t\t\t{group = "power_crystals", chance = 500000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 3500000},\n\t\t\t\t{group = "loot_kit_parts", chance = 3000000},\n\t\t\t\t{group = "armor_attachments", chance = 500000},\n\t\t\t\t{group = "clothing_attachments", chance = 500000},\n\t\t\t\t{group = "wearables_all", chance = 2000000},\n\t\t\t\t{group = "power_crystals", chance = 500000}\n\t\t\t}', '{group = "power_crystals", chance = 500000}')]</t>
         </is>
       </c>
     </row>
@@ -3770,7 +3770,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dantooine\kunga_shaman.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dantooine\kunga_scout.lua</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -3790,7 +3790,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dantooine\kunga_soothsayer.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dantooine\kunga_shaman.lua</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -3810,7 +3810,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dantooine\kunga_tribe_member.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dantooine\kunga_soothsayer.lua</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -3830,7 +3830,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dantooine\kunga_warrior.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dantooine\kunga_tribe_member.lua</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -3850,17 +3850,17 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dantooine\mokk_clan_leader.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dantooine\kunga_warrior.lua</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "mokk_common", chance = 100 * (100000)}\n\t\t\t},\n\t\t\tlootChance = 50 * (100000)\n\t\t}', '{\n\t\t\t\t{group = "mokk_common", chance = 100 * (100000)}\n\t\t\t}', '{group = "mokk_common", chance = 100 * (100000)}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "kunga_common", chance = 100 * (100000)}\n\t\t\t},\n\t\t\tlootChance = 50 * (100000)\n\t\t}', '{\n\t\t\t\t{group = "kunga_common", chance = 100 * (100000)}\n\t\t\t}', '{group = "kunga_common", chance = 100 * (100000)}')]</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 3500000},\n\t\t\t\t{group = "loot_kit_parts", chance = 3000000},\n\t\t\t\t{group = "armor_attachments", chance = 500000},\n\t\t\t\t{group = "clothing_attachments", chance = 500000},\n\t\t\t\t{group = "wearables_all", chance = 2000000},\n\t\t\t\t{group = "color_crystals", chance = 500000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 3500000},\n\t\t\t\t{group = "loot_kit_parts", chance = 3000000},\n\t\t\t\t{group = "armor_attachments", chance = 500000},\n\t\t\t\t{group = "clothing_attachments", chance = 500000},\n\t\t\t\t{group = "wearables_all", chance = 2000000},\n\t\t\t\t{group = "color_crystals", chance = 500000}\n\t\t\t}', '{group = "color_crystals", chance = 500000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 3500000},\n\t\t\t\t{group = "loot_kit_parts", chance = 3000000},\n\t\t\t\t{group = "armor_attachments", chance = 500000},\n\t\t\t\t{group = "clothing_attachments", chance = 500000},\n\t\t\t\t{group = "wearables_common", chance = 1000000},\n\t\t\t\t{group = "wearables_uncommon", chance = 1000000},\n\t\t\t\t{group = "power_crystals", chance = 500000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 3500000},\n\t\t\t\t{group = "loot_kit_parts", chance = 3000000},\n\t\t\t\t{group = "armor_attachments", chance = 500000},\n\t\t\t\t{group = "clothing_attachments", chance = 500000},\n\t\t\t\t{group = "wearables_common", chance = 1000000},\n\t\t\t\t{group = "wearables_uncommon", chance = 1000000},\n\t\t\t\t{group = "power_crystals", chance = 500000}\n\t\t\t}', '{group = "power_crystals", chance = 500000}')]</t>
         </is>
       </c>
     </row>
@@ -3870,7 +3870,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dantooine\mokk_clan_primalist.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dantooine\mokk_clan_leader.lua</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 3500000},\n\t\t\t\t{group = "loot_kit_parts", chance = 3000000},\n\t\t\t\t{group = "armor_attachments", chance = 500000},\n\t\t\t\t{group = "clothing_attachments", chance = 500000},\n\t\t\t\t{group = "wearables_common", chance = 1000000},\n\t\t\t\t{group = "wearables_uncommon", chance = 1000000},\n\t\t\t\t{group = "color_crystals", chance = 500000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 3500000},\n\t\t\t\t{group = "loot_kit_parts", chance = 3000000},\n\t\t\t\t{group = "armor_attachments", chance = 500000},\n\t\t\t\t{group = "clothing_attachments", chance = 500000},\n\t\t\t\t{group = "wearables_common", chance = 1000000},\n\t\t\t\t{group = "wearables_uncommon", chance = 1000000},\n\t\t\t\t{group = "color_crystals", chance = 500000}\n\t\t\t}', '{group = "color_crystals", chance = 500000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 3500000},\n\t\t\t\t{group = "loot_kit_parts", chance = 3000000},\n\t\t\t\t{group = "armor_attachments", chance = 500000},\n\t\t\t\t{group = "clothing_attachments", chance = 500000},\n\t\t\t\t{group = "wearables_all", chance = 2000000},\n\t\t\t\t{group = "color_crystals", chance = 500000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 3500000},\n\t\t\t\t{group = "loot_kit_parts", chance = 3000000},\n\t\t\t\t{group = "armor_attachments", chance = 500000},\n\t\t\t\t{group = "clothing_attachments", chance = 500000},\n\t\t\t\t{group = "wearables_all", chance = 2000000},\n\t\t\t\t{group = "color_crystals", chance = 500000}\n\t\t\t}', '{group = "color_crystals", chance = 500000}')]</t>
         </is>
       </c>
     </row>
@@ -3890,7 +3890,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dantooine\mokk_harvester.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dantooine\mokk_clan_primalist.lua</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -3910,7 +3910,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dantooine\mokk_herbalist.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dantooine\mokk_harvester.lua</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -3930,7 +3930,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dantooine\mokk_hunter.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dantooine\mokk_herbalist.lua</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -3950,7 +3950,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dantooine\mokk_loreweaver.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dantooine\mokk_hunter.lua</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -3970,7 +3970,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dantooine\mokk_rockshaper.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dantooine\mokk_loreweaver.lua</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -3980,7 +3980,7 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 3500000},\n\t\t\t\t{group = "loot_kit_parts", chance = 3000000},\n\t\t\t\t{group = "armor_attachments", chance = 500000},\n\t\t\t\t{group = "clothing_attachments", chance = 500000},\n\t\t\t\t{group = "wearables_all", chance = 2000000},\n\t\t\t\t{group = "color_crystals", chance = 500000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 3500000},\n\t\t\t\t{group = "loot_kit_parts", chance = 3000000},\n\t\t\t\t{group = "armor_attachments", chance = 500000},\n\t\t\t\t{group = "clothing_attachments", chance = 500000},\n\t\t\t\t{group = "wearables_all", chance = 2000000},\n\t\t\t\t{group = "color_crystals", chance = 500000}\n\t\t\t}', '{group = "color_crystals", chance = 500000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 3500000},\n\t\t\t\t{group = "loot_kit_parts", chance = 3000000},\n\t\t\t\t{group = "armor_attachments", chance = 500000},\n\t\t\t\t{group = "clothing_attachments", chance = 500000},\n\t\t\t\t{group = "wearables_common", chance = 1000000},\n\t\t\t\t{group = "wearables_uncommon", chance = 1000000},\n\t\t\t\t{group = "color_crystals", chance = 500000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 3500000},\n\t\t\t\t{group = "loot_kit_parts", chance = 3000000},\n\t\t\t\t{group = "armor_attachments", chance = 500000},\n\t\t\t\t{group = "clothing_attachments", chance = 500000},\n\t\t\t\t{group = "wearables_common", chance = 1000000},\n\t\t\t\t{group = "wearables_uncommon", chance = 1000000},\n\t\t\t\t{group = "color_crystals", chance = 500000}\n\t\t\t}', '{group = "color_crystals", chance = 500000}')]</t>
         </is>
       </c>
     </row>
@@ -3990,7 +3990,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dantooine\mokk_scout.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dantooine\mokk_rockshaper.lua</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -4000,7 +4000,7 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 3500000},\n\t\t\t\t{group = "loot_kit_parts", chance = 3000000},\n\t\t\t\t{group = "armor_attachments", chance = 500000},\n\t\t\t\t{group = "clothing_attachments", chance = 500000},\n\t\t\t\t{group = "wearables_common", chance = 1000000},\n\t\t\t\t{group = "wearables_uncommon", chance = 1000000},\n\t\t\t\t{group = "color_crystals", chance = 500000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 3500000},\n\t\t\t\t{group = "loot_kit_parts", chance = 3000000},\n\t\t\t\t{group = "armor_attachments", chance = 500000},\n\t\t\t\t{group = "clothing_attachments", chance = 500000},\n\t\t\t\t{group = "wearables_common", chance = 1000000},\n\t\t\t\t{group = "wearables_uncommon", chance = 1000000},\n\t\t\t\t{group = "color_crystals", chance = 500000}\n\t\t\t}', '{group = "color_crystals", chance = 500000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 3500000},\n\t\t\t\t{group = "loot_kit_parts", chance = 3000000},\n\t\t\t\t{group = "armor_attachments", chance = 500000},\n\t\t\t\t{group = "clothing_attachments", chance = 500000},\n\t\t\t\t{group = "wearables_all", chance = 2000000},\n\t\t\t\t{group = "color_crystals", chance = 500000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 3500000},\n\t\t\t\t{group = "loot_kit_parts", chance = 3000000},\n\t\t\t\t{group = "armor_attachments", chance = 500000},\n\t\t\t\t{group = "clothing_attachments", chance = 500000},\n\t\t\t\t{group = "wearables_all", chance = 2000000},\n\t\t\t\t{group = "color_crystals", chance = 500000}\n\t\t\t}', '{group = "color_crystals", chance = 500000}')]</t>
         </is>
       </c>
     </row>
@@ -4010,7 +4010,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dantooine\mokk_shaman.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dantooine\mokk_scout.lua</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -4020,7 +4020,7 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 5000000},\n\t\t\t\t{group = "loot_kit_parts", chance = 3000000},\n\t\t\t\t{group = "armor_attachments", chance = 500000},\n\t\t\t\t{group = "clothing_attachments", chance = 500000},\n\t\t\t\t{group = "color_crystals", chance = 1000000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 5000000},\n\t\t\t\t{group = "loot_kit_parts", chance = 3000000},\n\t\t\t\t{group = "armor_attachments", chance = 500000},\n\t\t\t\t{group = "clothing_attachments", chance = 500000},\n\t\t\t\t{group = "color_crystals", chance = 1000000}\n\t\t\t}', '{group = "color_crystals", chance = 1000000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 3500000},\n\t\t\t\t{group = "loot_kit_parts", chance = 3000000},\n\t\t\t\t{group = "armor_attachments", chance = 500000},\n\t\t\t\t{group = "clothing_attachments", chance = 500000},\n\t\t\t\t{group = "wearables_common", chance = 1000000},\n\t\t\t\t{group = "wearables_uncommon", chance = 1000000},\n\t\t\t\t{group = "color_crystals", chance = 500000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 3500000},\n\t\t\t\t{group = "loot_kit_parts", chance = 3000000},\n\t\t\t\t{group = "armor_attachments", chance = 500000},\n\t\t\t\t{group = "clothing_attachments", chance = 500000},\n\t\t\t\t{group = "wearables_common", chance = 1000000},\n\t\t\t\t{group = "wearables_uncommon", chance = 1000000},\n\t\t\t\t{group = "color_crystals", chance = 500000}\n\t\t\t}', '{group = "color_crystals", chance = 500000}')]</t>
         </is>
       </c>
     </row>
@@ -4030,7 +4030,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dantooine\mokk_soothsayer.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dantooine\mokk_shaman.lua</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -4040,7 +4040,7 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 3500000},\n\t\t\t\t{group = "loot_kit_parts", chance = 3000000},\n\t\t\t\t{group = "armor_attachments", chance = 500000},\n\t\t\t\t{group = "clothing_attachments", chance = 500000},\n\t\t\t\t{group = "wearables_common", chance = 1000000},\n\t\t\t\t{group = "wearables_uncommon", chance = 1000000},\n\t\t\t\t{group = "color_crystals", chance = 500000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 3500000},\n\t\t\t\t{group = "loot_kit_parts", chance = 3000000},\n\t\t\t\t{group = "armor_attachments", chance = 500000},\n\t\t\t\t{group = "clothing_attachments", chance = 500000},\n\t\t\t\t{group = "wearables_common", chance = 1000000},\n\t\t\t\t{group = "wearables_uncommon", chance = 1000000},\n\t\t\t\t{group = "color_crystals", chance = 500000}\n\t\t\t}', '{group = "color_crystals", chance = 500000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 5000000},\n\t\t\t\t{group = "loot_kit_parts", chance = 3000000},\n\t\t\t\t{group = "armor_attachments", chance = 500000},\n\t\t\t\t{group = "clothing_attachments", chance = 500000},\n\t\t\t\t{group = "color_crystals", chance = 1000000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 5000000},\n\t\t\t\t{group = "loot_kit_parts", chance = 3000000},\n\t\t\t\t{group = "armor_attachments", chance = 500000},\n\t\t\t\t{group = "clothing_attachments", chance = 500000},\n\t\t\t\t{group = "color_crystals", chance = 1000000}\n\t\t\t}', '{group = "color_crystals", chance = 1000000}')]</t>
         </is>
       </c>
     </row>
@@ -4050,7 +4050,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dantooine\mokk_tribesman.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dantooine\mokk_soothsayer.lua</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -4070,7 +4070,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dantooine\mokk_warrior.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dantooine\mokk_tribesman.lua</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -4090,17 +4090,17 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dantooine\untrained_wielder_of_the_dark_side.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dantooine\mokk_warrior.lua</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "art_alderaan2", chance = 10000000}\n\t\t\t},\n\t\t\tlootChance = 500000\n\t\t}', '{\n\t\t\t\t{group = "art_alderaan2", chance = 10000000}\n\t\t\t}', '{group = "art_alderaan2", chance = 10000000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "mokk_common", chance = 100 * (100000)}\n\t\t\t},\n\t\t\tlootChance = 50 * (100000)\n\t\t}', '{\n\t\t\t\t{group = "mokk_common", chance = 100 * (100000)}\n\t\t\t}', '{group = "mokk_common", chance = 100 * (100000)}')]</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 3500000},\n\t\t\t\t{group = "power_crystals", chance = 500000},\n\t\t\t\t{group = "color_crystals", chance = 500000},\n\t\t\t\t{group = "holocron_dark", chance = 500000},\n\t\t\t\t{group = "holocron_light", chance = 500000},\n\t\t\t\t{group = "melee_weapons", chance = 1000000},\n\t\t\t\t{group = "armor_attachments", chance = 1000000},\n\t\t\t\t{group = "clothing_attachments", chance = 1000000},\n\t\t\t\t{group = "wearables_uncommon", chance = 750000},\n\t\t\t\t{group = "wearables_common", chance = 750000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 3500000},\n\t\t\t\t{group = "power_crystals", chance = 500000},\n\t\t\t\t{group = "color_crystals", chance = 500000},\n\t\t\t\t{group = "holocron_dark", chance = 500000},\n\t\t\t\t{group = "holocron_light", chance = 500000},\n\t\t\t\t{group = "melee_weapons", chance = 1000000},\n\t\t\t\t{group = "armor_attachments", chance = 1000000},\n\t\t\t\t{group = "clothing_attachments", chance = 1000000},\n\t\t\t\t{group = "wearables_uncommon", chance = 750000},\n\t\t\t\t{group = "wearables_common", chance = 750000}\n\t\t\t}', '{group = "wearables_common", chance = 750000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 3500000},\n\t\t\t\t{group = "loot_kit_parts", chance = 3000000},\n\t\t\t\t{group = "armor_attachments", chance = 500000},\n\t\t\t\t{group = "clothing_attachments", chance = 500000},\n\t\t\t\t{group = "wearables_common", chance = 1000000},\n\t\t\t\t{group = "wearables_uncommon", chance = 1000000},\n\t\t\t\t{group = "color_crystals", chance = 500000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 3500000},\n\t\t\t\t{group = "loot_kit_parts", chance = 3000000},\n\t\t\t\t{group = "armor_attachments", chance = 500000},\n\t\t\t\t{group = "clothing_attachments", chance = 500000},\n\t\t\t\t{group = "wearables_common", chance = 1000000},\n\t\t\t\t{group = "wearables_uncommon", chance = 1000000},\n\t\t\t\t{group = "color_crystals", chance = 500000}\n\t\t\t}', '{group = "color_crystals", chance = 500000}')]</t>
         </is>
       </c>
     </row>
@@ -4110,17 +4110,17 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dathomir\ancient_bull_rancor.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dantooine\untrained_wielder_of_the_dark_side.lua</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "captain_ring_group", chance = 10000000},\n\t\t\t},\n\t\t\tlootChance = .25 * (100000)\n\t\t}', '{\n\t\t\t\t{group = "captain_ring_group", chance = 10000000},\n\t\t\t}', '{group = "captain_ring_group", chance = 10000000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "art_alderaan2", chance = 10000000}\n\t\t\t},\n\t\t\tlootChance = 500000\n\t\t}', '{\n\t\t\t\t{group = "art_alderaan2", chance = 10000000}\n\t\t\t}', '{group = "art_alderaan2", chance = 10000000}')]</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "rancor_common", chance = 4000000},\n\t\t\t\t{group = "armor_all", chance = 2000000},\n\t\t\t\t{group = "weapons_all", chance = 2500000},\n\t\t\t\t{group = "wearables_all", chance = 1500000}\n\t\t\t},\n\t\t\tlootChance = 2960000\n\t\t}', '{\n\t\t\t\t{group = "rancor_common", chance = 4000000},\n\t\t\t\t{group = "armor_all", chance = 2000000},\n\t\t\t\t{group = "weapons_all", chance = 2500000},\n\t\t\t\t{group = "wearables_all", chance = 1500000}\n\t\t\t}', '{group = "wearables_all", chance = 1500000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 3500000},\n\t\t\t\t{group = "power_crystals", chance = 500000},\n\t\t\t\t{group = "color_crystals", chance = 500000},\n\t\t\t\t{group = "holocron_dark", chance = 500000},\n\t\t\t\t{group = "holocron_light", chance = 500000},\n\t\t\t\t{group = "melee_weapons", chance = 1000000},\n\t\t\t\t{group = "armor_attachments", chance = 1000000},\n\t\t\t\t{group = "clothing_attachments", chance = 1000000},\n\t\t\t\t{group = "wearables_uncommon", chance = 750000},\n\t\t\t\t{group = "wearables_common", chance = 750000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 3500000},\n\t\t\t\t{group = "power_crystals", chance = 500000},\n\t\t\t\t{group = "color_crystals", chance = 500000},\n\t\t\t\t{group = "holocron_dark", chance = 500000},\n\t\t\t\t{group = "holocron_light", chance = 500000},\n\t\t\t\t{group = "melee_weapons", chance = 1000000},\n\t\t\t\t{group = "armor_attachments", chance = 1000000},\n\t\t\t\t{group = "clothing_attachments", chance = 1000000},\n\t\t\t\t{group = "wearables_uncommon", chance = 750000},\n\t\t\t\t{group = "wearables_common", chance = 750000}\n\t\t\t}', '{group = "wearables_common", chance = 750000}')]</t>
         </is>
       </c>
     </row>
@@ -4130,17 +4130,17 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dathomir\axkva_min.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dathomir\ancient_bull_rancor.lua</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>[('{ \t-- Jedi Specific Loot Group 2 - 40%\n\t\t\tgroups ={\n\t\t\t\t{group = "jedi_clothing_attachments", chance = 4000000},\t-- 40% * 40% = 16%\n\t\t\t\t{group = "ngerobes2", chance = 6000000}\t                    -- 40% * 60% = 24%\n\t\t\n\t\t\t},\n\t\t\tlootChance = 4000000,\n\t\t}', '{\n\t\t\t\t{group = "jedi_clothing_attachments", chance = 4000000},\t-- 40% * 40% = 16%\n\t\t\t\t{group = "ngerobes2", chance = 6000000}\t                    -- 40% * 60% = 24%\n\t\t\n\t\t\t}', '{group = "ngerobes2", chance = 6000000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "captain_ring_group", chance = 10000000},\n\t\t\t},\n\t\t\tlootChance = .25 * (100000)\n\t\t}', '{\n\t\t\t\t{group = "captain_ring_group", chance = 10000000},\n\t\t\t}', '{group = "captain_ring_group", chance = 10000000}')]</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "axkva_min", chance = 10000000},\n\t\t\t},\n\t\t\tlootChance = 5000000\n\t\t}', '{\n\t\t\t\t{group = "axkva_min", chance = 10000000},\n\t\t\t}', '{group = "axkva_min", chance = 10000000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "rancor_common", chance = 4000000},\n\t\t\t\t{group = "armor_all", chance = 2000000},\n\t\t\t\t{group = "weapons_all", chance = 2500000},\n\t\t\t\t{group = "wearables_all", chance = 1500000}\n\t\t\t},\n\t\t\tlootChance = 2960000\n\t\t}', '{\n\t\t\t\t{group = "rancor_common", chance = 4000000},\n\t\t\t\t{group = "armor_all", chance = 2000000},\n\t\t\t\t{group = "weapons_all", chance = 2500000},\n\t\t\t\t{group = "wearables_all", chance = 1500000}\n\t\t\t}', '{group = "wearables_all", chance = 1500000}')]</t>
         </is>
       </c>
     </row>
@@ -4150,17 +4150,17 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dathomir\bull_rancor.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dathomir\axkva_min.lua</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "rancor_common", chance = 6500000},\n\t\t\t\t{group = "weapons_all", chance = 3500000},\n\t\t\t},\n\t\t\tlootChance = 3500000\n\t\t}', '{\n\t\t\t\t{group = "rancor_common", chance = 6500000},\n\t\t\t\t{group = "weapons_all", chance = 3500000},\n\t\t\t}', '{group = "weapons_all", chance = 3500000}')]</t>
+          <t>[('{ \t-- Jedi Specific Loot Group 2 - 40%\n\t\t\tgroups ={\n\t\t\t\t{group = "jedi_clothing_attachments", chance = 4000000},\t-- 40% * 40% = 16%\n\t\t\t\t{group = "ngerobes2", chance = 6000000}\t                    -- 40% * 60% = 24%\n\t\t\n\t\t\t},\n\t\t\tlootChance = 4000000,\n\t\t}', '{\n\t\t\t\t{group = "jedi_clothing_attachments", chance = 4000000},\t-- 40% * 40% = 16%\n\t\t\t\t{group = "ngerobes2", chance = 6000000}\t                    -- 40% * 60% = 24%\n\t\t\n\t\t\t}', '{group = "ngerobes2", chance = 6000000}')]</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "rancor_common", chance = 4000000},\n\t\t\t\t{group = "armor_all", chance = 2000000},\n\t\t\t\t{group = "weapons_all", chance = 2500000},\n\t\t\t\t{group = "wearables_all", chance = 1500000}\n\t\t\t},\n\t\t\tlootChance = 2300000\n\t\t}', '{\n\t\t\t\t{group = "rancor_common", chance = 4000000},\n\t\t\t\t{group = "armor_all", chance = 2000000},\n\t\t\t\t{group = "weapons_all", chance = 2500000},\n\t\t\t\t{group = "wearables_all", chance = 1500000}\n\t\t\t}', '{group = "wearables_all", chance = 1500000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "axkva_min", chance = 10000000},\n\t\t\t},\n\t\t\tlootChance = 5000000\n\t\t}', '{\n\t\t\t\t{group = "axkva_min", chance = 10000000},\n\t\t\t}', '{group = "axkva_min", chance = 10000000}')]</t>
         </is>
       </c>
     </row>
@@ -4170,17 +4170,17 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dathomir\cavern_spider.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dathomir\bull_rancor.lua</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>[('{\n\t        groups = {\n\t\t\t\t{group = "geonosian_common", chance = 5000000},\n\t\t\t\t{group = "geonosian_cubes", chance = 2500000},\n\t\t\t\t{group = "weapons_all", chance = 2500000}\n\t\t\t},\n\t\t\tlootChance = 10000000\n\t\t}', '{\n\t\t\t\t{group = "geonosian_common", chance = 5000000},\n\t\t\t\t{group = "geonosian_cubes", chance = 2500000},\n\t\t\t\t{group = "weapons_all", chance = 2500000}\n\t\t\t}', '{group = "weapons_all", chance = 2500000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "rancor_common", chance = 6500000},\n\t\t\t\t{group = "weapons_all", chance = 3500000},\n\t\t\t},\n\t\t\tlootChance = 3500000\n\t\t}', '{\n\t\t\t\t{group = "rancor_common", chance = 6500000},\n\t\t\t\t{group = "weapons_all", chance = 3500000},\n\t\t\t}', '{group = "weapons_all", chance = 3500000}')]</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>[('', '', '')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "rancor_common", chance = 4000000},\n\t\t\t\t{group = "armor_all", chance = 2000000},\n\t\t\t\t{group = "weapons_all", chance = 2500000},\n\t\t\t\t{group = "wearables_all", chance = 1500000}\n\t\t\t},\n\t\t\tlootChance = 2300000\n\t\t}', '{\n\t\t\t\t{group = "rancor_common", chance = 4000000},\n\t\t\t\t{group = "armor_all", chance = 2000000},\n\t\t\t\t{group = "weapons_all", chance = 2500000},\n\t\t\t\t{group = "wearables_all", chance = 1500000}\n\t\t\t}', '{group = "wearables_all", chance = 1500000}')]</t>
         </is>
       </c>
     </row>
@@ -4190,17 +4190,17 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dathomir\enraged_bull_rancor.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dathomir\cavern_spider.lua</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "rancor_common", chance = 6500000},\n\t\t\t\t{group = "weapons_all", chance = 3500000},\n\t\t\t},\n\t\t\tlootChance = 3500000\n\t\t}', '{\n\t\t\t\t{group = "rancor_common", chance = 6500000},\n\t\t\t\t{group = "weapons_all", chance = 3500000},\n\t\t\t}', '{group = "weapons_all", chance = 3500000}')]</t>
+          <t>[('{\n\t        groups = {\n\t\t\t\t{group = "geonosian_common", chance = 5000000},\n\t\t\t\t{group = "geonosian_cubes", chance = 2500000},\n\t\t\t\t{group = "weapons_all", chance = 2500000}\n\t\t\t},\n\t\t\tlootChance = 10000000\n\t\t}', '{\n\t\t\t\t{group = "geonosian_common", chance = 5000000},\n\t\t\t\t{group = "geonosian_cubes", chance = 2500000},\n\t\t\t\t{group = "weapons_all", chance = 2500000}\n\t\t\t}', '{group = "weapons_all", chance = 2500000}')]</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "rancor_common", chance = 4000000},\n\t\t\t\t{group = "armor_all", chance = 2000000},\n\t\t\t\t{group = "weapons_all", chance = 2500000},\n\t\t\t\t{group = "wearables_all", chance = 1500000}\n\t\t\t},\n\t\t\tlootChance = 2780000\n\t\t}', '{\n\t\t\t\t{group = "rancor_common", chance = 4000000},\n\t\t\t\t{group = "armor_all", chance = 2000000},\n\t\t\t\t{group = "weapons_all", chance = 2500000},\n\t\t\t\t{group = "wearables_all", chance = 1500000}\n\t\t\t}', '{group = "wearables_all", chance = 1500000}')]</t>
+          <t>[('', '', '')]</t>
         </is>
       </c>
     </row>
@@ -4210,7 +4210,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dathomir\enraged_rancor.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dathomir\enraged_bull_rancor.lua</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -4220,7 +4220,7 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "rancor_common", chance = 4000000},\n\t\t\t\t{group = "armor_all", chance = 2000000},\n\t\t\t\t{group = "weapons_all", chance = 2500000},\n\t\t\t\t{group = "wearables_all", chance = 1500000}\n\t\t\t},\n\t\t\tlootChance = 2600000\n\t\t}', '{\n\t\t\t\t{group = "rancor_common", chance = 4000000},\n\t\t\t\t{group = "armor_all", chance = 2000000},\n\t\t\t\t{group = "weapons_all", chance = 2500000},\n\t\t\t\t{group = "wearables_all", chance = 1500000}\n\t\t\t}', '{group = "wearables_all", chance = 1500000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "rancor_common", chance = 4000000},\n\t\t\t\t{group = "armor_all", chance = 2000000},\n\t\t\t\t{group = "weapons_all", chance = 2500000},\n\t\t\t\t{group = "wearables_all", chance = 1500000}\n\t\t\t},\n\t\t\tlootChance = 2780000\n\t\t}', '{\n\t\t\t\t{group = "rancor_common", chance = 4000000},\n\t\t\t\t{group = "armor_all", chance = 2000000},\n\t\t\t\t{group = "weapons_all", chance = 2500000},\n\t\t\t\t{group = "wearables_all", chance = 1500000}\n\t\t\t}', '{group = "wearables_all", chance = 1500000}')]</t>
         </is>
       </c>
     </row>
@@ -4230,17 +4230,17 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dathomir\escaped_nightsister_slave.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dathomir\enraged_rancor.lua</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "combat_practice", chance = 100 * (100000)}\n\t\t\t},\n\t\t\tlootChance = 25 * (100000)\n\t\t}', '{\n\t\t\t\t{group = "combat_practice", chance = 100 * (100000)}\n\t\t\t}', '{group = "combat_practice", chance = 100 * (100000)}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "rancor_common", chance = 6500000},\n\t\t\t\t{group = "weapons_all", chance = 3500000},\n\t\t\t},\n\t\t\tlootChance = 3500000\n\t\t}', '{\n\t\t\t\t{group = "rancor_common", chance = 6500000},\n\t\t\t\t{group = "weapons_all", chance = 3500000},\n\t\t\t}', '{group = "weapons_all", chance = 3500000}')]</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "nightsister_common", chance = 500000},\n\t\t\t\t{group = "junk", chance = 4500000},\n\t\t\t\t{group = "tailor_components", chance = 2000000},\n\t\t\t\t{group = "loot_kit_parts", chance = 1500000},\n\t\t\t\t{group = "wearables_common", chance = 1500000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "nightsister_common", chance = 500000},\n\t\t\t\t{group = "junk", chance = 4500000},\n\t\t\t\t{group = "tailor_components", chance = 2000000},\n\t\t\t\t{group = "loot_kit_parts", chance = 1500000},\n\t\t\t\t{group = "wearables_common", chance = 1500000}\n\t\t\t}', '{group = "wearables_common", chance = 1500000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "rancor_common", chance = 4000000},\n\t\t\t\t{group = "armor_all", chance = 2000000},\n\t\t\t\t{group = "weapons_all", chance = 2500000},\n\t\t\t\t{group = "wearables_all", chance = 1500000}\n\t\t\t},\n\t\t\tlootChance = 2600000\n\t\t}', '{\n\t\t\t\t{group = "rancor_common", chance = 4000000},\n\t\t\t\t{group = "armor_all", chance = 2000000},\n\t\t\t\t{group = "weapons_all", chance = 2500000},\n\t\t\t\t{group = "wearables_all", chance = 1500000}\n\t\t\t}', '{group = "wearables_all", chance = 1500000}')]</t>
         </is>
       </c>
     </row>
@@ -4250,17 +4250,17 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dathomir\kiin_dray.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dathomir\escaped_nightsister_slave.lua</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "fire_breathing_spider", chance = 10000000},  -- 100% * 10% = 10%\n\t\t\t},\n\t\t\tlootChance = 1000000,    -- 10% chance for this loot group\n\t\t}', '{\n\t\t\t\t{group = "fire_breathing_spider", chance = 10000000},  -- 100% * 10% = 10%\n\t\t\t}', '{group = "fire_breathing_spider", chance = 10000000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "combat_practice", chance = 100 * (100000)}\n\t\t\t},\n\t\t\tlootChance = 25 * (100000)\n\t\t}', '{\n\t\t\t\t{group = "combat_practice", chance = 100 * (100000)}\n\t\t\t}', '{group = "combat_practice", chance = 100 * (100000)}')]</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>[('', '', '')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "nightsister_common", chance = 500000},\n\t\t\t\t{group = "junk", chance = 4500000},\n\t\t\t\t{group = "tailor_components", chance = 2000000},\n\t\t\t\t{group = "loot_kit_parts", chance = 1500000},\n\t\t\t\t{group = "wearables_common", chance = 1500000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "nightsister_common", chance = 500000},\n\t\t\t\t{group = "junk", chance = 4500000},\n\t\t\t\t{group = "tailor_components", chance = 2000000},\n\t\t\t\t{group = "loot_kit_parts", chance = 1500000},\n\t\t\t\t{group = "wearables_common", chance = 1500000}\n\t\t\t}', '{group = "wearables_common", chance = 1500000}')]</t>
         </is>
       </c>
     </row>
@@ -4270,17 +4270,17 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dathomir\monstrous_brute.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dathomir\kiin_dray.lua</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "captain_ring_group", chance = 10000000},\n\t\t\t},\n\t\t\tlootChance = 1 * (100000)\n\t\t}', '{\n\t\t\t\t{group = "captain_ring_group", chance = 10000000},\n\t\t\t}', '{group = "captain_ring_group", chance = 10000000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "fire_breathing_spider", chance = 10000000},  -- 100% * 10% = 10%\n\t\t\t},\n\t\t\tlootChance = 1000000,    -- 10% chance for this loot group\n\t\t}', '{\n\t\t\t\t{group = "fire_breathing_spider", chance = 10000000},  -- 100% * 10% = 10%\n\t\t\t}', '{group = "fire_breathing_spider", chance = 10000000}')]</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "rancor_common", chance = 4000000},\n\t\t\t\t{group = "armor_all", chance = 2000000},\n\t\t\t\t{group = "weapons_all", chance = 2500000},\n\t\t\t\t{group = "wearables_all", chance = 1500000}\n\t\t\t},\n\t\t\tlootChance = 2740000\n\t\t}', '{\n\t\t\t\t{group = "rancor_common", chance = 4000000},\n\t\t\t\t{group = "armor_all", chance = 2000000},\n\t\t\t\t{group = "weapons_all", chance = 2500000},\n\t\t\t\t{group = "wearables_all", chance = 1500000}\n\t\t\t}', '{group = "wearables_all", chance = 1500000}')]</t>
+          <t>[('', '', '')]</t>
         </is>
       </c>
     </row>
@@ -4290,17 +4290,17 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dathomir\nightsister_bull_rancor.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dathomir\monstrous_brute.lua</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "rancor_common", chance = 4000000},\n\t\t\t\t{group = "armor_all", chance = 2000000},\n\t\t\t\t{group = "weapons_all", chance = 2500000},\n\t\t\t\t{group = "wearables_all", chance = 1500000}\n\t\t\t},\n\t\t\tlootChance = 1000000\n\t\t}', '{\n\t\t\t\t{group = "rancor_common", chance = 4000000},\n\t\t\t\t{group = "armor_all", chance = 2000000},\n\t\t\t\t{group = "weapons_all", chance = 2500000},\n\t\t\t\t{group = "wearables_all", chance = 1500000}\n\t\t\t}', '{group = "wearables_all", chance = 1500000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "captain_ring_group", chance = 10000000},\n\t\t\t},\n\t\t\tlootChance = 1 * (100000)\n\t\t}', '{\n\t\t\t\t{group = "captain_ring_group", chance = 10000000},\n\t\t\t}', '{group = "captain_ring_group", chance = 10000000}')]</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "rancor_common", chance = 4000000},\n\t\t\t\t{group = "armor_all", chance = 2000000},\n\t\t\t\t{group = "weapons_all", chance = 2500000},\n\t\t\t\t{group = "wearables_all", chance = 1500000}\n\t\t\t},\n\t\t\tlootChance = 2300000\n\t\t}', '{\n\t\t\t\t{group = "rancor_common", chance = 4000000},\n\t\t\t\t{group = "armor_all", chance = 2000000},\n\t\t\t\t{group = "weapons_all", chance = 2500000},\n\t\t\t\t{group = "wearables_all", chance = 1500000}\n\t\t\t}', '{group = "wearables_all", chance = 1500000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "rancor_common", chance = 4000000},\n\t\t\t\t{group = "armor_all", chance = 2000000},\n\t\t\t\t{group = "weapons_all", chance = 2500000},\n\t\t\t\t{group = "wearables_all", chance = 1500000}\n\t\t\t},\n\t\t\tlootChance = 2740000\n\t\t}', '{\n\t\t\t\t{group = "rancor_common", chance = 4000000},\n\t\t\t\t{group = "armor_all", chance = 2000000},\n\t\t\t\t{group = "weapons_all", chance = 2500000},\n\t\t\t\t{group = "wearables_all", chance = 1500000}\n\t\t\t}', '{group = "wearables_all", chance = 1500000}')]</t>
         </is>
       </c>
     </row>
@@ -4310,17 +4310,17 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dathomir\nightsister_elder.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dathomir\nightsister_bull_rancor.lua</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "captain_ring_group", chance = 10000000},\n\t\t\t},\n\t\t\tlootChance = .15 * (100000)\n\t\t}', '{\n\t\t\t\t{group = "captain_ring_group", chance = 10000000},\n\t\t\t}', '{group = "captain_ring_group", chance = 10000000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "rancor_common", chance = 4000000},\n\t\t\t\t{group = "armor_all", chance = 2000000},\n\t\t\t\t{group = "weapons_all", chance = 2500000},\n\t\t\t\t{group = "wearables_all", chance = 1500000}\n\t\t\t},\n\t\t\tlootChance = 1000000\n\t\t}', '{\n\t\t\t\t{group = "rancor_common", chance = 4000000},\n\t\t\t\t{group = "armor_all", chance = 2000000},\n\t\t\t\t{group = "weapons_all", chance = 2500000},\n\t\t\t\t{group = "wearables_all", chance = 1500000}\n\t\t\t}', '{group = "wearables_all", chance = 1500000}')]</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "power_crystals", chance = 800000},\n\t\t\t\t{group = "nightsister_common", chance = 2200000},\n\t\t\t\t{group = "junk", chance = 1000000},\n\t\t\t\t{group = "armor_attachments", chance = 500000},\n\t\t\t\t{group = "clothing_attachments", chance = 500000},\n\t\t\t\t{group = "pistols", chance = 800000},\n\t\t\t\t{group = "rifles", chance = 800000},\n\t\t\t\t{group = "carbines", chance = 900000},\n\t\t\t\t{group = "melee_weapons", chance = 2000000},\n\t\t\t\t{group = "wearables_scarce", chance = 500000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "power_crystals", chance = 800000},\n\t\t\t\t{group = "nightsister_common", chance = 2200000},\n\t\t\t\t{group = "junk", chance = 1000000},\n\t\t\t\t{group = "armor_attachments", chance = 500000},\n\t\t\t\t{group = "clothing_attachments", chance = 500000},\n\t\t\t\t{group = "pistols", chance = 800000},\n\t\t\t\t{group = "rifles", chance = 800000},\n\t\t\t\t{group = "carbines", chance = 900000},\n\t\t\t\t{group = "melee_weapons", chance = 2000000},\n\t\t\t\t{group = "wearables_scarce", chance = 500000}\n\t\t\t}', '{group = "wearables_scarce", chance = 500000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "rancor_common", chance = 4000000},\n\t\t\t\t{group = "armor_all", chance = 2000000},\n\t\t\t\t{group = "weapons_all", chance = 2500000},\n\t\t\t\t{group = "wearables_all", chance = 1500000}\n\t\t\t},\n\t\t\tlootChance = 2300000\n\t\t}', '{\n\t\t\t\t{group = "rancor_common", chance = 4000000},\n\t\t\t\t{group = "armor_all", chance = 2000000},\n\t\t\t\t{group = "weapons_all", chance = 2500000},\n\t\t\t\t{group = "wearables_all", chance = 1500000}\n\t\t\t}', '{group = "wearables_all", chance = 1500000}')]</t>
         </is>
       </c>
     </row>
@@ -4330,17 +4330,17 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dathomir\nightsister_enraged_bull_rancor.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dathomir\nightsister_elder.lua</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "rancor_common", chance = 4000000},\n\t\t\t\t{group = "armor_all", chance = 2000000},\n\t\t\t\t{group = "weapons_all", chance = 2500000},\n\t\t\t\t{group = "wearables_all", chance = 1500000}\n\t\t\t},\n\t\t\tlootChance = 10000000\n\t\t}', '{\n\t\t\t\t{group = "rancor_common", chance = 4000000},\n\t\t\t\t{group = "armor_all", chance = 2000000},\n\t\t\t\t{group = "weapons_all", chance = 2500000},\n\t\t\t\t{group = "wearables_all", chance = 1500000}\n\t\t\t}', '{group = "wearables_all", chance = 1500000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "captain_ring_group", chance = 10000000},\n\t\t\t},\n\t\t\tlootChance = .15 * (100000)\n\t\t}', '{\n\t\t\t\t{group = "captain_ring_group", chance = 10000000},\n\t\t\t}', '{group = "captain_ring_group", chance = 10000000}')]</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "rancor_common", chance = 4000000},\n\t\t\t\t{group = "armor_all", chance = 2000000},\n\t\t\t\t{group = "weapons_all", chance = 2500000},\n\t\t\t\t{group = "wearables_all", chance = 1500000}\n\t\t\t},\n\t\t\tlootChance = 2780000\n\t\t}', '{\n\t\t\t\t{group = "rancor_common", chance = 4000000},\n\t\t\t\t{group = "armor_all", chance = 2000000},\n\t\t\t\t{group = "weapons_all", chance = 2500000},\n\t\t\t\t{group = "wearables_all", chance = 1500000}\n\t\t\t}', '{group = "wearables_all", chance = 1500000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "power_crystals", chance = 800000},\n\t\t\t\t{group = "nightsister_common", chance = 2200000},\n\t\t\t\t{group = "junk", chance = 1000000},\n\t\t\t\t{group = "armor_attachments", chance = 500000},\n\t\t\t\t{group = "clothing_attachments", chance = 500000},\n\t\t\t\t{group = "pistols", chance = 800000},\n\t\t\t\t{group = "rifles", chance = 800000},\n\t\t\t\t{group = "carbines", chance = 900000},\n\t\t\t\t{group = "melee_weapons", chance = 2000000},\n\t\t\t\t{group = "wearables_scarce", chance = 500000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "power_crystals", chance = 800000},\n\t\t\t\t{group = "nightsister_common", chance = 2200000},\n\t\t\t\t{group = "junk", chance = 1000000},\n\t\t\t\t{group = "armor_attachments", chance = 500000},\n\t\t\t\t{group = "clothing_attachments", chance = 500000},\n\t\t\t\t{group = "pistols", chance = 800000},\n\t\t\t\t{group = "rifles", chance = 800000},\n\t\t\t\t{group = "carbines", chance = 900000},\n\t\t\t\t{group = "melee_weapons", chance = 2000000},\n\t\t\t\t{group = "wearables_scarce", chance = 500000}\n\t\t\t}', '{group = "wearables_scarce", chance = 500000}')]</t>
         </is>
       </c>
     </row>
@@ -4350,7 +4350,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dathomir\nightsister_enraged_rancor.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dathomir\nightsister_enraged_bull_rancor.lua</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "rancor_common", chance = 4000000},\n\t\t\t\t{group = "armor_all", chance = 2000000},\n\t\t\t\t{group = "weapons_all", chance = 2500000},\n\t\t\t\t{group = "wearables_all", chance = 1500000}\n\t\t\t},\n\t\t\tlootChance = 2600000\n\t\t}', '{\n\t\t\t\t{group = "rancor_common", chance = 4000000},\n\t\t\t\t{group = "armor_all", chance = 2000000},\n\t\t\t\t{group = "weapons_all", chance = 2500000},\n\t\t\t\t{group = "wearables_all", chance = 1500000}\n\t\t\t}', '{group = "wearables_all", chance = 1500000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "rancor_common", chance = 4000000},\n\t\t\t\t{group = "armor_all", chance = 2000000},\n\t\t\t\t{group = "weapons_all", chance = 2500000},\n\t\t\t\t{group = "wearables_all", chance = 1500000}\n\t\t\t},\n\t\t\tlootChance = 2780000\n\t\t}', '{\n\t\t\t\t{group = "rancor_common", chance = 4000000},\n\t\t\t\t{group = "armor_all", chance = 2000000},\n\t\t\t\t{group = "weapons_all", chance = 2500000},\n\t\t\t\t{group = "wearables_all", chance = 1500000}\n\t\t\t}', '{group = "wearables_all", chance = 1500000}')]</t>
         </is>
       </c>
     </row>
@@ -4370,17 +4370,17 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dathomir\nightsister_initiate.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dathomir\nightsister_enraged_rancor.lua</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t\n\t\t\t\t{group = "art_illum12", chance = 10000000},\n\t\t\t},\n\t\t\tlootChance = 500000,  -- 5% chance for this group\n\t\t}', '{\n\t\t\t\t\n\t\t\t\t{group = "art_illum12", chance = 10000000},\n\t\t\t}', '{group = "art_illum12", chance = 10000000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "rancor_common", chance = 4000000},\n\t\t\t\t{group = "armor_all", chance = 2000000},\n\t\t\t\t{group = "weapons_all", chance = 2500000},\n\t\t\t\t{group = "wearables_all", chance = 1500000}\n\t\t\t},\n\t\t\tlootChance = 10000000\n\t\t}', '{\n\t\t\t\t{group = "rancor_common", chance = 4000000},\n\t\t\t\t{group = "armor_all", chance = 2000000},\n\t\t\t\t{group = "weapons_all", chance = 2500000},\n\t\t\t\t{group = "wearables_all", chance = 1500000}\n\t\t\t}', '{group = "wearables_all", chance = 1500000}')]</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "power_crystals", chance = 500000},\n\t\t\t\t{group = "color_crystals", chance = 500000},\n\t\t\t\t{group = "nightsister_common", chance = 2000000},\n\t\t\t\t{group = "armor_attachments", chance = 250000},\n\t\t\t\t{group = "clothing_attachments", chance = 250000},\n\t\t\t\t{group = "melee_weapons", chance = 2500000},\n\t\t\t\t{group = "rifles", chance = 1000000},\n\t\t\t\t{group = "pistols", chance = 1000000},\n\t\t\t\t{group = "carbines", chance = 1000000},\n\t\t\t\t{group = "wearables_common", chance = 500000},\n\t\t\t\t{group = "tailor_components", chance = 500000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "power_crystals", chance = 500000},\n\t\t\t\t{group = "color_crystals", chance = 500000},\n\t\t\t\t{group = "nightsister_common", chance = 2000000},\n\t\t\t\t{group = "armor_attachments", chance = 250000},\n\t\t\t\t{group = "clothing_attachments", chance = 250000},\n\t\t\t\t{group = "melee_weapons", chance = 2500000},\n\t\t\t\t{group = "rifles", chance = 1000000},\n\t\t\t\t{group = "pistols", chance = 1000000},\n\t\t\t\t{group = "carbines", chance = 1000000},\n\t\t\t\t{group = "wearables_common", chance = 500000},\n\t\t\t\t{group = "tailor_components", chance = 500000}\n\t\t\t}', '{group = "tailor_components", chance = 500000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "rancor_common", chance = 4000000},\n\t\t\t\t{group = "armor_all", chance = 2000000},\n\t\t\t\t{group = "weapons_all", chance = 2500000},\n\t\t\t\t{group = "wearables_all", chance = 1500000}\n\t\t\t},\n\t\t\tlootChance = 2600000\n\t\t}', '{\n\t\t\t\t{group = "rancor_common", chance = 4000000},\n\t\t\t\t{group = "armor_all", chance = 2000000},\n\t\t\t\t{group = "weapons_all", chance = 2500000},\n\t\t\t\t{group = "wearables_all", chance = 1500000}\n\t\t\t}', '{group = "wearables_all", chance = 1500000}')]</t>
         </is>
       </c>
     </row>
@@ -4390,12 +4390,12 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dathomir\nightsister_outcast.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dathomir\nightsister_initiate.lua</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "combat_practice", chance = 100 * (100000)}\n\t\t\t},\n\t\t\tlootChance = 25 * (100000)\n\t\t}', '{\n\t\t\t\t{group = "combat_practice", chance = 100 * (100000)}\n\t\t\t}', '{group = "combat_practice", chance = 100 * (100000)}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t\n\t\t\t\t{group = "art_illum12", chance = 10000000},\n\t\t\t},\n\t\t\tlootChance = 500000,  -- 5% chance for this group\n\t\t}', '{\n\t\t\t\t\n\t\t\t\t{group = "art_illum12", chance = 10000000},\n\t\t\t}', '{group = "art_illum12", chance = 10000000}')]</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -4410,17 +4410,17 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dathomir\nightsister_protector.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dathomir\nightsister_outcast.lua</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>[('{ -- Jedi Specific Loot Group\n\t\t\tgroups =\n\t\t\t{\n\t\t\t\t{group = "jedi_clothing_attachments", chance = 5000000},   -- 7.5% * 50% = 3.75%\n\t\t\t\t{group = "named_crystals", chance = 5000000},\n\t\t\t},\n\t\t\tlootChance = 750000,   -- 7.5% chance for this group\n\t\t}', '{\n\t\t\t\t{group = "jedi_clothing_attachments", chance = 5000000},   -- 7.5% * 50% = 3.75%\n\t\t\t\t{group = "named_crystals", chance = 5000000},\n\t\t\t}', '{group = "named_crystals", chance = 5000000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "combat_practice", chance = 100 * (100000)}\n\t\t\t},\n\t\t\tlootChance = 25 * (100000)\n\t\t}', '{\n\t\t\t\t{group = "combat_practice", chance = 100 * (100000)}\n\t\t\t}', '{group = "combat_practice", chance = 100 * (100000)}')]</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "power_crystals", chance = 500000},\n\t\t\t\t{group = "color_crystals", chance = 500000},\n\t\t\t\t{group = "nightsister_common", chance = 2300000},\n\t\t\t\t{group = "armor_attachments", chance = 350000},\n\t\t\t\t{group = "clothing_attachments", chance = 350000},\n\t\t\t\t{group = "melee_weapons", chance = 2000000},\n\t\t\t\t{group = "rifles", chance = 1000000},\n\t\t\t\t{group = "pistols", chance = 1000000},\n\t\t\t\t{group = "carbines", chance = 1000000},\n\t\t\t\t{group = "wearables_common", chance = 500000},\n\t\t\t\t{group = "tailor_components", chance = 500000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "power_crystals", chance = 500000},\n\t\t\t\t{group = "color_crystals", chance = 500000},\n\t\t\t\t{group = "nightsister_common", chance = 2300000},\n\t\t\t\t{group = "armor_attachments", chance = 350000},\n\t\t\t\t{group = "clothing_attachments", chance = 350000},\n\t\t\t\t{group = "melee_weapons", chance = 2000000},\n\t\t\t\t{group = "rifles", chance = 1000000},\n\t\t\t\t{group = "pistols", chance = 1000000},\n\t\t\t\t{group = "carbines", chance = 1000000},\n\t\t\t\t{group = "wearables_common", chance = 500000},\n\t\t\t\t{group = "tailor_components", chance = 500000}\n\t\t\t}', '{group = "tailor_components", chance = 500000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "power_crystals", chance = 500000},\n\t\t\t\t{group = "color_crystals", chance = 500000},\n\t\t\t\t{group = "nightsister_common", chance = 2000000},\n\t\t\t\t{group = "armor_attachments", chance = 250000},\n\t\t\t\t{group = "clothing_attachments", chance = 250000},\n\t\t\t\t{group = "melee_weapons", chance = 2500000},\n\t\t\t\t{group = "rifles", chance = 1000000},\n\t\t\t\t{group = "pistols", chance = 1000000},\n\t\t\t\t{group = "carbines", chance = 1000000},\n\t\t\t\t{group = "wearables_common", chance = 500000},\n\t\t\t\t{group = "tailor_components", chance = 500000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "power_crystals", chance = 500000},\n\t\t\t\t{group = "color_crystals", chance = 500000},\n\t\t\t\t{group = "nightsister_common", chance = 2000000},\n\t\t\t\t{group = "armor_attachments", chance = 250000},\n\t\t\t\t{group = "clothing_attachments", chance = 250000},\n\t\t\t\t{group = "melee_weapons", chance = 2500000},\n\t\t\t\t{group = "rifles", chance = 1000000},\n\t\t\t\t{group = "pistols", chance = 1000000},\n\t\t\t\t{group = "carbines", chance = 1000000},\n\t\t\t\t{group = "wearables_common", chance = 500000},\n\t\t\t\t{group = "tailor_components", chance = 500000}\n\t\t\t}', '{group = "tailor_components", chance = 500000}')]</t>
         </is>
       </c>
     </row>
@@ -4430,17 +4430,17 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dathomir\nightsister_rancor.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dathomir\nightsister_protector.lua</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "rancor_common", chance = 4000000},\n\t\t\t\t{group = "armor_all", chance = 2000000},\n\t\t\t\t{group = "weapons_all", chance = 2500000},\n\t\t\t\t{group = "wearables_all", chance = 1500000}\n\t\t\t},\n\t\t\tlootChance = 10000000\n\t\t}', '{\n\t\t\t\t{group = "rancor_common", chance = 4000000},\n\t\t\t\t{group = "armor_all", chance = 2000000},\n\t\t\t\t{group = "weapons_all", chance = 2500000},\n\t\t\t\t{group = "wearables_all", chance = 1500000}\n\t\t\t}', '{group = "wearables_all", chance = 1500000}')]</t>
+          <t>[('{ -- Jedi Specific Loot Group\n\t\t\tgroups =\n\t\t\t{\n\t\t\t\t{group = "jedi_clothing_attachments", chance = 5000000},   -- 7.5% * 50% = 3.75%\n\t\t\t\t{group = "named_crystals", chance = 5000000},\n\t\t\t},\n\t\t\tlootChance = 750000,   -- 7.5% chance for this group\n\t\t}', '{\n\t\t\t\t{group = "jedi_clothing_attachments", chance = 5000000},   -- 7.5% * 50% = 3.75%\n\t\t\t\t{group = "named_crystals", chance = 5000000},\n\t\t\t}', '{group = "named_crystals", chance = 5000000}')]</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "rancor_common", chance = 4000000},\n\t\t\t\t{group = "armor_all", chance = 2000000},\n\t\t\t\t{group = "weapons_all", chance = 2500000},\n\t\t\t\t{group = "wearables_all", chance = 1500000}\n\t\t\t},\n\t\t\tlootChance = 2100000\n\t\t}', '{\n\t\t\t\t{group = "rancor_common", chance = 4000000},\n\t\t\t\t{group = "armor_all", chance = 2000000},\n\t\t\t\t{group = "weapons_all", chance = 2500000},\n\t\t\t\t{group = "wearables_all", chance = 1500000}\n\t\t\t}', '{group = "wearables_all", chance = 1500000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "power_crystals", chance = 500000},\n\t\t\t\t{group = "color_crystals", chance = 500000},\n\t\t\t\t{group = "nightsister_common", chance = 2300000},\n\t\t\t\t{group = "armor_attachments", chance = 350000},\n\t\t\t\t{group = "clothing_attachments", chance = 350000},\n\t\t\t\t{group = "melee_weapons", chance = 2000000},\n\t\t\t\t{group = "rifles", chance = 1000000},\n\t\t\t\t{group = "pistols", chance = 1000000},\n\t\t\t\t{group = "carbines", chance = 1000000},\n\t\t\t\t{group = "wearables_common", chance = 500000},\n\t\t\t\t{group = "tailor_components", chance = 500000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "power_crystals", chance = 500000},\n\t\t\t\t{group = "color_crystals", chance = 500000},\n\t\t\t\t{group = "nightsister_common", chance = 2300000},\n\t\t\t\t{group = "armor_attachments", chance = 350000},\n\t\t\t\t{group = "clothing_attachments", chance = 350000},\n\t\t\t\t{group = "melee_weapons", chance = 2000000},\n\t\t\t\t{group = "rifles", chance = 1000000},\n\t\t\t\t{group = "pistols", chance = 1000000},\n\t\t\t\t{group = "carbines", chance = 1000000},\n\t\t\t\t{group = "wearables_common", chance = 500000},\n\t\t\t\t{group = "tailor_components", chance = 500000}\n\t\t\t}', '{group = "tailor_components", chance = 500000}')]</t>
         </is>
       </c>
     </row>
@@ -4450,17 +4450,17 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dathomir\nightsister_rancor_tamer.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dathomir\nightsister_rancor.lua</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t\n\t\t\t\t{group = "rifles", chance = 2500000},\n\t\t\t\t{group = "pistols", chance = 2500000},\n\t\t\t\t{group = "carbines", chance = 2500000},\n\t\t\t\t{group = "wearables_common", chance = 2500000},\n\t\t\t},\n\t\t\tlootChance = 3000000,  -- 30% chance for this group\n\t\t}', '{\n\t\t\t\t\n\t\t\t\t{group = "rifles", chance = 2500000},\n\t\t\t\t{group = "pistols", chance = 2500000},\n\t\t\t\t{group = "carbines", chance = 2500000},\n\t\t\t\t{group = "wearables_common", chance = 2500000},\n\t\t\t}', '{group = "wearables_common", chance = 2500000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "rancor_common", chance = 4000000},\n\t\t\t\t{group = "armor_all", chance = 2000000},\n\t\t\t\t{group = "weapons_all", chance = 2500000},\n\t\t\t\t{group = "wearables_all", chance = 1500000}\n\t\t\t},\n\t\t\tlootChance = 10000000\n\t\t}', '{\n\t\t\t\t{group = "rancor_common", chance = 4000000},\n\t\t\t\t{group = "armor_all", chance = 2000000},\n\t\t\t\t{group = "weapons_all", chance = 2500000},\n\t\t\t\t{group = "wearables_all", chance = 1500000}\n\t\t\t}', '{group = "wearables_all", chance = 1500000}')]</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "power_crystals", chance = 500000},\n\t\t\t\t{group = "color_crystals", chance = 500000},\n\t\t\t\t{group = "nightsister_common", chance = 2000000},\n\t\t\t\t{group = "armor_attachments", chance = 250000},\n\t\t\t\t{group = "clothing_attachments", chance = 250000},\n\t\t\t\t{group = "melee_weapons", chance = 2500000},\n\t\t\t\t{group = "rifles", chance = 1000000},\n\t\t\t\t{group = "pistols", chance = 1000000},\n\t\t\t\t{group = "carbines", chance = 1000000},\n\t\t\t\t{group = "wearables_common", chance = 500000},\n\t\t\t\t{group = "tailor_components", chance = 500000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "power_crystals", chance = 500000},\n\t\t\t\t{group = "color_crystals", chance = 500000},\n\t\t\t\t{group = "nightsister_common", chance = 2000000},\n\t\t\t\t{group = "armor_attachments", chance = 250000},\n\t\t\t\t{group = "clothing_attachments", chance = 250000},\n\t\t\t\t{group = "melee_weapons", chance = 2500000},\n\t\t\t\t{group = "rifles", chance = 1000000},\n\t\t\t\t{group = "pistols", chance = 1000000},\n\t\t\t\t{group = "carbines", chance = 1000000},\n\t\t\t\t{group = "wearables_common", chance = 500000},\n\t\t\t\t{group = "tailor_components", chance = 500000}\n\t\t\t}', '{group = "tailor_components", chance = 500000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "rancor_common", chance = 4000000},\n\t\t\t\t{group = "armor_all", chance = 2000000},\n\t\t\t\t{group = "weapons_all", chance = 2500000},\n\t\t\t\t{group = "wearables_all", chance = 1500000}\n\t\t\t},\n\t\t\tlootChance = 2100000\n\t\t}', '{\n\t\t\t\t{group = "rancor_common", chance = 4000000},\n\t\t\t\t{group = "armor_all", chance = 2000000},\n\t\t\t\t{group = "weapons_all", chance = 2500000},\n\t\t\t\t{group = "wearables_all", chance = 1500000}\n\t\t\t}', '{group = "wearables_all", chance = 1500000}')]</t>
         </is>
       </c>
     </row>
@@ -4470,12 +4470,12 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dathomir\nightsister_ranger.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dathomir\nightsister_rancor_tamer.lua</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t\n\t\t\t\t{group = "rifles", chance = 2500000},\n\t\t\t\t{group = "pistols", chance = 2500000},\n\t\t\t\t{group = "carbines", chance = 2500000},\n\t\t\t\t{group = "wearables_common", chance = 2500000},\n\t\t\t},\n\t\t\tlootChance = 3500000,    -- 35% chance for this group\n\t\t}', '{\n\t\t\t\t\n\t\t\t\t{group = "rifles", chance = 2500000},\n\t\t\t\t{group = "pistols", chance = 2500000},\n\t\t\t\t{group = "carbines", chance = 2500000},\n\t\t\t\t{group = "wearables_common", chance = 2500000},\n\t\t\t}', '{group = "wearables_common", chance = 2500000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t\n\t\t\t\t{group = "rifles", chance = 2500000},\n\t\t\t\t{group = "pistols", chance = 2500000},\n\t\t\t\t{group = "carbines", chance = 2500000},\n\t\t\t\t{group = "wearables_common", chance = 2500000},\n\t\t\t},\n\t\t\tlootChance = 3000000,  -- 30% chance for this group\n\t\t}', '{\n\t\t\t\t\n\t\t\t\t{group = "rifles", chance = 2500000},\n\t\t\t\t{group = "pistols", chance = 2500000},\n\t\t\t\t{group = "carbines", chance = 2500000},\n\t\t\t\t{group = "wearables_common", chance = 2500000},\n\t\t\t}', '{group = "wearables_common", chance = 2500000}')]</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -4490,12 +4490,12 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dathomir\nightsister_sentinel.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dathomir\nightsister_ranger.lua</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t\n\t\t\t\t{group = "rifles", chance = 2500000},\n\t\t\t\t{group = "pistols", chance = 2500000},\n\t\t\t\t{group = "carbines", chance = 2500000},\n\t\t\t\t{group = "wearables_common", chance = 1500000},\n\t\t\t\t{group = "nightsister_clothing", chance = 1000000},     -- 30% * 10% = 3% chance\n\t\t\t},\n\t\t\tlootChance = 3000000,  -- 30% chance for this group\n\t\t}', '{\n\t\t\t\t\n\t\t\t\t{group = "rifles", chance = 2500000},\n\t\t\t\t{group = "pistols", chance = 2500000},\n\t\t\t\t{group = "carbines", chance = 2500000},\n\t\t\t\t{group = "wearables_common", chance = 1500000},\n\t\t\t\t{group = "nightsister_clothing", chance = 1000000},     -- 30% * 10% = 3% chance\n\t\t\t}', '{group = "nightsister_clothing", chance = 1000000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t\n\t\t\t\t{group = "rifles", chance = 2500000},\n\t\t\t\t{group = "pistols", chance = 2500000},\n\t\t\t\t{group = "carbines", chance = 2500000},\n\t\t\t\t{group = "wearables_common", chance = 2500000},\n\t\t\t},\n\t\t\tlootChance = 3500000,    -- 35% chance for this group\n\t\t}', '{\n\t\t\t\t\n\t\t\t\t{group = "rifles", chance = 2500000},\n\t\t\t\t{group = "pistols", chance = 2500000},\n\t\t\t\t{group = "carbines", chance = 2500000},\n\t\t\t\t{group = "wearables_common", chance = 2500000},\n\t\t\t}', '{group = "wearables_common", chance = 2500000}')]</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
@@ -4510,12 +4510,12 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dathomir\nightsister_sentry.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dathomir\nightsister_sentinel.lua</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t\n\t\t\t\t{group = "rifles", chance = 2500000},\n\t\t\t\t{group = "pistols", chance = 2500000},\n\t\t\t\t{group = "carbines", chance = 2500000},\n\t\t\t\t{group = "wearables_common", chance = 2500000},\n\t\t\t},\n\t\t\tlootChance = 2500000,   -- 25% chance of this group\n\t\t}', '{\n\t\t\t\t\n\t\t\t\t{group = "rifles", chance = 2500000},\n\t\t\t\t{group = "pistols", chance = 2500000},\n\t\t\t\t{group = "carbines", chance = 2500000},\n\t\t\t\t{group = "wearables_common", chance = 2500000},\n\t\t\t}', '{group = "wearables_common", chance = 2500000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t\n\t\t\t\t{group = "rifles", chance = 2500000},\n\t\t\t\t{group = "pistols", chance = 2500000},\n\t\t\t\t{group = "carbines", chance = 2500000},\n\t\t\t\t{group = "wearables_common", chance = 1500000},\n\t\t\t\t{group = "nightsister_clothing", chance = 1000000},     -- 30% * 10% = 3% chance\n\t\t\t},\n\t\t\tlootChance = 3000000,  -- 30% chance for this group\n\t\t}', '{\n\t\t\t\t\n\t\t\t\t{group = "rifles", chance = 2500000},\n\t\t\t\t{group = "pistols", chance = 2500000},\n\t\t\t\t{group = "carbines", chance = 2500000},\n\t\t\t\t{group = "wearables_common", chance = 1500000},\n\t\t\t\t{group = "nightsister_clothing", chance = 1000000},     -- 30% * 10% = 3% chance\n\t\t\t}', '{group = "nightsister_clothing", chance = 1000000}')]</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
@@ -4530,17 +4530,17 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dathomir\nightsister_spell_weaver.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dathomir\nightsister_sentry.lua</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>[('{ -- Jedi Specific Loot Group\n\t\t\tgroups =\n\t\t\t{\n\t\t\t\t{group = "jedi_clothing_attachments", chance = 5000000},   -- 7.5% * 50% = 3.75%\n\t\t\t\t{group = "named_crystals", chance = 5000000},\n\t\t\t},\n\t\t\tlootChance = 750000,  -- 7.5% chance for this loot group\n\t\t}', '{\n\t\t\t\t{group = "jedi_clothing_attachments", chance = 5000000},   -- 7.5% * 50% = 3.75%\n\t\t\t\t{group = "named_crystals", chance = 5000000},\n\t\t\t}', '{group = "named_crystals", chance = 5000000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t\n\t\t\t\t{group = "rifles", chance = 2500000},\n\t\t\t\t{group = "pistols", chance = 2500000},\n\t\t\t\t{group = "carbines", chance = 2500000},\n\t\t\t\t{group = "wearables_common", chance = 2500000},\n\t\t\t},\n\t\t\tlootChance = 2500000,   -- 25% chance of this group\n\t\t}', '{\n\t\t\t\t\n\t\t\t\t{group = "rifles", chance = 2500000},\n\t\t\t\t{group = "pistols", chance = 2500000},\n\t\t\t\t{group = "carbines", chance = 2500000},\n\t\t\t\t{group = "wearables_common", chance = 2500000},\n\t\t\t}', '{group = "wearables_common", chance = 2500000}')]</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "power_crystals", chance = 500000},\n\t\t\t\t{group = "color_crystals", chance = 500000},\n\t\t\t\t{group = "nightsister_common", chance = 2300000},\n\t\t\t\t{group = "armor_attachments", chance = 300000},\n\t\t\t\t{group = "clothing_attachments", chance = 300000},\n\t\t\t\t{group = "melee_weapons", chance = 2100000},\n\t\t\t\t{group = "rifles", chance = 1000000},\n\t\t\t\t{group = "pistols", chance = 1000000},\n\t\t\t\t{group = "carbines", chance = 1000000},\n\t\t\t\t{group = "wearables_common", chance = 500000},\n\t\t\t\t{group = "tailor_components", chance = 500000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "power_crystals", chance = 500000},\n\t\t\t\t{group = "color_crystals", chance = 500000},\n\t\t\t\t{group = "nightsister_common", chance = 2300000},\n\t\t\t\t{group = "armor_attachments", chance = 300000},\n\t\t\t\t{group = "clothing_attachments", chance = 300000},\n\t\t\t\t{group = "melee_weapons", chance = 2100000},\n\t\t\t\t{group = "rifles", chance = 1000000},\n\t\t\t\t{group = "pistols", chance = 1000000},\n\t\t\t\t{group = "carbines", chance = 1000000},\n\t\t\t\t{group = "wearables_common", chance = 500000},\n\t\t\t\t{group = "tailor_components", chance = 500000}\n\t\t\t}', '{group = "tailor_components", chance = 500000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "power_crystals", chance = 500000},\n\t\t\t\t{group = "color_crystals", chance = 500000},\n\t\t\t\t{group = "nightsister_common", chance = 2000000},\n\t\t\t\t{group = "armor_attachments", chance = 250000},\n\t\t\t\t{group = "clothing_attachments", chance = 250000},\n\t\t\t\t{group = "melee_weapons", chance = 2500000},\n\t\t\t\t{group = "rifles", chance = 1000000},\n\t\t\t\t{group = "pistols", chance = 1000000},\n\t\t\t\t{group = "carbines", chance = 1000000},\n\t\t\t\t{group = "wearables_common", chance = 500000},\n\t\t\t\t{group = "tailor_components", chance = 500000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "power_crystals", chance = 500000},\n\t\t\t\t{group = "color_crystals", chance = 500000},\n\t\t\t\t{group = "nightsister_common", chance = 2000000},\n\t\t\t\t{group = "armor_attachments", chance = 250000},\n\t\t\t\t{group = "clothing_attachments", chance = 250000},\n\t\t\t\t{group = "melee_weapons", chance = 2500000},\n\t\t\t\t{group = "rifles", chance = 1000000},\n\t\t\t\t{group = "pistols", chance = 1000000},\n\t\t\t\t{group = "carbines", chance = 1000000},\n\t\t\t\t{group = "wearables_common", chance = 500000},\n\t\t\t\t{group = "tailor_components", chance = 500000}\n\t\t\t}', '{group = "tailor_components", chance = 500000}')]</t>
         </is>
       </c>
     </row>
@@ -4550,17 +4550,17 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dathomir\nightsister_stalker.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dathomir\nightsister_spell_weaver.lua</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>[('{ -- Jedi Specific Loot Group\n\t\t\tgroups =\n\t\t\t{\n\t\t\t\t{group = "jedi_clothing_attachments", chance = 5000000},    -- 7.5% * 50% = 3.75%\n\t\t\t\t{group = "named_crystals", chance = 5000000},\n\t\t\t},\n\t\t\tlootChance = 750000,   -- 7.5% chance for this group\n\t\t}', '{\n\t\t\t\t{group = "jedi_clothing_attachments", chance = 5000000},    -- 7.5% * 50% = 3.75%\n\t\t\t\t{group = "named_crystals", chance = 5000000},\n\t\t\t}', '{group = "named_crystals", chance = 5000000}')]</t>
+          <t>[('{ -- Jedi Specific Loot Group\n\t\t\tgroups =\n\t\t\t{\n\t\t\t\t{group = "jedi_clothing_attachments", chance = 5000000},   -- 7.5% * 50% = 3.75%\n\t\t\t\t{group = "named_crystals", chance = 5000000},\n\t\t\t},\n\t\t\tlootChance = 750000,  -- 7.5% chance for this loot group\n\t\t}', '{\n\t\t\t\t{group = "jedi_clothing_attachments", chance = 5000000},   -- 7.5% * 50% = 3.75%\n\t\t\t\t{group = "named_crystals", chance = 5000000},\n\t\t\t}', '{group = "named_crystals", chance = 5000000}')]</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "power_crystals", chance = 500000},\n\t\t\t\t{group = "color_crystals", chance = 500000},\n\t\t\t\t{group = "nightsister_common", chance = 2000000},\n\t\t\t\t{group = "armor_attachments", chance = 250000},\n\t\t\t\t{group = "clothing_attachments", chance = 250000},\n\t\t\t\t{group = "melee_weapons", chance = 2500000},\n\t\t\t\t{group = "rifles", chance = 1000000},\n\t\t\t\t{group = "pistols", chance = 1000000},\n\t\t\t\t{group = "carbines", chance = 1000000},\n\t\t\t\t{group = "wearables_common", chance = 500000},\n\t\t\t\t{group = "tailor_components", chance = 500000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "power_crystals", chance = 500000},\n\t\t\t\t{group = "color_crystals", chance = 500000},\n\t\t\t\t{group = "nightsister_common", chance = 2000000},\n\t\t\t\t{group = "armor_attachments", chance = 250000},\n\t\t\t\t{group = "clothing_attachments", chance = 250000},\n\t\t\t\t{group = "melee_weapons", chance = 2500000},\n\t\t\t\t{group = "rifles", chance = 1000000},\n\t\t\t\t{group = "pistols", chance = 1000000},\n\t\t\t\t{group = "carbines", chance = 1000000},\n\t\t\t\t{group = "wearables_common", chance = 500000},\n\t\t\t\t{group = "tailor_components", chance = 500000}\n\t\t\t}', '{group = "tailor_components", chance = 500000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "power_crystals", chance = 500000},\n\t\t\t\t{group = "color_crystals", chance = 500000},\n\t\t\t\t{group = "nightsister_common", chance = 2300000},\n\t\t\t\t{group = "armor_attachments", chance = 300000},\n\t\t\t\t{group = "clothing_attachments", chance = 300000},\n\t\t\t\t{group = "melee_weapons", chance = 2100000},\n\t\t\t\t{group = "rifles", chance = 1000000},\n\t\t\t\t{group = "pistols", chance = 1000000},\n\t\t\t\t{group = "carbines", chance = 1000000},\n\t\t\t\t{group = "wearables_common", chance = 500000},\n\t\t\t\t{group = "tailor_components", chance = 500000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "power_crystals", chance = 500000},\n\t\t\t\t{group = "color_crystals", chance = 500000},\n\t\t\t\t{group = "nightsister_common", chance = 2300000},\n\t\t\t\t{group = "armor_attachments", chance = 300000},\n\t\t\t\t{group = "clothing_attachments", chance = 300000},\n\t\t\t\t{group = "melee_weapons", chance = 2100000},\n\t\t\t\t{group = "rifles", chance = 1000000},\n\t\t\t\t{group = "pistols", chance = 1000000},\n\t\t\t\t{group = "carbines", chance = 1000000},\n\t\t\t\t{group = "wearables_common", chance = 500000},\n\t\t\t\t{group = "tailor_components", chance = 500000}\n\t\t\t}', '{group = "tailor_components", chance = 500000}')]</t>
         </is>
       </c>
     </row>
@@ -4570,17 +4570,17 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dathomir\rancor.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dathomir\nightsister_stalker.lua</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "rancor_common", chance = 6500000},\n\t\t\t\t{group = "weapons_all", chance = 3500000},\n\t\t\t},\n\t\t\tlootChance = 5000000\n\t\t}', '{\n\t\t\t\t{group = "rancor_common", chance = 6500000},\n\t\t\t\t{group = "weapons_all", chance = 3500000},\n\t\t\t}', '{group = "weapons_all", chance = 3500000}')]</t>
+          <t>[('{ -- Jedi Specific Loot Group\n\t\t\tgroups =\n\t\t\t{\n\t\t\t\t{group = "jedi_clothing_attachments", chance = 5000000},    -- 7.5% * 50% = 3.75%\n\t\t\t\t{group = "named_crystals", chance = 5000000},\n\t\t\t},\n\t\t\tlootChance = 750000,   -- 7.5% chance for this group\n\t\t}', '{\n\t\t\t\t{group = "jedi_clothing_attachments", chance = 5000000},    -- 7.5% * 50% = 3.75%\n\t\t\t\t{group = "named_crystals", chance = 5000000},\n\t\t\t}', '{group = "named_crystals", chance = 5000000}')]</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "rancor_common", chance = 4000000},\n\t\t\t\t{group = "armor_all", chance = 2000000},\n\t\t\t\t{group = "weapons_all", chance = 2500000},\n\t\t\t\t{group = "wearables_all", chance = 1500000}\n\t\t\t},\n\t\t\tlootChance = 2000000\n\t\t}', '{\n\t\t\t\t{group = "rancor_common", chance = 4000000},\n\t\t\t\t{group = "armor_all", chance = 2000000},\n\t\t\t\t{group = "weapons_all", chance = 2500000},\n\t\t\t\t{group = "wearables_all", chance = 1500000}\n\t\t\t}', '{group = "wearables_all", chance = 1500000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "power_crystals", chance = 500000},\n\t\t\t\t{group = "color_crystals", chance = 500000},\n\t\t\t\t{group = "nightsister_common", chance = 2000000},\n\t\t\t\t{group = "armor_attachments", chance = 250000},\n\t\t\t\t{group = "clothing_attachments", chance = 250000},\n\t\t\t\t{group = "melee_weapons", chance = 2500000},\n\t\t\t\t{group = "rifles", chance = 1000000},\n\t\t\t\t{group = "pistols", chance = 1000000},\n\t\t\t\t{group = "carbines", chance = 1000000},\n\t\t\t\t{group = "wearables_common", chance = 500000},\n\t\t\t\t{group = "tailor_components", chance = 500000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "power_crystals", chance = 500000},\n\t\t\t\t{group = "color_crystals", chance = 500000},\n\t\t\t\t{group = "nightsister_common", chance = 2000000},\n\t\t\t\t{group = "armor_attachments", chance = 250000},\n\t\t\t\t{group = "clothing_attachments", chance = 250000},\n\t\t\t\t{group = "melee_weapons", chance = 2500000},\n\t\t\t\t{group = "rifles", chance = 1000000},\n\t\t\t\t{group = "pistols", chance = 1000000},\n\t\t\t\t{group = "carbines", chance = 1000000},\n\t\t\t\t{group = "wearables_common", chance = 500000},\n\t\t\t\t{group = "tailor_components", chance = 500000}\n\t\t\t}', '{group = "tailor_components", chance = 500000}')]</t>
         </is>
       </c>
     </row>
@@ -4590,17 +4590,17 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dathomir\singing_mountain_clan_arch_witch.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dathomir\rancor.lua</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>[('{ -- Jedi Specific Loot Group\n\t\t\tgroups =\n\t\t\t{\n\t\t\t\t{group = "jedi_clothing_attachments", chance = 5000000},   -- 7.5% * 50% = 3.75%\n\t\t\t\t{group = "named_crystals", chance = 5000000},\n\t\t\t},\n\t\t\tlootChance = 750000,   -- 7.5% chance for this group\n\t\t}', '{\n\t\t\t\t{group = "jedi_clothing_attachments", chance = 5000000},   -- 7.5% * 50% = 3.75%\n\t\t\t\t{group = "named_crystals", chance = 5000000},\n\t\t\t}', '{group = "named_crystals", chance = 5000000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "rancor_common", chance = 6500000},\n\t\t\t\t{group = "weapons_all", chance = 3500000},\n\t\t\t},\n\t\t\tlootChance = 5000000\n\t\t}', '{\n\t\t\t\t{group = "rancor_common", chance = 6500000},\n\t\t\t\t{group = "weapons_all", chance = 3500000},\n\t\t\t}', '{group = "weapons_all", chance = 3500000}')]</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 1500000},\n\t\t\t\t{group = "power_crystals", chance = 500000},\n\t\t\t\t{group = "color_crystals", chance = 500000},\n\t\t\t\t{group = "armor_attachments", chance = 400000},\n\t\t\t\t{group = "clothing_attachments", chance = 400000},\n\t\t\t\t{group = "melee_weapons", chance = 2700000},\n\t\t\t\t{group = "rifles", chance = 1000000},\n\t\t\t\t{group = "pistols", chance = 1000000},\n\t\t\t\t{group = "carbines", chance = 1000000},\n\t\t\t\t{group = "wearables_uncommon", chance = 500000},\n\t\t\t\t{group = "tailor_components", chance = 500000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 1500000},\n\t\t\t\t{group = "power_crystals", chance = 500000},\n\t\t\t\t{group = "color_crystals", chance = 500000},\n\t\t\t\t{group = "armor_attachments", chance = 400000},\n\t\t\t\t{group = "clothing_attachments", chance = 400000},\n\t\t\t\t{group = "melee_weapons", chance = 2700000},\n\t\t\t\t{group = "rifles", chance = 1000000},\n\t\t\t\t{group = "pistols", chance = 1000000},\n\t\t\t\t{group = "carbines", chance = 1000000},\n\t\t\t\t{group = "wearables_uncommon", chance = 500000},\n\t\t\t\t{group = "tailor_components", chance = 500000}\n\t\t\t}', '{group = "tailor_components", chance = 500000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "rancor_common", chance = 4000000},\n\t\t\t\t{group = "armor_all", chance = 2000000},\n\t\t\t\t{group = "weapons_all", chance = 2500000},\n\t\t\t\t{group = "wearables_all", chance = 1500000}\n\t\t\t},\n\t\t\tlootChance = 2000000\n\t\t}', '{\n\t\t\t\t{group = "rancor_common", chance = 4000000},\n\t\t\t\t{group = "armor_all", chance = 2000000},\n\t\t\t\t{group = "weapons_all", chance = 2500000},\n\t\t\t\t{group = "wearables_all", chance = 1500000}\n\t\t\t}', '{group = "wearables_all", chance = 1500000}')]</t>
         </is>
       </c>
     </row>
@@ -4610,17 +4610,17 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dathomir\singing_mountain_clan_councilwoman.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dathomir\singing_mountain_clan_arch_witch.lua</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>[('{ -- Jedi Specific Loot Group\n\t\t\tgroups =\n\t\t\t{\n\t\t\t\t{group = "jedi_clothing_attachments", chance = 10000000}, -- 100% * 10% = 10%\n\t\t\t},\n\t\t\tlootChance = 1000000,\n\t\t}', '{\n\t\t\t\t{group = "jedi_clothing_attachments", chance = 10000000}, -- 100% * 10% = 10%\n\t\t\t}', '{group = "jedi_clothing_attachments", chance = 10000000}')]</t>
+          <t>[('{ -- Jedi Specific Loot Group\n\t\t\tgroups =\n\t\t\t{\n\t\t\t\t{group = "jedi_clothing_attachments", chance = 5000000},   -- 7.5% * 50% = 3.75%\n\t\t\t\t{group = "named_crystals", chance = 5000000},\n\t\t\t},\n\t\t\tlootChance = 750000,   -- 7.5% chance for this group\n\t\t}', '{\n\t\t\t\t{group = "jedi_clothing_attachments", chance = 5000000},   -- 7.5% * 50% = 3.75%\n\t\t\t\t{group = "named_crystals", chance = 5000000},\n\t\t\t}', '{group = "named_crystals", chance = 5000000}')]</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 1500000},\n\t\t\t\t{group = "power_crystals", chance = 500000},\n\t\t\t\t{group = "color_crystals", chance = 500000},\n\t\t\t\t{group = "armor_attachments", chance = 600000},\n\t\t\t\t{group = "clothing_attachments", chance = 600000},\n\t\t\t\t{group = "melee_weapons", chance = 2800000},\n\t\t\t\t{group = "rifles", chance = 1000000},\n\t\t\t\t{group = "pistols", chance = 1000000},\n\t\t\t\t{group = "carbines", chance = 1000000},\n\t\t\t\t{group = "wearables_rare", chance = 500000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 1500000},\n\t\t\t\t{group = "power_crystals", chance = 500000},\n\t\t\t\t{group = "color_crystals", chance = 500000},\n\t\t\t\t{group = "armor_attachments", chance = 600000},\n\t\t\t\t{group = "clothing_attachments", chance = 600000},\n\t\t\t\t{group = "melee_weapons", chance = 2800000},\n\t\t\t\t{group = "rifles", chance = 1000000},\n\t\t\t\t{group = "pistols", chance = 1000000},\n\t\t\t\t{group = "carbines", chance = 1000000},\n\t\t\t\t{group = "wearables_rare", chance = 500000}\n\t\t\t}', '{group = "wearables_rare", chance = 500000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 1500000},\n\t\t\t\t{group = "power_crystals", chance = 500000},\n\t\t\t\t{group = "color_crystals", chance = 500000},\n\t\t\t\t{group = "armor_attachments", chance = 400000},\n\t\t\t\t{group = "clothing_attachments", chance = 400000},\n\t\t\t\t{group = "melee_weapons", chance = 2700000},\n\t\t\t\t{group = "rifles", chance = 1000000},\n\t\t\t\t{group = "pistols", chance = 1000000},\n\t\t\t\t{group = "carbines", chance = 1000000},\n\t\t\t\t{group = "wearables_uncommon", chance = 500000},\n\t\t\t\t{group = "tailor_components", chance = 500000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 1500000},\n\t\t\t\t{group = "power_crystals", chance = 500000},\n\t\t\t\t{group = "color_crystals", chance = 500000},\n\t\t\t\t{group = "armor_attachments", chance = 400000},\n\t\t\t\t{group = "clothing_attachments", chance = 400000},\n\t\t\t\t{group = "melee_weapons", chance = 2700000},\n\t\t\t\t{group = "rifles", chance = 1000000},\n\t\t\t\t{group = "pistols", chance = 1000000},\n\t\t\t\t{group = "carbines", chance = 1000000},\n\t\t\t\t{group = "wearables_uncommon", chance = 500000},\n\t\t\t\t{group = "tailor_components", chance = 500000}\n\t\t\t}', '{group = "tailor_components", chance = 500000}')]</t>
         </is>
       </c>
     </row>
@@ -4630,17 +4630,17 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dathomir\singing_mountain_clan_dragoon.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dathomir\singing_mountain_clan_councilwoman.lua</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>[('{ -- Jedi Specific Loot Group\n\t\t\tgroups =\n\t\t\t{\n\t\t\t\t{group = "jedi_clothing_attachments", chance = 5000000},    -- 7.5% * 50% = 3.75%\n\t\t\t\t{group = "named_crystals", chance = 5000000},\n\t\t\t},\n\t\t\tlootChance = 750000,   -- 7.5% chance for this group\n\t\t}', '{\n\t\t\t\t{group = "jedi_clothing_attachments", chance = 5000000},    -- 7.5% * 50% = 3.75%\n\t\t\t\t{group = "named_crystals", chance = 5000000},\n\t\t\t}', '{group = "named_crystals", chance = 5000000}')]</t>
+          <t>[('{ -- Jedi Specific Loot Group\n\t\t\tgroups =\n\t\t\t{\n\t\t\t\t{group = "jedi_clothing_attachments", chance = 10000000}, -- 100% * 10% = 10%\n\t\t\t},\n\t\t\tlootChance = 1000000,\n\t\t}', '{\n\t\t\t\t{group = "jedi_clothing_attachments", chance = 10000000}, -- 100% * 10% = 10%\n\t\t\t}', '{group = "jedi_clothing_attachments", chance = 10000000}')]</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 1500000},\n\t\t\t\t{group = "power_crystals", chance = 500000},\n\t\t\t\t{group = "color_crystals", chance = 500000},\n\t\t\t\t{group = "armor_attachments", chance = 400000},\n\t\t\t\t{group = "clothing_attachments", chance = 400000},\n\t\t\t\t{group = "melee_weapons", chance = 2700000},\n\t\t\t\t{group = "rifles", chance = 1000000},\n\t\t\t\t{group = "pistols", chance = 1000000},\n\t\t\t\t{group = "carbines", chance = 1000000},\n\t\t\t\t{group = "wearables_uncommon", chance = 500000},\n\t\t\t\t{group = "tailor_components", chance = 500000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 1500000},\n\t\t\t\t{group = "power_crystals", chance = 500000},\n\t\t\t\t{group = "color_crystals", chance = 500000},\n\t\t\t\t{group = "armor_attachments", chance = 400000},\n\t\t\t\t{group = "clothing_attachments", chance = 400000},\n\t\t\t\t{group = "melee_weapons", chance = 2700000},\n\t\t\t\t{group = "rifles", chance = 1000000},\n\t\t\t\t{group = "pistols", chance = 1000000},\n\t\t\t\t{group = "carbines", chance = 1000000},\n\t\t\t\t{group = "wearables_uncommon", chance = 500000},\n\t\t\t\t{group = "tailor_components", chance = 500000}\n\t\t\t}', '{group = "tailor_components", chance = 500000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 1500000},\n\t\t\t\t{group = "power_crystals", chance = 500000},\n\t\t\t\t{group = "color_crystals", chance = 500000},\n\t\t\t\t{group = "armor_attachments", chance = 600000},\n\t\t\t\t{group = "clothing_attachments", chance = 600000},\n\t\t\t\t{group = "melee_weapons", chance = 2800000},\n\t\t\t\t{group = "rifles", chance = 1000000},\n\t\t\t\t{group = "pistols", chance = 1000000},\n\t\t\t\t{group = "carbines", chance = 1000000},\n\t\t\t\t{group = "wearables_rare", chance = 500000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 1500000},\n\t\t\t\t{group = "power_crystals", chance = 500000},\n\t\t\t\t{group = "color_crystals", chance = 500000},\n\t\t\t\t{group = "armor_attachments", chance = 600000},\n\t\t\t\t{group = "clothing_attachments", chance = 600000},\n\t\t\t\t{group = "melee_weapons", chance = 2800000},\n\t\t\t\t{group = "rifles", chance = 1000000},\n\t\t\t\t{group = "pistols", chance = 1000000},\n\t\t\t\t{group = "carbines", chance = 1000000},\n\t\t\t\t{group = "wearables_rare", chance = 500000}\n\t\t\t}', '{group = "wearables_rare", chance = 500000}')]</t>
         </is>
       </c>
     </row>
@@ -4650,17 +4650,17 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dathomir\singing_mountain_clan_guardian.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dathomir\singing_mountain_clan_dragoon.lua</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>[('{ -- Jedi Specific Loot Group\n\t\t\tgroups =\n\t\t\t{\n\t\t\t\t{group = "jedi_clothing_attachments", chance = 5000000},   -- 7.5% * 50% = 3.75%\n\t\t\t\t{group = "named_crystals", chance = 5000000},\n\t\t\t},\n\t\t\tlootChance = 750000,   -- 7.5% chance for this group\n\t\t}', '{\n\t\t\t\t{group = "jedi_clothing_attachments", chance = 5000000},   -- 7.5% * 50% = 3.75%\n\t\t\t\t{group = "named_crystals", chance = 5000000},\n\t\t\t}', '{group = "named_crystals", chance = 5000000}')]</t>
+          <t>[('{ -- Jedi Specific Loot Group\n\t\t\tgroups =\n\t\t\t{\n\t\t\t\t{group = "jedi_clothing_attachments", chance = 5000000},    -- 7.5% * 50% = 3.75%\n\t\t\t\t{group = "named_crystals", chance = 5000000},\n\t\t\t},\n\t\t\tlootChance = 750000,   -- 7.5% chance for this group\n\t\t}', '{\n\t\t\t\t{group = "jedi_clothing_attachments", chance = 5000000},    -- 7.5% * 50% = 3.75%\n\t\t\t\t{group = "named_crystals", chance = 5000000},\n\t\t\t}', '{group = "named_crystals", chance = 5000000}')]</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 1500000},\n\t\t\t\t{group = "power_crystals", chance = 500000},\n\t\t\t\t{group = "color_crystals", chance = 500000},\n\t\t\t\t{group = "armor_attachments", chance = 450000},\n\t\t\t\t{group = "clothing_attachments", chance = 450000},\n\t\t\t\t{group = "melee_weapons", chance = 2600000},\n\t\t\t\t{group = "rifles", chance = 1000000},\n\t\t\t\t{group = "pistols", chance = 1000000},\n\t\t\t\t{group = "carbines", chance = 1000000},\n\t\t\t\t{group = "wearables_uncommon", chance = 500000},\n\t\t\t\t{group = "tailor_components", chance = 500000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 1500000},\n\t\t\t\t{group = "power_crystals", chance = 500000},\n\t\t\t\t{group = "color_crystals", chance = 500000},\n\t\t\t\t{group = "armor_attachments", chance = 450000},\n\t\t\t\t{group = "clothing_attachments", chance = 450000},\n\t\t\t\t{group = "melee_weapons", chance = 2600000},\n\t\t\t\t{group = "rifles", chance = 1000000},\n\t\t\t\t{group = "pistols", chance = 1000000},\n\t\t\t\t{group = "carbines", chance = 1000000},\n\t\t\t\t{group = "wearables_uncommon", chance = 500000},\n\t\t\t\t{group = "tailor_components", chance = 500000}\n\t\t\t}', '{group = "tailor_components", chance = 500000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 1500000},\n\t\t\t\t{group = "power_crystals", chance = 500000},\n\t\t\t\t{group = "color_crystals", chance = 500000},\n\t\t\t\t{group = "armor_attachments", chance = 400000},\n\t\t\t\t{group = "clothing_attachments", chance = 400000},\n\t\t\t\t{group = "melee_weapons", chance = 2700000},\n\t\t\t\t{group = "rifles", chance = 1000000},\n\t\t\t\t{group = "pistols", chance = 1000000},\n\t\t\t\t{group = "carbines", chance = 1000000},\n\t\t\t\t{group = "wearables_uncommon", chance = 500000},\n\t\t\t\t{group = "tailor_components", chance = 500000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 1500000},\n\t\t\t\t{group = "power_crystals", chance = 500000},\n\t\t\t\t{group = "color_crystals", chance = 500000},\n\t\t\t\t{group = "armor_attachments", chance = 400000},\n\t\t\t\t{group = "clothing_attachments", chance = 400000},\n\t\t\t\t{group = "melee_weapons", chance = 2700000},\n\t\t\t\t{group = "rifles", chance = 1000000},\n\t\t\t\t{group = "pistols", chance = 1000000},\n\t\t\t\t{group = "carbines", chance = 1000000},\n\t\t\t\t{group = "wearables_uncommon", chance = 500000},\n\t\t\t\t{group = "tailor_components", chance = 500000}\n\t\t\t}', '{group = "tailor_components", chance = 500000}')]</t>
         </is>
       </c>
     </row>
@@ -4670,17 +4670,17 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dathomir\singing_mountain_clan_huntress.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dathomir\singing_mountain_clan_guardian.lua</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t\n\t\t\t\t{group = "rifles", chance = 2500000},\n\t\t\t\t{group = "pistols", chance = 2500000},\n\t\t\t\t{group = "carbines", chance = 2500000},\n\t\t\t\t{group = "wearables_common", chance = 2500000},\n\t\t\t},\n\t\t\tlootChance = 5000000,\n\t\t}', '{\n\t\t\t\t\n\t\t\t\t{group = "rifles", chance = 2500000},\n\t\t\t\t{group = "pistols", chance = 2500000},\n\t\t\t\t{group = "carbines", chance = 2500000},\n\t\t\t\t{group = "wearables_common", chance = 2500000},\n\t\t\t}', '{group = "wearables_common", chance = 2500000}')]</t>
+          <t>[('{ -- Jedi Specific Loot Group\n\t\t\tgroups =\n\t\t\t{\n\t\t\t\t{group = "jedi_clothing_attachments", chance = 5000000},   -- 7.5% * 50% = 3.75%\n\t\t\t\t{group = "named_crystals", chance = 5000000},\n\t\t\t},\n\t\t\tlootChance = 750000,   -- 7.5% chance for this group\n\t\t}', '{\n\t\t\t\t{group = "jedi_clothing_attachments", chance = 5000000},   -- 7.5% * 50% = 3.75%\n\t\t\t\t{group = "named_crystals", chance = 5000000},\n\t\t\t}', '{group = "named_crystals", chance = 5000000}')]</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 1500000},\n\t\t\t\t{group = "power_crystals", chance = 500000},\n\t\t\t\t{group = "color_crystals", chance = 500000},\n\t\t\t\t{group = "armor_attachments", chance = 350000},\n\t\t\t\t{group = "clothing_attachments", chance = 350000},\n\t\t\t\t{group = "melee_weapons", chance = 2800000},\n\t\t\t\t{group = "rifles", chance = 1000000},\n\t\t\t\t{group = "pistols", chance = 1000000},\n\t\t\t\t{group = "carbines", chance = 1000000},\n\t\t\t\t{group = "wearables_uncommon", chance = 500000},\n\t\t\t\t{group = "tailor_components", chance = 500000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 1500000},\n\t\t\t\t{group = "power_crystals", chance = 500000},\n\t\t\t\t{group = "color_crystals", chance = 500000},\n\t\t\t\t{group = "armor_attachments", chance = 350000},\n\t\t\t\t{group = "clothing_attachments", chance = 350000},\n\t\t\t\t{group = "melee_weapons", chance = 2800000},\n\t\t\t\t{group = "rifles", chance = 1000000},\n\t\t\t\t{group = "pistols", chance = 1000000},\n\t\t\t\t{group = "carbines", chance = 1000000},\n\t\t\t\t{group = "wearables_uncommon", chance = 500000},\n\t\t\t\t{group = "tailor_components", chance = 500000}\n\t\t\t}', '{group = "tailor_components", chance = 500000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 1500000},\n\t\t\t\t{group = "power_crystals", chance = 500000},\n\t\t\t\t{group = "color_crystals", chance = 500000},\n\t\t\t\t{group = "armor_attachments", chance = 450000},\n\t\t\t\t{group = "clothing_attachments", chance = 450000},\n\t\t\t\t{group = "melee_weapons", chance = 2600000},\n\t\t\t\t{group = "rifles", chance = 1000000},\n\t\t\t\t{group = "pistols", chance = 1000000},\n\t\t\t\t{group = "carbines", chance = 1000000},\n\t\t\t\t{group = "wearables_uncommon", chance = 500000},\n\t\t\t\t{group = "tailor_components", chance = 500000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 1500000},\n\t\t\t\t{group = "power_crystals", chance = 500000},\n\t\t\t\t{group = "color_crystals", chance = 500000},\n\t\t\t\t{group = "armor_attachments", chance = 450000},\n\t\t\t\t{group = "clothing_attachments", chance = 450000},\n\t\t\t\t{group = "melee_weapons", chance = 2600000},\n\t\t\t\t{group = "rifles", chance = 1000000},\n\t\t\t\t{group = "pistols", chance = 1000000},\n\t\t\t\t{group = "carbines", chance = 1000000},\n\t\t\t\t{group = "wearables_uncommon", chance = 500000},\n\t\t\t\t{group = "tailor_components", chance = 500000}\n\t\t\t}', '{group = "tailor_components", chance = 500000}')]</t>
         </is>
       </c>
     </row>
@@ -4690,12 +4690,12 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dathomir\singing_mountain_clan_initiate.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dathomir\singing_mountain_clan_huntress.lua</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t\n\t\t\t\t{group = "art_illum12", chance = 10000000},\n\t\t\t},\n\t\t\tlootChance = 500000,  -- 5% chance for this group\n\t\t}', '{\n\t\t\t\t\n\t\t\t\t{group = "art_illum12", chance = 10000000},\n\t\t\t}', '{group = "art_illum12", chance = 10000000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t\n\t\t\t\t{group = "rifles", chance = 2500000},\n\t\t\t\t{group = "pistols", chance = 2500000},\n\t\t\t\t{group = "carbines", chance = 2500000},\n\t\t\t\t{group = "wearables_common", chance = 2500000},\n\t\t\t},\n\t\t\tlootChance = 5000000,\n\t\t}', '{\n\t\t\t\t\n\t\t\t\t{group = "rifles", chance = 2500000},\n\t\t\t\t{group = "pistols", chance = 2500000},\n\t\t\t\t{group = "carbines", chance = 2500000},\n\t\t\t\t{group = "wearables_common", chance = 2500000},\n\t\t\t}', '{group = "wearables_common", chance = 2500000}')]</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
@@ -4710,12 +4710,12 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dathomir\singing_mountain_clan_outcast.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dathomir\singing_mountain_clan_initiate.lua</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t\n\t\t\t\t{group = "rifles", chance = 2500000},\n\t\t\t\t{group = "pistols", chance = 2500000},\n\t\t\t\t{group = "carbines", chance = 2500000},\n\t\t\t\t{group = "wearables_common", chance = 2500000},\n\t\t\t},\n\t\t\tlootChance = 4000000,\n\t\t}', '{\n\t\t\t\t\n\t\t\t\t{group = "rifles", chance = 2500000},\n\t\t\t\t{group = "pistols", chance = 2500000},\n\t\t\t\t{group = "carbines", chance = 2500000},\n\t\t\t\t{group = "wearables_common", chance = 2500000},\n\t\t\t}', '{group = "wearables_common", chance = 2500000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t\n\t\t\t\t{group = "art_illum12", chance = 10000000},\n\t\t\t},\n\t\t\tlootChance = 500000,  -- 5% chance for this group\n\t\t}', '{\n\t\t\t\t\n\t\t\t\t{group = "art_illum12", chance = 10000000},\n\t\t\t}', '{group = "art_illum12", chance = 10000000}')]</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
@@ -4730,17 +4730,17 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dathomir\singing_mountain_clan_rancor.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dathomir\singing_mountain_clan_outcast.lua</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "rancor_common", chance = 4000000},\n\t\t\t\t{group = "armor_all", chance = 2000000},\n\t\t\t\t{group = "weapons_all", chance = 2500000},\n\t\t\t\t{group = "wearables_all", chance = 1500000}\n\t\t\t},\n\t\t\tlootChance = 6600000\n\t\t}', '{\n\t\t\t\t{group = "rancor_common", chance = 4000000},\n\t\t\t\t{group = "armor_all", chance = 2000000},\n\t\t\t\t{group = "weapons_all", chance = 2500000},\n\t\t\t\t{group = "wearables_all", chance = 1500000}\n\t\t\t}', '{group = "wearables_all", chance = 1500000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t\n\t\t\t\t{group = "rifles", chance = 2500000},\n\t\t\t\t{group = "pistols", chance = 2500000},\n\t\t\t\t{group = "carbines", chance = 2500000},\n\t\t\t\t{group = "wearables_common", chance = 2500000},\n\t\t\t},\n\t\t\tlootChance = 4000000,\n\t\t}', '{\n\t\t\t\t\n\t\t\t\t{group = "rifles", chance = 2500000},\n\t\t\t\t{group = "pistols", chance = 2500000},\n\t\t\t\t{group = "carbines", chance = 2500000},\n\t\t\t\t{group = "wearables_common", chance = 2500000},\n\t\t\t}', '{group = "wearables_common", chance = 2500000}')]</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "rancor_common", chance = 4000000},\n\t\t\t\t{group = "armor_all", chance = 2000000},\n\t\t\t\t{group = "weapons_all", chance = 2500000},\n\t\t\t\t{group = "wearables_all", chance = 1500000}\n\t\t\t},\n\t\t\tlootChance = 2100000\n\t\t}', '{\n\t\t\t\t{group = "rancor_common", chance = 4000000},\n\t\t\t\t{group = "armor_all", chance = 2000000},\n\t\t\t\t{group = "weapons_all", chance = 2500000},\n\t\t\t\t{group = "wearables_all", chance = 1500000}\n\t\t\t}', '{group = "wearables_all", chance = 1500000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 1500000},\n\t\t\t\t{group = "power_crystals", chance = 500000},\n\t\t\t\t{group = "color_crystals", chance = 500000},\n\t\t\t\t{group = "armor_attachments", chance = 350000},\n\t\t\t\t{group = "clothing_attachments", chance = 350000},\n\t\t\t\t{group = "melee_weapons", chance = 2800000},\n\t\t\t\t{group = "rifles", chance = 1000000},\n\t\t\t\t{group = "pistols", chance = 1000000},\n\t\t\t\t{group = "carbines", chance = 1000000},\n\t\t\t\t{group = "wearables_uncommon", chance = 500000},\n\t\t\t\t{group = "tailor_components", chance = 500000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 1500000},\n\t\t\t\t{group = "power_crystals", chance = 500000},\n\t\t\t\t{group = "color_crystals", chance = 500000},\n\t\t\t\t{group = "armor_attachments", chance = 350000},\n\t\t\t\t{group = "clothing_attachments", chance = 350000},\n\t\t\t\t{group = "melee_weapons", chance = 2800000},\n\t\t\t\t{group = "rifles", chance = 1000000},\n\t\t\t\t{group = "pistols", chance = 1000000},\n\t\t\t\t{group = "carbines", chance = 1000000},\n\t\t\t\t{group = "wearables_uncommon", chance = 500000},\n\t\t\t\t{group = "tailor_components", chance = 500000}\n\t\t\t}', '{group = "tailor_components", chance = 500000}')]</t>
         </is>
       </c>
     </row>
@@ -4750,17 +4750,17 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dathomir\singing_mountain_clan_rancor_tamer.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dathomir\singing_mountain_clan_rancor.lua</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t\n\t\t\t\t{group = "rifles", chance = 2500000},\n\t\t\t\t{group = "pistols", chance = 2500000},\n\t\t\t\t{group = "carbines", chance = 2500000},\n\t\t\t\t{group = "wearables_common", chance = 2500000},\n\t\t\t},\n\t\t\tlootChance = 3500000,\n\t\t}', '{\n\t\t\t\t\n\t\t\t\t{group = "rifles", chance = 2500000},\n\t\t\t\t{group = "pistols", chance = 2500000},\n\t\t\t\t{group = "carbines", chance = 2500000},\n\t\t\t\t{group = "wearables_common", chance = 2500000},\n\t\t\t}', '{group = "wearables_common", chance = 2500000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "rancor_common", chance = 4000000},\n\t\t\t\t{group = "armor_all", chance = 2000000},\n\t\t\t\t{group = "weapons_all", chance = 2500000},\n\t\t\t\t{group = "wearables_all", chance = 1500000}\n\t\t\t},\n\t\t\tlootChance = 6600000\n\t\t}', '{\n\t\t\t\t{group = "rancor_common", chance = 4000000},\n\t\t\t\t{group = "armor_all", chance = 2000000},\n\t\t\t\t{group = "weapons_all", chance = 2500000},\n\t\t\t\t{group = "wearables_all", chance = 1500000}\n\t\t\t}', '{group = "wearables_all", chance = 1500000}')]</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 1500000},\n\t\t\t\t{group = "power_crystals", chance = 500000},\n\t\t\t\t{group = "color_crystals", chance = 500000},\n\t\t\t\t{group = "armor_attachments", chance = 350000},\n\t\t\t\t{group = "clothing_attachments", chance = 350000},\n\t\t\t\t{group = "melee_weapons", chance = 2800000},\n\t\t\t\t{group = "rifles", chance = 1000000},\n\t\t\t\t{group = "pistols", chance = 1000000},\n\t\t\t\t{group = "carbines", chance = 1000000},\n\t\t\t\t{group = "wearables_uncommon", chance = 500000},\n\t\t\t\t{group = "tailor_components", chance = 500000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 1500000},\n\t\t\t\t{group = "power_crystals", chance = 500000},\n\t\t\t\t{group = "color_crystals", chance = 500000},\n\t\t\t\t{group = "armor_attachments", chance = 350000},\n\t\t\t\t{group = "clothing_attachments", chance = 350000},\n\t\t\t\t{group = "melee_weapons", chance = 2800000},\n\t\t\t\t{group = "rifles", chance = 1000000},\n\t\t\t\t{group = "pistols", chance = 1000000},\n\t\t\t\t{group = "carbines", chance = 1000000},\n\t\t\t\t{group = "wearables_uncommon", chance = 500000},\n\t\t\t\t{group = "tailor_components", chance = 500000}\n\t\t\t}', '{group = "tailor_components", chance = 500000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "rancor_common", chance = 4000000},\n\t\t\t\t{group = "armor_all", chance = 2000000},\n\t\t\t\t{group = "weapons_all", chance = 2500000},\n\t\t\t\t{group = "wearables_all", chance = 1500000}\n\t\t\t},\n\t\t\tlootChance = 2100000\n\t\t}', '{\n\t\t\t\t{group = "rancor_common", chance = 4000000},\n\t\t\t\t{group = "armor_all", chance = 2000000},\n\t\t\t\t{group = "weapons_all", chance = 2500000},\n\t\t\t\t{group = "wearables_all", chance = 1500000}\n\t\t\t}', '{group = "wearables_all", chance = 1500000}')]</t>
         </is>
       </c>
     </row>
@@ -4770,12 +4770,12 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dathomir\singing_mountain_clan_scout.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dathomir\singing_mountain_clan_rancor_tamer.lua</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t\n\t\t\t\t{group = "rifles", chance = 2500000},\n\t\t\t\t{group = "pistols", chance = 2500000},\n\t\t\t\t{group = "carbines", chance = 2500000},\n\t\t\t\t{group = "wearables_common", chance = 2500000},\n\t\t\t},\n\t\t\tlootChance = 4500000,\n\t\t}', '{\n\t\t\t\t\n\t\t\t\t{group = "rifles", chance = 2500000},\n\t\t\t\t{group = "pistols", chance = 2500000},\n\t\t\t\t{group = "carbines", chance = 2500000},\n\t\t\t\t{group = "wearables_common", chance = 2500000},\n\t\t\t}', '{group = "wearables_common", chance = 2500000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t\n\t\t\t\t{group = "rifles", chance = 2500000},\n\t\t\t\t{group = "pistols", chance = 2500000},\n\t\t\t\t{group = "carbines", chance = 2500000},\n\t\t\t\t{group = "wearables_common", chance = 2500000},\n\t\t\t},\n\t\t\tlootChance = 3500000,\n\t\t}', '{\n\t\t\t\t\n\t\t\t\t{group = "rifles", chance = 2500000},\n\t\t\t\t{group = "pistols", chance = 2500000},\n\t\t\t\t{group = "carbines", chance = 2500000},\n\t\t\t\t{group = "wearables_common", chance = 2500000},\n\t\t\t}', '{group = "wearables_common", chance = 2500000}')]</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
@@ -4790,17 +4790,17 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dathomir\singing_mountain_clan_sentry.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dathomir\singing_mountain_clan_scout.lua</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t\n\t\t\t\t{group = "rifles", chance = 2500000},\n\t\t\t\t{group = "pistols", chance = 2500000},\n\t\t\t\t{group = "carbines", chance = 2500000},\n\t\t\t\t{group = "wearables_common", chance = 2500000},\n\t\t\t},\n\t\t\tlootChance = 2500000,\n\t\t}', '{\n\t\t\t\t\n\t\t\t\t{group = "rifles", chance = 2500000},\n\t\t\t\t{group = "pistols", chance = 2500000},\n\t\t\t\t{group = "carbines", chance = 2500000},\n\t\t\t\t{group = "wearables_common", chance = 2500000},\n\t\t\t}', '{group = "wearables_common", chance = 2500000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t\n\t\t\t\t{group = "rifles", chance = 2500000},\n\t\t\t\t{group = "pistols", chance = 2500000},\n\t\t\t\t{group = "carbines", chance = 2500000},\n\t\t\t\t{group = "wearables_common", chance = 2500000},\n\t\t\t},\n\t\t\tlootChance = 4500000,\n\t\t}', '{\n\t\t\t\t\n\t\t\t\t{group = "rifles", chance = 2500000},\n\t\t\t\t{group = "pistols", chance = 2500000},\n\t\t\t\t{group = "carbines", chance = 2500000},\n\t\t\t\t{group = "wearables_common", chance = 2500000},\n\t\t\t}', '{group = "wearables_common", chance = 2500000}')]</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 1500000},\n\t\t\t\t{group = "power_crystals", chance = 500000},\n\t\t\t\t{group = "color_crystals", chance = 500000},\n\t\t\t\t{group = "armor_attachments", chance = 300000},\n\t\t\t\t{group = "clothing_attachments", chance = 300000},\n\t\t\t\t{group = "melee_weapons", chance = 2900000},\n\t\t\t\t{group = "rifles", chance = 1000000},\n\t\t\t\t{group = "pistols", chance = 1000000},\n\t\t\t\t{group = "carbines", chance = 1000000},\n\t\t\t\t{group = "wearables_uncommon", chance = 500000},\n\t\t\t\t{group = "tailor_components", chance = 500000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 1500000},\n\t\t\t\t{group = "power_crystals", chance = 500000},\n\t\t\t\t{group = "color_crystals", chance = 500000},\n\t\t\t\t{group = "armor_attachments", chance = 300000},\n\t\t\t\t{group = "clothing_attachments", chance = 300000},\n\t\t\t\t{group = "melee_weapons", chance = 2900000},\n\t\t\t\t{group = "rifles", chance = 1000000},\n\t\t\t\t{group = "pistols", chance = 1000000},\n\t\t\t\t{group = "carbines", chance = 1000000},\n\t\t\t\t{group = "wearables_uncommon", chance = 500000},\n\t\t\t\t{group = "tailor_components", chance = 500000}\n\t\t\t}', '{group = "tailor_components", chance = 500000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 1500000},\n\t\t\t\t{group = "power_crystals", chance = 500000},\n\t\t\t\t{group = "color_crystals", chance = 500000},\n\t\t\t\t{group = "armor_attachments", chance = 350000},\n\t\t\t\t{group = "clothing_attachments", chance = 350000},\n\t\t\t\t{group = "melee_weapons", chance = 2800000},\n\t\t\t\t{group = "rifles", chance = 1000000},\n\t\t\t\t{group = "pistols", chance = 1000000},\n\t\t\t\t{group = "carbines", chance = 1000000},\n\t\t\t\t{group = "wearables_uncommon", chance = 500000},\n\t\t\t\t{group = "tailor_components", chance = 500000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 1500000},\n\t\t\t\t{group = "power_crystals", chance = 500000},\n\t\t\t\t{group = "color_crystals", chance = 500000},\n\t\t\t\t{group = "armor_attachments", chance = 350000},\n\t\t\t\t{group = "clothing_attachments", chance = 350000},\n\t\t\t\t{group = "melee_weapons", chance = 2800000},\n\t\t\t\t{group = "rifles", chance = 1000000},\n\t\t\t\t{group = "pistols", chance = 1000000},\n\t\t\t\t{group = "carbines", chance = 1000000},\n\t\t\t\t{group = "wearables_uncommon", chance = 500000},\n\t\t\t\t{group = "tailor_components", chance = 500000}\n\t\t\t}', '{group = "tailor_components", chance = 500000}')]</t>
         </is>
       </c>
     </row>
@@ -4810,7 +4810,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dathomir\spiderclan_acolyte.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dathomir\singing_mountain_clan_sentry.lua</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -4820,7 +4820,7 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 1500000},\n\t\t\t\t{group = "power_crystals", chance = 500000},\n\t\t\t\t{group = "color_crystals", chance = 500000},\n\t\t\t\t{group = "armor_attachments", chance = 350000},\n\t\t\t\t{group = "clothing_attachments", chance = 350000},\n\t\t\t\t{group = "melee_weapons", chance = 2800000},\n\t\t\t\t{group = "pistols", chance = 1000000},\n\t\t\t\t{group = "rifles", chance = 1000000},\n\t\t\t\t{group = "carbines", chance = 1000000},\n\t\t\t\t{group = "wearables_common", chance = 500000},\n\t\t\t\t{group = "wearables_uncommon", chance = 500000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 1500000},\n\t\t\t\t{group = "power_crystals", chance = 500000},\n\t\t\t\t{group = "color_crystals", chance = 500000},\n\t\t\t\t{group = "armor_attachments", chance = 350000},\n\t\t\t\t{group = "clothing_attachments", chance = 350000},\n\t\t\t\t{group = "melee_weapons", chance = 2800000},\n\t\t\t\t{group = "pistols", chance = 1000000},\n\t\t\t\t{group = "rifles", chance = 1000000},\n\t\t\t\t{group = "carbines", chance = 1000000},\n\t\t\t\t{group = "wearables_common", chance = 500000},\n\t\t\t\t{group = "wearables_uncommon", chance = 500000}\n\t\t\t}', '{group = "wearables_uncommon", chance = 500000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 1500000},\n\t\t\t\t{group = "power_crystals", chance = 500000},\n\t\t\t\t{group = "color_crystals", chance = 500000},\n\t\t\t\t{group = "armor_attachments", chance = 300000},\n\t\t\t\t{group = "clothing_attachments", chance = 300000},\n\t\t\t\t{group = "melee_weapons", chance = 2900000},\n\t\t\t\t{group = "rifles", chance = 1000000},\n\t\t\t\t{group = "pistols", chance = 1000000},\n\t\t\t\t{group = "carbines", chance = 1000000},\n\t\t\t\t{group = "wearables_uncommon", chance = 500000},\n\t\t\t\t{group = "tailor_components", chance = 500000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 1500000},\n\t\t\t\t{group = "power_crystals", chance = 500000},\n\t\t\t\t{group = "color_crystals", chance = 500000},\n\t\t\t\t{group = "armor_attachments", chance = 300000},\n\t\t\t\t{group = "clothing_attachments", chance = 300000},\n\t\t\t\t{group = "melee_weapons", chance = 2900000},\n\t\t\t\t{group = "rifles", chance = 1000000},\n\t\t\t\t{group = "pistols", chance = 1000000},\n\t\t\t\t{group = "carbines", chance = 1000000},\n\t\t\t\t{group = "wearables_uncommon", chance = 500000},\n\t\t\t\t{group = "tailor_components", chance = 500000}\n\t\t\t}', '{group = "tailor_components", chance = 500000}')]</t>
         </is>
       </c>
     </row>
@@ -4830,17 +4830,17 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dathomir\spiderclan_auspex.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dathomir\spiderclan_acolyte.lua</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>[('{ -- Jedi Specific Loot Group\n\t\t\tgroups =\n\t\t\t{\n\t\t\t\t{group = "jedi_clothing_attachments", chance = 5000000},   -- 7.5% * 50% = 3.75%\n\t\t\t\t{group = "named_crystals", chance = 5000000},\n\t\t\t},\n\t\t\tlootChance = 750000,   -- 7.5% chance for this group\n\t\t}', '{\n\t\t\t\t{group = "jedi_clothing_attachments", chance = 5000000},   -- 7.5% * 50% = 3.75%\n\t\t\t\t{group = "named_crystals", chance = 5000000},\n\t\t\t}', '{group = "named_crystals", chance = 5000000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t\n\t\t\t\t{group = "rifles", chance = 2500000},\n\t\t\t\t{group = "pistols", chance = 2500000},\n\t\t\t\t{group = "carbines", chance = 2500000},\n\t\t\t\t{group = "wearables_common", chance = 2500000},\n\t\t\t},\n\t\t\tlootChance = 2500000,\n\t\t}', '{\n\t\t\t\t\n\t\t\t\t{group = "rifles", chance = 2500000},\n\t\t\t\t{group = "pistols", chance = 2500000},\n\t\t\t\t{group = "carbines", chance = 2500000},\n\t\t\t\t{group = "wearables_common", chance = 2500000},\n\t\t\t}', '{group = "wearables_common", chance = 2500000}')]</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 1500000},\n\t\t\t\t{group = "power_crystals", chance = 500000},\n\t\t\t\t{group = "color_crystals", chance = 500000},\n\t\t\t\t{group = "armor_attachments", chance = 400000},\n\t\t\t\t{group = "clothing_attachments", chance = 400000},\n\t\t\t\t{group = "melee_weapons", chance = 2700000},\n\t\t\t\t{group = "pistols", chance = 1000000},\n\t\t\t\t{group = "rifles", chance = 1000000},\n\t\t\t\t{group = "carbines", chance = 1000000},\n\t\t\t\t{group = "wearables_common", chance = 500000},\n\t\t\t\t{group = "wearables_uncommon", chance = 500000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 1500000},\n\t\t\t\t{group = "power_crystals", chance = 500000},\n\t\t\t\t{group = "color_crystals", chance = 500000},\n\t\t\t\t{group = "armor_attachments", chance = 400000},\n\t\t\t\t{group = "clothing_attachments", chance = 400000},\n\t\t\t\t{group = "melee_weapons", chance = 2700000},\n\t\t\t\t{group = "pistols", chance = 1000000},\n\t\t\t\t{group = "rifles", chance = 1000000},\n\t\t\t\t{group = "carbines", chance = 1000000},\n\t\t\t\t{group = "wearables_common", chance = 500000},\n\t\t\t\t{group = "wearables_uncommon", chance = 500000}\n\t\t\t}', '{group = "wearables_uncommon", chance = 500000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 1500000},\n\t\t\t\t{group = "power_crystals", chance = 500000},\n\t\t\t\t{group = "color_crystals", chance = 500000},\n\t\t\t\t{group = "armor_attachments", chance = 350000},\n\t\t\t\t{group = "clothing_attachments", chance = 350000},\n\t\t\t\t{group = "melee_weapons", chance = 2800000},\n\t\t\t\t{group = "pistols", chance = 1000000},\n\t\t\t\t{group = "rifles", chance = 1000000},\n\t\t\t\t{group = "carbines", chance = 1000000},\n\t\t\t\t{group = "wearables_common", chance = 500000},\n\t\t\t\t{group = "wearables_uncommon", chance = 500000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 1500000},\n\t\t\t\t{group = "power_crystals", chance = 500000},\n\t\t\t\t{group = "color_crystals", chance = 500000},\n\t\t\t\t{group = "armor_attachments", chance = 350000},\n\t\t\t\t{group = "clothing_attachments", chance = 350000},\n\t\t\t\t{group = "melee_weapons", chance = 2800000},\n\t\t\t\t{group = "pistols", chance = 1000000},\n\t\t\t\t{group = "rifles", chance = 1000000},\n\t\t\t\t{group = "carbines", chance = 1000000},\n\t\t\t\t{group = "wearables_common", chance = 500000},\n\t\t\t\t{group = "wearables_uncommon", chance = 500000}\n\t\t\t}', '{group = "wearables_uncommon", chance = 500000}')]</t>
         </is>
       </c>
     </row>
@@ -4850,12 +4850,12 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dathomir\spiderclan_crawler.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dathomir\spiderclan_auspex.lua</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t\n\t\t\t\t{group = "rifles", chance = 2500000},\n\t\t\t\t{group = "pistols", chance = 2500000},\n\t\t\t\t{group = "carbines", chance = 2500000},\n\t\t\t\t{group = "wearables_common", chance = 2500000},\n\t\t\t},\n\t\t\tlootChance = 4500000,\n\t\t}', '{\n\t\t\t\t\n\t\t\t\t{group = "rifles", chance = 2500000},\n\t\t\t\t{group = "pistols", chance = 2500000},\n\t\t\t\t{group = "carbines", chance = 2500000},\n\t\t\t\t{group = "wearables_common", chance = 2500000},\n\t\t\t}', '{group = "wearables_common", chance = 2500000}')]</t>
+          <t>[('{ -- Jedi Specific Loot Group\n\t\t\tgroups =\n\t\t\t{\n\t\t\t\t{group = "jedi_clothing_attachments", chance = 5000000},   -- 7.5% * 50% = 3.75%\n\t\t\t\t{group = "named_crystals", chance = 5000000},\n\t\t\t},\n\t\t\tlootChance = 750000,   -- 7.5% chance for this group\n\t\t}', '{\n\t\t\t\t{group = "jedi_clothing_attachments", chance = 5000000},   -- 7.5% * 50% = 3.75%\n\t\t\t\t{group = "named_crystals", chance = 5000000},\n\t\t\t}', '{group = "named_crystals", chance = 5000000}')]</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
@@ -4870,17 +4870,17 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dathomir\spiderclan_elder.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dathomir\spiderclan_crawler.lua</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>[('{ -- Jedi Specific Loot Group\n\t\t\tgroups =\n\t\t\t{\n\t\t\t\t{group = "jedi_clothing_attachments", chance = 10000000}, -- 100% * 10% = 10%\n\t\t\t},\n\t\t\tlootChance = 1000000,\n\t\t}', '{\n\t\t\t\t{group = "jedi_clothing_attachments", chance = 10000000}, -- 100% * 10% = 10%\n\t\t\t}', '{group = "jedi_clothing_attachments", chance = 10000000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t\n\t\t\t\t{group = "rifles", chance = 2500000},\n\t\t\t\t{group = "pistols", chance = 2500000},\n\t\t\t\t{group = "carbines", chance = 2500000},\n\t\t\t\t{group = "wearables_common", chance = 2500000},\n\t\t\t},\n\t\t\tlootChance = 4500000,\n\t\t}', '{\n\t\t\t\t\n\t\t\t\t{group = "rifles", chance = 2500000},\n\t\t\t\t{group = "pistols", chance = 2500000},\n\t\t\t\t{group = "carbines", chance = 2500000},\n\t\t\t\t{group = "wearables_common", chance = 2500000},\n\t\t\t}', '{group = "wearables_common", chance = 2500000}')]</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 1500000},\n\t\t\t\t{group = "power_crystals", chance = 500000},\n\t\t\t\t{group = "color_crystals", chance = 500000},\n\t\t\t\t{group = "armor_attachments", chance = 600000},\n\t\t\t\t{group = "clothing_attachments", chance = 600000},\n\t\t\t\t{group = "melee_weapons", chance = 2800000},\n\t\t\t\t{group = "pistols", chance = 1000000},\n\t\t\t\t{group = "rifles", chance = 1000000},\n\t\t\t\t{group = "carbines", chance = 1000000},\n\t\t\t\t{group = "wearables_scarce", chance = 500000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 1500000},\n\t\t\t\t{group = "power_crystals", chance = 500000},\n\t\t\t\t{group = "color_crystals", chance = 500000},\n\t\t\t\t{group = "armor_attachments", chance = 600000},\n\t\t\t\t{group = "clothing_attachments", chance = 600000},\n\t\t\t\t{group = "melee_weapons", chance = 2800000},\n\t\t\t\t{group = "pistols", chance = 1000000},\n\t\t\t\t{group = "rifles", chance = 1000000},\n\t\t\t\t{group = "carbines", chance = 1000000},\n\t\t\t\t{group = "wearables_scarce", chance = 500000}\n\t\t\t}', '{group = "wearables_scarce", chance = 500000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 1500000},\n\t\t\t\t{group = "power_crystals", chance = 500000},\n\t\t\t\t{group = "color_crystals", chance = 500000},\n\t\t\t\t{group = "armor_attachments", chance = 400000},\n\t\t\t\t{group = "clothing_attachments", chance = 400000},\n\t\t\t\t{group = "melee_weapons", chance = 2700000},\n\t\t\t\t{group = "pistols", chance = 1000000},\n\t\t\t\t{group = "rifles", chance = 1000000},\n\t\t\t\t{group = "carbines", chance = 1000000},\n\t\t\t\t{group = "wearables_common", chance = 500000},\n\t\t\t\t{group = "wearables_uncommon", chance = 500000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 1500000},\n\t\t\t\t{group = "power_crystals", chance = 500000},\n\t\t\t\t{group = "color_crystals", chance = 500000},\n\t\t\t\t{group = "armor_attachments", chance = 400000},\n\t\t\t\t{group = "clothing_attachments", chance = 400000},\n\t\t\t\t{group = "melee_weapons", chance = 2700000},\n\t\t\t\t{group = "pistols", chance = 1000000},\n\t\t\t\t{group = "rifles", chance = 1000000},\n\t\t\t\t{group = "carbines", chance = 1000000},\n\t\t\t\t{group = "wearables_common", chance = 500000},\n\t\t\t\t{group = "wearables_uncommon", chance = 500000}\n\t\t\t}', '{group = "wearables_uncommon", chance = 500000}')]</t>
         </is>
       </c>
     </row>
@@ -4890,17 +4890,17 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dathomir\spiderclan_protector.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dathomir\spiderclan_elder.lua</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>[('{ -- Jedi Specific Loot Group\n\t\t\tgroups =\n\t\t\t{\n\t\t\t\t{group = "jedi_clothing_attachments", chance = 5000000},   -- 7.5% * 50% = 3.75%\n\t\t\t\t{group = "named_crystals", chance = 5000000},\n\t\t\t},\n\t\t\tlootChance = 750000,   -- 7.5% chance for this group\n\t\t}', '{\n\t\t\t\t{group = "jedi_clothing_attachments", chance = 5000000},   -- 7.5% * 50% = 3.75%\n\t\t\t\t{group = "named_crystals", chance = 5000000},\n\t\t\t}', '{group = "named_crystals", chance = 5000000}')]</t>
+          <t>[('{ -- Jedi Specific Loot Group\n\t\t\tgroups =\n\t\t\t{\n\t\t\t\t{group = "jedi_clothing_attachments", chance = 10000000}, -- 100% * 10% = 10%\n\t\t\t},\n\t\t\tlootChance = 1000000,\n\t\t}', '{\n\t\t\t\t{group = "jedi_clothing_attachments", chance = 10000000}, -- 100% * 10% = 10%\n\t\t\t}', '{group = "jedi_clothing_attachments", chance = 10000000}')]</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 1500000},\n\t\t\t\t{group = "power_crystals", chance = 500000},\n\t\t\t\t{group = "color_crystals", chance = 500000},\n\t\t\t\t{group = "armor_attachments", chance = 450000},\n\t\t\t\t{group = "clothing_attachments", chance = 450000},\n\t\t\t\t{group = "melee_weapons", chance = 3100000},\n\t\t\t\t{group = "pistols", chance = 1000000},\n\t\t\t\t{group = "rifles", chance = 1000000},\n\t\t\t\t{group = "carbines", chance = 1000000},\n\t\t\t\t{group = "wearables_all", chance = 500000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 1500000},\n\t\t\t\t{group = "power_crystals", chance = 500000},\n\t\t\t\t{group = "color_crystals", chance = 500000},\n\t\t\t\t{group = "armor_attachments", chance = 450000},\n\t\t\t\t{group = "clothing_attachments", chance = 450000},\n\t\t\t\t{group = "melee_weapons", chance = 3100000},\n\t\t\t\t{group = "pistols", chance = 1000000},\n\t\t\t\t{group = "rifles", chance = 1000000},\n\t\t\t\t{group = "carbines", chance = 1000000},\n\t\t\t\t{group = "wearables_all", chance = 500000}\n\t\t\t}', '{group = "wearables_all", chance = 500000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 1500000},\n\t\t\t\t{group = "power_crystals", chance = 500000},\n\t\t\t\t{group = "color_crystals", chance = 500000},\n\t\t\t\t{group = "armor_attachments", chance = 600000},\n\t\t\t\t{group = "clothing_attachments", chance = 600000},\n\t\t\t\t{group = "melee_weapons", chance = 2800000},\n\t\t\t\t{group = "pistols", chance = 1000000},\n\t\t\t\t{group = "rifles", chance = 1000000},\n\t\t\t\t{group = "carbines", chance = 1000000},\n\t\t\t\t{group = "wearables_scarce", chance = 500000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 1500000},\n\t\t\t\t{group = "power_crystals", chance = 500000},\n\t\t\t\t{group = "color_crystals", chance = 500000},\n\t\t\t\t{group = "armor_attachments", chance = 600000},\n\t\t\t\t{group = "clothing_attachments", chance = 600000},\n\t\t\t\t{group = "melee_weapons", chance = 2800000},\n\t\t\t\t{group = "pistols", chance = 1000000},\n\t\t\t\t{group = "rifles", chance = 1000000},\n\t\t\t\t{group = "carbines", chance = 1000000},\n\t\t\t\t{group = "wearables_scarce", chance = 500000}\n\t\t\t}', '{group = "wearables_scarce", chance = 500000}')]</t>
         </is>
       </c>
     </row>
@@ -4910,17 +4910,17 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dathomir\spiderclan_sentinel.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dathomir\spiderclan_protector.lua</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "combat_practice", chance = 100 * (100000)}\n\t\t\t},\n\t\t\tlootChance = 25 * (100000)\n\t\t}', '{\n\t\t\t\t{group = "combat_practice", chance = 100 * (100000)}\n\t\t\t}', '{group = "combat_practice", chance = 100 * (100000)}')]</t>
+          <t>[('{ -- Jedi Specific Loot Group\n\t\t\tgroups =\n\t\t\t{\n\t\t\t\t{group = "jedi_clothing_attachments", chance = 5000000},   -- 7.5% * 50% = 3.75%\n\t\t\t\t{group = "named_crystals", chance = 5000000},\n\t\t\t},\n\t\t\tlootChance = 750000,   -- 7.5% chance for this group\n\t\t}', '{\n\t\t\t\t{group = "jedi_clothing_attachments", chance = 5000000},   -- 7.5% * 50% = 3.75%\n\t\t\t\t{group = "named_crystals", chance = 5000000},\n\t\t\t}', '{group = "named_crystals", chance = 5000000}')]</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 1500000},\n\t\t\t\t{group = "power_crystals", chance = 500000},\n\t\t\t\t{group = "color_crystals", chance = 500000},\n\t\t\t\t{group = "armor_attachments", chance = 400000},\n\t\t\t\t{group = "clothing_attachments", chance = 400000},\n\t\t\t\t{group = "melee_weapons", chance = 2700000},\n\t\t\t\t{group = "pistols", chance = 1000000},\n\t\t\t\t{group = "rifles", chance = 1000000},\n\t\t\t\t{group = "carbines", chance = 1000000},\n\t\t\t\t{group = "wearables_common", chance = 500000},\n\t\t\t\t{group = "wearables_uncommon", chance = 500000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 1500000},\n\t\t\t\t{group = "power_crystals", chance = 500000},\n\t\t\t\t{group = "color_crystals", chance = 500000},\n\t\t\t\t{group = "armor_attachments", chance = 400000},\n\t\t\t\t{group = "clothing_attachments", chance = 400000},\n\t\t\t\t{group = "melee_weapons", chance = 2700000},\n\t\t\t\t{group = "pistols", chance = 1000000},\n\t\t\t\t{group = "rifles", chance = 1000000},\n\t\t\t\t{group = "carbines", chance = 1000000},\n\t\t\t\t{group = "wearables_common", chance = 500000},\n\t\t\t\t{group = "wearables_uncommon", chance = 500000}\n\t\t\t}', '{group = "wearables_uncommon", chance = 500000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 1500000},\n\t\t\t\t{group = "power_crystals", chance = 500000},\n\t\t\t\t{group = "color_crystals", chance = 500000},\n\t\t\t\t{group = "armor_attachments", chance = 450000},\n\t\t\t\t{group = "clothing_attachments", chance = 450000},\n\t\t\t\t{group = "melee_weapons", chance = 3100000},\n\t\t\t\t{group = "pistols", chance = 1000000},\n\t\t\t\t{group = "rifles", chance = 1000000},\n\t\t\t\t{group = "carbines", chance = 1000000},\n\t\t\t\t{group = "wearables_all", chance = 500000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 1500000},\n\t\t\t\t{group = "power_crystals", chance = 500000},\n\t\t\t\t{group = "color_crystals", chance = 500000},\n\t\t\t\t{group = "armor_attachments", chance = 450000},\n\t\t\t\t{group = "clothing_attachments", chance = 450000},\n\t\t\t\t{group = "melee_weapons", chance = 3100000},\n\t\t\t\t{group = "pistols", chance = 1000000},\n\t\t\t\t{group = "rifles", chance = 1000000},\n\t\t\t\t{group = "carbines", chance = 1000000},\n\t\t\t\t{group = "wearables_all", chance = 500000}\n\t\t\t}', '{group = "wearables_all", chance = 500000}')]</t>
         </is>
       </c>
     </row>
@@ -4930,17 +4930,17 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dathomir\spiderclan_sentry.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dathomir\spiderclan_sentinel.lua</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t\n\t\t\t\t{group = "rifles", chance = 2500000},\n\t\t\t\t{group = "pistols", chance = 2500000},\n\t\t\t\t{group = "carbines", chance = 2500000},\n\t\t\t\t{group = "wearables_common", chance = 2500000},\n\t\t\t},\n\t\t\tlootChance = 2500000,\n\t\t}', '{\n\t\t\t\t\n\t\t\t\t{group = "rifles", chance = 2500000},\n\t\t\t\t{group = "pistols", chance = 2500000},\n\t\t\t\t{group = "carbines", chance = 2500000},\n\t\t\t\t{group = "wearables_common", chance = 2500000},\n\t\t\t}', '{group = "wearables_common", chance = 2500000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "combat_practice", chance = 100 * (100000)}\n\t\t\t},\n\t\t\tlootChance = 25 * (100000)\n\t\t}', '{\n\t\t\t\t{group = "combat_practice", chance = 100 * (100000)}\n\t\t\t}', '{group = "combat_practice", chance = 100 * (100000)}')]</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 1500000},\n\t\t\t\t{group = "power_crystals", chance = 500000},\n\t\t\t\t{group = "color_crystals", chance = 500000},\n\t\t\t\t{group = "armor_attachments", chance = 350000},\n\t\t\t\t{group = "clothing_attachments", chance = 350000},\n\t\t\t\t{group = "melee_weapons", chance = 2800000},\n\t\t\t\t{group = "pistols", chance = 1000000},\n\t\t\t\t{group = "rifles", chance = 1000000},\n\t\t\t\t{group = "carbines", chance = 1000000},\n\t\t\t\t{group = "wearables_common", chance = 1000000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 1500000},\n\t\t\t\t{group = "power_crystals", chance = 500000},\n\t\t\t\t{group = "color_crystals", chance = 500000},\n\t\t\t\t{group = "armor_attachments", chance = 350000},\n\t\t\t\t{group = "clothing_attachments", chance = 350000},\n\t\t\t\t{group = "melee_weapons", chance = 2800000},\n\t\t\t\t{group = "pistols", chance = 1000000},\n\t\t\t\t{group = "rifles", chance = 1000000},\n\t\t\t\t{group = "carbines", chance = 1000000},\n\t\t\t\t{group = "wearables_common", chance = 1000000}\n\t\t\t}', '{group = "wearables_common", chance = 1000000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 1500000},\n\t\t\t\t{group = "power_crystals", chance = 500000},\n\t\t\t\t{group = "color_crystals", chance = 500000},\n\t\t\t\t{group = "armor_attachments", chance = 400000},\n\t\t\t\t{group = "clothing_attachments", chance = 400000},\n\t\t\t\t{group = "melee_weapons", chance = 2700000},\n\t\t\t\t{group = "pistols", chance = 1000000},\n\t\t\t\t{group = "rifles", chance = 1000000},\n\t\t\t\t{group = "carbines", chance = 1000000},\n\t\t\t\t{group = "wearables_common", chance = 500000},\n\t\t\t\t{group = "wearables_uncommon", chance = 500000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 1500000},\n\t\t\t\t{group = "power_crystals", chance = 500000},\n\t\t\t\t{group = "color_crystals", chance = 500000},\n\t\t\t\t{group = "armor_attachments", chance = 400000},\n\t\t\t\t{group = "clothing_attachments", chance = 400000},\n\t\t\t\t{group = "melee_weapons", chance = 2700000},\n\t\t\t\t{group = "pistols", chance = 1000000},\n\t\t\t\t{group = "rifles", chance = 1000000},\n\t\t\t\t{group = "carbines", chance = 1000000},\n\t\t\t\t{group = "wearables_common", chance = 500000},\n\t\t\t\t{group = "wearables_uncommon", chance = 500000}\n\t\t\t}', '{group = "wearables_uncommon", chance = 500000}')]</t>
         </is>
       </c>
     </row>
@@ -4950,17 +4950,17 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dathomir\spiderclan_stalker.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dathomir\spiderclan_sentry.lua</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>[('{ -- Jedi Specific Loot Group\n\t\t\tgroups =\n\t\t\t{\n\t\t\t\t{group = "jedi_clothing_attachments", chance = 5000000},    -- 7.5% * 50% = 3.75%\n\t\t\t\t{group = "named_crystals", chance = 5000000},\n\t\t\t},\n\t\t\tlootChance = 750000,   -- 7.5% chance for this group\n\t\t}', '{\n\t\t\t\t{group = "jedi_clothing_attachments", chance = 5000000},    -- 7.5% * 50% = 3.75%\n\t\t\t\t{group = "named_crystals", chance = 5000000},\n\t\t\t}', '{group = "named_crystals", chance = 5000000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t\n\t\t\t\t{group = "rifles", chance = 2500000},\n\t\t\t\t{group = "pistols", chance = 2500000},\n\t\t\t\t{group = "carbines", chance = 2500000},\n\t\t\t\t{group = "wearables_common", chance = 2500000},\n\t\t\t},\n\t\t\tlootChance = 2500000,\n\t\t}', '{\n\t\t\t\t\n\t\t\t\t{group = "rifles", chance = 2500000},\n\t\t\t\t{group = "pistols", chance = 2500000},\n\t\t\t\t{group = "carbines", chance = 2500000},\n\t\t\t\t{group = "wearables_common", chance = 2500000},\n\t\t\t}', '{group = "wearables_common", chance = 2500000}')]</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 1500000},\n\t\t\t\t{group = "power_crystals", chance = 500000},\n\t\t\t\t{group = "color_crystals", chance = 500000},\n\t\t\t\t{group = "armor_attachments", chance = 400000},\n\t\t\t\t{group = "clothing_attachments", chance = 400000},\n\t\t\t\t{group = "melee_weapons", chance = 2700000},\n\t\t\t\t{group = "pistols", chance = 1000000},\n\t\t\t\t{group = "rifles", chance = 1000000},\n\t\t\t\t{group = "carbines", chance = 1000000},\n\t\t\t\t{group = "wearables_common", chance = 500000},\n\t\t\t\t{group = "wearables_uncommon", chance = 500000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 1500000},\n\t\t\t\t{group = "power_crystals", chance = 500000},\n\t\t\t\t{group = "color_crystals", chance = 500000},\n\t\t\t\t{group = "armor_attachments", chance = 400000},\n\t\t\t\t{group = "clothing_attachments", chance = 400000},\n\t\t\t\t{group = "melee_weapons", chance = 2700000},\n\t\t\t\t{group = "pistols", chance = 1000000},\n\t\t\t\t{group = "rifles", chance = 1000000},\n\t\t\t\t{group = "carbines", chance = 1000000},\n\t\t\t\t{group = "wearables_common", chance = 500000},\n\t\t\t\t{group = "wearables_uncommon", chance = 500000}\n\t\t\t}', '{group = "wearables_uncommon", chance = 500000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 1500000},\n\t\t\t\t{group = "power_crystals", chance = 500000},\n\t\t\t\t{group = "color_crystals", chance = 500000},\n\t\t\t\t{group = "armor_attachments", chance = 350000},\n\t\t\t\t{group = "clothing_attachments", chance = 350000},\n\t\t\t\t{group = "melee_weapons", chance = 2800000},\n\t\t\t\t{group = "pistols", chance = 1000000},\n\t\t\t\t{group = "rifles", chance = 1000000},\n\t\t\t\t{group = "carbines", chance = 1000000},\n\t\t\t\t{group = "wearables_common", chance = 1000000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 1500000},\n\t\t\t\t{group = "power_crystals", chance = 500000},\n\t\t\t\t{group = "color_crystals", chance = 500000},\n\t\t\t\t{group = "armor_attachments", chance = 350000},\n\t\t\t\t{group = "clothing_attachments", chance = 350000},\n\t\t\t\t{group = "melee_weapons", chance = 2800000},\n\t\t\t\t{group = "pistols", chance = 1000000},\n\t\t\t\t{group = "rifles", chance = 1000000},\n\t\t\t\t{group = "carbines", chance = 1000000},\n\t\t\t\t{group = "wearables_common", chance = 1000000}\n\t\t\t}', '{group = "wearables_common", chance = 1000000}')]</t>
         </is>
       </c>
     </row>
@@ -4970,12 +4970,12 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dathomir\spiderclan_web_dancer.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dathomir\spiderclan_stalker.lua</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t\n\t\t\t\t{group = "rifles", chance = 2500000},\n\t\t\t\t{group = "pistols", chance = 2500000},\n\t\t\t\t{group = "carbines", chance = 2500000},\n\t\t\t\t{group = "wearables_common", chance = 2500000},\n\t\t\t},\n\t\t\tlootChance = 3500000,\n\t\t}', '{\n\t\t\t\t\n\t\t\t\t{group = "rifles", chance = 2500000},\n\t\t\t\t{group = "pistols", chance = 2500000},\n\t\t\t\t{group = "carbines", chance = 2500000},\n\t\t\t\t{group = "wearables_common", chance = 2500000},\n\t\t\t}', '{group = "wearables_common", chance = 2500000}')]</t>
+          <t>[('{ -- Jedi Specific Loot Group\n\t\t\tgroups =\n\t\t\t{\n\t\t\t\t{group = "jedi_clothing_attachments", chance = 5000000},    -- 7.5% * 50% = 3.75%\n\t\t\t\t{group = "named_crystals", chance = 5000000},\n\t\t\t},\n\t\t\tlootChance = 750000,   -- 7.5% chance for this group\n\t\t}', '{\n\t\t\t\t{group = "jedi_clothing_attachments", chance = 5000000},    -- 7.5% * 50% = 3.75%\n\t\t\t\t{group = "named_crystals", chance = 5000000},\n\t\t\t}', '{group = "named_crystals", chance = 5000000}')]</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
@@ -4990,17 +4990,17 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dungeon\corellian_corvette\imperial\rebel_battle_droid.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dathomir\spiderclan_web_dancer.lua</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "airstrike_group", chance = 100 * (100000)},\n\t\t\t},\n\t\t\tlootChance = 7 * (100000),\n\t\t}', '{\n\t\t\t\t{group = "airstrike_group", chance = 100 * (100000)},\n\t\t\t}', '{group = "airstrike_group", chance = 100 * (100000)}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t\n\t\t\t\t{group = "rifles", chance = 2500000},\n\t\t\t\t{group = "pistols", chance = 2500000},\n\t\t\t\t{group = "carbines", chance = 2500000},\n\t\t\t\t{group = "wearables_common", chance = 2500000},\n\t\t\t},\n\t\t\tlootChance = 3500000,\n\t\t}', '{\n\t\t\t\t\n\t\t\t\t{group = "rifles", chance = 2500000},\n\t\t\t\t{group = "pistols", chance = 2500000},\n\t\t\t\t{group = "carbines", chance = 2500000},\n\t\t\t\t{group = "wearables_common", chance = 2500000},\n\t\t\t}', '{group = "wearables_common", chance = 2500000}')]</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>[('', '', '')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 1500000},\n\t\t\t\t{group = "power_crystals", chance = 500000},\n\t\t\t\t{group = "color_crystals", chance = 500000},\n\t\t\t\t{group = "armor_attachments", chance = 400000},\n\t\t\t\t{group = "clothing_attachments", chance = 400000},\n\t\t\t\t{group = "melee_weapons", chance = 2700000},\n\t\t\t\t{group = "pistols", chance = 1000000},\n\t\t\t\t{group = "rifles", chance = 1000000},\n\t\t\t\t{group = "carbines", chance = 1000000},\n\t\t\t\t{group = "wearables_common", chance = 500000},\n\t\t\t\t{group = "wearables_uncommon", chance = 500000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 1500000},\n\t\t\t\t{group = "power_crystals", chance = 500000},\n\t\t\t\t{group = "color_crystals", chance = 500000},\n\t\t\t\t{group = "armor_attachments", chance = 400000},\n\t\t\t\t{group = "clothing_attachments", chance = 400000},\n\t\t\t\t{group = "melee_weapons", chance = 2700000},\n\t\t\t\t{group = "pistols", chance = 1000000},\n\t\t\t\t{group = "rifles", chance = 1000000},\n\t\t\t\t{group = "carbines", chance = 1000000},\n\t\t\t\t{group = "wearables_common", chance = 500000},\n\t\t\t\t{group = "wearables_uncommon", chance = 500000}\n\t\t\t}', '{group = "wearables_uncommon", chance = 500000}')]</t>
         </is>
       </c>
     </row>
@@ -5010,17 +5010,17 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dungeon\corellian_corvette\imperial\rebel_commandant.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dungeon\corellian_corvette\imperial\rebel_battle_droid.lua</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "airstrike_group", chance = 100 * (100000)},\n\t\t\t},\n\t\t\tlootChance = 1 * (100000),\n\t\t}', '{\n\t\t\t\t{group = "airstrike_group", chance = 100 * (100000)},\n\t\t\t}', '{group = "airstrike_group", chance = 100 * (100000)}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "airstrike_group", chance = 100 * (100000)},\n\t\t\t},\n\t\t\tlootChance = 7 * (100000),\n\t\t}', '{\n\t\t\t\t{group = "airstrike_group", chance = 100 * (100000)},\n\t\t\t}', '{group = "airstrike_group", chance = 100 * (100000)}')]</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "color_crystals", chance = 300000},\n\t\t\t\t{group = "junk", chance = 4150000},\n\t\t\t\t{group = "rifles", chance = 1000000},\n\t\t\t\t{group = "pistols", chance = 1000000},\n\t\t\t\t{group = "melee_weapons", chance = 1000000},\n\t\t\t\t{group = "carbines", chance = 1000000},\n\t\t\t\t{group = "clothing_attachments", chance = 300000},\n\t\t\t\t{group = "armor_attachments", chance = 300000},\n\t\t\t\t{group = "rebel_officer_common", chance = 450000},\n\t\t\t\t{group = "wearables_rare", chance = 500000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "color_crystals", chance = 300000},\n\t\t\t\t{group = "junk", chance = 4150000},\n\t\t\t\t{group = "rifles", chance = 1000000},\n\t\t\t\t{group = "pistols", chance = 1000000},\n\t\t\t\t{group = "melee_weapons", chance = 1000000},\n\t\t\t\t{group = "carbines", chance = 1000000},\n\t\t\t\t{group = "clothing_attachments", chance = 300000},\n\t\t\t\t{group = "armor_attachments", chance = 300000},\n\t\t\t\t{group = "rebel_officer_common", chance = 450000},\n\t\t\t\t{group = "wearables_rare", chance = 500000}\n\t\t\t}', '{group = "wearables_rare", chance = 500000}')]</t>
+          <t>[('', '', '')]</t>
         </is>
       </c>
     </row>
@@ -5030,7 +5030,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dungeon\corellian_corvette\imperial\rebel_super_battle_droid.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dungeon\corellian_corvette\imperial\rebel_commandant.lua</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -5040,7 +5040,7 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>[('', '', '')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "color_crystals", chance = 300000},\n\t\t\t\t{group = "junk", chance = 4150000},\n\t\t\t\t{group = "rifles", chance = 1000000},\n\t\t\t\t{group = "pistols", chance = 1000000},\n\t\t\t\t{group = "melee_weapons", chance = 1000000},\n\t\t\t\t{group = "carbines", chance = 1000000},\n\t\t\t\t{group = "clothing_attachments", chance = 300000},\n\t\t\t\t{group = "armor_attachments", chance = 300000},\n\t\t\t\t{group = "rebel_officer_common", chance = 450000},\n\t\t\t\t{group = "wearables_rare", chance = 500000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "color_crystals", chance = 300000},\n\t\t\t\t{group = "junk", chance = 4150000},\n\t\t\t\t{group = "rifles", chance = 1000000},\n\t\t\t\t{group = "pistols", chance = 1000000},\n\t\t\t\t{group = "melee_weapons", chance = 1000000},\n\t\t\t\t{group = "carbines", chance = 1000000},\n\t\t\t\t{group = "clothing_attachments", chance = 300000},\n\t\t\t\t{group = "armor_attachments", chance = 300000},\n\t\t\t\t{group = "rebel_officer_common", chance = 450000},\n\t\t\t\t{group = "wearables_rare", chance = 500000}\n\t\t\t}', '{group = "wearables_rare", chance = 500000}')]</t>
         </is>
       </c>
     </row>
@@ -5050,12 +5050,12 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dungeon\corellian_corvette\neutral\corsec_super_battle_droid.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dungeon\corellian_corvette\imperial\rebel_super_battle_droid.lua</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "death_watch_bunker_commoners", chance = 6000000},   -- 25% * 60% = 15%\n\t\t\t\t{group = "stap_speeder", chance = 4000000}     -- 25% * 40% = 10%\n\t\t\t},\n\t\t\tlootChance = 2500000    -- 25% chance of this group\n\t\t}', '{\n\t\t\t\t{group = "death_watch_bunker_commoners", chance = 6000000},   -- 25% * 60% = 15%\n\t\t\t\t{group = "stap_speeder", chance = 4000000}     -- 25% * 40% = 10%\n\t\t\t}', '{group = "stap_speeder", chance = 4000000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "airstrike_group", chance = 100 * (100000)},\n\t\t\t},\n\t\t\tlootChance = 1 * (100000),\n\t\t}', '{\n\t\t\t\t{group = "airstrike_group", chance = 100 * (100000)},\n\t\t\t}', '{group = "airstrike_group", chance = 100 * (100000)}')]</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
@@ -5070,17 +5070,17 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dungeon\corellian_corvette\rebel\elite_novatrooper.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dungeon\corellian_corvette\neutral\corsec_super_battle_droid.lua</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "airstrike_group", chance = 100 * (100000)},\n\t\t\t},\n\t\t\tlootChance = 1 * (100000),\n\t\t}', '{\n\t\t\t\t{group = "airstrike_group", chance = 100 * (100000)},\n\t\t\t}', '{group = "airstrike_group", chance = 100 * (100000)}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "death_watch_bunker_commoners", chance = 6000000},   -- 25% * 60% = 15%\n\t\t\t\t{group = "stap_speeder", chance = 4000000}     -- 25% * 40% = 10%\n\t\t\t},\n\t\t\tlootChance = 2500000    -- 25% chance of this group\n\t\t}', '{\n\t\t\t\t{group = "death_watch_bunker_commoners", chance = 6000000},   -- 25% * 60% = 15%\n\t\t\t\t{group = "stap_speeder", chance = 4000000}     -- 25% * 40% = 10%\n\t\t\t}', '{group = "stap_speeder", chance = 4000000}')]</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "color_crystals", chance = 100000},\n\t\t\t\t{group = "junk", chance = 6650000},\n\t\t\t\t{group = "rifles", chance = 550000},\n\t\t\t\t{group = "pistols", chance = 550000},\n\t\t\t\t{group = "melee_weapons", chance = 550000},\n\t\t\t\t{group = "carbines", chance = 550000},\n\t\t\t\t{group = "clothing_attachments", chance = 25000},\n\t\t\t\t{group = "armor_attachments", chance = 25000},\n\t\t\t\t{group = "wearables_rare", chance = 1000000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "color_crystals", chance = 100000},\n\t\t\t\t{group = "junk", chance = 6650000},\n\t\t\t\t{group = "rifles", chance = 550000},\n\t\t\t\t{group = "pistols", chance = 550000},\n\t\t\t\t{group = "melee_weapons", chance = 550000},\n\t\t\t\t{group = "carbines", chance = 550000},\n\t\t\t\t{group = "clothing_attachments", chance = 25000},\n\t\t\t\t{group = "armor_attachments", chance = 25000},\n\t\t\t\t{group = "wearables_rare", chance = 1000000}\n\t\t\t}', '{group = "wearables_rare", chance = 1000000}')]</t>
+          <t>[('', '', '')]</t>
         </is>
       </c>
     </row>
@@ -5090,17 +5090,17 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dungeon\corellian_corvette\rebel\imperial_battle_droid.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dungeon\corellian_corvette\rebel\elite_novatrooper.lua</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "airstrike_group", chance = 100 * (100000)},\n\t\t\t},\n\t\t\tlootChance = 7 * (100000),\n\t\t}', '{\n\t\t\t\t{group = "airstrike_group", chance = 100 * (100000)},\n\t\t\t}', '{group = "airstrike_group", chance = 100 * (100000)}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "airstrike_group", chance = 100 * (100000)},\n\t\t\t},\n\t\t\tlootChance = 1 * (100000),\n\t\t}', '{\n\t\t\t\t{group = "airstrike_group", chance = 100 * (100000)},\n\t\t\t}', '{group = "airstrike_group", chance = 100 * (100000)}')]</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>[('', '', '')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "color_crystals", chance = 100000},\n\t\t\t\t{group = "junk", chance = 6650000},\n\t\t\t\t{group = "rifles", chance = 550000},\n\t\t\t\t{group = "pistols", chance = 550000},\n\t\t\t\t{group = "melee_weapons", chance = 550000},\n\t\t\t\t{group = "carbines", chance = 550000},\n\t\t\t\t{group = "clothing_attachments", chance = 25000},\n\t\t\t\t{group = "armor_attachments", chance = 25000},\n\t\t\t\t{group = "wearables_rare", chance = 1000000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "color_crystals", chance = 100000},\n\t\t\t\t{group = "junk", chance = 6650000},\n\t\t\t\t{group = "rifles", chance = 550000},\n\t\t\t\t{group = "pistols", chance = 550000},\n\t\t\t\t{group = "melee_weapons", chance = 550000},\n\t\t\t\t{group = "carbines", chance = 550000},\n\t\t\t\t{group = "clothing_attachments", chance = 25000},\n\t\t\t\t{group = "armor_attachments", chance = 25000},\n\t\t\t\t{group = "wearables_rare", chance = 1000000}\n\t\t\t}', '{group = "wearables_rare", chance = 1000000}')]</t>
         </is>
       </c>
     </row>
@@ -5110,12 +5110,12 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dungeon\corellian_corvette\rebel\imperial_super_battle_droid.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dungeon\corellian_corvette\rebel\imperial_battle_droid.lua</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "airstrike_group", chance = 100 * (100000)},\n\t\t\t},\n\t\t\tlootChance = 1 * (100000),\n\t\t}', '{\n\t\t\t\t{group = "airstrike_group", chance = 100 * (100000)},\n\t\t\t}', '{group = "airstrike_group", chance = 100 * (100000)}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "airstrike_group", chance = 100 * (100000)},\n\t\t\t},\n\t\t\tlootChance = 7 * (100000),\n\t\t}', '{\n\t\t\t\t{group = "airstrike_group", chance = 100 * (100000)},\n\t\t\t}', '{group = "airstrike_group", chance = 100 * (100000)}')]</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
@@ -5130,17 +5130,17 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dungeon\death_watch_bunker\black_sun_assassin.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dungeon\corellian_corvette\rebel\imperial_super_battle_droid.lua</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "clothing_attachments", chance = 10000000},\n\t\t\t},\n\t\t\tlootChance = 500000\n\t\t}', '{\n\t\t\t\t{group = "clothing_attachments", chance = 10000000},\n\t\t\t}', '{group = "clothing_attachments", chance = 10000000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "airstrike_group", chance = 100 * (100000)},\n\t\t\t},\n\t\t\tlootChance = 1 * (100000),\n\t\t}', '{\n\t\t\t\t{group = "airstrike_group", chance = 100 * (100000)},\n\t\t\t}', '{group = "airstrike_group", chance = 100 * (100000)}')]</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 6500000},\n\t\t\t\t{group = "pistols", chance = 750000},\n\t\t\t\t{group = "rifles", chance = 750000},\n\t\t\t\t{group = "carbines", chance = 750000},\n\t\t\t\t{group = "bounty_hunter_armor", chance = 200000},\n\t\t\t\t{group = "jetpack_base", chance = 50000},\n\t\t\t\t{group = "wearables_common", chance = 500000},\n\t\t\t\t{group = "wearables_uncommon", chance = 500000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 6500000},\n\t\t\t\t{group = "pistols", chance = 750000},\n\t\t\t\t{group = "rifles", chance = 750000},\n\t\t\t\t{group = "carbines", chance = 750000},\n\t\t\t\t{group = "bounty_hunter_armor", chance = 200000},\n\t\t\t\t{group = "jetpack_base", chance = 50000},\n\t\t\t\t{group = "wearables_common", chance = 500000},\n\t\t\t\t{group = "wearables_uncommon", chance = 500000}\n\t\t\t}', '{group = "wearables_uncommon", chance = 500000}')]</t>
+          <t>[('', '', '')]</t>
         </is>
       </c>
     </row>
@@ -5150,7 +5150,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dungeon\death_watch_bunker\black_sun_guard.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dungeon\death_watch_bunker\black_sun_assassin.lua</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -5170,12 +5170,12 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dungeon\death_watch_bunker\black_sun_henchman.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dungeon\death_watch_bunker\black_sun_guard.lua</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "bounty_hunter_armor", chance = 10000000},\n\t\t\t},\n\t\t\tlootChance = 1500000\n\t\t}', '{\n\t\t\t\t{group = "bounty_hunter_armor", chance = 10000000},\n\t\t\t}', '{group = "bounty_hunter_armor", chance = 10000000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "clothing_attachments", chance = 10000000},\n\t\t\t},\n\t\t\tlootChance = 500000\n\t\t}', '{\n\t\t\t\t{group = "clothing_attachments", chance = 10000000},\n\t\t\t}', '{group = "clothing_attachments", chance = 10000000}')]</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
@@ -5190,12 +5190,12 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dungeon\death_watch_bunker\black_sun_thug.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dungeon\death_watch_bunker\black_sun_henchman.lua</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "bounty_hunter_armor", chance = 10000000},\n\t\t\t},\n\t\t\tlootChance = 1000000\n\t\t}', '{\n\t\t\t\t{group = "bounty_hunter_armor", chance = 10000000},\n\t\t\t}', '{group = "bounty_hunter_armor", chance = 10000000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "bounty_hunter_armor", chance = 10000000},\n\t\t\t},\n\t\t\tlootChance = 1500000\n\t\t}', '{\n\t\t\t\t{group = "bounty_hunter_armor", chance = 10000000},\n\t\t\t}', '{group = "bounty_hunter_armor", chance = 10000000}')]</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
@@ -5210,17 +5210,17 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dungeon\death_watch_bunker\death_watch_battle_droid.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dungeon\death_watch_bunker\black_sun_thug.lua</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "death_watch_bunker_commoners", chance = 10000000}\n\t\t\t},\n\t\t\tlootChance = 2500000\n\t\t}', '{\n\t\t\t\t{group = "death_watch_bunker_commoners", chance = 10000000}\n\t\t\t}', '{group = "death_watch_bunker_commoners", chance = 10000000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "bounty_hunter_armor", chance = 10000000},\n\t\t\t},\n\t\t\tlootChance = 1000000\n\t\t}', '{\n\t\t\t\t{group = "bounty_hunter_armor", chance = 10000000},\n\t\t\t}', '{group = "bounty_hunter_armor", chance = 10000000}')]</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "death_watch_bunker_commoners", chance = 10000000}\n\t\t\t},\n\t\t\tlootChance = 500000\n\t\t}', '{\n\t\t\t\t{group = "death_watch_bunker_commoners", chance = 10000000}\n\t\t\t}', '{group = "death_watch_bunker_commoners", chance = 10000000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 6500000},\n\t\t\t\t{group = "pistols", chance = 750000},\n\t\t\t\t{group = "rifles", chance = 750000},\n\t\t\t\t{group = "carbines", chance = 750000},\n\t\t\t\t{group = "bounty_hunter_armor", chance = 200000},\n\t\t\t\t{group = "jetpack_base", chance = 50000},\n\t\t\t\t{group = "wearables_common", chance = 500000},\n\t\t\t\t{group = "wearables_uncommon", chance = 500000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 6500000},\n\t\t\t\t{group = "pistols", chance = 750000},\n\t\t\t\t{group = "rifles", chance = 750000},\n\t\t\t\t{group = "carbines", chance = 750000},\n\t\t\t\t{group = "bounty_hunter_armor", chance = 200000},\n\t\t\t\t{group = "jetpack_base", chance = 50000},\n\t\t\t\t{group = "wearables_common", chance = 500000},\n\t\t\t\t{group = "wearables_uncommon", chance = 500000}\n\t\t\t}', '{group = "wearables_uncommon", chance = 500000}')]</t>
         </is>
       </c>
     </row>
@@ -5230,17 +5230,17 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dungeon\death_watch_bunker\death_watch_black_sun_assassin.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dungeon\death_watch_bunker\death_watch_battle_droid.lua</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "blacksun_rare", chance = 10000000},\n\t\t\t},\n\t\t\tlootChance = 100000\n\t\t}', '{\n\t\t\t\t{group = "blacksun_rare", chance = 10000000},\n\t\t\t}', '{group = "blacksun_rare", chance = 10000000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "death_watch_bunker_commoners", chance = 10000000}\n\t\t\t},\n\t\t\tlootChance = 2500000\n\t\t}', '{\n\t\t\t\t{group = "death_watch_bunker_commoners", chance = 10000000}\n\t\t\t}', '{group = "death_watch_bunker_commoners", chance = 10000000}')]</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "death_watch_bunker_commoners", chance = 10000000},\n\t\t\t},\n\t\t\tlootChance = 1000000\n\t\t}', '{\n\t\t\t\t{group = "death_watch_bunker_commoners", chance = 10000000},\n\t\t\t}', '{group = "death_watch_bunker_commoners", chance = 10000000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "death_watch_bunker_commoners", chance = 10000000}\n\t\t\t},\n\t\t\tlootChance = 500000\n\t\t}', '{\n\t\t\t\t{group = "death_watch_bunker_commoners", chance = 10000000}\n\t\t\t}', '{group = "death_watch_bunker_commoners", chance = 10000000}')]</t>
         </is>
       </c>
     </row>
@@ -5250,17 +5250,17 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dungeon\death_watch_bunker\death_watch_black_sun_guard.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dungeon\death_watch_bunker\death_watch_black_sun_assassin.lua</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "blacksun_rare", chance = 10000000},\n\t\t\t},\n\t\t\tlootChance = 200000\n\t\t}', '{\n\t\t\t\t{group = "blacksun_rare", chance = 10000000},\n\t\t\t}', '{group = "blacksun_rare", chance = 10000000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "blacksun_rare", chance = 10000000},\n\t\t\t},\n\t\t\tlootChance = 100000\n\t\t}', '{\n\t\t\t\t{group = "blacksun_rare", chance = 10000000},\n\t\t\t}', '{group = "blacksun_rare", chance = 10000000}')]</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "death_watch_bunker_commoners", chance = 10000000}\n\t\t\t},\n\t\t\tlootChance = 1000000\n\t\t}', '{\n\t\t\t\t{group = "death_watch_bunker_commoners", chance = 10000000}\n\t\t\t}', '{group = "death_watch_bunker_commoners", chance = 10000000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "death_watch_bunker_commoners", chance = 10000000},\n\t\t\t},\n\t\t\tlootChance = 1000000\n\t\t}', '{\n\t\t\t\t{group = "death_watch_bunker_commoners", chance = 10000000},\n\t\t\t}', '{group = "death_watch_bunker_commoners", chance = 10000000}')]</t>
         </is>
       </c>
     </row>
@@ -5270,12 +5270,12 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dungeon\death_watch_bunker\death_watch_black_sun_henchman.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dungeon\death_watch_bunker\death_watch_black_sun_guard.lua</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "blacksun_rare", chance = 10000000},\n\t\t\t},\n\t\t\tlootChance = 300000\n\t\t}', '{\n\t\t\t\t{group = "blacksun_rare", chance = 10000000},\n\t\t\t}', '{group = "blacksun_rare", chance = 10000000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "blacksun_rare", chance = 10000000},\n\t\t\t},\n\t\t\tlootChance = 200000\n\t\t}', '{\n\t\t\t\t{group = "blacksun_rare", chance = 10000000},\n\t\t\t}', '{group = "blacksun_rare", chance = 10000000}')]</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
@@ -5290,12 +5290,12 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dungeon\death_watch_bunker\death_watch_black_sun_thug.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dungeon\death_watch_bunker\death_watch_black_sun_henchman.lua</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "blacksun_rare", chance = 10000000},\n\t\t\t},\n\t\t\tlootChance = 350000\n\t\t}', '{\n\t\t\t\t{group = "blacksun_rare", chance = 10000000},\n\t\t\t}', '{group = "blacksun_rare", chance = 10000000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "blacksun_rare", chance = 10000000},\n\t\t\t},\n\t\t\tlootChance = 300000\n\t\t}', '{\n\t\t\t\t{group = "blacksun_rare", chance = 10000000},\n\t\t\t}', '{group = "blacksun_rare", chance = 10000000}')]</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
@@ -5310,17 +5310,17 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dungeon\death_watch_bunker\death_watch_blastromech.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dungeon\death_watch_bunker\death_watch_black_sun_thug.lua</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "death_watch_bunker_lootbox", chance = 10000000},\n\t\t\t},\n\t\t\tlootChance = 3500000\n\t\t}', '{\n\t\t\t\t{group = "death_watch_bunker_lootbox", chance = 10000000},\n\t\t\t}', '{group = "death_watch_bunker_lootbox", chance = 10000000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "blacksun_rare", chance = 10000000},\n\t\t\t},\n\t\t\tlootChance = 350000\n\t\t}', '{\n\t\t\t\t{group = "blacksun_rare", chance = 10000000},\n\t\t\t}', '{group = "blacksun_rare", chance = 10000000}')]</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "death_watch_bunker_commoners", chance = 10000000}\n\t\t\t},\n\t\t\tlootChance = 500000\n\t\t}', '{\n\t\t\t\t{group = "death_watch_bunker_commoners", chance = 10000000}\n\t\t\t}', '{group = "death_watch_bunker_commoners", chance = 10000000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "death_watch_bunker_commoners", chance = 10000000}\n\t\t\t},\n\t\t\tlootChance = 1000000\n\t\t}', '{\n\t\t\t\t{group = "death_watch_bunker_commoners", chance = 10000000}\n\t\t\t}', '{group = "death_watch_bunker_commoners", chance = 10000000}')]</t>
         </is>
       </c>
     </row>
@@ -5330,17 +5330,17 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dungeon\death_watch_bunker\death_watch_bloodguard.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dungeon\death_watch_bunker\death_watch_blastromech.lua</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "armor_attachments", chance = 10000000},\n\t\t\t},\n\t\t\tlootChance = 1000000\n\t\t}', '{\n\t\t\t\t{group = "armor_attachments", chance = 10000000},\n\t\t\t}', '{group = "armor_attachments", chance = 10000000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "death_watch_bunker_lootbox", chance = 10000000},\n\t\t\t},\n\t\t\tlootChance = 3500000\n\t\t}', '{\n\t\t\t\t{group = "death_watch_bunker_lootbox", chance = 10000000},\n\t\t\t}', '{group = "death_watch_bunker_lootbox", chance = 10000000}')]</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "death_watch_bunker_commoners",   chance = 6300000},\n\t\t\t\t{group = "death_watch_bunker_lieutenants", chance = 3500000},\n\t\t\t\t{group = "death_watch_bunker_ingredient_protective",  chance = 100000},\n\t\t\t\t{group = "death_watch_bunker_ingredient_binary",  chance = 100000}\n\t\t\t},\n\t\t\tlootChance = 1500000\n\t\t}', '{\n\t\t\t\t{group = "death_watch_bunker_commoners",   chance = 6300000},\n\t\t\t\t{group = "death_watch_bunker_lieutenants", chance = 3500000},\n\t\t\t\t{group = "death_watch_bunker_ingredient_protective",  chance = 100000},\n\t\t\t\t{group = "death_watch_bunker_ingredient_binary",  chance = 100000}\n\t\t\t}', '{group = "death_watch_bunker_ingredient_binary",  chance = 100000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "death_watch_bunker_commoners", chance = 10000000}\n\t\t\t},\n\t\t\tlootChance = 500000\n\t\t}', '{\n\t\t\t\t{group = "death_watch_bunker_commoners", chance = 10000000}\n\t\t\t}', '{group = "death_watch_bunker_commoners", chance = 10000000}')]</t>
         </is>
       </c>
     </row>
@@ -5350,12 +5350,12 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dungeon\death_watch_bunker\death_watch_ghost.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dungeon\death_watch_bunker\death_watch_bloodguard.lua</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups =\n\t\t\t{\n\t\t\t\t{group = "power_crystals", chance = 10000000},\n\t\t\t},\n\t\t\tlootChance = 400000,\n\t\t}', '{\n\t\t\t\t{group = "power_crystals", chance = 10000000},\n\t\t\t}', '{group = "power_crystals", chance = 10000000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "armor_attachments", chance = 10000000},\n\t\t\t},\n\t\t\tlootChance = 1000000\n\t\t}', '{\n\t\t\t\t{group = "armor_attachments", chance = 10000000},\n\t\t\t}', '{group = "armor_attachments", chance = 10000000}')]</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
@@ -5370,17 +5370,17 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dungeon\death_watch_bunker\death_watch_herald_imperial.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dungeon\death_watch_bunker\death_watch_ghost.lua</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups =\n\t\t\t{\n\t\t\t\t{group = "imperial_officer_common", chance = 10000000},\n\t\t\t},\n\t\t\tlootChance = 7500000,\n\t\t}', '{\n\t\t\t\t{group = "imperial_officer_common", chance = 10000000},\n\t\t\t}', '{group = "imperial_officer_common", chance = 10000000}')]</t>
+          <t>[('{\n\t\t\tgroups =\n\t\t\t{\n\t\t\t\t{group = "power_crystals", chance = 10000000},\n\t\t\t},\n\t\t\tlootChance = 400000,\n\t\t}', '{\n\t\t\t\t{group = "power_crystals", chance = 10000000},\n\t\t\t}', '{group = "power_crystals", chance = 10000000}')]</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>[('', '', '')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "death_watch_bunker_commoners",   chance = 6300000},\n\t\t\t\t{group = "death_watch_bunker_lieutenants", chance = 3500000},\n\t\t\t\t{group = "death_watch_bunker_ingredient_protective",  chance = 100000},\n\t\t\t\t{group = "death_watch_bunker_ingredient_binary",  chance = 100000}\n\t\t\t},\n\t\t\tlootChance = 1500000\n\t\t}', '{\n\t\t\t\t{group = "death_watch_bunker_commoners",   chance = 6300000},\n\t\t\t\t{group = "death_watch_bunker_lieutenants", chance = 3500000},\n\t\t\t\t{group = "death_watch_bunker_ingredient_protective",  chance = 100000},\n\t\t\t\t{group = "death_watch_bunker_ingredient_binary",  chance = 100000}\n\t\t\t}', '{group = "death_watch_bunker_ingredient_binary",  chance = 100000}')]</t>
         </is>
       </c>
     </row>
@@ -5390,17 +5390,17 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dungeon\death_watch_bunker\death_watch_overlord.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dungeon\death_watch_bunker\death_watch_herald_imperial.lua</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>[('{--- Mandalorian Armor Segment Group\n\t\t\tgroups = {\n\t\t\t\t{group = "armor_segment_mandalorian", chance =  10000000},    -- 10 * 100% = 10\n\t\t\t},\n\t\t\tlootChance = 1000000\n\t\t}', '{\n\t\t\t\t{group = "armor_segment_mandalorian", chance =  10000000},    -- 10 * 100% = 10\n\t\t\t}', '{group = "armor_segment_mandalorian", chance =  10000000}')]</t>
+          <t>[('{\n\t\t\tgroups =\n\t\t\t{\n\t\t\t\t{group = "imperial_officer_common", chance = 10000000},\n\t\t\t},\n\t\t\tlootChance = 7500000,\n\t\t}', '{\n\t\t\t\t{group = "imperial_officer_common", chance = 10000000},\n\t\t\t}', '{group = "imperial_officer_common", chance = 10000000}')]</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>[('{--- Mandalorian Armor Segment Group\n\t\t\tgroups = {\n\t\t\t\t{group = "armor_segment_mandalorian", chance =  10000000},    -- 10 * 100% = 10\n\t\t\t},\n\t\t\tlootChance = 10 * (100000)\n\t\t}', '{\n\t\t\t\t{group = "armor_segment_mandalorian", chance =  10000000},    -- 10 * 100% = 10\n\t\t\t}', '{group = "armor_segment_mandalorian", chance =  10000000}')]</t>
+          <t>[('', '', '')]</t>
         </is>
       </c>
     </row>
@@ -5410,17 +5410,17 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dungeon\death_watch_bunker\death_watch_overlord_mines.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dungeon\death_watch_bunker\death_watch_overlord.lua</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>[('{--- Mandalorian Armor Segment Group\n\t\t\tgroups = {\n\t\t\t\t{group = "armor_segment_mandalorian", chance =  10000000},    -- 10% * 100% = 10%\n\t\t\t},\n\t\t\tlootChance = 1000000\n\t\t}', '{\n\t\t\t\t{group = "armor_segment_mandalorian", chance =  10000000},    -- 10% * 100% = 10%\n\t\t\t}', '{group = "armor_segment_mandalorian", chance =  10000000}')]</t>
+          <t>[('{--- Mandalorian Armor Segment Group\n\t\t\tgroups = {\n\t\t\t\t{group = "armor_segment_mandalorian", chance =  10000000},    -- 10 * 100% = 10\n\t\t\t},\n\t\t\tlootChance = 1000000\n\t\t}', '{\n\t\t\t\t{group = "armor_segment_mandalorian", chance =  10000000},    -- 10 * 100% = 10\n\t\t\t}', '{group = "armor_segment_mandalorian", chance =  10000000}')]</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "death_watch_bunker_overlord_shared", chance =  10000000}\n\t\t\t},\n\t\t\tlootChance = 10000000\n\t\t}', '{\n\t\t\t\t{group = "death_watch_bunker_overlord_shared", chance =  10000000}\n\t\t\t}', '{group = "death_watch_bunker_overlord_shared", chance =  10000000}')]</t>
+          <t>[('{--- Mandalorian Armor Segment Group\n\t\t\tgroups = {\n\t\t\t\t{group = "armor_segment_mandalorian", chance =  10000000},    -- 10 * 100% = 10\n\t\t\t},\n\t\t\tlootChance = 10 * (100000)\n\t\t}', '{\n\t\t\t\t{group = "armor_segment_mandalorian", chance =  10000000},    -- 10 * 100% = 10\n\t\t\t}', '{group = "armor_segment_mandalorian", chance =  10000000}')]</t>
         </is>
       </c>
     </row>
@@ -5430,17 +5430,17 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dungeon\death_watch_bunker\death_watch_s_battle_droid.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dungeon\death_watch_bunker\death_watch_overlord_mines.lua</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "armor_attachments", chance = 10000000},\n\t\t\t},\n\t\t\tlootChance = 1000000\n\t\t}', '{\n\t\t\t\t{group = "armor_attachments", chance = 10000000},\n\t\t\t}', '{group = "armor_attachments", chance = 10000000}')]</t>
+          <t>[('{--- Mandalorian Armor Segment Group\n\t\t\tgroups = {\n\t\t\t\t{group = "armor_segment_mandalorian", chance =  10000000},    -- 10% * 100% = 10%\n\t\t\t},\n\t\t\tlootChance = 1000000\n\t\t}', '{\n\t\t\t\t{group = "armor_segment_mandalorian", chance =  10000000},    -- 10% * 100% = 10%\n\t\t\t}', '{group = "armor_segment_mandalorian", chance =  10000000}')]</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "death_watch_bunker_commoners", chance = 10000000}\n\t\t\t},\n\t\t\tlootChance = 500000\n\t\t}', '{\n\t\t\t\t{group = "death_watch_bunker_commoners", chance = 10000000}\n\t\t\t}', '{group = "death_watch_bunker_commoners", chance = 10000000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "death_watch_bunker_overlord_shared", chance =  10000000}\n\t\t\t},\n\t\t\tlootChance = 10000000\n\t\t}', '{\n\t\t\t\t{group = "death_watch_bunker_overlord_shared", chance =  10000000}\n\t\t\t}', '{group = "death_watch_bunker_overlord_shared", chance =  10000000}')]</t>
         </is>
       </c>
     </row>
@@ -5450,17 +5450,17 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dungeon\death_watch_bunker\death_watch_s_battle_droid_alt.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dungeon\death_watch_bunker\death_watch_s_battle_droid.lua</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "death_watch_bunker_commoners", chance = 6000000},   -- 25% * 60% = 15%\n\t\t\t\t{group = "stap_speeder", chance = 4000000}     -- 25% * 40% = 10%\n\t\t\t},\n\t\t\tlootChance = 2500000    -- 25% chance of this group\n\t\t}', '{\n\t\t\t\t{group = "death_watch_bunker_commoners", chance = 6000000},   -- 25% * 60% = 15%\n\t\t\t\t{group = "stap_speeder", chance = 4000000}     -- 25% * 40% = 10%\n\t\t\t}', '{group = "stap_speeder", chance = 4000000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "armor_attachments", chance = 10000000},\n\t\t\t},\n\t\t\tlootChance = 1000000\n\t\t}', '{\n\t\t\t\t{group = "armor_attachments", chance = 10000000},\n\t\t\t}', '{group = "armor_attachments", chance = 10000000}')]</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>[('', '', '')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "death_watch_bunker_commoners", chance = 10000000}\n\t\t\t},\n\t\t\tlootChance = 500000\n\t\t}', '{\n\t\t\t\t{group = "death_watch_bunker_commoners", chance = 10000000}\n\t\t\t}', '{group = "death_watch_bunker_commoners", chance = 10000000}')]</t>
         </is>
       </c>
     </row>
@@ -5470,17 +5470,17 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dungeon\death_watch_bunker\death_watch_wraith.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dungeon\death_watch_bunker\death_watch_s_battle_droid_alt.lua</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = { -- AA\n\t\t\t\t{group = "armor_attachments", chance = 10000000},  -- 7.5%\n\t\t\t},\n\t\t\tlootChance = 750000,\n\t\t}', '{ -- AA\n\t\t\t\t{group = "armor_attachments", chance = 10000000},  -- 7.5%\n\t\t\t}', '{group = "armor_attachments", chance = 10000000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "death_watch_bunker_commoners", chance = 6000000},   -- 25% * 60% = 15%\n\t\t\t\t{group = "stap_speeder", chance = 4000000}     -- 25% * 40% = 10%\n\t\t\t},\n\t\t\tlootChance = 2500000    -- 25% chance of this group\n\t\t}', '{\n\t\t\t\t{group = "death_watch_bunker_commoners", chance = 6000000},   -- 25% * 60% = 15%\n\t\t\t\t{group = "stap_speeder", chance = 4000000}     -- 25% * 40% = 10%\n\t\t\t}', '{group = "stap_speeder", chance = 4000000}')]</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "death_watch_bunker_commoners",   chance = 6300000},\n\t\t\t\t{group = "death_watch_bunker_lieutenants", chance = 3500000},\n\t\t\t\t{group = "death_watch_bunker_ingredient_protective",  chance = 100000},\n\t\t\t\t{group = "death_watch_bunker_ingredient_binary",  chance = 100000}\n\t\t\t},\n\t\t\tlootChance = 1500000\n\t\t}', '{\n\t\t\t\t{group = "death_watch_bunker_commoners",   chance = 6300000},\n\t\t\t\t{group = "death_watch_bunker_lieutenants", chance = 3500000},\n\t\t\t\t{group = "death_watch_bunker_ingredient_protective",  chance = 100000},\n\t\t\t\t{group = "death_watch_bunker_ingredient_binary",  chance = 100000}\n\t\t\t}', '{group = "death_watch_bunker_ingredient_binary",  chance = 100000}')]</t>
+          <t>[('', '', '')]</t>
         </is>
       </c>
     </row>
@@ -5490,17 +5490,17 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dungeon\death_watch_bunker\fenri_dalso.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dungeon\death_watch_bunker\death_watch_wraith.lua</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "armor_attachments", chance = 10000000},\n\t\t\t},\n\t\t\tlootChance = 750000\n\t\t}', '{\n\t\t\t\t{group = "armor_attachments", chance = 10000000},\n\t\t\t}', '{group = "armor_attachments", chance = 10000000}')]</t>
+          <t>[('{\n\t\t\tgroups = { -- AA\n\t\t\t\t{group = "armor_attachments", chance = 10000000},  -- 7.5%\n\t\t\t},\n\t\t\tlootChance = 750000,\n\t\t}', '{ -- AA\n\t\t\t\t{group = "armor_attachments", chance = 10000000},  -- 7.5%\n\t\t\t}', '{group = "armor_attachments", chance = 10000000}')]</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "fenri_dalso_drop", chance = 10000000}\n\t\t\t},\n\t\t\tlootChance = 10000000\n\t\t}', '{\n\t\t\t\t{group = "fenri_dalso_drop", chance = 10000000}\n\t\t\t}', '{group = "fenri_dalso_drop", chance = 10000000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "death_watch_bunker_commoners",   chance = 6300000},\n\t\t\t\t{group = "death_watch_bunker_lieutenants", chance = 3500000},\n\t\t\t\t{group = "death_watch_bunker_ingredient_protective",  chance = 100000},\n\t\t\t\t{group = "death_watch_bunker_ingredient_binary",  chance = 100000}\n\t\t\t},\n\t\t\tlootChance = 1500000\n\t\t}', '{\n\t\t\t\t{group = "death_watch_bunker_commoners",   chance = 6300000},\n\t\t\t\t{group = "death_watch_bunker_lieutenants", chance = 3500000},\n\t\t\t\t{group = "death_watch_bunker_ingredient_protective",  chance = 100000},\n\t\t\t\t{group = "death_watch_bunker_ingredient_binary",  chance = 100000}\n\t\t\t}', '{group = "death_watch_bunker_ingredient_binary",  chance = 100000}')]</t>
         </is>
       </c>
     </row>
@@ -5510,7 +5510,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dungeon\death_watch_bunker\klin_nif.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dungeon\death_watch_bunker\fenri_dalso.lua</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -5520,7 +5520,7 @@
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "klin_nif_drop", chance = 10000000}\n\t\t\t},\n\t\t\tlootChance = 10000000\n\t\t}', '{\n\t\t\t\t{group = "klin_nif_drop", chance = 10000000}\n\t\t\t}', '{group = "klin_nif_drop", chance = 10000000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "fenri_dalso_drop", chance = 10000000}\n\t\t\t},\n\t\t\tlootChance = 10000000\n\t\t}', '{\n\t\t\t\t{group = "fenri_dalso_drop", chance = 10000000}\n\t\t\t}', '{group = "fenri_dalso_drop", chance = 10000000}')]</t>
         </is>
       </c>
     </row>
@@ -5530,7 +5530,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dungeon\death_watch_bunker\rageon_vart.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dungeon\death_watch_bunker\klin_nif.lua</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -5540,7 +5540,7 @@
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "rageon_vart_drop", chance = 10000000}\n\t\t\t},\n\t\t\tlootChance = 10000000\n\t\t}', '{\n\t\t\t\t{group = "rageon_vart_drop", chance = 10000000}\n\t\t\t}', '{group = "rageon_vart_drop", chance = 10000000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "klin_nif_drop", chance = 10000000}\n\t\t\t},\n\t\t\tlootChance = 10000000\n\t\t}', '{\n\t\t\t\t{group = "klin_nif_drop", chance = 10000000}\n\t\t\t}', '{group = "klin_nif_drop", chance = 10000000}')]</t>
         </is>
       </c>
     </row>
@@ -5550,17 +5550,17 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dungeon\geonosian_bio_lab\acklay.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dungeon\death_watch_bunker\rageon_vart.lua</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups =\n\t\t\t{\n\n\t\t\t\t{group = "geonosian_common", chance = 10000000},\n\t\t\t},\n\t\t\tlootChance = 5500000,\n\t\t}', '{\n\n\t\t\t\t{group = "geonosian_common", chance = 10000000},\n\t\t\t}', '{group = "geonosian_common", chance = 10000000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "armor_attachments", chance = 10000000},\n\t\t\t},\n\t\t\tlootChance = 750000\n\t\t}', '{\n\t\t\t\t{group = "armor_attachments", chance = 10000000},\n\t\t\t}', '{group = "armor_attachments", chance = 10000000}')]</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "acklay", chance = 10000000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "acklay", chance = 10000000}\n\t\t\t}', '{group = "acklay", chance = 10000000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "rageon_vart_drop", chance = 10000000}\n\t\t\t},\n\t\t\tlootChance = 10000000\n\t\t}', '{\n\t\t\t\t{group = "rageon_vart_drop", chance = 10000000}\n\t\t\t}', '{group = "rageon_vart_drop", chance = 10000000}')]</t>
         </is>
       </c>
     </row>
@@ -5570,17 +5570,17 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dungeon\geonosian_bio_lab\alert_droideka.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dungeon\geonosian_bio_lab\acklay.lua</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = \n\t\t\t{\n\t\t\t\t{group = "pistols", chance = 2500000},\n\t\t\t\t{group = "rifles", chance = 2500000},\n\t\t\t\t{group = "carbines", chance = 2500000},\n\t\t\t\t{group = "melee_weapons", chance = 2500000},\n\t\t\t},\n\t\t\tlootChance = 1000000,\n\t\t}', '{\n\t\t\t\t{group = "pistols", chance = 2500000},\n\t\t\t\t{group = "rifles", chance = 2500000},\n\t\t\t\t{group = "carbines", chance = 2500000},\n\t\t\t\t{group = "melee_weapons", chance = 2500000},\n\t\t\t}', '{group = "melee_weapons", chance = 2500000}')]</t>
+          <t>[('{\n\t\t\tgroups =\n\t\t\t{\n\n\t\t\t\t{group = "geonosian_common", chance = 10000000},\n\t\t\t},\n\t\t\tlootChance = 5500000,\n\t\t}', '{\n\n\t\t\t\t{group = "geonosian_common", chance = 10000000},\n\t\t\t}', '{group = "geonosian_common", chance = 10000000}')]</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "geonosian_cubes", chance = 10000000}\n\t\t\t},\n\t\t\tlootChance = 1800000\n\t    }', '{\n\t\t\t\t{group = "geonosian_cubes", chance = 10000000}\n\t\t\t}', '{group = "geonosian_cubes", chance = 10000000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "acklay", chance = 10000000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "acklay", chance = 10000000}\n\t\t\t}', '{group = "acklay", chance = 10000000}')]</t>
         </is>
       </c>
     </row>
@@ -5590,17 +5590,17 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dungeon\geonosian_bio_lab\crazed_geonosian_guard.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dungeon\geonosian_bio_lab\alert_droideka.lua</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = \n\t\t\t{\n\t\t\t\t{group = "pistols", chance = 2500000},\n\t\t\t\t{group = "rifles", chance = 2500000},\n\t\t\t\t{group = "carbines", chance = 2500000},\n\t\t\t\t{group = "melee_weapons", chance = 2500000},\n\t\t\t},\n\t\t\tlootChance = 2500000,\n\t\t}', '{\n\t\t\t\t{group = "pistols", chance = 2500000},\n\t\t\t\t{group = "rifles", chance = 2500000},\n\t\t\t\t{group = "carbines", chance = 2500000},\n\t\t\t\t{group = "melee_weapons", chance = 2500000},\n\t\t\t}', '{group = "melee_weapons", chance = 2500000}')]</t>
+          <t>[('{\n\t\t\tgroups = \n\t\t\t{\n\t\t\t\t{group = "pistols", chance = 2500000},\n\t\t\t\t{group = "rifles", chance = 2500000},\n\t\t\t\t{group = "carbines", chance = 2500000},\n\t\t\t\t{group = "melee_weapons", chance = 2500000},\n\t\t\t},\n\t\t\tlootChance = 1000000,\n\t\t}', '{\n\t\t\t\t{group = "pistols", chance = 2500000},\n\t\t\t\t{group = "rifles", chance = 2500000},\n\t\t\t\t{group = "carbines", chance = 2500000},\n\t\t\t\t{group = "melee_weapons", chance = 2500000},\n\t\t\t}', '{group = "melee_weapons", chance = 2500000}')]</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "geonosian_common", chance = 5000000},\n\t\t\t\t{group = "geonosian_relic", chance = 5000000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "geonosian_common", chance = 5000000},\n\t\t\t\t{group = "geonosian_relic", chance = 5000000}\n\t\t\t}', '{group = "geonosian_relic", chance = 5000000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "geonosian_cubes", chance = 10000000}\n\t\t\t},\n\t\t\tlootChance = 1800000\n\t    }', '{\n\t\t\t\t{group = "geonosian_cubes", chance = 10000000}\n\t\t\t}', '{group = "geonosian_cubes", chance = 10000000}')]</t>
         </is>
       </c>
     </row>
@@ -5610,7 +5610,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dungeon\geonosian_bio_lab\enhanced_force_kliknik.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dungeon\geonosian_bio_lab\crazed_geonosian_guard.lua</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -5620,7 +5620,7 @@
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>[('{\n\t        groups = {\n\t\t\t\t{group = "geo_kliknik", chance = 10000000}\n\t\t\t},\n\t\t\tlootChance = 2880000\n\t\t}', '{\n\t\t\t\t{group = "geo_kliknik", chance = 10000000}\n\t\t\t}', '{group = "geo_kliknik", chance = 10000000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "geonosian_common", chance = 5000000},\n\t\t\t\t{group = "geonosian_relic", chance = 5000000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "geonosian_common", chance = 5000000},\n\t\t\t\t{group = "geonosian_relic", chance = 5000000}\n\t\t\t}', '{group = "geonosian_relic", chance = 5000000}')]</t>
         </is>
       </c>
     </row>
@@ -5630,17 +5630,17 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dungeon\geonosian_bio_lab\enhanced_gaping_spider.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dungeon\geonosian_bio_lab\enhanced_force_kliknik.lua</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups =\n\t\t\t{\n\t\t\t\t{group = "pistols", chance = 2500000},\n\t\t\t\t{group = "rifles", chance = 2500000},\n\t\t\t\t{group = "carbines", chance = 2500000},\n\t\t\t\t{group = "melee_weapons", chance = 2500000},\n\t\t\t},\n\t\t\tlootChance = 4000000,\n\t\t}', '{\n\t\t\t\t{group = "pistols", chance = 2500000},\n\t\t\t\t{group = "rifles", chance = 2500000},\n\t\t\t\t{group = "carbines", chance = 2500000},\n\t\t\t\t{group = "melee_weapons", chance = 2500000},\n\t\t\t}', '{group = "melee_weapons", chance = 2500000}')]</t>
+          <t>[('{\n\t\t\tgroups = \n\t\t\t{\n\t\t\t\t{group = "pistols", chance = 2500000},\n\t\t\t\t{group = "rifles", chance = 2500000},\n\t\t\t\t{group = "carbines", chance = 2500000},\n\t\t\t\t{group = "melee_weapons", chance = 2500000},\n\t\t\t},\n\t\t\tlootChance = 2500000,\n\t\t}', '{\n\t\t\t\t{group = "pistols", chance = 2500000},\n\t\t\t\t{group = "rifles", chance = 2500000},\n\t\t\t\t{group = "carbines", chance = 2500000},\n\t\t\t\t{group = "melee_weapons", chance = 2500000},\n\t\t\t}', '{group = "melee_weapons", chance = 2500000}')]</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "fire_breathing_spider", chance = 10000000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "fire_breathing_spider", chance = 10000000}\n\t\t\t}', '{group = "fire_breathing_spider", chance = 10000000}')]</t>
+          <t>[('{\n\t        groups = {\n\t\t\t\t{group = "geo_kliknik", chance = 10000000}\n\t\t\t},\n\t\t\tlootChance = 2880000\n\t\t}', '{\n\t\t\t\t{group = "geo_kliknik", chance = 10000000}\n\t\t\t}', '{group = "geo_kliknik", chance = 10000000}')]</t>
         </is>
       </c>
     </row>
@@ -5650,17 +5650,17 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dungeon\geonosian_bio_lab\enhanced_kliknik.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dungeon\geonosian_bio_lab\enhanced_gaping_spider.lua</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups =\n\t\t\t{\n\t\t\t\t{group = "armor_attachments", chance = 10000000}, -- 5%\n\t\t\t},\n\t\t\tlootChance = 500000,\n\t\t}', '{\n\t\t\t\t{group = "armor_attachments", chance = 10000000}, -- 5%\n\t\t\t}', '{group = "armor_attachments", chance = 10000000}')]</t>
+          <t>[('{\n\t\t\tgroups =\n\t\t\t{\n\t\t\t\t{group = "pistols", chance = 2500000},\n\t\t\t\t{group = "rifles", chance = 2500000},\n\t\t\t\t{group = "carbines", chance = 2500000},\n\t\t\t\t{group = "melee_weapons", chance = 2500000},\n\t\t\t},\n\t\t\tlootChance = 4000000,\n\t\t}', '{\n\t\t\t\t{group = "pistols", chance = 2500000},\n\t\t\t\t{group = "rifles", chance = 2500000},\n\t\t\t\t{group = "carbines", chance = 2500000},\n\t\t\t\t{group = "melee_weapons", chance = 2500000},\n\t\t\t}', '{group = "melee_weapons", chance = 2500000}')]</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>[('{\n\t        groups = {\n\t\t\t\t{group = "geo_kliknik", chance = 10000000}\n\t\t\t},\n\t\t\tlootChance = 3180000\n\t\t}', '{\n\t\t\t\t{group = "geo_kliknik", chance = 10000000}\n\t\t\t}', '{group = "geo_kliknik", chance = 10000000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "fire_breathing_spider", chance = 10000000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "fire_breathing_spider", chance = 10000000}\n\t\t\t}', '{group = "fire_breathing_spider", chance = 10000000}')]</t>
         </is>
       </c>
     </row>
@@ -5670,7 +5670,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dungeon\geonosian_bio_lab\enhanced_kwi.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dungeon\geonosian_bio_lab\enhanced_kliknik.lua</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -5680,7 +5680,7 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "enhanced_kwi", chance = 10000000}\n\t\t\t},\n\t\t\tlootChance = 3120000\n\t\t}', '{\n\t\t\t\t{group = "enhanced_kwi", chance = 10000000}\n\t\t\t}', '{group = "enhanced_kwi", chance = 10000000}')]</t>
+          <t>[('{\n\t        groups = {\n\t\t\t\t{group = "geo_kliknik", chance = 10000000}\n\t\t\t},\n\t\t\tlootChance = 3180000\n\t\t}', '{\n\t\t\t\t{group = "geo_kliknik", chance = 10000000}\n\t\t\t}', '{group = "geo_kliknik", chance = 10000000}')]</t>
         </is>
       </c>
     </row>
@@ -5690,17 +5690,17 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dungeon\geonosian_bio_lab\geonosian_scientist.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dungeon\geonosian_bio_lab\enhanced_kwi.lua</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "geonosian_common", chance = 5000000},\n\t\t\t\t{group = "geonosian_relic", chance = 5000000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "geonosian_common", chance = 5000000},\n\t\t\t\t{group = "geonosian_relic", chance = 5000000}\n\t\t\t}', '{group = "geonosian_relic", chance = 5000000}')]</t>
+          <t>[('{\n\t\t\tgroups =\n\t\t\t{\n\t\t\t\t{group = "armor_attachments", chance = 10000000}, -- 5%\n\t\t\t},\n\t\t\tlootChance = 500000,\n\t\t}', '{\n\t\t\t\t{group = "armor_attachments", chance = 10000000}, -- 5%\n\t\t\t}', '{group = "armor_attachments", chance = 10000000}')]</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>[('', '', '')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "enhanced_kwi", chance = 10000000}\n\t\t\t},\n\t\t\tlootChance = 3120000\n\t\t}', '{\n\t\t\t\t{group = "enhanced_kwi", chance = 10000000}\n\t\t\t}', '{group = "enhanced_kwi", chance = 10000000}')]</t>
         </is>
       </c>
     </row>
@@ -5710,7 +5710,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dungeon\geonosian_bio_lab\geonosian_technical_assistant.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dungeon\geonosian_bio_lab\geonosian_scientist.lua</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -5730,17 +5730,17 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dungeon\geonosian_bio_lab\mercenary_sentry.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dungeon\geonosian_bio_lab\geonosian_technical_assistant.lua</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "geonosian_hard", chance = 1000000},\n\t\t\t\t{group = "geonosian_common", chance = 4500000},\n\t\t\t\t{group = "geonosian_relic", chance = 4500000}\n\t\t\t},\n\t\t\tlootChance = 250000,\n\t\t}', '{\n\t\t\t\t{group = "geonosian_hard", chance = 1000000},\n\t\t\t\t{group = "geonosian_common", chance = 4500000},\n\t\t\t\t{group = "geonosian_relic", chance = 4500000}\n\t\t\t}', '{group = "geonosian_relic", chance = 4500000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "geonosian_common", chance = 5000000},\n\t\t\t\t{group = "geonosian_relic", chance = 5000000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "geonosian_common", chance = 5000000},\n\t\t\t\t{group = "geonosian_relic", chance = 5000000}\n\t\t\t}', '{group = "geonosian_relic", chance = 5000000}')]</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "geonosian_hard", chance = 1000000},\n\t\t\t\t{group = "geonosian_common", chance = 4500000},\n\t\t\t\t{group = "geonosian_relic", chance = 4500000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "geonosian_hard", chance = 1000000},\n\t\t\t\t{group = "geonosian_common", chance = 4500000},\n\t\t\t\t{group = "geonosian_relic", chance = 4500000}\n\t\t\t}', '{group = "geonosian_relic", chance = 4500000}')]</t>
+          <t>[('', '', '')]</t>
         </is>
       </c>
     </row>
@@ -5750,17 +5750,17 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\endor\adept_panshee_shaman.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\dungeon\geonosian_bio_lab\mercenary_sentry.lua</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "art_illum5", chance = 10000000}\n\t\t\t},\n\t\t\tlootChance = 500000\n\t\t}', '{\n\t\t\t\t{group = "art_illum5", chance = 10000000}\n\t\t\t}', '{group = "art_illum5", chance = 10000000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "geonosian_hard", chance = 1000000},\n\t\t\t\t{group = "geonosian_common", chance = 4500000},\n\t\t\t\t{group = "geonosian_relic", chance = 4500000}\n\t\t\t},\n\t\t\tlootChance = 250000,\n\t\t}', '{\n\t\t\t\t{group = "geonosian_hard", chance = 1000000},\n\t\t\t\t{group = "geonosian_common", chance = 4500000},\n\t\t\t\t{group = "geonosian_relic", chance = 4500000}\n\t\t\t}', '{group = "geonosian_relic", chance = 4500000}')]</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "ewok", chance = 10000000}\n\t\t\t},\n\t\t\tlootChance = 1460000\n\t\t}', '{\n\t\t\t\t{group = "ewok", chance = 10000000}\n\t\t\t}', '{group = "ewok", chance = 10000000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "geonosian_hard", chance = 1000000},\n\t\t\t\t{group = "geonosian_common", chance = 4500000},\n\t\t\t\t{group = "geonosian_relic", chance = 4500000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "geonosian_hard", chance = 1000000},\n\t\t\t\t{group = "geonosian_common", chance = 4500000},\n\t\t\t\t{group = "geonosian_relic", chance = 4500000}\n\t\t\t}', '{group = "geonosian_relic", chance = 4500000}')]</t>
         </is>
       </c>
     </row>
@@ -5770,17 +5770,17 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\endor\archaic_gondula_ritualist.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\endor\adept_panshee_shaman.lua</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>[('{\n\t        groups = {\n\t\t\t\t{group = "ewok", chance = 10000000}\n\t\t\t},\n\t\t\tlootChance = 1600000\n\t\t}', '{\n\t\t\t\t{group = "ewok", chance = 10000000}\n\t\t\t}', '{group = "ewok", chance = 10000000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "art_illum5", chance = 10000000}\n\t\t\t},\n\t\t\tlootChance = 500000\n\t\t}', '{\n\t\t\t\t{group = "art_illum5", chance = 10000000}\n\t\t\t}', '{group = "art_illum5", chance = 10000000}')]</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "ewok", chance = 10000000}\n\t\t\t},\n\t\t\tlootChance = 1600000\n\t\t}', '{\n\t\t\t\t{group = "ewok", chance = 10000000}\n\t\t\t}', '{group = "ewok", chance = 10000000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "ewok", chance = 10000000}\n\t\t\t},\n\t\t\tlootChance = 1460000\n\t\t}', '{\n\t\t\t\t{group = "ewok", chance = 10000000}\n\t\t\t}', '{group = "ewok", chance = 10000000}')]</t>
         </is>
       </c>
     </row>
@@ -5790,17 +5790,17 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\endor\donkuwah_shaman.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\endor\archaic_gondula_ritualist.lua</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "art_illum4", chance = 10000000}\n\t\t\t},\n\t\t\tlootChance = 500000\n\t\t}', '{\n\t\t\t\t{group = "art_illum4", chance = 10000000}\n\t\t\t}', '{group = "art_illum4", chance = 10000000}')]</t>
+          <t>[('{\n\t        groups = {\n\t\t\t\t{group = "ewok", chance = 10000000}\n\t\t\t},\n\t\t\tlootChance = 1600000\n\t\t}', '{\n\t\t\t\t{group = "ewok", chance = 10000000}\n\t\t\t}', '{group = "ewok", chance = 10000000}')]</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "donkuwah_common", chance = 10000000}\n\t\t\t},\n\t\t\tlootChance = 1600000\n\t\t}', '{\n\t\t\t\t{group = "donkuwah_common", chance = 10000000}\n\t\t\t}', '{group = "donkuwah_common", chance = 10000000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "ewok", chance = 10000000}\n\t\t\t},\n\t\t\tlootChance = 1600000\n\t\t}', '{\n\t\t\t\t{group = "ewok", chance = 10000000}\n\t\t\t}', '{group = "ewok", chance = 10000000}')]</t>
         </is>
       </c>
     </row>
@@ -5810,17 +5810,17 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\endor\feral_marauder.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\endor\donkuwah_shaman.lua</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "pelgo_green", chance = 100 * (100000)},\n\t\t\t},\n\t\t\tlootChance = 3 * (100000)\n\t\t}', '{\n\t\t\t\t{group = "pelgo_green", chance = 100 * (100000)},\n\t\t\t}', '{group = "pelgo_green", chance = 100 * (100000)}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "art_illum4", chance = 10000000}\n\t\t\t},\n\t\t\tlootChance = 500000\n\t\t}', '{\n\t\t\t\t{group = "art_illum4", chance = 10000000}\n\t\t\t}', '{group = "art_illum4", chance = 10000000}')]</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "pelgo_green", chance = 100 * (100000)},\n\t\t\t},\n\t\t\tlootChance = 2 * (100000)\n\t\t}', '{\n\t\t\t\t{group = "pelgo_green", chance = 100 * (100000)},\n\t\t\t}', '{group = "pelgo_green", chance = 100 * (100000)}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "donkuwah_common", chance = 10000000}\n\t\t\t},\n\t\t\tlootChance = 1600000\n\t\t}', '{\n\t\t\t\t{group = "donkuwah_common", chance = 10000000}\n\t\t\t}', '{group = "donkuwah_common", chance = 10000000}')]</t>
         </is>
       </c>
     </row>
@@ -5830,7 +5830,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\endor\frenzied_marauder.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\endor\feral_marauder.lua</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -5850,17 +5850,17 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\endor\gondula_shaman.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\endor\frenzied_marauder.lua</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "combat_practice", chance = 100 * (100000)}\n\t\t\t},\n\t\t\tlootChance = 25 * (100000)\n\t\t}', '{\n\t\t\t\t{group = "combat_practice", chance = 100 * (100000)}\n\t\t\t}', '{group = "combat_practice", chance = 100 * (100000)}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "pelgo_green", chance = 100 * (100000)},\n\t\t\t},\n\t\t\tlootChance = 3 * (100000)\n\t\t}', '{\n\t\t\t\t{group = "pelgo_green", chance = 100 * (100000)},\n\t\t\t}', '{group = "pelgo_green", chance = 100 * (100000)}')]</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "ewok", chance = 10000000}\n\t\t\t},\n\t\t\tlootChance = 1240000\n\t\t}', '{\n\t\t\t\t{group = "ewok", chance = 10000000}\n\t\t\t}', '{group = "ewok", chance = 10000000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "pelgo_green", chance = 100 * (100000)},\n\t\t\t},\n\t\t\tlootChance = 2 * (100000)\n\t\t}', '{\n\t\t\t\t{group = "pelgo_green", chance = 100 * (100000)},\n\t\t\t}', '{group = "pelgo_green", chance = 100 * (100000)}')]</t>
         </is>
       </c>
     </row>
@@ -5870,17 +5870,17 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\endor\gorax.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\endor\gondula_shaman.lua</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>[('{\n\t        groups = {\n\t\t\t\t{group = "gorax_common", chance = 6000000},\n\t\t\t\t{group = "armor_attachments", chance = 2000000},\n\t\t\t\t{group = "clothing_attachments", chance = 2000000}\n\t\t\t},\n\t\t\tlootChance = 9500000\n\t\t}', '{\n\t\t\t\t{group = "gorax_common", chance = 6000000},\n\t\t\t\t{group = "armor_attachments", chance = 2000000},\n\t\t\t\t{group = "clothing_attachments", chance = 2000000}\n\t\t\t}', '{group = "clothing_attachments", chance = 2000000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "combat_practice", chance = 100 * (100000)}\n\t\t\t},\n\t\t\tlootChance = 25 * (100000)\n\t\t}', '{\n\t\t\t\t{group = "combat_practice", chance = 100 * (100000)}\n\t\t\t}', '{group = "combat_practice", chance = 100 * (100000)}')]</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>[('{\n\t        groups = {\n\t\t\t\t{group = "gorax_common", chance = 6000000},\n\t\t\t\t{group = "armor_attachments", chance = 2000000},\n\t\t\t\t{group = "clothing_attachments", chance = 2000000}\n\t\t\t},\n\t\t\tlootChance = 7000000\n\t\t}', '{\n\t\t\t\t{group = "gorax_common", chance = 6000000},\n\t\t\t\t{group = "armor_attachments", chance = 2000000},\n\t\t\t\t{group = "clothing_attachments", chance = 2000000}\n\t\t\t}', '{group = "clothing_attachments", chance = 2000000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "ewok", chance = 10000000}\n\t\t\t},\n\t\t\tlootChance = 1240000\n\t\t}', '{\n\t\t\t\t{group = "ewok", chance = 10000000}\n\t\t\t}', '{group = "ewok", chance = 10000000}')]</t>
         </is>
       </c>
     </row>
@@ -5890,17 +5890,17 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\endor\jinda_chief.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\endor\gorax.lua</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "mandalorian_kraytSpice3", chance = 100 * (100000)},\n\t\t\t},\n\t\t\tlootChance = 2 * (100000)\n\t\t}', '{\n\t\t\t\t{group = "mandalorian_kraytSpice3", chance = 100 * (100000)},\n\t\t\t}', '{group = "mandalorian_kraytSpice3", chance = 100 * (100000)}')]</t>
+          <t>[('{\n\t        groups = {\n\t\t\t\t{group = "gorax_common", chance = 6000000},\n\t\t\t\t{group = "armor_attachments", chance = 2000000},\n\t\t\t\t{group = "clothing_attachments", chance = 2000000}\n\t\t\t},\n\t\t\tlootChance = 9500000\n\t\t}', '{\n\t\t\t\t{group = "gorax_common", chance = 6000000},\n\t\t\t\t{group = "armor_attachments", chance = 2000000},\n\t\t\t\t{group = "clothing_attachments", chance = 2000000}\n\t\t\t}', '{group = "clothing_attachments", chance = 2000000}')]</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "ewok", chance = 8100000},\n\t\t\t\t{group = "wearables_uncommon", chance = 1000000},\n\t\t\t\t{group = "armor_attachments", chance = 450000},\n\t\t\t\t{group = "clothing_attachments", chance = 450000}\n\t\t\t},\n\t\t\tlootChance = 2020000\n\t\t}', '{\n\t\t\t\t{group = "ewok", chance = 8100000},\n\t\t\t\t{group = "wearables_uncommon", chance = 1000000},\n\t\t\t\t{group = "armor_attachments", chance = 450000},\n\t\t\t\t{group = "clothing_attachments", chance = 450000}\n\t\t\t}', '{group = "clothing_attachments", chance = 450000}')]</t>
+          <t>[('{\n\t        groups = {\n\t\t\t\t{group = "gorax_common", chance = 6000000},\n\t\t\t\t{group = "armor_attachments", chance = 2000000},\n\t\t\t\t{group = "clothing_attachments", chance = 2000000}\n\t\t\t},\n\t\t\tlootChance = 7000000\n\t\t}', '{\n\t\t\t\t{group = "gorax_common", chance = 6000000},\n\t\t\t\t{group = "armor_attachments", chance = 2000000},\n\t\t\t\t{group = "clothing_attachments", chance = 2000000}\n\t\t\t}', '{group = "clothing_attachments", chance = 2000000}')]</t>
         </is>
       </c>
     </row>
@@ -5910,7 +5910,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\endor\jinda_elder.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\endor\jinda_chief.lua</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
@@ -5920,7 +5920,7 @@
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "ewok", chance = 9100000},\n\t\t\t\t{group = "armor_attachments", chance = 450000},\n\t\t\t\t{group = "clothing_attachments", chance = 450000}\n\t\t\t},\n\t\t\tlootChance = 1300000\n\t\t}', '{\n\t\t\t\t{group = "ewok", chance = 9100000},\n\t\t\t\t{group = "armor_attachments", chance = 450000},\n\t\t\t\t{group = "clothing_attachments", chance = 450000}\n\t\t\t}', '{group = "clothing_attachments", chance = 450000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "ewok", chance = 8100000},\n\t\t\t\t{group = "wearables_uncommon", chance = 1000000},\n\t\t\t\t{group = "armor_attachments", chance = 450000},\n\t\t\t\t{group = "clothing_attachments", chance = 450000}\n\t\t\t},\n\t\t\tlootChance = 2020000\n\t\t}', '{\n\t\t\t\t{group = "ewok", chance = 8100000},\n\t\t\t\t{group = "wearables_uncommon", chance = 1000000},\n\t\t\t\t{group = "armor_attachments", chance = 450000},\n\t\t\t\t{group = "clothing_attachments", chance = 450000}\n\t\t\t}', '{group = "clothing_attachments", chance = 450000}')]</t>
         </is>
       </c>
     </row>
@@ -5930,7 +5930,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\endor\jinda_loremaster.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\endor\jinda_elder.lua</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -5940,7 +5940,7 @@
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "ewok", chance = 9100000},\n\t\t\t\t{group = "armor_attachments", chance = 450000},\n\t\t\t\t{group = "clothing_attachments", chance = 450000}\n\t\t\t},\n\t\t\tlootChance = 1800000\n\t\t}', '{\n\t\t\t\t{group = "ewok", chance = 9100000},\n\t\t\t\t{group = "armor_attachments", chance = 450000},\n\t\t\t\t{group = "clothing_attachments", chance = 450000}\n\t\t\t}', '{group = "clothing_attachments", chance = 450000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "ewok", chance = 9100000},\n\t\t\t\t{group = "armor_attachments", chance = 450000},\n\t\t\t\t{group = "clothing_attachments", chance = 450000}\n\t\t\t},\n\t\t\tlootChance = 1300000\n\t\t}', '{\n\t\t\t\t{group = "ewok", chance = 9100000},\n\t\t\t\t{group = "armor_attachments", chance = 450000},\n\t\t\t\t{group = "clothing_attachments", chance = 450000}\n\t\t\t}', '{group = "clothing_attachments", chance = 450000}')]</t>
         </is>
       </c>
     </row>
@@ -5950,7 +5950,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\endor\jinda_ritualist.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\endor\jinda_loremaster.lua</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -5960,7 +5960,7 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "ewok", chance = 9100000},\n\t\t\t\t{group = "armor_attachments", chance = 450000},\n\t\t\t\t{group = "clothing_attachments", chance = 450000}\n\t\t\t},\n\t\t\tlootChance = 1400000\n\t\t}', '{\n\t\t\t\t{group = "ewok", chance = 9100000},\n\t\t\t\t{group = "armor_attachments", chance = 450000},\n\t\t\t\t{group = "clothing_attachments", chance = 450000}\n\t\t\t}', '{group = "clothing_attachments", chance = 450000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "ewok", chance = 9100000},\n\t\t\t\t{group = "armor_attachments", chance = 450000},\n\t\t\t\t{group = "clothing_attachments", chance = 450000}\n\t\t\t},\n\t\t\tlootChance = 1800000\n\t\t}', '{\n\t\t\t\t{group = "ewok", chance = 9100000},\n\t\t\t\t{group = "armor_attachments", chance = 450000},\n\t\t\t\t{group = "clothing_attachments", chance = 450000}\n\t\t\t}', '{group = "clothing_attachments", chance = 450000}')]</t>
         </is>
       </c>
     </row>
@@ -5970,7 +5970,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\endor\jinda_shaman.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\endor\jinda_ritualist.lua</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -5980,7 +5980,7 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "ewok", chance = 9100000},\n\t\t\t\t{group = "armor_attachments", chance = 450000},\n\t\t\t\t{group = "clothing_attachments", chance = 450000}\n\t\t\t},\n\t\t\tlootChance = 1420000\n\t\t}', '{\n\t\t\t\t{group = "ewok", chance = 9100000},\n\t\t\t\t{group = "armor_attachments", chance = 450000},\n\t\t\t\t{group = "clothing_attachments", chance = 450000}\n\t\t\t}', '{group = "clothing_attachments", chance = 450000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "ewok", chance = 9100000},\n\t\t\t\t{group = "armor_attachments", chance = 450000},\n\t\t\t\t{group = "clothing_attachments", chance = 450000}\n\t\t\t},\n\t\t\tlootChance = 1400000\n\t\t}', '{\n\t\t\t\t{group = "ewok", chance = 9100000},\n\t\t\t\t{group = "armor_attachments", chance = 450000},\n\t\t\t\t{group = "clothing_attachments", chance = 450000}\n\t\t\t}', '{group = "clothing_attachments", chance = 450000}')]</t>
         </is>
       </c>
     </row>
@@ -5990,17 +5990,17 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\endor\korga_battlelord.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\endor\jinda_shaman.lua</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "mandalorian_kraytBomb3", chance = 100 * (100000)},\n\t\t\t},\n\t\t\tlootChance = 2 * (100000)\n\t\t}', '{\n\t\t\t\t{group = "mandalorian_kraytBomb3", chance = 100 * (100000)},\n\t\t\t}', '{group = "mandalorian_kraytBomb3", chance = 100 * (100000)}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "mandalorian_kraytSpice3", chance = 100 * (100000)},\n\t\t\t},\n\t\t\tlootChance = 2 * (100000)\n\t\t}', '{\n\t\t\t\t{group = "mandalorian_kraytSpice3", chance = 100 * (100000)},\n\t\t\t}', '{group = "mandalorian_kraytSpice3", chance = 100 * (100000)}')]</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "ewok", chance = 10000000}\n\t\t\t},\n\t\t\tlootChance = 1700000\n\t\t}', '{\n\t\t\t\t{group = "ewok", chance = 10000000}\n\t\t\t}', '{group = "ewok", chance = 10000000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "ewok", chance = 9100000},\n\t\t\t\t{group = "armor_attachments", chance = 450000},\n\t\t\t\t{group = "clothing_attachments", chance = 450000}\n\t\t\t},\n\t\t\tlootChance = 1420000\n\t\t}', '{\n\t\t\t\t{group = "ewok", chance = 9100000},\n\t\t\t\t{group = "armor_attachments", chance = 450000},\n\t\t\t\t{group = "clothing_attachments", chance = 450000}\n\t\t\t}', '{group = "clothing_attachments", chance = 450000}')]</t>
         </is>
       </c>
     </row>
@@ -6010,17 +6010,17 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\endor\korga_chieftain.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\endor\korga_battlelord.lua</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "mandalorian_kraytBomb3", chance = 100 * (100000)},\n\t\t\t},\n\t\t\tlootChance = 4 * (100000)\n\t\t}', '{\n\t\t\t\t{group = "mandalorian_kraytBomb3", chance = 100 * (100000)},\n\t\t\t}', '{group = "mandalorian_kraytBomb3", chance = 100 * (100000)}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "mandalorian_kraytBomb3", chance = 100 * (100000)},\n\t\t\t},\n\t\t\tlootChance = 2 * (100000)\n\t\t}', '{\n\t\t\t\t{group = "mandalorian_kraytBomb3", chance = 100 * (100000)},\n\t\t\t}', '{group = "mandalorian_kraytBomb3", chance = 100 * (100000)}')]</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "ewok", chance = 9000000},\n\t\t\t\t{group = "wearables_uncommon", chance = 1000000},\n\t\t\t},\n\t\t\tlootChance = 2200000\n\t\t}', '{\n\t\t\t\t{group = "ewok", chance = 9000000},\n\t\t\t\t{group = "wearables_uncommon", chance = 1000000},\n\t\t\t}', '{group = "wearables_uncommon", chance = 1000000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "ewok", chance = 10000000}\n\t\t\t},\n\t\t\tlootChance = 1700000\n\t\t}', '{\n\t\t\t\t{group = "ewok", chance = 10000000}\n\t\t\t}', '{group = "ewok", chance = 10000000}')]</t>
         </is>
       </c>
     </row>
@@ -6030,17 +6030,17 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\endor\korga_dark_shaman.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\endor\korga_chieftain.lua</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "mandalorian_kraytBomb3", chance = 100 * (100000)},\n\t\t\t},\n\t\t\tlootChance = 2 * (100000)\n\t\t}', '{\n\t\t\t\t{group = "mandalorian_kraytBomb3", chance = 100 * (100000)},\n\t\t\t}', '{group = "mandalorian_kraytBomb3", chance = 100 * (100000)}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "mandalorian_kraytBomb3", chance = 100 * (100000)},\n\t\t\t},\n\t\t\tlootChance = 4 * (100000)\n\t\t}', '{\n\t\t\t\t{group = "mandalorian_kraytBomb3", chance = 100 * (100000)},\n\t\t\t}', '{group = "mandalorian_kraytBomb3", chance = 100 * (100000)}')]</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "ewok", chance = 9000000},\n\t\t\t\t{group = "wearables_all", chance = 1000000},\n\t\t\t},\n\t\t\tlootChance = 1920000\n\t\t}', '{\n\t\t\t\t{group = "ewok", chance = 9000000},\n\t\t\t\t{group = "wearables_all", chance = 1000000},\n\t\t\t}', '{group = "wearables_all", chance = 1000000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "ewok", chance = 9000000},\n\t\t\t\t{group = "wearables_uncommon", chance = 1000000},\n\t\t\t},\n\t\t\tlootChance = 2200000\n\t\t}', '{\n\t\t\t\t{group = "ewok", chance = 9000000},\n\t\t\t\t{group = "wearables_uncommon", chance = 1000000},\n\t\t\t}', '{group = "wearables_uncommon", chance = 1000000}')]</t>
         </is>
       </c>
     </row>
@@ -6050,17 +6050,17 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\endor\korga_elder.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\endor\korga_dark_shaman.lua</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "art_illum4", chance = 10000000}\n\t\t\t},\n\t\t\tlootChance = 500000\n\t\t}', '{\n\t\t\t\t{group = "art_illum4", chance = 10000000}\n\t\t\t}', '{group = "art_illum4", chance = 10000000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "mandalorian_kraytBomb3", chance = 100 * (100000)},\n\t\t\t},\n\t\t\tlootChance = 2 * (100000)\n\t\t}', '{\n\t\t\t\t{group = "mandalorian_kraytBomb3", chance = 100 * (100000)},\n\t\t\t}', '{group = "mandalorian_kraytBomb3", chance = 100 * (100000)}')]</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "ewok", chance = 10000000}\n\t\t\t},\n\t\t\tlootChance = 1440000\n\t\t}', '{\n\t\t\t\t{group = "ewok", chance = 10000000}\n\t\t\t}', '{group = "ewok", chance = 10000000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "ewok", chance = 9000000},\n\t\t\t\t{group = "wearables_all", chance = 1000000},\n\t\t\t},\n\t\t\tlootChance = 1920000\n\t\t}', '{\n\t\t\t\t{group = "ewok", chance = 9000000},\n\t\t\t\t{group = "wearables_all", chance = 1000000},\n\t\t\t}', '{group = "wearables_all", chance = 1000000}')]</t>
         </is>
       </c>
     </row>
@@ -6070,17 +6070,17 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\endor\korga_spiritmaster.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\endor\korga_elder.lua</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "mandalorian_kraytBomb3", chance = 100 * (100000)},\n\t\t\t},\n\t\t\tlootChance = 2 * (100000)\n\t\t}', '{\n\t\t\t\t{group = "mandalorian_kraytBomb3", chance = 100 * (100000)},\n\t\t\t}', '{group = "mandalorian_kraytBomb3", chance = 100 * (100000)}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "art_illum4", chance = 10000000}\n\t\t\t},\n\t\t\tlootChance = 500000\n\t\t}', '{\n\t\t\t\t{group = "art_illum4", chance = 10000000}\n\t\t\t}', '{group = "art_illum4", chance = 10000000}')]</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "ewok", chance = 10000000}\n\t\t\t},\n\t\t\tlootChance = 1340000\n\t\t}', '{\n\t\t\t\t{group = "ewok", chance = 10000000}\n\t\t\t}', '{group = "ewok", chance = 10000000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "ewok", chance = 10000000}\n\t\t\t},\n\t\t\tlootChance = 1440000\n\t\t}', '{\n\t\t\t\t{group = "ewok", chance = 10000000}\n\t\t\t}', '{group = "ewok", chance = 10000000}')]</t>
         </is>
       </c>
     </row>
@@ -6090,17 +6090,17 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\endor\marauder.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\endor\korga_spiritmaster.lua</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "pelgo_green", chance = 100 * (100000)},\n\t\t\t},\n\t\t\tlootChance = 3 * (100000)\n\t\t}', '{\n\t\t\t\t{group = "pelgo_green", chance = 100 * (100000)},\n\t\t\t}', '{group = "pelgo_green", chance = 100 * (100000)}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "mandalorian_kraytBomb3", chance = 100 * (100000)},\n\t\t\t},\n\t\t\tlootChance = 2 * (100000)\n\t\t}', '{\n\t\t\t\t{group = "mandalorian_kraytBomb3", chance = 100 * (100000)},\n\t\t\t}', '{group = "mandalorian_kraytBomb3", chance = 100 * (100000)}')]</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "pelgo_green", chance = 100 * (100000)},\n\t\t\t},\n\t\t\tlootChance = 2 * (100000)\n\t\t}', '{\n\t\t\t\t{group = "pelgo_green", chance = 100 * (100000)},\n\t\t\t}', '{group = "pelgo_green", chance = 100 * (100000)}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "ewok", chance = 10000000}\n\t\t\t},\n\t\t\tlootChance = 1340000\n\t\t}', '{\n\t\t\t\t{group = "ewok", chance = 10000000}\n\t\t\t}', '{group = "ewok", chance = 10000000}')]</t>
         </is>
       </c>
     </row>
@@ -6110,17 +6110,17 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\endor\minor_gorax.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\endor\marauder.lua</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>[('{\n\t        groups = {\n\t\t\t\t{group = "minor_gorax", chance = 6000000},\n\t\t\t\t{group = "armor_attachments", chance = 2000000},\n\t\t\t\t{group = "clothing_attachments", chance = 2000000}\n\t\t\t},\n\t\t\tlootChance = 8000000\n\t\t}', '{\n\t\t\t\t{group = "minor_gorax", chance = 6000000},\n\t\t\t\t{group = "armor_attachments", chance = 2000000},\n\t\t\t\t{group = "clothing_attachments", chance = 2000000}\n\t\t\t}', '{group = "clothing_attachments", chance = 2000000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "pelgo_green", chance = 100 * (100000)},\n\t\t\t},\n\t\t\tlootChance = 3 * (100000)\n\t\t}', '{\n\t\t\t\t{group = "pelgo_green", chance = 100 * (100000)},\n\t\t\t}', '{group = "pelgo_green", chance = 100 * (100000)}')]</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>[('{\n\t        groups = {\n\t\t\t\t{group = "minor_gorax", chance = 6000000},\n\t\t\t\t{group = "armor_attachments", chance = 2000000},\n\t\t\t\t{group = "clothing_attachments", chance = 2000000}\n\t\t\t},\n\t\t\tlootChance = 3620000\n\t\t}', '{\n\t\t\t\t{group = "minor_gorax", chance = 6000000},\n\t\t\t\t{group = "armor_attachments", chance = 2000000},\n\t\t\t\t{group = "clothing_attachments", chance = 2000000}\n\t\t\t}', '{group = "clothing_attachments", chance = 2000000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "pelgo_green", chance = 100 * (100000)},\n\t\t\t},\n\t\t\tlootChance = 2 * (100000)\n\t\t}', '{\n\t\t\t\t{group = "pelgo_green", chance = 100 * (100000)},\n\t\t\t}', '{group = "pelgo_green", chance = 100 * (100000)}')]</t>
         </is>
       </c>
     </row>
@@ -6130,17 +6130,17 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\endor\panshee_loremaster.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\endor\minor_gorax.lua</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "art_illum5", chance = 10000000}\n\t\t\t},\n\t\t\tlootChance = 500000\n\t\t}', '{\n\t\t\t\t{group = "art_illum5", chance = 10000000}\n\t\t\t}', '{group = "art_illum5", chance = 10000000}')]</t>
+          <t>[('{\n\t        groups = {\n\t\t\t\t{group = "minor_gorax", chance = 6000000},\n\t\t\t\t{group = "armor_attachments", chance = 2000000},\n\t\t\t\t{group = "clothing_attachments", chance = 2000000}\n\t\t\t},\n\t\t\tlootChance = 8000000\n\t\t}', '{\n\t\t\t\t{group = "minor_gorax", chance = 6000000},\n\t\t\t\t{group = "armor_attachments", chance = 2000000},\n\t\t\t\t{group = "clothing_attachments", chance = 2000000}\n\t\t\t}', '{group = "clothing_attachments", chance = 2000000}')]</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "ewok", chance = 10000000}\n\t\t\t},\n\t\t\tlootChance = 1500000\n\t\t}', '{\n\t\t\t\t{group = "ewok", chance = 10000000}\n\t\t\t}', '{group = "ewok", chance = 10000000}')]</t>
+          <t>[('{\n\t        groups = {\n\t\t\t\t{group = "minor_gorax", chance = 6000000},\n\t\t\t\t{group = "armor_attachments", chance = 2000000},\n\t\t\t\t{group = "clothing_attachments", chance = 2000000}\n\t\t\t},\n\t\t\tlootChance = 3620000\n\t\t}', '{\n\t\t\t\t{group = "minor_gorax", chance = 6000000},\n\t\t\t\t{group = "armor_attachments", chance = 2000000},\n\t\t\t\t{group = "clothing_attachments", chance = 2000000}\n\t\t\t}', '{group = "clothing_attachments", chance = 2000000}')]</t>
         </is>
       </c>
     </row>
@@ -6150,7 +6150,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\endor\panshee_shaman.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\endor\panshee_loremaster.lua</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -6160,7 +6160,7 @@
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "ewok", chance = 9000000},\n\t\t\t\t{group = "wearables_uncommon", chance = 1000000},\n\t\t\t},\n\t\t\tlootChance = 1600000\n\t\t}', '{\n\t\t\t\t{group = "ewok", chance = 9000000},\n\t\t\t\t{group = "wearables_uncommon", chance = 1000000},\n\t\t\t}', '{group = "wearables_uncommon", chance = 1000000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "ewok", chance = 10000000}\n\t\t\t},\n\t\t\tlootChance = 1500000\n\t\t}', '{\n\t\t\t\t{group = "ewok", chance = 10000000}\n\t\t\t}', '{group = "ewok", chance = 10000000}')]</t>
         </is>
       </c>
     </row>
@@ -6170,17 +6170,17 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\endor\proficient_panshee_worker.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\endor\panshee_shaman.lua</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "ewok", chance = 10000000}\n\t\t\t},\n\t\t\tlootChance = 1660000\n\t\t}', '{\n\t\t\t\t{group = "ewok", chance = 10000000}\n\t\t\t}', '{group = "ewok", chance = 10000000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "art_illum5", chance = 10000000}\n\t\t\t},\n\t\t\tlootChance = 500000\n\t\t}', '{\n\t\t\t\t{group = "art_illum5", chance = 10000000}\n\t\t\t}', '{group = "art_illum5", chance = 10000000}')]</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "ewok", chance = 10000000}\n\t\t\t},\n\t\t\tlootChance = 1660000\n\t\t}', '{\n\t\t\t\t{group = "ewok", chance = 10000000}\n\t\t\t}', '{group = "ewok", chance = 10000000}'), ('{\n\t\t\tgroups = {\n\t\t\t\t{group = "ewok", chance = 10000000}\n\t\t\t},\n\t\t\tlootChance = 1440000\n\t\t}', '{\n\t\t\t\t{group = "ewok", chance = 10000000}\n\t\t\t}', '{group = "ewok", chance = 10000000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "ewok", chance = 9000000},\n\t\t\t\t{group = "wearables_uncommon", chance = 1000000},\n\t\t\t},\n\t\t\tlootChance = 1600000\n\t\t}', '{\n\t\t\t\t{group = "ewok", chance = 9000000},\n\t\t\t\t{group = "wearables_uncommon", chance = 1000000},\n\t\t\t}', '{group = "wearables_uncommon", chance = 1000000}')]</t>
         </is>
       </c>
     </row>
@@ -6190,17 +6190,17 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\endor\pubam_battlelord.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\endor\proficient_panshee_worker.lua</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "airstrike_group", chance = 100 * (100000)},\n\t\t\t},\n\t\t\tlootChance = 1 * (2000), -- very rare drop\n\t\t}', '{\n\t\t\t\t{group = "airstrike_group", chance = 100 * (100000)},\n\t\t\t}', '{group = "airstrike_group", chance = 100 * (100000)}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "ewok", chance = 10000000}\n\t\t\t},\n\t\t\tlootChance = 1660000\n\t\t}', '{\n\t\t\t\t{group = "ewok", chance = 10000000}\n\t\t\t}', '{group = "ewok", chance = 10000000}')]</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "ewok", chance = 9000000},\n\t\t\t\t{group = "wearables_uncommon", chance = 1000000},\n\t\t\t},\n\t\t\tlootChance = 1820000\n\t\t}', '{\n\t\t\t\t{group = "ewok", chance = 9000000},\n\t\t\t\t{group = "wearables_uncommon", chance = 1000000},\n\t\t\t}', '{group = "wearables_uncommon", chance = 1000000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "ewok", chance = 10000000}\n\t\t\t},\n\t\t\tlootChance = 1660000\n\t\t}', '{\n\t\t\t\t{group = "ewok", chance = 10000000}\n\t\t\t}', '{group = "ewok", chance = 10000000}'), ('{\n\t\t\tgroups = {\n\t\t\t\t{group = "ewok", chance = 10000000}\n\t\t\t},\n\t\t\tlootChance = 1440000\n\t\t}', '{\n\t\t\t\t{group = "ewok", chance = 10000000}\n\t\t\t}', '{group = "ewok", chance = 10000000}')]</t>
         </is>
       </c>
     </row>
@@ -6210,17 +6210,17 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\endor\wandering_desert_marauder.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\endor\pubam_battlelord.lua</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "combat_practice", chance = 100 * (100000)}\n\t\t\t},\n\t\t\tlootChance = 25 * (100000)\n\t\t}', '{\n\t\t\t\t{group = "combat_practice", chance = 100 * (100000)}\n\t\t\t}', '{group = "combat_practice", chance = 100 * (100000)}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "airstrike_group", chance = 100 * (100000)},\n\t\t\t},\n\t\t\tlootChance = 1 * (2000), -- very rare drop\n\t\t}', '{\n\t\t\t\t{group = "airstrike_group", chance = 100 * (100000)},\n\t\t\t}', '{group = "airstrike_group", chance = 100 * (100000)}')]</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "pistols", chance = 750000},\n\t\t\t\t{group = "carbines", chance = 750000},\n\t\t\t\t{group = "rifles", chance = 750000},\n\t\t\t\t{group = "melee_baton", chance = 1000000},\n\t\t\t\t{group = "loot_kit_parts", chance = 1000000},\n\t\t\t\t{group = "armor_attachments", chance = 500000},\n\t\t\t\t{group = "clothing_attachments", chance = 500000},\n\t\t\t\t{group = "bone_armor", chance = 800000},\n\t\t\t\t{group = "chitin_armor", chance = 800000},\n\t\t\t\t{group = "mabari_armor", chance = 800000},\n\t\t\t\t{group = "tantel_armor", chance = 800000},\n\t\t\t\t{group = "ubese_armor", chance = 800000},\n\t\t\t\t{group = "color_crystals", chance = 750000},\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "pistols", chance = 750000},\n\t\t\t\t{group = "carbines", chance = 750000},\n\t\t\t\t{group = "rifles", chance = 750000},\n\t\t\t\t{group = "melee_baton", chance = 1000000},\n\t\t\t\t{group = "loot_kit_parts", chance = 1000000},\n\t\t\t\t{group = "armor_attachments", chance = 500000},\n\t\t\t\t{group = "clothing_attachments", chance = 500000},\n\t\t\t\t{group = "bone_armor", chance = 800000},\n\t\t\t\t{group = "chitin_armor", chance = 800000},\n\t\t\t\t{group = "mabari_armor", chance = 800000},\n\t\t\t\t{group = "tantel_armor", chance = 800000},\n\t\t\t\t{group = "ubese_armor", chance = 800000},\n\t\t\t\t{group = "color_crystals", chance = 750000},\n\t\t\t}', '{group = "color_crystals", chance = 750000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "ewok", chance = 9000000},\n\t\t\t\t{group = "wearables_uncommon", chance = 1000000},\n\t\t\t},\n\t\t\tlootChance = 1820000\n\t\t}', '{\n\t\t\t\t{group = "ewok", chance = 9000000},\n\t\t\t\t{group = "wearables_uncommon", chance = 1000000},\n\t\t\t}', '{group = "wearables_uncommon", chance = 1000000}')]</t>
         </is>
       </c>
     </row>
@@ -6230,17 +6230,17 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\faction\imperial\crackdown_stormtrooper.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\endor\wandering_desert_marauder.lua</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "color_crystals", chance = 100000},\n\t\t\t\t{group = "junk", chance = 7550000},\n\t\t\t\t{group = "rifles", chance = 550000},\n\t\t\t\t{group = "pistols", chance = 550000},\n                {group = "melee_weapons", chance = 550000},\n                {group = "carbines", chance = 550000},\n\t\t\t\t{group = "clothing_attachments", chance = 25000},\n\t\t\t\t{group = "armor_attachments", chance = 25000},\n\t\t\t\t{group = "stormtrooper_common", chance = 100000}\n\t\t\t},\n\t\t\tlootChance = 2800000\n\t\t}', '{\n\t\t\t\t{group = "color_crystals", chance = 100000},\n\t\t\t\t{group = "junk", chance = 7550000},\n\t\t\t\t{group = "rifles", chance = 550000},\n\t\t\t\t{group = "pistols", chance = 550000},\n                {group = "melee_weapons", chance = 550000},\n                {group = "carbines", chance = 550000},\n\t\t\t\t{group = "clothing_attachments", chance = 25000},\n\t\t\t\t{group = "armor_attachments", chance = 25000},\n\t\t\t\t{group = "stormtrooper_common", chance = 100000}\n\t\t\t}', '{group = "stormtrooper_common", chance = 100000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "combat_practice", chance = 100 * (100000)}\n\t\t\t},\n\t\t\tlootChance = 25 * (100000)\n\t\t}', '{\n\t\t\t\t{group = "combat_practice", chance = 100 * (100000)}\n\t\t\t}', '{group = "combat_practice", chance = 100 * (100000)}')]</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "color_crystals", chance = 100000},\n\t\t\t\t{group = "junk", chance = 7550000},\n\t\t\t\t{group = "rifles", chance = 550000},\n\t\t\t\t{group = "pistols", chance = 550000},\n\t\t\t\t{group = "melee_weapons", chance = 550000},\n\t\t\t\t{group = "carbines", chance = 550000},\n\t\t\t\t{group = "clothing_attachments", chance = 25000},\n\t\t\t\t{group = "armor_attachments", chance = 25000},\n\t\t\t\t{group = "stormtrooper_common", chance = 100000}\n\t\t\t},\n\t\t\tlootChance = 2800000\n\t\t}', '{\n\t\t\t\t{group = "color_crystals", chance = 100000},\n\t\t\t\t{group = "junk", chance = 7550000},\n\t\t\t\t{group = "rifles", chance = 550000},\n\t\t\t\t{group = "pistols", chance = 550000},\n\t\t\t\t{group = "melee_weapons", chance = 550000},\n\t\t\t\t{group = "carbines", chance = 550000},\n\t\t\t\t{group = "clothing_attachments", chance = 25000},\n\t\t\t\t{group = "armor_attachments", chance = 25000},\n\t\t\t\t{group = "stormtrooper_common", chance = 100000}\n\t\t\t}', '{group = "stormtrooper_common", chance = 100000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "pistols", chance = 750000},\n\t\t\t\t{group = "carbines", chance = 750000},\n\t\t\t\t{group = "rifles", chance = 750000},\n\t\t\t\t{group = "melee_baton", chance = 1000000},\n\t\t\t\t{group = "loot_kit_parts", chance = 1000000},\n\t\t\t\t{group = "armor_attachments", chance = 500000},\n\t\t\t\t{group = "clothing_attachments", chance = 500000},\n\t\t\t\t{group = "bone_armor", chance = 800000},\n\t\t\t\t{group = "chitin_armor", chance = 800000},\n\t\t\t\t{group = "mabari_armor", chance = 800000},\n\t\t\t\t{group = "tantel_armor", chance = 800000},\n\t\t\t\t{group = "ubese_armor", chance = 800000},\n\t\t\t\t{group = "color_crystals", chance = 750000},\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "pistols", chance = 750000},\n\t\t\t\t{group = "carbines", chance = 750000},\n\t\t\t\t{group = "rifles", chance = 750000},\n\t\t\t\t{group = "melee_baton", chance = 1000000},\n\t\t\t\t{group = "loot_kit_parts", chance = 1000000},\n\t\t\t\t{group = "armor_attachments", chance = 500000},\n\t\t\t\t{group = "clothing_attachments", chance = 500000},\n\t\t\t\t{group = "bone_armor", chance = 800000},\n\t\t\t\t{group = "chitin_armor", chance = 800000},\n\t\t\t\t{group = "mabari_armor", chance = 800000},\n\t\t\t\t{group = "tantel_armor", chance = 800000},\n\t\t\t\t{group = "ubese_armor", chance = 800000},\n\t\t\t\t{group = "color_crystals", chance = 750000},\n\t\t\t}', '{group = "color_crystals", chance = 750000}')]</t>
         </is>
       </c>
     </row>
@@ -6250,17 +6250,17 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\faction\imperial\emperors_hand.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\faction\imperial\crackdown_stormtrooper.lua</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>[('{\n\t\tgroups = {\n\t\t\t{group = "emperors_hand", chance = 10000000},\n\t\t},\n\t\tlootChance = 500000,\n\t}', '{\n\t\t\t{group = "emperors_hand", chance = 10000000},\n\t\t}', '{group = "emperors_hand", chance = 10000000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "color_crystals", chance = 100000},\n\t\t\t\t{group = "junk", chance = 7550000},\n\t\t\t\t{group = "rifles", chance = 550000},\n\t\t\t\t{group = "pistols", chance = 550000},\n                {group = "melee_weapons", chance = 550000},\n                {group = "carbines", chance = 550000},\n\t\t\t\t{group = "clothing_attachments", chance = 25000},\n\t\t\t\t{group = "armor_attachments", chance = 25000},\n\t\t\t\t{group = "stormtrooper_common", chance = 100000}\n\t\t\t},\n\t\t\tlootChance = 2800000\n\t\t}', '{\n\t\t\t\t{group = "color_crystals", chance = 100000},\n\t\t\t\t{group = "junk", chance = 7550000},\n\t\t\t\t{group = "rifles", chance = 550000},\n\t\t\t\t{group = "pistols", chance = 550000},\n                {group = "melee_weapons", chance = 550000},\n                {group = "carbines", chance = 550000},\n\t\t\t\t{group = "clothing_attachments", chance = 25000},\n\t\t\t\t{group = "armor_attachments", chance = 25000},\n\t\t\t\t{group = "stormtrooper_common", chance = 100000}\n\t\t\t}', '{group = "stormtrooper_common", chance = 100000}')]</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "holocron_dark", chance = 850000},\n\t\t\t\t{group = "holocron_light", chance = 850000},\n\t\t\t\t{group = "power_crystals", chance = 1600000},\n\t\t\t\t{group = "rifles", chance = 1000000},\n\t\t\t\t{group = "pistols", chance = 1000000},\n\t\t\t\t{group = "melee_weapons", chance = 1500000},\n\t\t\t\t{group = "armor_attachments", chance = 1100000},\n\t\t\t\t{group = "clothing_attachments", chance = 1100000},\n\t\t\t\t{group = "carbines", chance = 1000000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "holocron_dark", chance = 850000},\n\t\t\t\t{group = "holocron_light", chance = 850000},\n\t\t\t\t{group = "power_crystals", chance = 1600000},\n\t\t\t\t{group = "rifles", chance = 1000000},\n\t\t\t\t{group = "pistols", chance = 1000000},\n\t\t\t\t{group = "melee_weapons", chance = 1500000},\n\t\t\t\t{group = "armor_attachments", chance = 1100000},\n\t\t\t\t{group = "clothing_attachments", chance = 1100000},\n\t\t\t\t{group = "carbines", chance = 1000000}\n\t\t\t}', '{group = "carbines", chance = 1000000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "color_crystals", chance = 100000},\n\t\t\t\t{group = "junk", chance = 7550000},\n\t\t\t\t{group = "rifles", chance = 550000},\n\t\t\t\t{group = "pistols", chance = 550000},\n\t\t\t\t{group = "melee_weapons", chance = 550000},\n\t\t\t\t{group = "carbines", chance = 550000},\n\t\t\t\t{group = "clothing_attachments", chance = 25000},\n\t\t\t\t{group = "armor_attachments", chance = 25000},\n\t\t\t\t{group = "stormtrooper_common", chance = 100000}\n\t\t\t},\n\t\t\tlootChance = 2800000\n\t\t}', '{\n\t\t\t\t{group = "color_crystals", chance = 100000},\n\t\t\t\t{group = "junk", chance = 7550000},\n\t\t\t\t{group = "rifles", chance = 550000},\n\t\t\t\t{group = "pistols", chance = 550000},\n\t\t\t\t{group = "melee_weapons", chance = 550000},\n\t\t\t\t{group = "carbines", chance = 550000},\n\t\t\t\t{group = "clothing_attachments", chance = 25000},\n\t\t\t\t{group = "armor_attachments", chance = 25000},\n\t\t\t\t{group = "stormtrooper_common", chance = 100000}\n\t\t\t}', '{group = "stormtrooper_common", chance = 100000}')]</t>
         </is>
       </c>
     </row>
@@ -6270,17 +6270,17 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\faction\imperial\fbase_elite_dark_trooper_hard.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\faction\imperial\emperors_hand.lua</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = { -- house moving schem\n\t\t\t\t{group = "house_move_group", chance = 100 * (100000)},\n\t\t\t},\n\t\t\tlootChance = 8 * (100000),\t\t\n\t\t}', '{ -- house moving schem\n\t\t\t\t{group = "house_move_group", chance = 100 * (100000)},\n\t\t\t}', '{group = "house_move_group", chance = 100 * (100000)}')]</t>
+          <t>[('{\n\t\tgroups = {\n\t\t\t{group = "emperors_hand", chance = 10000000},\n\t\t},\n\t\tlootChance = 500000,\n\t}', '{\n\t\t\t{group = "emperors_hand", chance = 10000000},\n\t\t}', '{group = "emperors_hand", chance = 10000000}')]</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "color_crystals", chance = 300000},\n\t\t\t\t{group = "junk", chance = 6000000},\n\t\t\t\t{group = "holocron_dark", chance = 150000},\n\t\t\t\t{group = "holocron_light", chance = 150000},\n\t\t\t\t{group = "weapons_all", chance = 1050000},\n\t\t\t\t{group = "armor_all", chance = 1050000},\n\t\t\t\t{group = "clothing_attachments", chance = 150000},\n\t\t\t\t{group = "armor_attachments", chance = 150000},\n\t\t\t\t{group = "wearables_all", chance = 1000000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "color_crystals", chance = 300000},\n\t\t\t\t{group = "junk", chance = 6000000},\n\t\t\t\t{group = "holocron_dark", chance = 150000},\n\t\t\t\t{group = "holocron_light", chance = 150000},\n\t\t\t\t{group = "weapons_all", chance = 1050000},\n\t\t\t\t{group = "armor_all", chance = 1050000},\n\t\t\t\t{group = "clothing_attachments", chance = 150000},\n\t\t\t\t{group = "armor_attachments", chance = 150000},\n\t\t\t\t{group = "wearables_all", chance = 1000000}\n\t\t\t}', '{group = "wearables_all", chance = 1000000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "holocron_dark", chance = 850000},\n\t\t\t\t{group = "holocron_light", chance = 850000},\n\t\t\t\t{group = "power_crystals", chance = 1600000},\n\t\t\t\t{group = "rifles", chance = 1000000},\n\t\t\t\t{group = "pistols", chance = 1000000},\n\t\t\t\t{group = "melee_weapons", chance = 1500000},\n\t\t\t\t{group = "armor_attachments", chance = 1100000},\n\t\t\t\t{group = "clothing_attachments", chance = 1100000},\n\t\t\t\t{group = "carbines", chance = 1000000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "holocron_dark", chance = 850000},\n\t\t\t\t{group = "holocron_light", chance = 850000},\n\t\t\t\t{group = "power_crystals", chance = 1600000},\n\t\t\t\t{group = "rifles", chance = 1000000},\n\t\t\t\t{group = "pistols", chance = 1000000},\n\t\t\t\t{group = "melee_weapons", chance = 1500000},\n\t\t\t\t{group = "armor_attachments", chance = 1100000},\n\t\t\t\t{group = "clothing_attachments", chance = 1100000},\n\t\t\t\t{group = "carbines", chance = 1000000}\n\t\t\t}', '{group = "carbines", chance = 1000000}')]</t>
         </is>
       </c>
     </row>
@@ -6290,17 +6290,17 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\faction\imperial\imperial_colonel.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\faction\imperial\fbase_elite_dark_trooper_hard.lua</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "art_certainpov3", chance = 100 * (100000)},\n\t\t\t},\n\t\t\tlootChance = 5 * (100000)\n\t\t}', '{\n\t\t\t\t{group = "art_certainpov3", chance = 100 * (100000)},\n\t\t\t}', '{group = "art_certainpov3", chance = 100 * (100000)}')]</t>
+          <t>[('{\n\t\t\tgroups = { -- house moving schem\n\t\t\t\t{group = "house_move_group", chance = 100 * (100000)},\n\t\t\t},\n\t\t\tlootChance = 8 * (100000),\t\t\n\t\t}', '{ -- house moving schem\n\t\t\t\t{group = "house_move_group", chance = 100 * (100000)},\n\t\t\t}', '{group = "house_move_group", chance = 100 * (100000)}')]</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "color_crystals", chance = 100000},\n\t\t\t\t{group = "junk", chance = 6200000},\n\t\t\t\t{group = "rifles", chance = 550000},\n\t\t\t\t{group = "pistols", chance = 550000},\n\t\t\t\t{group = "melee_weapons", chance = 550000},\n\t\t\t\t{group = "carbines", chance = 550000},\n\t\t\t\t{group = "clothing_attachments", chance = 25000},\n\t\t\t\t{group = "armor_attachments", chance = 25000},\n\t\t\t\t{group = "imperial_officer_common", chance = 450000},\n\t\t\t\t{group = "wearables_common", chance = 1000000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "color_crystals", chance = 100000},\n\t\t\t\t{group = "junk", chance = 6200000},\n\t\t\t\t{group = "rifles", chance = 550000},\n\t\t\t\t{group = "pistols", chance = 550000},\n\t\t\t\t{group = "melee_weapons", chance = 550000},\n\t\t\t\t{group = "carbines", chance = 550000},\n\t\t\t\t{group = "clothing_attachments", chance = 25000},\n\t\t\t\t{group = "armor_attachments", chance = 25000},\n\t\t\t\t{group = "imperial_officer_common", chance = 450000},\n\t\t\t\t{group = "wearables_common", chance = 1000000}\n\t\t\t}', '{group = "wearables_common", chance = 1000000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "color_crystals", chance = 300000},\n\t\t\t\t{group = "junk", chance = 6000000},\n\t\t\t\t{group = "holocron_dark", chance = 150000},\n\t\t\t\t{group = "holocron_light", chance = 150000},\n\t\t\t\t{group = "weapons_all", chance = 1050000},\n\t\t\t\t{group = "armor_all", chance = 1050000},\n\t\t\t\t{group = "clothing_attachments", chance = 150000},\n\t\t\t\t{group = "armor_attachments", chance = 150000},\n\t\t\t\t{group = "wearables_all", chance = 1000000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "color_crystals", chance = 300000},\n\t\t\t\t{group = "junk", chance = 6000000},\n\t\t\t\t{group = "holocron_dark", chance = 150000},\n\t\t\t\t{group = "holocron_light", chance = 150000},\n\t\t\t\t{group = "weapons_all", chance = 1050000},\n\t\t\t\t{group = "armor_all", chance = 1050000},\n\t\t\t\t{group = "clothing_attachments", chance = 150000},\n\t\t\t\t{group = "armor_attachments", chance = 150000},\n\t\t\t\t{group = "wearables_all", chance = 1000000}\n\t\t\t}', '{group = "wearables_all", chance = 1000000}')]</t>
         </is>
       </c>
     </row>
@@ -6310,7 +6310,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\faction\imperial\stormtrooper_commando.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\faction\imperial\imperial_colonel.lua</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -6320,7 +6320,7 @@
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "color_crystals", chance = 100000},\n\t\t\t\t{group = "junk", chance = 5500000},\n\t\t\t\t{group = "rifles", chance = 550000},\n\t\t\t\t{group = "pistols", chance = 550000},\n\t\t\t\t{group = "melee_weapons", chance = 550000},\n\t\t\t\t{group = "carbines", chance = 550000},\n\t\t\t\t{group = "clothing_attachments", chance = 250000},\n\t\t\t\t{group = "armor_attachments", chance = 250000},\n\t\t\t\t{group = "stormtrooper_common", chance = 700000},\n\t\t\t\t{group = "wearables_common", chance = 1000000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "color_crystals", chance = 100000},\n\t\t\t\t{group = "junk", chance = 5500000},\n\t\t\t\t{group = "rifles", chance = 550000},\n\t\t\t\t{group = "pistols", chance = 550000},\n\t\t\t\t{group = "melee_weapons", chance = 550000},\n\t\t\t\t{group = "carbines", chance = 550000},\n\t\t\t\t{group = "clothing_attachments", chance = 250000},\n\t\t\t\t{group = "armor_attachments", chance = 250000},\n\t\t\t\t{group = "stormtrooper_common", chance = 700000},\n\t\t\t\t{group = "wearables_common", chance = 1000000}\n\t\t\t}', '{group = "wearables_common", chance = 1000000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "color_crystals", chance = 100000},\n\t\t\t\t{group = "junk", chance = 6200000},\n\t\t\t\t{group = "rifles", chance = 550000},\n\t\t\t\t{group = "pistols", chance = 550000},\n\t\t\t\t{group = "melee_weapons", chance = 550000},\n\t\t\t\t{group = "carbines", chance = 550000},\n\t\t\t\t{group = "clothing_attachments", chance = 25000},\n\t\t\t\t{group = "armor_attachments", chance = 25000},\n\t\t\t\t{group = "imperial_officer_common", chance = 450000},\n\t\t\t\t{group = "wearables_common", chance = 1000000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "color_crystals", chance = 100000},\n\t\t\t\t{group = "junk", chance = 6200000},\n\t\t\t\t{group = "rifles", chance = 550000},\n\t\t\t\t{group = "pistols", chance = 550000},\n\t\t\t\t{group = "melee_weapons", chance = 550000},\n\t\t\t\t{group = "carbines", chance = 550000},\n\t\t\t\t{group = "clothing_attachments", chance = 25000},\n\t\t\t\t{group = "armor_attachments", chance = 25000},\n\t\t\t\t{group = "imperial_officer_common", chance = 450000},\n\t\t\t\t{group = "wearables_common", chance = 1000000}\n\t\t\t}', '{group = "wearables_common", chance = 1000000}')]</t>
         </is>
       </c>
     </row>
@@ -6330,17 +6330,17 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\faction\rebel\fbase_rebel_elite_heavy_trooper_hard.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\faction\imperial\stormtrooper_commando.lua</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = { -- house moving schem\n\t\t\t\t{group = "house_move_group", chance = 100 * (100000)},\n\t\t\t},\n\t\t\tlootChance = 8 * (100000),\t\t\n\t\t}', '{ -- house moving schem\n\t\t\t\t{group = "house_move_group", chance = 100 * (100000)},\n\t\t\t}', '{group = "house_move_group", chance = 100 * (100000)}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "art_certainpov3", chance = 100 * (100000)},\n\t\t\t},\n\t\t\tlootChance = 5 * (100000)\n\t\t}', '{\n\t\t\t\t{group = "art_certainpov3", chance = 100 * (100000)},\n\t\t\t}', '{group = "art_certainpov3", chance = 100 * (100000)}')]</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "color_crystals", chance = 300000},\n\t\t\t\t{group = "junk", chance = 6000000},\n\t\t\t\t{group = "holocron_dark", chance = 150000},\n\t\t\t\t{group = "holocron_light", chance = 150000},\n\t\t\t\t{group = "weapons_all", chance = 1050000},\n\t\t\t\t{group = "armor_all", chance = 1050000},\n\t\t\t\t{group = "clothing_attachments", chance = 150000},\n\t\t\t\t{group = "armor_attachments", chance = 150000},\n\t\t\t\t{group = "wearables_all", chance = 1000000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "color_crystals", chance = 300000},\n\t\t\t\t{group = "junk", chance = 6000000},\n\t\t\t\t{group = "holocron_dark", chance = 150000},\n\t\t\t\t{group = "holocron_light", chance = 150000},\n\t\t\t\t{group = "weapons_all", chance = 1050000},\n\t\t\t\t{group = "armor_all", chance = 1050000},\n\t\t\t\t{group = "clothing_attachments", chance = 150000},\n\t\t\t\t{group = "armor_attachments", chance = 150000},\n\t\t\t\t{group = "wearables_all", chance = 1000000}\n\t\t\t}', '{group = "wearables_all", chance = 1000000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "color_crystals", chance = 100000},\n\t\t\t\t{group = "junk", chance = 5500000},\n\t\t\t\t{group = "rifles", chance = 550000},\n\t\t\t\t{group = "pistols", chance = 550000},\n\t\t\t\t{group = "melee_weapons", chance = 550000},\n\t\t\t\t{group = "carbines", chance = 550000},\n\t\t\t\t{group = "clothing_attachments", chance = 250000},\n\t\t\t\t{group = "armor_attachments", chance = 250000},\n\t\t\t\t{group = "stormtrooper_common", chance = 700000},\n\t\t\t\t{group = "wearables_common", chance = 1000000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "color_crystals", chance = 100000},\n\t\t\t\t{group = "junk", chance = 5500000},\n\t\t\t\t{group = "rifles", chance = 550000},\n\t\t\t\t{group = "pistols", chance = 550000},\n\t\t\t\t{group = "melee_weapons", chance = 550000},\n\t\t\t\t{group = "carbines", chance = 550000},\n\t\t\t\t{group = "clothing_attachments", chance = 250000},\n\t\t\t\t{group = "armor_attachments", chance = 250000},\n\t\t\t\t{group = "stormtrooper_common", chance = 700000},\n\t\t\t\t{group = "wearables_common", chance = 1000000}\n\t\t\t}', '{group = "wearables_common", chance = 1000000}')]</t>
         </is>
       </c>
     </row>
@@ -6350,17 +6350,17 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\faction\rebel\rebel_colonel.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\faction\rebel\fbase_rebel_elite_heavy_trooper_hard.lua</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "art_certainpov2", chance = 100 * (100000)},\n\t\t\t},\n\t\t\tlootChance = 5 * (100000)\n\t\t}', '{\n\t\t\t\t{group = "art_certainpov2", chance = 100 * (100000)},\n\t\t\t}', '{group = "art_certainpov2", chance = 100 * (100000)}')]</t>
+          <t>[('{\n\t\t\tgroups = { -- house moving schem\n\t\t\t\t{group = "house_move_group", chance = 100 * (100000)},\n\t\t\t},\n\t\t\tlootChance = 8 * (100000),\t\t\n\t\t}', '{ -- house moving schem\n\t\t\t\t{group = "house_move_group", chance = 100 * (100000)},\n\t\t\t}', '{group = "house_move_group", chance = 100 * (100000)}')]</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "color_crystals", chance = 100000},\n\t\t\t\t{group = "junk", chance = 4250000},\n\t\t\t\t{group = "rifles", chance = 1000000},\n\t\t\t\t{group = "pistols", chance = 1000000},\n\t\t\t\t{group = "melee_weapons", chance = 1000000},\n\t\t\t\t{group = "carbines", chance = 1000000},\n\t\t\t\t{group = "clothing_attachments", chance = 100000},\n\t\t\t\t{group = "armor_attachments", chance = 100000},\n\t\t\t\t{group = "rebel_officer_common", chance = 450000},\n\t\t\t\t{group = "wearables_common", chance = 1000000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "color_crystals", chance = 100000},\n\t\t\t\t{group = "junk", chance = 4250000},\n\t\t\t\t{group = "rifles", chance = 1000000},\n\t\t\t\t{group = "pistols", chance = 1000000},\n\t\t\t\t{group = "melee_weapons", chance = 1000000},\n\t\t\t\t{group = "carbines", chance = 1000000},\n\t\t\t\t{group = "clothing_attachments", chance = 100000},\n\t\t\t\t{group = "armor_attachments", chance = 100000},\n\t\t\t\t{group = "rebel_officer_common", chance = 450000},\n\t\t\t\t{group = "wearables_common", chance = 1000000}\n\t\t\t}', '{group = "wearables_common", chance = 1000000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "color_crystals", chance = 300000},\n\t\t\t\t{group = "junk", chance = 6000000},\n\t\t\t\t{group = "holocron_dark", chance = 150000},\n\t\t\t\t{group = "holocron_light", chance = 150000},\n\t\t\t\t{group = "weapons_all", chance = 1050000},\n\t\t\t\t{group = "armor_all", chance = 1050000},\n\t\t\t\t{group = "clothing_attachments", chance = 150000},\n\t\t\t\t{group = "armor_attachments", chance = 150000},\n\t\t\t\t{group = "wearables_all", chance = 1000000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "color_crystals", chance = 300000},\n\t\t\t\t{group = "junk", chance = 6000000},\n\t\t\t\t{group = "holocron_dark", chance = 150000},\n\t\t\t\t{group = "holocron_light", chance = 150000},\n\t\t\t\t{group = "weapons_all", chance = 1050000},\n\t\t\t\t{group = "armor_all", chance = 1050000},\n\t\t\t\t{group = "clothing_attachments", chance = 150000},\n\t\t\t\t{group = "armor_attachments", chance = 150000},\n\t\t\t\t{group = "wearables_all", chance = 1000000}\n\t\t\t}', '{group = "wearables_all", chance = 1000000}')]</t>
         </is>
       </c>
     </row>
@@ -6370,7 +6370,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\faction\rebel\rebel_commando.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\faction\rebel\rebel_colonel.lua</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -6380,7 +6380,7 @@
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "color_crystals", chance = 100000},\n\t\t\t\t{group = "junk", chance = 3600000},\n\t\t\t\t{group = "rifles", chance = 1200000},\n\t\t\t\t{group = "pistols", chance = 1200000},\n\t\t\t\t{group = "melee_weapons", chance = 1200000},\n\t\t\t\t{group = "carbines", chance = 1200000},\n\t\t\t\t{group = "clothing_attachments", chance = 250000},\n\t\t\t\t{group = "armor_attachments", chance = 250000},\n\t\t\t\t{group = "wearables_common", chance = 1000000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "color_crystals", chance = 100000},\n\t\t\t\t{group = "junk", chance = 3600000},\n\t\t\t\t{group = "rifles", chance = 1200000},\n\t\t\t\t{group = "pistols", chance = 1200000},\n\t\t\t\t{group = "melee_weapons", chance = 1200000},\n\t\t\t\t{group = "carbines", chance = 1200000},\n\t\t\t\t{group = "clothing_attachments", chance = 250000},\n\t\t\t\t{group = "armor_attachments", chance = 250000},\n\t\t\t\t{group = "wearables_common", chance = 1000000}\n\t\t\t}', '{group = "wearables_common", chance = 1000000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "color_crystals", chance = 100000},\n\t\t\t\t{group = "junk", chance = 4250000},\n\t\t\t\t{group = "rifles", chance = 1000000},\n\t\t\t\t{group = "pistols", chance = 1000000},\n\t\t\t\t{group = "melee_weapons", chance = 1000000},\n\t\t\t\t{group = "carbines", chance = 1000000},\n\t\t\t\t{group = "clothing_attachments", chance = 100000},\n\t\t\t\t{group = "armor_attachments", chance = 100000},\n\t\t\t\t{group = "rebel_officer_common", chance = 450000},\n\t\t\t\t{group = "wearables_common", chance = 1000000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "color_crystals", chance = 100000},\n\t\t\t\t{group = "junk", chance = 4250000},\n\t\t\t\t{group = "rifles", chance = 1000000},\n\t\t\t\t{group = "pistols", chance = 1000000},\n\t\t\t\t{group = "melee_weapons", chance = 1000000},\n\t\t\t\t{group = "carbines", chance = 1000000},\n\t\t\t\t{group = "clothing_attachments", chance = 100000},\n\t\t\t\t{group = "armor_attachments", chance = 100000},\n\t\t\t\t{group = "rebel_officer_common", chance = 450000},\n\t\t\t\t{group = "wearables_common", chance = 1000000}\n\t\t\t}', '{group = "wearables_common", chance = 1000000}')]</t>
         </is>
       </c>
     </row>
@@ -6390,7 +6390,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\faction\rebel\rebel_high_general.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\faction\rebel\rebel_commando.lua</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -6400,7 +6400,7 @@
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "color_crystals", chance = 100000},\n\t\t\t\t{group = "junk", chance = 4250000},\n\t\t\t\t{group = "rifles", chance = 1000000},\n\t\t\t\t{group = "pistols", chance = 1000000},\n\t\t\t\t{group = "melee_weapons", chance = 1000000},\n\t\t\t\t{group = "carbines", chance = 1000000},\n\t\t\t\t{group = "clothing_attachments", chance = 100000},\n\t\t\t\t{group = "armor_attachments", chance = 100000},\n\t\t\t\t{group = "rebel_officer_common", chance = 450000},\n\t\t\t\t{group = "wearables_common", chance = 1000000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "color_crystals", chance = 100000},\n\t\t\t\t{group = "junk", chance = 4250000},\n\t\t\t\t{group = "rifles", chance = 1000000},\n\t\t\t\t{group = "pistols", chance = 1000000},\n\t\t\t\t{group = "melee_weapons", chance = 1000000},\n\t\t\t\t{group = "carbines", chance = 1000000},\n\t\t\t\t{group = "clothing_attachments", chance = 100000},\n\t\t\t\t{group = "armor_attachments", chance = 100000},\n\t\t\t\t{group = "rebel_officer_common", chance = 450000},\n\t\t\t\t{group = "wearables_common", chance = 1000000}\n\t\t\t}', '{group = "wearables_common", chance = 1000000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "color_crystals", chance = 100000},\n\t\t\t\t{group = "junk", chance = 3600000},\n\t\t\t\t{group = "rifles", chance = 1200000},\n\t\t\t\t{group = "pistols", chance = 1200000},\n\t\t\t\t{group = "melee_weapons", chance = 1200000},\n\t\t\t\t{group = "carbines", chance = 1200000},\n\t\t\t\t{group = "clothing_attachments", chance = 250000},\n\t\t\t\t{group = "armor_attachments", chance = 250000},\n\t\t\t\t{group = "wearables_common", chance = 1000000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "color_crystals", chance = 100000},\n\t\t\t\t{group = "junk", chance = 3600000},\n\t\t\t\t{group = "rifles", chance = 1200000},\n\t\t\t\t{group = "pistols", chance = 1200000},\n\t\t\t\t{group = "melee_weapons", chance = 1200000},\n\t\t\t\t{group = "carbines", chance = 1200000},\n\t\t\t\t{group = "clothing_attachments", chance = 250000},\n\t\t\t\t{group = "armor_attachments", chance = 250000},\n\t\t\t\t{group = "wearables_common", chance = 1000000}\n\t\t\t}', '{group = "wearables_common", chance = 1000000}')]</t>
         </is>
       </c>
     </row>
@@ -6410,17 +6410,17 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\lok\aged_kimogila.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\faction\rebel\rebel_high_general.lua</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>[('{\n\t        groups = {\n\t\t\t\t{group = "kimogila_common", chance = 10000000}\n\t\t\t},\n\t\t\tlootChance = 3460000\n\t\t}', '{\n\t\t\t\t{group = "kimogila_common", chance = 10000000}\n\t\t\t}', '{group = "kimogila_common", chance = 10000000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "art_certainpov2", chance = 100 * (100000)},\n\t\t\t},\n\t\t\tlootChance = 5 * (100000)\n\t\t}', '{\n\t\t\t\t{group = "art_certainpov2", chance = 100 * (100000)},\n\t\t\t}', '{group = "art_certainpov2", chance = 100 * (100000)}')]</t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "kimogila_common", chance = 10000000}\n\t\t\t},\n\t\t\tlootChance = 3460000\n\t\t}', '{\n\t\t\t\t{group = "kimogila_common", chance = 10000000}\n\t\t\t}', '{group = "kimogila_common", chance = 10000000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "color_crystals", chance = 100000},\n\t\t\t\t{group = "junk", chance = 4250000},\n\t\t\t\t{group = "rifles", chance = 1000000},\n\t\t\t\t{group = "pistols", chance = 1000000},\n\t\t\t\t{group = "melee_weapons", chance = 1000000},\n\t\t\t\t{group = "carbines", chance = 1000000},\n\t\t\t\t{group = "clothing_attachments", chance = 100000},\n\t\t\t\t{group = "armor_attachments", chance = 100000},\n\t\t\t\t{group = "rebel_officer_common", chance = 450000},\n\t\t\t\t{group = "wearables_common", chance = 1000000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "color_crystals", chance = 100000},\n\t\t\t\t{group = "junk", chance = 4250000},\n\t\t\t\t{group = "rifles", chance = 1000000},\n\t\t\t\t{group = "pistols", chance = 1000000},\n\t\t\t\t{group = "melee_weapons", chance = 1000000},\n\t\t\t\t{group = "carbines", chance = 1000000},\n\t\t\t\t{group = "clothing_attachments", chance = 100000},\n\t\t\t\t{group = "armor_attachments", chance = 100000},\n\t\t\t\t{group = "rebel_officer_common", chance = 450000},\n\t\t\t\t{group = "wearables_common", chance = 1000000}\n\t\t\t}', '{group = "wearables_common", chance = 1000000}')]</t>
         </is>
       </c>
     </row>
@@ -6430,17 +6430,17 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\lok\blood_razor_berzerker.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\lok\aged_kimogila.lua</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = \n\t\t\t{\n\t\t\t\t{group = "eta1_cockpit_group", chance = 10000000},\n\t\t\t},\n\t\t\tlootChance = 7 * (100000), \n\t\t}', '{\n\t\t\t\t{group = "eta1_cockpit_group", chance = 10000000},\n\t\t\t}', '{group = "eta1_cockpit_group", chance = 10000000}')]</t>
+          <t>[('{\n\t        groups = {\n\t\t\t\t{group = "kimogila_common", chance = 10000000}\n\t\t\t},\n\t\t\tlootChance = 3460000\n\t\t}', '{\n\t\t\t\t{group = "kimogila_common", chance = 10000000}\n\t\t\t}', '{group = "kimogila_common", chance = 10000000}')]</t>
         </is>
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 3800000},\n\t\t\t\t{group = "tailor_components", chance = 1000000},\n\t\t\t\t{group = "color_crystals", chance = 400000},\n\t\t\t\t{group = "power_crystals", chance = 400000},\n\t\t\t\t{group = "melee_unarmed", chance = 600000},\n\t\t\t\t{group = "melee_polearm", chance = 600000},\n\t\t\t\t{group = "pistols", chance = 600000},\n\t\t\t\t{group = "clothing_attachments", chance = 300000},\n\t\t\t\t{group = "armor_attachments", chance = 300000},\n\t\t\t\t{group = "bloodrazor_common", chance = 2000000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 3800000},\n\t\t\t\t{group = "tailor_components", chance = 1000000},\n\t\t\t\t{group = "color_crystals", chance = 400000},\n\t\t\t\t{group = "power_crystals", chance = 400000},\n\t\t\t\t{group = "melee_unarmed", chance = 600000},\n\t\t\t\t{group = "melee_polearm", chance = 600000},\n\t\t\t\t{group = "pistols", chance = 600000},\n\t\t\t\t{group = "clothing_attachments", chance = 300000},\n\t\t\t\t{group = "armor_attachments", chance = 300000},\n\t\t\t\t{group = "bloodrazor_common", chance = 2000000}\n\t\t\t}', '{group = "bloodrazor_common", chance = 2000000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "kimogila_common", chance = 10000000}\n\t\t\t},\n\t\t\tlootChance = 3460000\n\t\t}', '{\n\t\t\t\t{group = "kimogila_common", chance = 10000000}\n\t\t\t}', '{group = "kimogila_common", chance = 10000000}')]</t>
         </is>
       </c>
     </row>
@@ -6450,17 +6450,17 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\lok\blood_razor_captain.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\lok\blood_razor_berzerker.lua</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = \n\t\t\t{\n\t\t\t\t{group = "eta1_cockpit_group", chance = 10000000},\n\t\t\t},\n\t\t\tlootChance = 6 * (100000), \n\t\t}', '{\n\t\t\t\t{group = "eta1_cockpit_group", chance = 10000000},\n\t\t\t}', '{group = "eta1_cockpit_group", chance = 10000000}')]</t>
+          <t>[('{\n\t\t\tgroups = \n\t\t\t{\n\t\t\t\t{group = "eta1_cockpit_group", chance = 10000000},\n\t\t\t},\n\t\t\tlootChance = 7 * (100000), \n\t\t}', '{\n\t\t\t\t{group = "eta1_cockpit_group", chance = 10000000},\n\t\t\t}', '{group = "eta1_cockpit_group", chance = 10000000}')]</t>
         </is>
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 3800000},\n\t\t\t\t{group = "tailor_components", chance = 1000000},\n\t\t\t\t{group = "color_crystals", chance = 400000},\n\t\t\t\t{group = "power_crystals", chance = 400000},\n\t\t\t\t{group = "melee_unarmed", chance = 600000},\n\t\t\t\t{group = "melee_polearm", chance = 600000},\n\t\t\t\t{group = "pistols", chance = 600000},\n\t\t\t\t{group = "clothing_attachments", chance = 300000},\n\t\t\t\t{group = "armor_attachments", chance = 300000},\n\t\t\t\t{group = "bloodrazor_common", chance = 1500000},\n\t\t\t\t{group = "wearables_all", chance = 500000},\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 3800000},\n\t\t\t\t{group = "tailor_components", chance = 1000000},\n\t\t\t\t{group = "color_crystals", chance = 400000},\n\t\t\t\t{group = "power_crystals", chance = 400000},\n\t\t\t\t{group = "melee_unarmed", chance = 600000},\n\t\t\t\t{group = "melee_polearm", chance = 600000},\n\t\t\t\t{group = "pistols", chance = 600000},\n\t\t\t\t{group = "clothing_attachments", chance = 300000},\n\t\t\t\t{group = "armor_attachments", chance = 300000},\n\t\t\t\t{group = "bloodrazor_common", chance = 1500000},\n\t\t\t\t{group = "wearables_all", chance = 500000},\n\t\t\t}', '{group = "wearables_all", chance = 500000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 3800000},\n\t\t\t\t{group = "tailor_components", chance = 1000000},\n\t\t\t\t{group = "color_crystals", chance = 400000},\n\t\t\t\t{group = "power_crystals", chance = 400000},\n\t\t\t\t{group = "melee_unarmed", chance = 600000},\n\t\t\t\t{group = "melee_polearm", chance = 600000},\n\t\t\t\t{group = "pistols", chance = 600000},\n\t\t\t\t{group = "clothing_attachments", chance = 300000},\n\t\t\t\t{group = "armor_attachments", chance = 300000},\n\t\t\t\t{group = "bloodrazor_common", chance = 2000000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 3800000},\n\t\t\t\t{group = "tailor_components", chance = 1000000},\n\t\t\t\t{group = "color_crystals", chance = 400000},\n\t\t\t\t{group = "power_crystals", chance = 400000},\n\t\t\t\t{group = "melee_unarmed", chance = 600000},\n\t\t\t\t{group = "melee_polearm", chance = 600000},\n\t\t\t\t{group = "pistols", chance = 600000},\n\t\t\t\t{group = "clothing_attachments", chance = 300000},\n\t\t\t\t{group = "armor_attachments", chance = 300000},\n\t\t\t\t{group = "bloodrazor_common", chance = 2000000}\n\t\t\t}', '{group = "bloodrazor_common", chance = 2000000}')]</t>
         </is>
       </c>
     </row>
@@ -6470,17 +6470,17 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\lok\blood_razor_destroyer.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\lok\blood_razor_captain.lua</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('{\n\t\t\tgroups = \n\t\t\t{\n\t\t\t\t{group = "eta1_cockpit_group", chance = 10000000},\n\t\t\t},\n\t\t\tlootChance = 6 * (100000), \n\t\t}', '{\n\t\t\t\t{group = "eta1_cockpit_group", chance = 10000000},\n\t\t\t}', '{group = "eta1_cockpit_group", chance = 10000000}')]</t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 3800000},\n\t\t\t\t{group = "tailor_components", chance = 1000000},\n\t\t\t\t{group = "color_crystals", chance = 400000},\n\t\t\t\t{group = "power_crystals", chance = 400000},\n\t\t\t\t{group = "melee_unarmed", chance = 600000},\n\t\t\t\t{group = "melee_polearm", chance = 600000},\n\t\t\t\t{group = "pistols", chance = 600000},\n\t\t\t\t{group = "clothing_attachments", chance = 300000},\n\t\t\t\t{group = "armor_attachments", chance = 300000},\n\t\t\t\t{group = "bloodrazor_common", chance = 2000000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 3800000},\n\t\t\t\t{group = "tailor_components", chance = 1000000},\n\t\t\t\t{group = "color_crystals", chance = 400000},\n\t\t\t\t{group = "power_crystals", chance = 400000},\n\t\t\t\t{group = "melee_unarmed", chance = 600000},\n\t\t\t\t{group = "melee_polearm", chance = 600000},\n\t\t\t\t{group = "pistols", chance = 600000},\n\t\t\t\t{group = "clothing_attachments", chance = 300000},\n\t\t\t\t{group = "armor_attachments", chance = 300000},\n\t\t\t\t{group = "bloodrazor_common", chance = 2000000}\n\t\t\t}', '{group = "bloodrazor_common", chance = 2000000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 3800000},\n\t\t\t\t{group = "tailor_components", chance = 1000000},\n\t\t\t\t{group = "color_crystals", chance = 400000},\n\t\t\t\t{group = "power_crystals", chance = 400000},\n\t\t\t\t{group = "melee_unarmed", chance = 600000},\n\t\t\t\t{group = "melee_polearm", chance = 600000},\n\t\t\t\t{group = "pistols", chance = 600000},\n\t\t\t\t{group = "clothing_attachments", chance = 300000},\n\t\t\t\t{group = "armor_attachments", chance = 300000},\n\t\t\t\t{group = "bloodrazor_common", chance = 1500000},\n\t\t\t\t{group = "wearables_all", chance = 500000},\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 3800000},\n\t\t\t\t{group = "tailor_components", chance = 1000000},\n\t\t\t\t{group = "color_crystals", chance = 400000},\n\t\t\t\t{group = "power_crystals", chance = 400000},\n\t\t\t\t{group = "melee_unarmed", chance = 600000},\n\t\t\t\t{group = "melee_polearm", chance = 600000},\n\t\t\t\t{group = "pistols", chance = 600000},\n\t\t\t\t{group = "clothing_attachments", chance = 300000},\n\t\t\t\t{group = "armor_attachments", chance = 300000},\n\t\t\t\t{group = "bloodrazor_common", chance = 1500000},\n\t\t\t\t{group = "wearables_all", chance = 500000},\n\t\t\t}', '{group = "wearables_all", chance = 500000}')]</t>
         </is>
       </c>
     </row>
@@ -6490,12 +6490,12 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\lok\blood_razor_elite_pirate.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\lok\blood_razor_destroyer.lua</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = \n\t\t\t{\n\t\t\t\t{group = "eta1_cockpit_group", chance = 10000000},\n\t\t\t},\n\t\t\tlootChance = 8 * (100000), \n\t\t}', '{\n\t\t\t\t{group = "eta1_cockpit_group", chance = 10000000},\n\t\t\t}', '{group = "eta1_cockpit_group", chance = 10000000}')]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D304" t="inlineStr">
@@ -6510,12 +6510,12 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\lok\blood_razor_guard.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\lok\blood_razor_elite_pirate.lua</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = \n\t\t\t{\n\t\t\t\t{group = "eta1_cockpit_group", chance = 10000000},\n\t\t\t},\n\t\t\tlootChance = 6 * (100000), \n\t\t}', '{\n\t\t\t\t{group = "eta1_cockpit_group", chance = 10000000},\n\t\t\t}', '{group = "eta1_cockpit_group", chance = 10000000}')]</t>
+          <t>[('{\n\t\t\tgroups = \n\t\t\t{\n\t\t\t\t{group = "eta1_cockpit_group", chance = 10000000},\n\t\t\t},\n\t\t\tlootChance = 8 * (100000), \n\t\t}', '{\n\t\t\t\t{group = "eta1_cockpit_group", chance = 10000000},\n\t\t\t}', '{group = "eta1_cockpit_group", chance = 10000000}')]</t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
@@ -6530,17 +6530,17 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\lok\blood_razor_officer.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\lok\blood_razor_guard.lua</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = \n\t\t\t{\n\t\t\t\t{group = "eta1_cockpit_group", chance = 10000000},\n\t\t\t},\n\t\t\tlootChance = 7 * (100000), \n\t\t}', '{\n\t\t\t\t{group = "eta1_cockpit_group", chance = 10000000},\n\t\t\t}', '{group = "eta1_cockpit_group", chance = 10000000}')]</t>
+          <t>[('{\n\t\t\tgroups = \n\t\t\t{\n\t\t\t\t{group = "eta1_cockpit_group", chance = 10000000},\n\t\t\t},\n\t\t\tlootChance = 6 * (100000), \n\t\t}', '{\n\t\t\t\t{group = "eta1_cockpit_group", chance = 10000000},\n\t\t\t}', '{group = "eta1_cockpit_group", chance = 10000000}')]</t>
         </is>
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 3800000},\n\t\t\t\t{group = "tailor_components", chance = 1000000},\n\t\t\t\t{group = "color_crystals", chance = 400000},\n\t\t\t\t{group = "power_crystals", chance = 400000},\n\t\t\t\t{group = "melee_unarmed", chance = 600000},\n\t\t\t\t{group = "melee_polearm", chance = 600000},\n\t\t\t\t{group = "pistols", chance = 600000},\n\t\t\t\t{group = "clothing_attachments", chance = 300000},\n\t\t\t\t{group = "armor_attachments", chance = 300000},\n\t\t\t\t{group = "bloodrazor_common", chance = 1500000},\n\t\t\t\t{group = "wearables_uncommon", chance = 500000},\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 3800000},\n\t\t\t\t{group = "tailor_components", chance = 1000000},\n\t\t\t\t{group = "color_crystals", chance = 400000},\n\t\t\t\t{group = "power_crystals", chance = 400000},\n\t\t\t\t{group = "melee_unarmed", chance = 600000},\n\t\t\t\t{group = "melee_polearm", chance = 600000},\n\t\t\t\t{group = "pistols", chance = 600000},\n\t\t\t\t{group = "clothing_attachments", chance = 300000},\n\t\t\t\t{group = "armor_attachments", chance = 300000},\n\t\t\t\t{group = "bloodrazor_common", chance = 1500000},\n\t\t\t\t{group = "wearables_uncommon", chance = 500000},\n\t\t\t}', '{group = "wearables_uncommon", chance = 500000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 3800000},\n\t\t\t\t{group = "tailor_components", chance = 1000000},\n\t\t\t\t{group = "color_crystals", chance = 400000},\n\t\t\t\t{group = "power_crystals", chance = 400000},\n\t\t\t\t{group = "melee_unarmed", chance = 600000},\n\t\t\t\t{group = "melee_polearm", chance = 600000},\n\t\t\t\t{group = "pistols", chance = 600000},\n\t\t\t\t{group = "clothing_attachments", chance = 300000},\n\t\t\t\t{group = "armor_attachments", chance = 300000},\n\t\t\t\t{group = "bloodrazor_common", chance = 2000000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 3800000},\n\t\t\t\t{group = "tailor_components", chance = 1000000},\n\t\t\t\t{group = "color_crystals", chance = 400000},\n\t\t\t\t{group = "power_crystals", chance = 400000},\n\t\t\t\t{group = "melee_unarmed", chance = 600000},\n\t\t\t\t{group = "melee_polearm", chance = 600000},\n\t\t\t\t{group = "pistols", chance = 600000},\n\t\t\t\t{group = "clothing_attachments", chance = 300000},\n\t\t\t\t{group = "armor_attachments", chance = 300000},\n\t\t\t\t{group = "bloodrazor_common", chance = 2000000}\n\t\t\t}', '{group = "bloodrazor_common", chance = 2000000}')]</t>
         </is>
       </c>
     </row>
@@ -6550,17 +6550,17 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\lok\blood_razor_strong_pirate.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\lok\blood_razor_officer.lua</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = \n\t\t\t{\n\t\t\t\t{group = "eta1_cockpit_group", chance = 10000000},\n\t\t\t},\n\t\t\tlootChance = 9 * (100000), \n\t\t}', '{\n\t\t\t\t{group = "eta1_cockpit_group", chance = 10000000},\n\t\t\t}', '{group = "eta1_cockpit_group", chance = 10000000}')]</t>
+          <t>[('{\n\t\t\tgroups = \n\t\t\t{\n\t\t\t\t{group = "eta1_cockpit_group", chance = 10000000},\n\t\t\t},\n\t\t\tlootChance = 7 * (100000), \n\t\t}', '{\n\t\t\t\t{group = "eta1_cockpit_group", chance = 10000000},\n\t\t\t}', '{group = "eta1_cockpit_group", chance = 10000000}')]</t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 3800000},\n\t\t\t\t{group = "tailor_components", chance = 1000000},\n\t\t\t\t{group = "color_crystals", chance = 400000},\n\t\t\t\t{group = "power_crystals", chance = 400000},\n\t\t\t\t{group = "melee_unarmed", chance = 600000},\n\t\t\t\t{group = "melee_polearm", chance = 600000},\n\t\t\t\t{group = "pistols", chance = 600000},\n\t\t\t\t{group = "clothing_attachments", chance = 300000},\n\t\t\t\t{group = "armor_attachments", chance = 300000},\n\t\t\t\t{group = "bloodrazor_common", chance = 2000000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 3800000},\n\t\t\t\t{group = "tailor_components", chance = 1000000},\n\t\t\t\t{group = "color_crystals", chance = 400000},\n\t\t\t\t{group = "power_crystals", chance = 400000},\n\t\t\t\t{group = "melee_unarmed", chance = 600000},\n\t\t\t\t{group = "melee_polearm", chance = 600000},\n\t\t\t\t{group = "pistols", chance = 600000},\n\t\t\t\t{group = "clothing_attachments", chance = 300000},\n\t\t\t\t{group = "armor_attachments", chance = 300000},\n\t\t\t\t{group = "bloodrazor_common", chance = 2000000}\n\t\t\t}', '{group = "bloodrazor_common", chance = 2000000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 3800000},\n\t\t\t\t{group = "tailor_components", chance = 1000000},\n\t\t\t\t{group = "color_crystals", chance = 400000},\n\t\t\t\t{group = "power_crystals", chance = 400000},\n\t\t\t\t{group = "melee_unarmed", chance = 600000},\n\t\t\t\t{group = "melee_polearm", chance = 600000},\n\t\t\t\t{group = "pistols", chance = 600000},\n\t\t\t\t{group = "clothing_attachments", chance = 300000},\n\t\t\t\t{group = "armor_attachments", chance = 300000},\n\t\t\t\t{group = "bloodrazor_common", chance = 1500000},\n\t\t\t\t{group = "wearables_uncommon", chance = 500000},\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 3800000},\n\t\t\t\t{group = "tailor_components", chance = 1000000},\n\t\t\t\t{group = "color_crystals", chance = 400000},\n\t\t\t\t{group = "power_crystals", chance = 400000},\n\t\t\t\t{group = "melee_unarmed", chance = 600000},\n\t\t\t\t{group = "melee_polearm", chance = 600000},\n\t\t\t\t{group = "pistols", chance = 600000},\n\t\t\t\t{group = "clothing_attachments", chance = 300000},\n\t\t\t\t{group = "armor_attachments", chance = 300000},\n\t\t\t\t{group = "bloodrazor_common", chance = 1500000},\n\t\t\t\t{group = "wearables_uncommon", chance = 500000},\n\t\t\t}', '{group = "wearables_uncommon", chance = 500000}')]</t>
         </is>
       </c>
     </row>
@@ -6570,17 +6570,17 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\lok\canyon_corsair_captain.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\lok\blood_razor_strong_pirate.lua</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = \n\t\t\t{\n\t\t\t\t{group = "eta1_cockpit_group", chance = 10000000},\n\t\t\t},\n\t\t\tlootChance = 12 * (100000), \n\t\t}', '{\n\t\t\t\t{group = "eta1_cockpit_group", chance = 10000000},\n\t\t\t}', '{group = "eta1_cockpit_group", chance = 10000000}')]</t>
+          <t>[('{\n\t\t\tgroups = \n\t\t\t{\n\t\t\t\t{group = "eta1_cockpit_group", chance = 10000000},\n\t\t\t},\n\t\t\tlootChance = 9 * (100000), \n\t\t}', '{\n\t\t\t\t{group = "eta1_cockpit_group", chance = 10000000},\n\t\t\t}', '{group = "eta1_cockpit_group", chance = 10000000}')]</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 3650000},\n\t\t\t\t{group = "tailor_components", chance = 1000000},\n\t\t\t\t{group = "color_crystals", chance = 400000},\n\t\t\t\t{group = "power_crystals", chance = 400000},\n\t\t\t\t{group = "melee_two_handed", chance = 600000},\n\t\t\t\t{group = "carbines", chance = 600000},\n\t\t\t\t{group = "pistols", chance = 600000},\n\t\t\t\t{group = "clothing_attachments", chance = 450000},\n\t\t\t\t{group = "armor_attachments", chance = 450000},\n\t\t\t\t{group = "canyon_corsair_common", chance = 1350000},\n\t\t\t\t{group = "wearables_uncommon", chance = 500000},\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 3650000},\n\t\t\t\t{group = "tailor_components", chance = 1000000},\n\t\t\t\t{group = "color_crystals", chance = 400000},\n\t\t\t\t{group = "power_crystals", chance = 400000},\n\t\t\t\t{group = "melee_two_handed", chance = 600000},\n\t\t\t\t{group = "carbines", chance = 600000},\n\t\t\t\t{group = "pistols", chance = 600000},\n\t\t\t\t{group = "clothing_attachments", chance = 450000},\n\t\t\t\t{group = "armor_attachments", chance = 450000},\n\t\t\t\t{group = "canyon_corsair_common", chance = 1350000},\n\t\t\t\t{group = "wearables_uncommon", chance = 500000},\n\t\t\t}', '{group = "wearables_uncommon", chance = 500000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 3800000},\n\t\t\t\t{group = "tailor_components", chance = 1000000},\n\t\t\t\t{group = "color_crystals", chance = 400000},\n\t\t\t\t{group = "power_crystals", chance = 400000},\n\t\t\t\t{group = "melee_unarmed", chance = 600000},\n\t\t\t\t{group = "melee_polearm", chance = 600000},\n\t\t\t\t{group = "pistols", chance = 600000},\n\t\t\t\t{group = "clothing_attachments", chance = 300000},\n\t\t\t\t{group = "armor_attachments", chance = 300000},\n\t\t\t\t{group = "bloodrazor_common", chance = 2000000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 3800000},\n\t\t\t\t{group = "tailor_components", chance = 1000000},\n\t\t\t\t{group = "color_crystals", chance = 400000},\n\t\t\t\t{group = "power_crystals", chance = 400000},\n\t\t\t\t{group = "melee_unarmed", chance = 600000},\n\t\t\t\t{group = "melee_polearm", chance = 600000},\n\t\t\t\t{group = "pistols", chance = 600000},\n\t\t\t\t{group = "clothing_attachments", chance = 300000},\n\t\t\t\t{group = "armor_attachments", chance = 300000},\n\t\t\t\t{group = "bloodrazor_common", chance = 2000000}\n\t\t\t}', '{group = "bloodrazor_common", chance = 2000000}')]</t>
         </is>
       </c>
     </row>
@@ -6590,17 +6590,17 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\lok\canyon_corsair_cutthroat.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\lok\canyon_corsair_captain.lua</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = \n\t\t\t{\n\t\t\t\t{group = "eta1_cockpit_group", chance = 10000000},\n\t\t\t},\n\t\t\tlootChance = 6 * (100000), \n\t\t}', '{\n\t\t\t\t{group = "eta1_cockpit_group", chance = 10000000},\n\t\t\t}', '{group = "eta1_cockpit_group", chance = 10000000}')]</t>
+          <t>[('{\n\t\t\tgroups = \n\t\t\t{\n\t\t\t\t{group = "eta1_cockpit_group", chance = 10000000},\n\t\t\t},\n\t\t\tlootChance = 12 * (100000), \n\t\t}', '{\n\t\t\t\t{group = "eta1_cockpit_group", chance = 10000000},\n\t\t\t}', '{group = "eta1_cockpit_group", chance = 10000000}')]</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 4000000},\n\t\t\t\t{group = "tailor_components", chance = 1000000},\n\t\t\t\t{group = "color_crystals", chance = 400000},\n\t\t\t\t{group = "power_crystals", chance = 400000},\n\t\t\t\t{group = "melee_two_handed", chance = 600000},\n\t\t\t\t{group = "carbines", chance = 600000},\n\t\t\t\t{group = "pistols", chance = 600000},\n\t\t\t\t{group = "clothing_attachments", chance = 450000},\n\t\t\t\t{group = "armor_attachments", chance = 450000},\n\t\t\t\t{group = "canyon_corsair_common", chance = 1500000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 4000000},\n\t\t\t\t{group = "tailor_components", chance = 1000000},\n\t\t\t\t{group = "color_crystals", chance = 400000},\n\t\t\t\t{group = "power_crystals", chance = 400000},\n\t\t\t\t{group = "melee_two_handed", chance = 600000},\n\t\t\t\t{group = "carbines", chance = 600000},\n\t\t\t\t{group = "pistols", chance = 600000},\n\t\t\t\t{group = "clothing_attachments", chance = 450000},\n\t\t\t\t{group = "armor_attachments", chance = 450000},\n\t\t\t\t{group = "canyon_corsair_common", chance = 1500000}\n\t\t\t}', '{group = "canyon_corsair_common", chance = 1500000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 3650000},\n\t\t\t\t{group = "tailor_components", chance = 1000000},\n\t\t\t\t{group = "color_crystals", chance = 400000},\n\t\t\t\t{group = "power_crystals", chance = 400000},\n\t\t\t\t{group = "melee_two_handed", chance = 600000},\n\t\t\t\t{group = "carbines", chance = 600000},\n\t\t\t\t{group = "pistols", chance = 600000},\n\t\t\t\t{group = "clothing_attachments", chance = 450000},\n\t\t\t\t{group = "armor_attachments", chance = 450000},\n\t\t\t\t{group = "canyon_corsair_common", chance = 1350000},\n\t\t\t\t{group = "wearables_uncommon", chance = 500000},\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 3650000},\n\t\t\t\t{group = "tailor_components", chance = 1000000},\n\t\t\t\t{group = "color_crystals", chance = 400000},\n\t\t\t\t{group = "power_crystals", chance = 400000},\n\t\t\t\t{group = "melee_two_handed", chance = 600000},\n\t\t\t\t{group = "carbines", chance = 600000},\n\t\t\t\t{group = "pistols", chance = 600000},\n\t\t\t\t{group = "clothing_attachments", chance = 450000},\n\t\t\t\t{group = "armor_attachments", chance = 450000},\n\t\t\t\t{group = "canyon_corsair_common", chance = 1350000},\n\t\t\t\t{group = "wearables_uncommon", chance = 500000},\n\t\t\t}', '{group = "wearables_uncommon", chance = 500000}')]</t>
         </is>
       </c>
     </row>
@@ -6610,12 +6610,12 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\lok\canyon_corsair_destroyer.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\lok\canyon_corsair_cutthroat.lua</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = \n\t\t\t{\n\t\t\t\t{group = "eta1_cockpit_group", chance = 10000000},\n\t\t\t},\n\t\t\tlootChance = 5 * (100000), \n\t\t}', '{\n\t\t\t\t{group = "eta1_cockpit_group", chance = 10000000},\n\t\t\t}', '{group = "eta1_cockpit_group", chance = 10000000}')]</t>
+          <t>[('{\n\t\t\tgroups = \n\t\t\t{\n\t\t\t\t{group = "eta1_cockpit_group", chance = 10000000},\n\t\t\t},\n\t\t\tlootChance = 6 * (100000), \n\t\t}', '{\n\t\t\t\t{group = "eta1_cockpit_group", chance = 10000000},\n\t\t\t}', '{group = "eta1_cockpit_group", chance = 10000000}')]</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
@@ -6630,17 +6630,17 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\lok\canyon_corsair_elite_pirate.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\lok\canyon_corsair_destroyer.lua</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = \n\t\t\t{\n\t\t\t\t{group = "eta1_cockpit_group", chance = 10000000},\n\t\t\t},\n\t\t\tlootChance = 7 * (100000), \n\t\t}', '{\n\t\t\t\t{group = "eta1_cockpit_group", chance = 10000000},\n\t\t\t}', '{group = "eta1_cockpit_group", chance = 10000000}')]</t>
+          <t>[('{\n\t\t\tgroups = \n\t\t\t{\n\t\t\t\t{group = "eta1_cockpit_group", chance = 10000000},\n\t\t\t},\n\t\t\tlootChance = 5 * (100000), \n\t\t}', '{\n\t\t\t\t{group = "eta1_cockpit_group", chance = 10000000},\n\t\t\t}', '{group = "eta1_cockpit_group", chance = 10000000}')]</t>
         </is>
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 3500000},\n\t\t\t\t{group = "tailor_components", chance = 1000000},\n\t\t\t\t{group = "color_crystals", chance = 400000},\n\t\t\t\t{group = "power_crystals", chance = 400000},\n\t\t\t\t{group = "melee_two_handed", chance = 600000},\n\t\t\t\t{group = "carbines", chance = 600000},\n\t\t\t\t{group = "pistols", chance = 600000},\n\t\t\t\t{group = "clothing_attachments", chance = 450000},\n\t\t\t\t{group = "armor_attachments", chance = 450000},\n\t\t\t\t{group = "canyon_corsair_common", chance = 1500000},\n\t\t\t\t{group = "wearables_uncommon", chance = 500000},\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 3500000},\n\t\t\t\t{group = "tailor_components", chance = 1000000},\n\t\t\t\t{group = "color_crystals", chance = 400000},\n\t\t\t\t{group = "power_crystals", chance = 400000},\n\t\t\t\t{group = "melee_two_handed", chance = 600000},\n\t\t\t\t{group = "carbines", chance = 600000},\n\t\t\t\t{group = "pistols", chance = 600000},\n\t\t\t\t{group = "clothing_attachments", chance = 450000},\n\t\t\t\t{group = "armor_attachments", chance = 450000},\n\t\t\t\t{group = "canyon_corsair_common", chance = 1500000},\n\t\t\t\t{group = "wearables_uncommon", chance = 500000},\n\t\t\t}', '{group = "wearables_uncommon", chance = 500000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 4000000},\n\t\t\t\t{group = "tailor_components", chance = 1000000},\n\t\t\t\t{group = "color_crystals", chance = 400000},\n\t\t\t\t{group = "power_crystals", chance = 400000},\n\t\t\t\t{group = "melee_two_handed", chance = 600000},\n\t\t\t\t{group = "carbines", chance = 600000},\n\t\t\t\t{group = "pistols", chance = 600000},\n\t\t\t\t{group = "clothing_attachments", chance = 450000},\n\t\t\t\t{group = "armor_attachments", chance = 450000},\n\t\t\t\t{group = "canyon_corsair_common", chance = 1500000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 4000000},\n\t\t\t\t{group = "tailor_components", chance = 1000000},\n\t\t\t\t{group = "color_crystals", chance = 400000},\n\t\t\t\t{group = "power_crystals", chance = 400000},\n\t\t\t\t{group = "melee_two_handed", chance = 600000},\n\t\t\t\t{group = "carbines", chance = 600000},\n\t\t\t\t{group = "pistols", chance = 600000},\n\t\t\t\t{group = "clothing_attachments", chance = 450000},\n\t\t\t\t{group = "armor_attachments", chance = 450000},\n\t\t\t\t{group = "canyon_corsair_common", chance = 1500000}\n\t\t\t}', '{group = "canyon_corsair_common", chance = 1500000}')]</t>
         </is>
       </c>
     </row>
@@ -6650,17 +6650,17 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\lok\canyon_corsair_guard.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\lok\canyon_corsair_elite_pirate.lua</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = \n\t\t\t{\n\t\t\t\t{group = "eta1_cockpit_group", chance = 10000000},\n\t\t\t},\n\t\t\tlootChance = 3 * (100000), \n\t\t}', '{\n\t\t\t\t{group = "eta1_cockpit_group", chance = 10000000},\n\t\t\t}', '{group = "eta1_cockpit_group", chance = 10000000}')]</t>
+          <t>[('{\n\t\t\tgroups = \n\t\t\t{\n\t\t\t\t{group = "eta1_cockpit_group", chance = 10000000},\n\t\t\t},\n\t\t\tlootChance = 7 * (100000), \n\t\t}', '{\n\t\t\t\t{group = "eta1_cockpit_group", chance = 10000000},\n\t\t\t}', '{group = "eta1_cockpit_group", chance = 10000000}')]</t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 4100000},\n\t\t\t\t{group = "tailor_components", chance = 1000000},\n\t\t\t\t{group = "color_crystals", chance = 400000},\n\t\t\t\t{group = "power_crystals", chance = 400000},\n\t\t\t\t{group = "melee_two_handed", chance = 600000},\n\t\t\t\t{group = "carbines", chance = 600000},\n\t\t\t\t{group = "pistols", chance = 600000},\n\t\t\t\t{group = "clothing_attachments", chance = 400000},\n\t\t\t\t{group = "armor_attachments", chance = 400000},\n\t\t\t\t{group = "canyon_corsair_common", chance = 1500000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 4100000},\n\t\t\t\t{group = "tailor_components", chance = 1000000},\n\t\t\t\t{group = "color_crystals", chance = 400000},\n\t\t\t\t{group = "power_crystals", chance = 400000},\n\t\t\t\t{group = "melee_two_handed", chance = 600000},\n\t\t\t\t{group = "carbines", chance = 600000},\n\t\t\t\t{group = "pistols", chance = 600000},\n\t\t\t\t{group = "clothing_attachments", chance = 400000},\n\t\t\t\t{group = "armor_attachments", chance = 400000},\n\t\t\t\t{group = "canyon_corsair_common", chance = 1500000}\n\t\t\t}', '{group = "canyon_corsair_common", chance = 1500000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 3500000},\n\t\t\t\t{group = "tailor_components", chance = 1000000},\n\t\t\t\t{group = "color_crystals", chance = 400000},\n\t\t\t\t{group = "power_crystals", chance = 400000},\n\t\t\t\t{group = "melee_two_handed", chance = 600000},\n\t\t\t\t{group = "carbines", chance = 600000},\n\t\t\t\t{group = "pistols", chance = 600000},\n\t\t\t\t{group = "clothing_attachments", chance = 450000},\n\t\t\t\t{group = "armor_attachments", chance = 450000},\n\t\t\t\t{group = "canyon_corsair_common", chance = 1500000},\n\t\t\t\t{group = "wearables_uncommon", chance = 500000},\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 3500000},\n\t\t\t\t{group = "tailor_components", chance = 1000000},\n\t\t\t\t{group = "color_crystals", chance = 400000},\n\t\t\t\t{group = "power_crystals", chance = 400000},\n\t\t\t\t{group = "melee_two_handed", chance = 600000},\n\t\t\t\t{group = "carbines", chance = 600000},\n\t\t\t\t{group = "pistols", chance = 600000},\n\t\t\t\t{group = "clothing_attachments", chance = 450000},\n\t\t\t\t{group = "armor_attachments", chance = 450000},\n\t\t\t\t{group = "canyon_corsair_common", chance = 1500000},\n\t\t\t\t{group = "wearables_uncommon", chance = 500000},\n\t\t\t}', '{group = "wearables_uncommon", chance = 500000}')]</t>
         </is>
       </c>
     </row>
@@ -6670,17 +6670,17 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\lok\canyon_corsair_scout.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\lok\canyon_corsair_guard.lua</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = \n\t\t\t{\n\t\t\t\t{group = "eta1_cockpit_group", chance = 10000000},\n\t\t\t},\n\t\t\tlootChance = 2 * (100000), \n\t\t}', '{\n\t\t\t\t{group = "eta1_cockpit_group", chance = 10000000},\n\t\t\t}', '{group = "eta1_cockpit_group", chance = 10000000}')]</t>
+          <t>[('{\n\t\t\tgroups = \n\t\t\t{\n\t\t\t\t{group = "eta1_cockpit_group", chance = 10000000},\n\t\t\t},\n\t\t\tlootChance = 3 * (100000), \n\t\t}', '{\n\t\t\t\t{group = "eta1_cockpit_group", chance = 10000000},\n\t\t\t}', '{group = "eta1_cockpit_group", chance = 10000000}')]</t>
         </is>
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 3980000},\n\t\t\t\t{group = "tailor_components", chance = 1000000},\n\t\t\t\t{group = "color_crystals", chance = 400000},\n\t\t\t\t{group = "power_crystals", chance = 400000},\n\t\t\t\t{group = "melee_two_handed", chance = 600000},\n\t\t\t\t{group = "carbines", chance = 600000},\n\t\t\t\t{group = "pistols", chance = 600000},\n\t\t\t\t{group = "clothing_attachments", chance = 350000},\n\t\t\t\t{group = "armor_attachments", chance = 350000},\n\t\t\t\t{group = "canyon_corsair_common", chance = 1720000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 3980000},\n\t\t\t\t{group = "tailor_components", chance = 1000000},\n\t\t\t\t{group = "color_crystals", chance = 400000},\n\t\t\t\t{group = "power_crystals", chance = 400000},\n\t\t\t\t{group = "melee_two_handed", chance = 600000},\n\t\t\t\t{group = "carbines", chance = 600000},\n\t\t\t\t{group = "pistols", chance = 600000},\n\t\t\t\t{group = "clothing_attachments", chance = 350000},\n\t\t\t\t{group = "armor_attachments", chance = 350000},\n\t\t\t\t{group = "canyon_corsair_common", chance = 1720000}\n\t\t\t}', '{group = "canyon_corsair_common", chance = 1720000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 4100000},\n\t\t\t\t{group = "tailor_components", chance = 1000000},\n\t\t\t\t{group = "color_crystals", chance = 400000},\n\t\t\t\t{group = "power_crystals", chance = 400000},\n\t\t\t\t{group = "melee_two_handed", chance = 600000},\n\t\t\t\t{group = "carbines", chance = 600000},\n\t\t\t\t{group = "pistols", chance = 600000},\n\t\t\t\t{group = "clothing_attachments", chance = 400000},\n\t\t\t\t{group = "armor_attachments", chance = 400000},\n\t\t\t\t{group = "canyon_corsair_common", chance = 1500000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 4100000},\n\t\t\t\t{group = "tailor_components", chance = 1000000},\n\t\t\t\t{group = "color_crystals", chance = 400000},\n\t\t\t\t{group = "power_crystals", chance = 400000},\n\t\t\t\t{group = "melee_two_handed", chance = 600000},\n\t\t\t\t{group = "carbines", chance = 600000},\n\t\t\t\t{group = "pistols", chance = 600000},\n\t\t\t\t{group = "clothing_attachments", chance = 400000},\n\t\t\t\t{group = "armor_attachments", chance = 400000},\n\t\t\t\t{group = "canyon_corsair_common", chance = 1500000}\n\t\t\t}', '{group = "canyon_corsair_common", chance = 1500000}')]</t>
         </is>
       </c>
     </row>
@@ -6690,17 +6690,17 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\lok\canyon_corsair_strong_pirate.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\lok\canyon_corsair_scout.lua</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = \n\t\t\t{\n\t\t\t\t{group = "eta1_cockpit_group", chance = 10000000},\n\t\t\t},\n\t\t\tlootChance = 7 * (100000), \n\t\t}', '{\n\t\t\t\t{group = "eta1_cockpit_group", chance = 10000000},\n\t\t\t}', '{group = "eta1_cockpit_group", chance = 10000000}')]</t>
+          <t>[('{\n\t\t\tgroups = \n\t\t\t{\n\t\t\t\t{group = "eta1_cockpit_group", chance = 10000000},\n\t\t\t},\n\t\t\tlootChance = 2 * (100000), \n\t\t}', '{\n\t\t\t\t{group = "eta1_cockpit_group", chance = 10000000},\n\t\t\t}', '{group = "eta1_cockpit_group", chance = 10000000}')]</t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 4100000},\n\t\t\t\t{group = "tailor_components", chance = 1000000},\n\t\t\t\t{group = "color_crystals", chance = 400000},\n\t\t\t\t{group = "power_crystals", chance = 400000},\n\t\t\t\t{group = "melee_two_handed", chance = 600000},\n\t\t\t\t{group = "carbines", chance = 600000},\n\t\t\t\t{group = "pistols", chance = 600000},\n\t\t\t\t{group = "clothing_attachments", chance = 400000},\n\t\t\t\t{group = "armor_attachments", chance = 400000},\n\t\t\t\t{group = "canyon_corsair_common", chance = 1500000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 4100000},\n\t\t\t\t{group = "tailor_components", chance = 1000000},\n\t\t\t\t{group = "color_crystals", chance = 400000},\n\t\t\t\t{group = "power_crystals", chance = 400000},\n\t\t\t\t{group = "melee_two_handed", chance = 600000},\n\t\t\t\t{group = "carbines", chance = 600000},\n\t\t\t\t{group = "pistols", chance = 600000},\n\t\t\t\t{group = "clothing_attachments", chance = 400000},\n\t\t\t\t{group = "armor_attachments", chance = 400000},\n\t\t\t\t{group = "canyon_corsair_common", chance = 1500000}\n\t\t\t}', '{group = "canyon_corsair_common", chance = 1500000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 3980000},\n\t\t\t\t{group = "tailor_components", chance = 1000000},\n\t\t\t\t{group = "color_crystals", chance = 400000},\n\t\t\t\t{group = "power_crystals", chance = 400000},\n\t\t\t\t{group = "melee_two_handed", chance = 600000},\n\t\t\t\t{group = "carbines", chance = 600000},\n\t\t\t\t{group = "pistols", chance = 600000},\n\t\t\t\t{group = "clothing_attachments", chance = 350000},\n\t\t\t\t{group = "armor_attachments", chance = 350000},\n\t\t\t\t{group = "canyon_corsair_common", chance = 1720000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 3980000},\n\t\t\t\t{group = "tailor_components", chance = 1000000},\n\t\t\t\t{group = "color_crystals", chance = 400000},\n\t\t\t\t{group = "power_crystals", chance = 400000},\n\t\t\t\t{group = "melee_two_handed", chance = 600000},\n\t\t\t\t{group = "carbines", chance = 600000},\n\t\t\t\t{group = "pistols", chance = 600000},\n\t\t\t\t{group = "clothing_attachments", chance = 350000},\n\t\t\t\t{group = "armor_attachments", chance = 350000},\n\t\t\t\t{group = "canyon_corsair_common", chance = 1720000}\n\t\t\t}', '{group = "canyon_corsair_common", chance = 1720000}')]</t>
         </is>
       </c>
     </row>
@@ -6710,17 +6710,17 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\lok\canyon_corsair_weak_pirate.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\lok\canyon_corsair_strong_pirate.lua</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = \n\t\t\t{\n\t\t\t\t{group = "eta1_cockpit_group", chance = 10000000},\n\t\t\t},\n\t\t\tlootChance = 5 * (100000), \n\t\t}', '{\n\t\t\t\t{group = "eta1_cockpit_group", chance = 10000000},\n\t\t\t}', '{group = "eta1_cockpit_group", chance = 10000000}')]</t>
+          <t>[('{\n\t\t\tgroups = \n\t\t\t{\n\t\t\t\t{group = "eta1_cockpit_group", chance = 10000000},\n\t\t\t},\n\t\t\tlootChance = 7 * (100000), \n\t\t}', '{\n\t\t\t\t{group = "eta1_cockpit_group", chance = 10000000},\n\t\t\t}', '{group = "eta1_cockpit_group", chance = 10000000}')]</t>
         </is>
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 3980000},\n\t\t\t\t{group = "tailor_components", chance = 1000000},\n\t\t\t\t{group = "color_crystals", chance = 400000},\n\t\t\t\t{group = "power_crystals", chance = 400000},\n\t\t\t\t{group = "melee_two_handed", chance = 600000},\n\t\t\t\t{group = "carbines", chance = 600000},\n\t\t\t\t{group = "pistols", chance = 600000},\n\t\t\t\t{group = "clothing_attachments", chance = 350000},\n\t\t\t\t{group = "armor_attachments", chance = 350000},\n\t\t\t\t{group = "canyon_corsair_common", chance = 1720000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 3980000},\n\t\t\t\t{group = "tailor_components", chance = 1000000},\n\t\t\t\t{group = "color_crystals", chance = 400000},\n\t\t\t\t{group = "power_crystals", chance = 400000},\n\t\t\t\t{group = "melee_two_handed", chance = 600000},\n\t\t\t\t{group = "carbines", chance = 600000},\n\t\t\t\t{group = "pistols", chance = 600000},\n\t\t\t\t{group = "clothing_attachments", chance = 350000},\n\t\t\t\t{group = "armor_attachments", chance = 350000},\n\t\t\t\t{group = "canyon_corsair_common", chance = 1720000}\n\t\t\t}', '{group = "canyon_corsair_common", chance = 1720000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 4100000},\n\t\t\t\t{group = "tailor_components", chance = 1000000},\n\t\t\t\t{group = "color_crystals", chance = 400000},\n\t\t\t\t{group = "power_crystals", chance = 400000},\n\t\t\t\t{group = "melee_two_handed", chance = 600000},\n\t\t\t\t{group = "carbines", chance = 600000},\n\t\t\t\t{group = "pistols", chance = 600000},\n\t\t\t\t{group = "clothing_attachments", chance = 400000},\n\t\t\t\t{group = "armor_attachments", chance = 400000},\n\t\t\t\t{group = "canyon_corsair_common", chance = 1500000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 4100000},\n\t\t\t\t{group = "tailor_components", chance = 1000000},\n\t\t\t\t{group = "color_crystals", chance = 400000},\n\t\t\t\t{group = "power_crystals", chance = 400000},\n\t\t\t\t{group = "melee_two_handed", chance = 600000},\n\t\t\t\t{group = "carbines", chance = 600000},\n\t\t\t\t{group = "pistols", chance = 600000},\n\t\t\t\t{group = "clothing_attachments", chance = 400000},\n\t\t\t\t{group = "armor_attachments", chance = 400000},\n\t\t\t\t{group = "canyon_corsair_common", chance = 1500000}\n\t\t\t}', '{group = "canyon_corsair_common", chance = 1500000}')]</t>
         </is>
       </c>
     </row>
@@ -6730,17 +6730,17 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\lok\cas_vankoo.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\lok\canyon_corsair_weak_pirate.lua</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "art_alderaan1", chance = 10000000}\n\t\t\t},\n\t\t\tlootChance = 500000\n\t\t}', '{\n\t\t\t\t{group = "art_alderaan1", chance = 10000000}\n\t\t\t}', '{group = "art_alderaan1", chance = 10000000}')]</t>
+          <t>[('{\n\t\t\tgroups = \n\t\t\t{\n\t\t\t\t{group = "eta1_cockpit_group", chance = 10000000},\n\t\t\t},\n\t\t\tlootChance = 5 * (100000), \n\t\t}', '{\n\t\t\t\t{group = "eta1_cockpit_group", chance = 10000000},\n\t\t\t}', '{group = "eta1_cockpit_group", chance = 10000000}')]</t>
         </is>
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 5200000},\n\t\t\t\t{group = "color_crystals", chance = 600000},\n\t\t\t\t{group = "power_crystals", chance = 400000},\n\t\t\t\t{group = "melee_polearm", chance = 600000},\n\t\t\t\t{group = "pistols", chance = 600000},\n\t\t\t\t{group = "clothing_attachments", chance = 800000},\n\t\t\t\t{group = "armor_attachments", chance = 800000},\n\t\t\t\t{group = "wearables_all", chance = 1000000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 5200000},\n\t\t\t\t{group = "color_crystals", chance = 600000},\n\t\t\t\t{group = "power_crystals", chance = 400000},\n\t\t\t\t{group = "melee_polearm", chance = 600000},\n\t\t\t\t{group = "pistols", chance = 600000},\n\t\t\t\t{group = "clothing_attachments", chance = 800000},\n\t\t\t\t{group = "armor_attachments", chance = 800000},\n\t\t\t\t{group = "wearables_all", chance = 1000000}\n\t\t\t}', '{group = "wearables_all", chance = 1000000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 3980000},\n\t\t\t\t{group = "tailor_components", chance = 1000000},\n\t\t\t\t{group = "color_crystals", chance = 400000},\n\t\t\t\t{group = "power_crystals", chance = 400000},\n\t\t\t\t{group = "melee_two_handed", chance = 600000},\n\t\t\t\t{group = "carbines", chance = 600000},\n\t\t\t\t{group = "pistols", chance = 600000},\n\t\t\t\t{group = "clothing_attachments", chance = 350000},\n\t\t\t\t{group = "armor_attachments", chance = 350000},\n\t\t\t\t{group = "canyon_corsair_common", chance = 1720000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 3980000},\n\t\t\t\t{group = "tailor_components", chance = 1000000},\n\t\t\t\t{group = "color_crystals", chance = 400000},\n\t\t\t\t{group = "power_crystals", chance = 400000},\n\t\t\t\t{group = "melee_two_handed", chance = 600000},\n\t\t\t\t{group = "carbines", chance = 600000},\n\t\t\t\t{group = "pistols", chance = 600000},\n\t\t\t\t{group = "clothing_attachments", chance = 350000},\n\t\t\t\t{group = "armor_attachments", chance = 350000},\n\t\t\t\t{group = "canyon_corsair_common", chance = 1720000}\n\t\t\t}', '{group = "canyon_corsair_common", chance = 1720000}')]</t>
         </is>
       </c>
     </row>
@@ -6750,17 +6750,17 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\lok\droideka.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\lok\cas_vankoo.lua</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = \n\t\t\t{\n\t\t\t\t{group = "eta1_autopilot_group", chance = 10000000},\n\t\t\t},\n\t\t\tlootChance = 2 * (100000), -- 2% chance for this group\n\t\t}', '{\n\t\t\t\t{group = "eta1_autopilot_group", chance = 10000000},\n\t\t\t}', '{group = "eta1_autopilot_group", chance = 10000000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "art_alderaan1", chance = 10000000}\n\t\t\t},\n\t\t\tlootChance = 500000\n\t\t}', '{\n\t\t\t\t{group = "art_alderaan1", chance = 10000000}\n\t\t\t}', '{group = "art_alderaan1", chance = 10000000}')]</t>
         </is>
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 6500000},\n\t\t\t\t{group = "nyms_common", chance = 1000000},\n\t\t\t\t{group = "pistols", chance = 1000000},\n\t\t\t\t{group = "carbines", chance = 1000000},\n\t\t\t\t{group = "tailor_components", chance = 500000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 6500000},\n\t\t\t\t{group = "nyms_common", chance = 1000000},\n\t\t\t\t{group = "pistols", chance = 1000000},\n\t\t\t\t{group = "carbines", chance = 1000000},\n\t\t\t\t{group = "tailor_components", chance = 500000}\n\t\t\t}', '{group = "tailor_components", chance = 500000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 5200000},\n\t\t\t\t{group = "color_crystals", chance = 600000},\n\t\t\t\t{group = "power_crystals", chance = 400000},\n\t\t\t\t{group = "melee_polearm", chance = 600000},\n\t\t\t\t{group = "pistols", chance = 600000},\n\t\t\t\t{group = "clothing_attachments", chance = 800000},\n\t\t\t\t{group = "armor_attachments", chance = 800000},\n\t\t\t\t{group = "wearables_all", chance = 1000000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 5200000},\n\t\t\t\t{group = "color_crystals", chance = 600000},\n\t\t\t\t{group = "power_crystals", chance = 400000},\n\t\t\t\t{group = "melee_polearm", chance = 600000},\n\t\t\t\t{group = "pistols", chance = 600000},\n\t\t\t\t{group = "clothing_attachments", chance = 800000},\n\t\t\t\t{group = "armor_attachments", chance = 800000},\n\t\t\t\t{group = "wearables_all", chance = 1000000}\n\t\t\t}', '{group = "wearables_all", chance = 1000000}')]</t>
         </is>
       </c>
     </row>
@@ -6770,7 +6770,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\lok\ig_assassin_droid.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\lok\droideka.lua</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -6790,12 +6790,12 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\lok\nym_bodyguard.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\lok\ig_assassin_droid.lua</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = \n\t\t\t{\n\t\t\t\t{group = "eta1_leather_group", chance = 100 * (100000)},\n\t\t\t},\n\t\t\tlootChance = 7 * (100000), -- 2% chance for this group\n\t\t}', '{\n\t\t\t\t{group = "eta1_leather_group", chance = 100 * (100000)},\n\t\t\t}', '{group = "eta1_leather_group", chance = 100 * (100000)}')]</t>
+          <t>[('{\n\t\t\tgroups = \n\t\t\t{\n\t\t\t\t{group = "eta1_autopilot_group", chance = 10000000},\n\t\t\t},\n\t\t\tlootChance = 2 * (100000), -- 2% chance for this group\n\t\t}', '{\n\t\t\t\t{group = "eta1_autopilot_group", chance = 10000000},\n\t\t\t}', '{group = "eta1_autopilot_group", chance = 10000000}')]</t>
         </is>
       </c>
       <c r="D319" t="inlineStr">
@@ -6810,7 +6810,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\lok\nym_brawler.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\lok\nym_bodyguard.lua</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -6830,7 +6830,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\lok\nym_destroyer.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\lok\nym_brawler.lua</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -6840,7 +6840,7 @@
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 4500000},\n\t\t\t\t{group = "wearables_uncommon", chance = 2000000},\n\t\t\t\t{group = "nyms_common", chance = 1000000},\n\t\t\t\t{group = "pistols", chance = 1000000},\n\t\t\t\t{group = "carbines", chance = 1000000},\n\t\t\t\t{group = "tailor_components", chance = 500000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 4500000},\n\t\t\t\t{group = "wearables_uncommon", chance = 2000000},\n\t\t\t\t{group = "nyms_common", chance = 1000000},\n\t\t\t\t{group = "pistols", chance = 1000000},\n\t\t\t\t{group = "carbines", chance = 1000000},\n\t\t\t\t{group = "tailor_components", chance = 500000}\n\t\t\t}', '{group = "tailor_components", chance = 500000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 6500000},\n\t\t\t\t{group = "nyms_common", chance = 1000000},\n\t\t\t\t{group = "pistols", chance = 1000000},\n\t\t\t\t{group = "carbines", chance = 1000000},\n\t\t\t\t{group = "tailor_components", chance = 500000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 6500000},\n\t\t\t\t{group = "nyms_common", chance = 1000000},\n\t\t\t\t{group = "pistols", chance = 1000000},\n\t\t\t\t{group = "carbines", chance = 1000000},\n\t\t\t\t{group = "tailor_components", chance = 500000}\n\t\t\t}', '{group = "tailor_components", chance = 500000}')]</t>
         </is>
       </c>
     </row>
@@ -6850,7 +6850,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\lok\nym_guard_elite.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\lok\nym_destroyer.lua</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -6860,7 +6860,7 @@
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 6500000},\n\t\t\t\t{group = "nyms_common", chance = 1000000},\n\t\t\t\t{group = "pistols", chance = 1000000},\n\t\t\t\t{group = "carbines", chance = 1000000},\n\t\t\t\t{group = "tailor_components", chance = 500000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 6500000},\n\t\t\t\t{group = "nyms_common", chance = 1000000},\n\t\t\t\t{group = "pistols", chance = 1000000},\n\t\t\t\t{group = "carbines", chance = 1000000},\n\t\t\t\t{group = "tailor_components", chance = 500000}\n\t\t\t}', '{group = "tailor_components", chance = 500000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 4500000},\n\t\t\t\t{group = "wearables_uncommon", chance = 2000000},\n\t\t\t\t{group = "nyms_common", chance = 1000000},\n\t\t\t\t{group = "pistols", chance = 1000000},\n\t\t\t\t{group = "carbines", chance = 1000000},\n\t\t\t\t{group = "tailor_components", chance = 500000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 4500000},\n\t\t\t\t{group = "wearables_uncommon", chance = 2000000},\n\t\t\t\t{group = "nyms_common", chance = 1000000},\n\t\t\t\t{group = "pistols", chance = 1000000},\n\t\t\t\t{group = "carbines", chance = 1000000},\n\t\t\t\t{group = "tailor_components", chance = 500000}\n\t\t\t}', '{group = "tailor_components", chance = 500000}')]</t>
         </is>
       </c>
     </row>
@@ -6870,12 +6870,12 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\lok\nym_guard_strong.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\lok\nym_guard_elite.lua</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "art_illum13", chance = 10000000}\n\t\t\t},\n\t\t\t\tlootChance = 1500000\n\t\t}', '{\n\t\t\t\t{group = "art_illum13", chance = 10000000}\n\t\t\t}', '{group = "art_illum13", chance = 10000000}')]</t>
+          <t>[('{\n\t\t\tgroups = \n\t\t\t{\n\t\t\t\t{group = "eta1_leather_group", chance = 100 * (100000)},\n\t\t\t},\n\t\t\tlootChance = 7 * (100000), -- 2% chance for this group\n\t\t}', '{\n\t\t\t\t{group = "eta1_leather_group", chance = 100 * (100000)},\n\t\t\t}', '{group = "eta1_leather_group", chance = 100 * (100000)}')]</t>
         </is>
       </c>
       <c r="D323" t="inlineStr">
@@ -6890,12 +6890,12 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\lok\nym_patrol_elite.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\lok\nym_guard_strong.lua</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = \n\t\t\t{\n\t\t\t\t{group = "eta1_leather_group", chance = 100 * (100000)},\n\t\t\t},\n\t\t\tlootChance = 7 * (100000), -- 2% chance for this group\n\t\t}', '{\n\t\t\t\t{group = "eta1_leather_group", chance = 100 * (100000)},\n\t\t\t}', '{group = "eta1_leather_group", chance = 100 * (100000)}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "art_illum13", chance = 10000000}\n\t\t\t},\n\t\t\t\tlootChance = 1500000\n\t\t}', '{\n\t\t\t\t{group = "art_illum13", chance = 10000000}\n\t\t\t}', '{group = "art_illum13", chance = 10000000}')]</t>
         </is>
       </c>
       <c r="D324" t="inlineStr">
@@ -6910,7 +6910,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\lok\nym_patrol_strong.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\lok\nym_patrol_elite.lua</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -6930,12 +6930,12 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\lok\nym_patrol_weak.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\lok\nym_patrol_strong.lua</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "combat_practice", chance = 100 * (100000)}\n\t\t\t},\n\t\t\tlootChance = 25 * (100000)\n\t\t}', '{\n\t\t\t\t{group = "combat_practice", chance = 100 * (100000)}\n\t\t\t}', '{group = "combat_practice", chance = 100 * (100000)}')]</t>
+          <t>[('{\n\t\t\tgroups = \n\t\t\t{\n\t\t\t\t{group = "eta1_leather_group", chance = 100 * (100000)},\n\t\t\t},\n\t\t\tlootChance = 7 * (100000), -- 2% chance for this group\n\t\t}', '{\n\t\t\t\t{group = "eta1_leather_group", chance = 100 * (100000)},\n\t\t\t}', '{group = "eta1_leather_group", chance = 100 * (100000)}')]</t>
         </is>
       </c>
       <c r="D326" t="inlineStr">
@@ -6950,17 +6950,17 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\lok\nym_pirate_elite.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\lok\nym_patrol_weak.lua</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = \n\t\t\t{\n\t\t\t\t{group = "eta1_leather_group", chance = 100 * (100000)},\n\t\t\t},\n\t\t\tlootChance = 7 * (100000), -- 2% chance for this group\n\t\t}', '{\n\t\t\t\t{group = "eta1_leather_group", chance = 100 * (100000)},\n\t\t\t}', '{group = "eta1_leather_group", chance = 100 * (100000)}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "combat_practice", chance = 100 * (100000)}\n\t\t\t},\n\t\t\tlootChance = 25 * (100000)\n\t\t}', '{\n\t\t\t\t{group = "combat_practice", chance = 100 * (100000)}\n\t\t\t}', '{group = "combat_practice", chance = 100 * (100000)}')]</t>
         </is>
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 4500000},\n\t\t\t\t{group = "wearables_uncommon", chance = 2000000},\n\t\t\t\t{group = "nyms_common", chance = 1000000},\n\t\t\t\t{group = "pistols", chance = 1000000},\n\t\t\t\t{group = "carbines", chance = 1000000},\n\t\t\t\t{group = "tailor_components", chance = 500000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 4500000},\n\t\t\t\t{group = "wearables_uncommon", chance = 2000000},\n\t\t\t\t{group = "nyms_common", chance = 1000000},\n\t\t\t\t{group = "pistols", chance = 1000000},\n\t\t\t\t{group = "carbines", chance = 1000000},\n\t\t\t\t{group = "tailor_components", chance = 500000}\n\t\t\t}', '{group = "tailor_components", chance = 500000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 6500000},\n\t\t\t\t{group = "nyms_common", chance = 1000000},\n\t\t\t\t{group = "pistols", chance = 1000000},\n\t\t\t\t{group = "carbines", chance = 1000000},\n\t\t\t\t{group = "tailor_components", chance = 500000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 6500000},\n\t\t\t\t{group = "nyms_common", chance = 1000000},\n\t\t\t\t{group = "pistols", chance = 1000000},\n\t\t\t\t{group = "carbines", chance = 1000000},\n\t\t\t\t{group = "tailor_components", chance = 500000}\n\t\t\t}', '{group = "tailor_components", chance = 500000}')]</t>
         </is>
       </c>
     </row>
@@ -6970,7 +6970,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\lok\nym_pirate_strong.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\lok\nym_pirate_elite.lua</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -6980,7 +6980,7 @@
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 6500000},\n\t\t\t\t{group = "nyms_common", chance = 1000000},\n\t\t\t\t{group = "pistols", chance = 1000000},\n\t\t\t\t{group = "carbines", chance = 1000000},\n\t\t\t\t{group = "tailor_components", chance = 500000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 6500000},\n\t\t\t\t{group = "nyms_common", chance = 1000000},\n\t\t\t\t{group = "pistols", chance = 1000000},\n\t\t\t\t{group = "carbines", chance = 1000000},\n\t\t\t\t{group = "tailor_components", chance = 500000}\n\t\t\t}', '{group = "tailor_components", chance = 500000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 4500000},\n\t\t\t\t{group = "wearables_uncommon", chance = 2000000},\n\t\t\t\t{group = "nyms_common", chance = 1000000},\n\t\t\t\t{group = "pistols", chance = 1000000},\n\t\t\t\t{group = "carbines", chance = 1000000},\n\t\t\t\t{group = "tailor_components", chance = 500000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 4500000},\n\t\t\t\t{group = "wearables_uncommon", chance = 2000000},\n\t\t\t\t{group = "nyms_common", chance = 1000000},\n\t\t\t\t{group = "pistols", chance = 1000000},\n\t\t\t\t{group = "carbines", chance = 1000000},\n\t\t\t\t{group = "tailor_components", chance = 500000}\n\t\t\t}', '{group = "tailor_components", chance = 500000}')]</t>
         </is>
       </c>
     </row>
@@ -6990,17 +6990,17 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\naboo\borvos_champion.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\lok\nym_pirate_strong.lua</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\t\tgroups = {\n\t\t\t\t\t{group = "art_illum18", chance = 10000000}\n\t\t\t\t},\n\t\t\t\tlootChance = 1500000\n\t\t\t}', '{\n\t\t\t\t\t{group = "art_illum18", chance = 10000000}\n\t\t\t\t}', '{group = "art_illum18", chance = 10000000}')]</t>
+          <t>[('{\n\t\t\tgroups = \n\t\t\t{\n\t\t\t\t{group = "eta1_leather_group", chance = 100 * (100000)},\n\t\t\t},\n\t\t\tlootChance = 7 * (100000), -- 2% chance for this group\n\t\t}', '{\n\t\t\t\t{group = "eta1_leather_group", chance = 100 * (100000)},\n\t\t\t}', '{group = "eta1_leather_group", chance = 100 * (100000)}')]</t>
         </is>
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 4000000},\n\t\t\t\t{group = "color_crystals", chance = 200000},\n\t\t\t\t{group = "tailor_components", chance = 1000000},\n\t\t\t\t{group = "loot_kit_parts", chance = 1000000},\n\t\t\t\t{group = "rifles", chance = 500000},\n\t\t\t\t{group = "carbines", chance = 500000},\n\t\t\t\t{group = "borvos_common", chance = 2800000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 4000000},\n\t\t\t\t{group = "color_crystals", chance = 200000},\n\t\t\t\t{group = "tailor_components", chance = 1000000},\n\t\t\t\t{group = "loot_kit_parts", chance = 1000000},\n\t\t\t\t{group = "rifles", chance = 500000},\n\t\t\t\t{group = "carbines", chance = 500000},\n\t\t\t\t{group = "borvos_common", chance = 2800000}\n\t\t\t}', '{group = "borvos_common", chance = 2800000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 6500000},\n\t\t\t\t{group = "nyms_common", chance = 1000000},\n\t\t\t\t{group = "pistols", chance = 1000000},\n\t\t\t\t{group = "carbines", chance = 1000000},\n\t\t\t\t{group = "tailor_components", chance = 500000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 6500000},\n\t\t\t\t{group = "nyms_common", chance = 1000000},\n\t\t\t\t{group = "pistols", chance = 1000000},\n\t\t\t\t{group = "carbines", chance = 1000000},\n\t\t\t\t{group = "tailor_components", chance = 500000}\n\t\t\t}', '{group = "tailor_components", chance = 500000}')]</t>
         </is>
       </c>
     </row>
@@ -7010,12 +7010,12 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\naboo\borvos_soldier.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\naboo\borvos_champion.lua</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "combat_practice", chance = 100 * (100000)}\n\t\t\t},\n\t\t\tlootChance = 25 * (100000)\n\t\t}', '{\n\t\t\t\t{group = "combat_practice", chance = 100 * (100000)}\n\t\t\t}', '{group = "combat_practice", chance = 100 * (100000)}')]</t>
+          <t>[('{\n\t\t\t\tgroups = {\n\t\t\t\t\t{group = "art_illum18", chance = 10000000}\n\t\t\t\t},\n\t\t\t\tlootChance = 1500000\n\t\t\t}', '{\n\t\t\t\t\t{group = "art_illum18", chance = 10000000}\n\t\t\t\t}', '{group = "art_illum18", chance = 10000000}')]</t>
         </is>
       </c>
       <c r="D330" t="inlineStr">
@@ -7030,12 +7030,12 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\naboo\borvos_thief.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\naboo\borvos_soldier.lua</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "art_illum18", chance = 10000000}\n\t\t\t},\n\t\t\tlootChance = 500000\n\t\t}', '{\n\t\t\t\t{group = "art_illum18", chance = 10000000}\n\t\t\t}', '{group = "art_illum18", chance = 10000000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "combat_practice", chance = 100 * (100000)}\n\t\t\t},\n\t\t\tlootChance = 25 * (100000)\n\t\t}', '{\n\t\t\t\t{group = "combat_practice", chance = 100 * (100000)}\n\t\t\t}', '{group = "combat_practice", chance = 100 * (100000)}')]</t>
         </is>
       </c>
       <c r="D331" t="inlineStr">
@@ -7050,17 +7050,17 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\naboo\fambaa.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\naboo\borvos_thief.lua</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>[('{\n\t        groups = {\n\t\t\t\t{group = "fambaa_common", chance = 10000000}\n\t\t\t},\n\t\t\tlootChance = 1680000\n\t\t}', '{\n\t\t\t\t{group = "fambaa_common", chance = 10000000}\n\t\t\t}', '{group = "fambaa_common", chance = 10000000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "art_illum18", chance = 10000000}\n\t\t\t},\n\t\t\tlootChance = 500000\n\t\t}', '{\n\t\t\t\t{group = "art_illum18", chance = 10000000}\n\t\t\t}', '{group = "art_illum18", chance = 10000000}')]</t>
         </is>
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "fambaa_common", chance = 10000000}\n\t\t\t},\n\t\t\tlootChance = 1680000\n\t\t}', '{\n\t\t\t\t{group = "fambaa_common", chance = 10000000}\n\t\t\t}', '{group = "fambaa_common", chance = 10000000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 4000000},\n\t\t\t\t{group = "color_crystals", chance = 200000},\n\t\t\t\t{group = "tailor_components", chance = 1000000},\n\t\t\t\t{group = "loot_kit_parts", chance = 1000000},\n\t\t\t\t{group = "rifles", chance = 500000},\n\t\t\t\t{group = "carbines", chance = 500000},\n\t\t\t\t{group = "borvos_common", chance = 2800000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 4000000},\n\t\t\t\t{group = "color_crystals", chance = 200000},\n\t\t\t\t{group = "tailor_components", chance = 1000000},\n\t\t\t\t{group = "loot_kit_parts", chance = 1000000},\n\t\t\t\t{group = "rifles", chance = 500000},\n\t\t\t\t{group = "carbines", chance = 500000},\n\t\t\t\t{group = "borvos_common", chance = 2800000}\n\t\t\t}', '{group = "borvos_common", chance = 2800000}')]</t>
         </is>
       </c>
     </row>
@@ -7070,17 +7070,17 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\naboo\mauler.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\naboo\fambaa.lua</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = \n\t\t\t{\n\t\t\t\t{group = "mando_tibbana_group", chance = 10000000},\n\t\t\t},\n\t\t\tlootChance = 6 * (100000), \n\t\t}', '{\n\t\t\t\t{group = "mando_tibbana_group", chance = 10000000},\n\t\t\t}', '{group = "mando_tibbana_group", chance = 10000000}')]</t>
+          <t>[('{\n\t        groups = {\n\t\t\t\t{group = "fambaa_common", chance = 10000000}\n\t\t\t},\n\t\t\tlootChance = 1680000\n\t\t}', '{\n\t\t\t\t{group = "fambaa_common", chance = 10000000}\n\t\t\t}', '{group = "fambaa_common", chance = 10000000}')]</t>
         </is>
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 4000000},\n\t\t\t\t{group = "tailor_components", chance = 1000000},\n\t\t\t\t{group = "loot_kit_parts", chance = 2000000},\n\t\t\t\t{group = "carbines", chance = 1000000},\n\t\t\t\t{group = "mauler_common", chance = 2000000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 4000000},\n\t\t\t\t{group = "tailor_components", chance = 1000000},\n\t\t\t\t{group = "loot_kit_parts", chance = 2000000},\n\t\t\t\t{group = "carbines", chance = 1000000},\n\t\t\t\t{group = "mauler_common", chance = 2000000}\n\t\t\t}', '{group = "mauler_common", chance = 2000000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "fambaa_common", chance = 10000000}\n\t\t\t},\n\t\t\tlootChance = 1680000\n\t\t}', '{\n\t\t\t\t{group = "fambaa_common", chance = 10000000}\n\t\t\t}', '{group = "fambaa_common", chance = 10000000}')]</t>
         </is>
       </c>
     </row>
@@ -7090,12 +7090,12 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\naboo\mauler_acolyte.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\naboo\mauler.lua</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = \n\t\t\t{\n\t\t\t\t{group = "mando_tibbana_group", chance = 10000000},\n\t\t\t},\n\t\t\tlootChance = 9 * (100000), \n\t\t}', '{\n\t\t\t\t{group = "mando_tibbana_group", chance = 10000000},\n\t\t\t}', '{group = "mando_tibbana_group", chance = 10000000}')]</t>
+          <t>[('{\n\t\t\tgroups = \n\t\t\t{\n\t\t\t\t{group = "mando_tibbana_group", chance = 10000000},\n\t\t\t},\n\t\t\tlootChance = 6 * (100000), \n\t\t}', '{\n\t\t\t\t{group = "mando_tibbana_group", chance = 10000000},\n\t\t\t}', '{group = "mando_tibbana_group", chance = 10000000}')]</t>
         </is>
       </c>
       <c r="D334" t="inlineStr">
@@ -7110,12 +7110,12 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\naboo\mauler_apprentice.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\naboo\mauler_acolyte.lua</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "art_illum22", chance = 10000000}\n\t\t\t},\n\t\t\tlootChance = 500000\n\t\t}', '{\n\t\t\t\t{group = "art_illum22", chance = 10000000}\n\t\t\t}', '{group = "art_illum22", chance = 10000000}')]</t>
+          <t>[('{\n\t\t\tgroups = \n\t\t\t{\n\t\t\t\t{group = "mando_tibbana_group", chance = 10000000},\n\t\t\t},\n\t\t\tlootChance = 9 * (100000), \n\t\t}', '{\n\t\t\t\t{group = "mando_tibbana_group", chance = 10000000},\n\t\t\t}', '{group = "mando_tibbana_group", chance = 10000000}')]</t>
         </is>
       </c>
       <c r="D335" t="inlineStr">
@@ -7130,12 +7130,12 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\naboo\mauler_lord.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\naboo\mauler_apprentice.lua</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = \n\t\t\t{\n\t\t\t\t{group = "mando_tibbana_group", chance = 10000000},\n\t\t\t},\n\t\t\tlootChance = 17 * (100000), \n\t\t}', '{\n\t\t\t\t{group = "mando_tibbana_group", chance = 10000000},\n\t\t\t}', '{group = "mando_tibbana_group", chance = 10000000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "art_illum22", chance = 10000000}\n\t\t\t},\n\t\t\tlootChance = 500000\n\t\t}', '{\n\t\t\t\t{group = "art_illum22", chance = 10000000}\n\t\t\t}', '{group = "art_illum22", chance = 10000000}')]</t>
         </is>
       </c>
       <c r="D336" t="inlineStr">
@@ -7150,17 +7150,17 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\naboo\mauler_master.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\naboo\mauler_lord.lua</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\t\tgroups = {\n\t\t\t\t\t{group = "art_illum22", chance = 10000000}\n\t\t\t\t},\n\t\t\t\tlootChance = 3500000\n\t\t\t}', '{\n\t\t\t\t\t{group = "art_illum22", chance = 10000000}\n\t\t\t\t}', '{group = "art_illum22", chance = 10000000}')]</t>
+          <t>[('{\n\t\t\tgroups = \n\t\t\t{\n\t\t\t\t{group = "mando_tibbana_group", chance = 10000000},\n\t\t\t},\n\t\t\tlootChance = 17 * (100000), \n\t\t}', '{\n\t\t\t\t{group = "mando_tibbana_group", chance = 10000000},\n\t\t\t}', '{group = "mando_tibbana_group", chance = 10000000}')]</t>
         </is>
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 3000000},\n\t\t\t\t{group = "tailor_components", chance = 1000000},\n\t\t\t\t{group = "loot_kit_parts", chance = 2000000},\n\t\t\t\t{group = "carbines", chance = 1000000},\n\t\t\t\t{group = "mauler_common", chance = 2000000},\n\t\t\t\t{group = "wearables_uncommon", chance = 1000000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 3000000},\n\t\t\t\t{group = "tailor_components", chance = 1000000},\n\t\t\t\t{group = "loot_kit_parts", chance = 2000000},\n\t\t\t\t{group = "carbines", chance = 1000000},\n\t\t\t\t{group = "mauler_common", chance = 2000000},\n\t\t\t\t{group = "wearables_uncommon", chance = 1000000}\n\t\t\t}', '{group = "wearables_uncommon", chance = 1000000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 4000000},\n\t\t\t\t{group = "tailor_components", chance = 1000000},\n\t\t\t\t{group = "loot_kit_parts", chance = 2000000},\n\t\t\t\t{group = "carbines", chance = 1000000},\n\t\t\t\t{group = "mauler_common", chance = 2000000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 4000000},\n\t\t\t\t{group = "tailor_components", chance = 1000000},\n\t\t\t\t{group = "loot_kit_parts", chance = 2000000},\n\t\t\t\t{group = "carbines", chance = 1000000},\n\t\t\t\t{group = "mauler_common", chance = 2000000}\n\t\t\t}', '{group = "mauler_common", chance = 2000000}')]</t>
         </is>
       </c>
     </row>
@@ -7170,17 +7170,17 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\naboo\mordran.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\naboo\mauler_master.lua</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>[('{\n\t    \t\tgroups =\n\t\t\t{\n\t\t\t\t{group = "veteran_rewards_810_days", chance = 10000000},\n\t\t\t},\n\t\t\tlootChance = 3 * (100000),\n\t\t}', '{\n\t\t\t\t{group = "veteran_rewards_810_days", chance = 10000000},\n\t\t\t}', '{group = "veteran_rewards_810_days", chance = 10000000}')]</t>
+          <t>[('{\n\t\t\t\tgroups = {\n\t\t\t\t\t{group = "art_illum22", chance = 10000000}\n\t\t\t\t},\n\t\t\t\tlootChance = 3500000\n\t\t\t}', '{\n\t\t\t\t\t{group = "art_illum22", chance = 10000000}\n\t\t\t\t}', '{group = "art_illum22", chance = 10000000}')]</t>
         </is>
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 1500000},\n\t\t\t\t{group = "loot_kit_parts", chance = 1500000},\n\t\t\t\t{group = "composite_armor", chance = 1500000},\n\t\t\t\t{group = "melee_two_handed", chance = 1500000},\n\t\t\t\t{group = "clothing_attachments", chance = 500000},\n\t\t\t\t{group = "armor_attachments", chance = 500000},\n\t\t\t\t{group = "wearables_common", chance = 1000000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 1500000},\n\t\t\t\t{group = "loot_kit_parts", chance = 1500000},\n\t\t\t\t{group = "composite_armor", chance = 1500000},\n\t\t\t\t{group = "melee_two_handed", chance = 1500000},\n\t\t\t\t{group = "clothing_attachments", chance = 500000},\n\t\t\t\t{group = "armor_attachments", chance = 500000},\n\t\t\t\t{group = "wearables_common", chance = 1000000}\n\t\t\t}', '{group = "wearables_common", chance = 1000000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 3000000},\n\t\t\t\t{group = "tailor_components", chance = 1000000},\n\t\t\t\t{group = "loot_kit_parts", chance = 2000000},\n\t\t\t\t{group = "carbines", chance = 1000000},\n\t\t\t\t{group = "mauler_common", chance = 2000000},\n\t\t\t\t{group = "wearables_uncommon", chance = 1000000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 3000000},\n\t\t\t\t{group = "tailor_components", chance = 1000000},\n\t\t\t\t{group = "loot_kit_parts", chance = 2000000},\n\t\t\t\t{group = "carbines", chance = 1000000},\n\t\t\t\t{group = "mauler_common", chance = 2000000},\n\t\t\t\t{group = "wearables_uncommon", chance = 1000000}\n\t\t\t}', '{group = "wearables_uncommon", chance = 1000000}')]</t>
         </is>
       </c>
     </row>
@@ -7190,17 +7190,17 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\naboo\naboo_dread_pirate.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\naboo\mordran.lua</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk",\t\t\t\tchance = 40 * (100000)},\n\t\t\t\t{group = "wearables_common",\tchance = 20 * (100000)},\n\t\t\t\t{group = "tailor_components",\tchance = 20 * (100000)},\n\t\t\t\t{group = "loot_kit_parts",\t\tchance = 20 * (100000)}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk",\t\t\t\tchance = 40 * (100000)},\n\t\t\t\t{group = "wearables_common",\tchance = 20 * (100000)},\n\t\t\t\t{group = "tailor_components",\tchance = 20 * (100000)},\n\t\t\t\t{group = "loot_kit_parts",\t\tchance = 20 * (100000)}\n\t\t\t}', '{group = "loot_kit_parts",\t\tchance = 20 * (100000)}')]</t>
+          <t>[('{\n\t    \t\tgroups =\n\t\t\t{\n\t\t\t\t{group = "veteran_rewards_810_days", chance = 10000000},\n\t\t\t},\n\t\t\tlootChance = 3 * (100000),\n\t\t}', '{\n\t\t\t\t{group = "veteran_rewards_810_days", chance = 10000000},\n\t\t\t}', '{group = "veteran_rewards_810_days", chance = 10000000}')]</t>
         </is>
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 4000000},\n\t\t\t\t{group = "wearables_common", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 2000000},\n\t\t\t\t{group = "loot_kit_parts", chance = 2000000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 4000000},\n\t\t\t\t{group = "wearables_common", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 2000000},\n\t\t\t\t{group = "loot_kit_parts", chance = 2000000}\n\t\t\t}', '{group = "loot_kit_parts", chance = 2000000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 1500000},\n\t\t\t\t{group = "loot_kit_parts", chance = 1500000},\n\t\t\t\t{group = "composite_armor", chance = 1500000},\n\t\t\t\t{group = "melee_two_handed", chance = 1500000},\n\t\t\t\t{group = "clothing_attachments", chance = 500000},\n\t\t\t\t{group = "armor_attachments", chance = 500000},\n\t\t\t\t{group = "wearables_common", chance = 1000000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 1500000},\n\t\t\t\t{group = "loot_kit_parts", chance = 1500000},\n\t\t\t\t{group = "composite_armor", chance = 1500000},\n\t\t\t\t{group = "melee_two_handed", chance = 1500000},\n\t\t\t\t{group = "clothing_attachments", chance = 500000},\n\t\t\t\t{group = "armor_attachments", chance = 500000},\n\t\t\t\t{group = "wearables_common", chance = 1000000}\n\t\t\t}', '{group = "wearables_common", chance = 1000000}')]</t>
         </is>
       </c>
     </row>
@@ -7210,12 +7210,12 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\naboo\naboo_holy_man.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\naboo\naboo_dread_pirate.lua</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "art_illum8", chance = 10000000}\n\t\t\t},\n\t\t\tlootChance = 1500000\n\t\t}', '{\n\t\t\t\t{group = "art_illum8", chance = 10000000}\n\t\t\t}', '{group = "art_illum8", chance = 10000000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk",\t\t\t\tchance = 40 * (100000)},\n\t\t\t\t{group = "wearables_common",\tchance = 20 * (100000)},\n\t\t\t\t{group = "tailor_components",\tchance = 20 * (100000)},\n\t\t\t\t{group = "loot_kit_parts",\t\tchance = 20 * (100000)}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk",\t\t\t\tchance = 40 * (100000)},\n\t\t\t\t{group = "wearables_common",\tchance = 20 * (100000)},\n\t\t\t\t{group = "tailor_components",\tchance = 20 * (100000)},\n\t\t\t\t{group = "loot_kit_parts",\t\tchance = 20 * (100000)}\n\t\t\t}', '{group = "loot_kit_parts",\t\tchance = 20 * (100000)}')]</t>
         </is>
       </c>
       <c r="D340" t="inlineStr">
@@ -7230,12 +7230,12 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\naboo\naboo_police_officer.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\naboo\naboo_holy_man.lua</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "combat_practice", chance = 100 * (100000)}\n\t\t\t},\n\t\t\tlootChance = 25 * (100000)\n\t\t}', '{\n\t\t\t\t{group = "combat_practice", chance = 100 * (100000)}\n\t\t\t}', '{group = "combat_practice", chance = 100 * (100000)}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "art_illum8", chance = 10000000}\n\t\t\t},\n\t\t\tlootChance = 1500000\n\t\t}', '{\n\t\t\t\t{group = "art_illum8", chance = 10000000}\n\t\t\t}', '{group = "art_illum8", chance = 10000000}')]</t>
         </is>
       </c>
       <c r="D341" t="inlineStr">
@@ -7250,17 +7250,17 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\naboo\official.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\naboo\naboo_police_officer.lua</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 2000000},\n\t\t\t\t{group = "wearables_common", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 2000000},\n\t\t\t\t{group = "loot_kit_parts", chance = 4000000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 2000000},\n\t\t\t\t{group = "wearables_common", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 2000000},\n\t\t\t\t{group = "loot_kit_parts", chance = 4000000}\n\t\t\t}', '{group = "loot_kit_parts", chance = 4000000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "combat_practice", chance = 100 * (100000)}\n\t\t\t},\n\t\t\tlootChance = 25 * (100000)\n\t\t}', '{\n\t\t\t\t{group = "combat_practice", chance = 100 * (100000)}\n\t\t\t}', '{group = "combat_practice", chance = 100 * (100000)}')]</t>
         </is>
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>[('', '', '')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 4000000},\n\t\t\t\t{group = "wearables_common", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 2000000},\n\t\t\t\t{group = "loot_kit_parts", chance = 2000000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 4000000},\n\t\t\t\t{group = "wearables_common", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 2000000},\n\t\t\t\t{group = "loot_kit_parts", chance = 2000000}\n\t\t\t}', '{group = "loot_kit_parts", chance = 2000000}')]</t>
         </is>
       </c>
     </row>
@@ -7270,17 +7270,17 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\naboo\peko_peko_albatross.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\naboo\official.lua</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{\n\t\t\t\t\tgroup = "peko_albatross", chance = 100 * (100000)}\n\t\t\t\t},\n\t\t\tlootChance = 5000000\n\t\t}', '{\n\t\t\t\t{\n\t\t\t\t\tgroup = "peko_albatross", chance = 100 * (100000)}\n\t\t\t\t}', '{\n\t\t\t\t\tgroup = "peko_albatross", chance = 100 * (100000)}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 2000000},\n\t\t\t\t{group = "wearables_common", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 2000000},\n\t\t\t\t{group = "loot_kit_parts", chance = 4000000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 2000000},\n\t\t\t\t{group = "wearables_common", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 2000000},\n\t\t\t\t{group = "loot_kit_parts", chance = 4000000}\n\t\t\t}', '{group = "loot_kit_parts", chance = 4000000}')]</t>
         </is>
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "peko_albatross", chance = 10000000}\n\t\t\t},\n\t\t\tlootChance = 4100000\n\t\t}', '{\n\t\t\t\t{group = "peko_albatross", chance = 10000000}\n\t\t\t}', '{group = "peko_albatross", chance = 10000000}')]</t>
+          <t>[('', '', '')]</t>
         </is>
       </c>
     </row>
@@ -7290,17 +7290,17 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\naboo\plasma_bandit.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\naboo\peko_peko_albatross.lua</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "art_illum15", chance = 10000000}\n\t\t\t},\n\t\t\tlootChance = 500000\n\t\t}', '{\n\t\t\t\t{group = "art_illum15", chance = 10000000}\n\t\t\t}', '{group = "art_illum15", chance = 10000000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{\n\t\t\t\t\tgroup = "peko_albatross", chance = 100 * (100000)}\n\t\t\t\t},\n\t\t\tlootChance = 5000000\n\t\t}', '{\n\t\t\t\t{\n\t\t\t\t\tgroup = "peko_albatross", chance = 100 * (100000)}\n\t\t\t\t}', '{\n\t\t\t\t\tgroup = "peko_albatross", chance = 100 * (100000)}')]</t>
         </is>
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 5000000},\n\t\t\t\t{group = "tailor_components", chance = 2000000},\n\t\t\t\t{group = "loot_kit_parts", chance = 2000000},\n\t\t\t\t{group = "plasma_thief_common", chance = 1000000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 5000000},\n\t\t\t\t{group = "tailor_components", chance = 2000000},\n\t\t\t\t{group = "loot_kit_parts", chance = 2000000},\n\t\t\t\t{group = "plasma_thief_common", chance = 1000000}\n\t\t\t}', '{group = "plasma_thief_common", chance = 1000000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "peko_albatross", chance = 10000000}\n\t\t\t},\n\t\t\tlootChance = 4100000\n\t\t}', '{\n\t\t\t\t{group = "peko_albatross", chance = 10000000}\n\t\t\t}', '{group = "peko_albatross", chance = 10000000}')]</t>
         </is>
       </c>
     </row>
@@ -7310,17 +7310,17 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\naboo\plasma_thief.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\naboo\plasma_bandit.lua</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "art_illum15", chance = 10000000}\n\t\t\t},\n\t\t\tlootChance = 3500000\n\t\t}', '{\n\t\t\t\t{group = "art_illum15", chance = 10000000}\n\t\t\t}', '{group = "art_illum15", chance = 10000000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "art_illum15", chance = 10000000}\n\t\t\t},\n\t\t\tlootChance = 500000\n\t\t}', '{\n\t\t\t\t{group = "art_illum15", chance = 10000000}\n\t\t\t}', '{group = "art_illum15", chance = 10000000}')]</t>
         </is>
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 5000000},\n\t\t\t\t{group = "tailor_components", chance = 2000000},\n\t\t\t\t{group = "loot_kit_parts", chance = 2000000},\n\t\t\t\t{group = "plasma_thief_common", chance = 1000000},\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 5000000},\n\t\t\t\t{group = "tailor_components", chance = 2000000},\n\t\t\t\t{group = "loot_kit_parts", chance = 2000000},\n\t\t\t\t{group = "plasma_thief_common", chance = 1000000},\n\t\t\t}', '{group = "plasma_thief_common", chance = 1000000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 5000000},\n\t\t\t\t{group = "tailor_components", chance = 2000000},\n\t\t\t\t{group = "loot_kit_parts", chance = 2000000},\n\t\t\t\t{group = "plasma_thief_common", chance = 1000000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 5000000},\n\t\t\t\t{group = "tailor_components", chance = 2000000},\n\t\t\t\t{group = "loot_kit_parts", chance = 2000000},\n\t\t\t\t{group = "plasma_thief_common", chance = 1000000}\n\t\t\t}', '{group = "plasma_thief_common", chance = 1000000}')]</t>
         </is>
       </c>
     </row>
@@ -7330,17 +7330,17 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\quest\coa\coa3_caravan_leader.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\naboo\plasma_thief.lua</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 4000000},\n\t\t\t\t{group = "wearables_common", chance = 3000000},\n\t\t\t\t{group = "loot_kit_parts", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 1000000},\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 4000000},\n\t\t\t\t{group = "wearables_common", chance = 3000000},\n\t\t\t\t{group = "loot_kit_parts", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 1000000},\n\t\t\t}', '{group = "tailor_components", chance = 1000000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "art_illum15", chance = 10000000}\n\t\t\t},\n\t\t\tlootChance = 3500000\n\t\t}', '{\n\t\t\t\t{group = "art_illum15", chance = 10000000}\n\t\t\t}', '{group = "art_illum15", chance = 10000000}')]</t>
         </is>
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\t\tgroups = {\n\t\t\t\t\t{group = "junk", chance = 10000000},\n\t\t\t\t\t--{group = "coa3_caravan_disk", chance = 10000000},\n\t\t\t\t},\n\t\t\t}', '{\n\t\t\t\t\t{group = "junk", chance = 10000000},\n\t\t\t\t\t--{group = "coa3_caravan_disk", chance = 10000000},\n\t\t\t\t}', '{group = "coa3_caravan_disk", chance = 10000000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 5000000},\n\t\t\t\t{group = "tailor_components", chance = 2000000},\n\t\t\t\t{group = "loot_kit_parts", chance = 2000000},\n\t\t\t\t{group = "plasma_thief_common", chance = 1000000},\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 5000000},\n\t\t\t\t{group = "tailor_components", chance = 2000000},\n\t\t\t\t{group = "loot_kit_parts", chance = 2000000},\n\t\t\t\t{group = "plasma_thief_common", chance = 1000000},\n\t\t\t}', '{group = "plasma_thief_common", chance = 1000000}')]</t>
         </is>
       </c>
     </row>
@@ -7350,17 +7350,17 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\quest\corellia\brantlee_spondoon.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\quest\coa\coa3_caravan_leader.lua</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>[('', '', '')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 4000000},\n\t\t\t\t{group = "wearables_common", chance = 3000000},\n\t\t\t\t{group = "loot_kit_parts", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 1000000},\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 4000000},\n\t\t\t\t{group = "wearables_common", chance = 3000000},\n\t\t\t\t{group = "loot_kit_parts", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 1000000},\n\t\t\t}', '{group = "tailor_components", chance = 1000000}')]</t>
         </is>
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('{\n\t\t\t\tgroups = {\n\t\t\t\t\t{group = "junk", chance = 10000000},\n\t\t\t\t\t--{group = "coa3_caravan_disk", chance = 10000000},\n\t\t\t\t},\n\t\t\t}', '{\n\t\t\t\t\t{group = "junk", chance = 10000000},\n\t\t\t\t\t--{group = "coa3_caravan_disk", chance = 10000000},\n\t\t\t\t}', '{group = "coa3_caravan_disk", chance = 10000000}')]</t>
         </is>
       </c>
     </row>
@@ -7370,17 +7370,17 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\quest\naboo\theme_park_imperial_alderaanian_leader.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\quest\corellia\brantlee_spondoon.lua</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>[('{\n\t        groups = {\n\t\t\t\t{group = "theme_park_loot_datapad", chance = 10000000},\n\t\t\t},\n\t\t\tlootChance = 10000000\n\t\t}', '{\n\t\t\t\t{group = "theme_park_loot_datapad", chance = 10000000},\n\t\t\t}', '{group = "theme_park_loot_datapad", chance = 10000000}')]</t>
+          <t>[('', '', '')]</t>
         </is>
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "theme_park_loot_datapad", chance = 10000000},\n\t\t\t},\n\t\t\tlootChance = 10000000\n\t\t}', '{\n\t\t\t\t{group = "theme_park_loot_datapad", chance = 10000000},\n\t\t\t}', '{group = "theme_park_loot_datapad", chance = 10000000}')]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -7390,17 +7390,17 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\quest\naboo\theme_park_imperial_fambaa.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\quest\naboo\theme_park_imperial_alderaanian_leader.lua</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>[('{\n\t        groups = {\n\t\t\t\t{group = "theme_park_loot_fambaa_blood", chance = 10000000}\n\t\t\t},\n\t\t\tlootChance = 10000000\n\t\t}', '{\n\t\t\t\t{group = "theme_park_loot_fambaa_blood", chance = 10000000}\n\t\t\t}', '{group = "theme_park_loot_fambaa_blood", chance = 10000000}')]</t>
+          <t>[('{\n\t        groups = {\n\t\t\t\t{group = "theme_park_loot_datapad", chance = 10000000},\n\t\t\t},\n\t\t\tlootChance = 10000000\n\t\t}', '{\n\t\t\t\t{group = "theme_park_loot_datapad", chance = 10000000},\n\t\t\t}', '{group = "theme_park_loot_datapad", chance = 10000000}')]</t>
         </is>
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>[('{\n\t\tgroups = {\n\t\t\t\t{group = "theme_park_loot_fambaa_blood", chance = 10000000}\n\t\t\t},\n\t\t\tlootChance = 10000000\n\t\t}', '{\n\t\t\t\t{group = "theme_park_loot_fambaa_blood", chance = 10000000}\n\t\t\t}', '{group = "theme_park_loot_fambaa_blood", chance = 10000000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "theme_park_loot_datapad", chance = 10000000},\n\t\t\t},\n\t\t\tlootChance = 10000000\n\t\t}', '{\n\t\t\t\t{group = "theme_park_loot_datapad", chance = 10000000},\n\t\t\t}', '{group = "theme_park_loot_datapad", chance = 10000000}')]</t>
         </is>
       </c>
     </row>
@@ -7410,17 +7410,17 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\quest\naboo\theme_park_imperial_rebel_sympathizer.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\quest\naboo\theme_park_imperial_fambaa.lua</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>[('{\n\t        groups = {\n\t\t\t\t{group = "theme_park_loot_documents", chance = 10000000}\n\t\t\t},\n\t\t\tlootChance = 10000000\n\t\t}', '{\n\t\t\t\t{group = "theme_park_loot_documents", chance = 10000000}\n\t\t\t}', '{group = "theme_park_loot_documents", chance = 10000000}')]</t>
+          <t>[('{\n\t        groups = {\n\t\t\t\t{group = "theme_park_loot_fambaa_blood", chance = 10000000}\n\t\t\t},\n\t\t\tlootChance = 10000000\n\t\t}', '{\n\t\t\t\t{group = "theme_park_loot_fambaa_blood", chance = 10000000}\n\t\t\t}', '{group = "theme_park_loot_fambaa_blood", chance = 10000000}')]</t>
         </is>
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "theme_park_loot_documents", chance = 10000000}\n\t\t\t},\n\t\t\tlootChance = 10000000\n\t\t}', '{\n\t\t\t\t{group = "theme_park_loot_documents", chance = 10000000}\n\t\t\t}', '{group = "theme_park_loot_documents", chance = 10000000}')]</t>
+          <t>[('{\n\t\tgroups = {\n\t\t\t\t{group = "theme_park_loot_fambaa_blood", chance = 10000000}\n\t\t\t},\n\t\t\tlootChance = 10000000\n\t\t}', '{\n\t\t\t\t{group = "theme_park_loot_fambaa_blood", chance = 10000000}\n\t\t\t}', '{group = "theme_park_loot_fambaa_blood", chance = 10000000}')]</t>
         </is>
       </c>
     </row>
@@ -7430,17 +7430,17 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\quest\naboo\theme_park_imperial_rebel_trooper.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\quest\naboo\theme_park_imperial_rebel_sympathizer.lua</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>[('{\n\t        groups = {\n\t\t\t\t{group = "theme_park_loot_information", chance = 10000000},\n\t\t\t},\n\t\t\tlootChance = 10000000\n\t\t}', '{\n\t\t\t\t{group = "theme_park_loot_information", chance = 10000000},\n\t\t\t}', '{group = "theme_park_loot_information", chance = 10000000}')]</t>
+          <t>[('{\n\t        groups = {\n\t\t\t\t{group = "theme_park_loot_documents", chance = 10000000}\n\t\t\t},\n\t\t\tlootChance = 10000000\n\t\t}', '{\n\t\t\t\t{group = "theme_park_loot_documents", chance = 10000000}\n\t\t\t}', '{group = "theme_park_loot_documents", chance = 10000000}')]</t>
         </is>
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "theme_park_loot_information", chance = 10000000},\n\t\t\t},\n\t\t\tlootChance = 10000000\n\t\t}', '{\n\t\t\t\t{group = "theme_park_loot_information", chance = 10000000},\n\t\t\t}', '{group = "theme_park_loot_information", chance = 10000000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "theme_park_loot_documents", chance = 10000000}\n\t\t\t},\n\t\t\tlootChance = 10000000\n\t\t}', '{\n\t\t\t\t{group = "theme_park_loot_documents", chance = 10000000}\n\t\t\t}', '{group = "theme_park_loot_documents", chance = 10000000}')]</t>
         </is>
       </c>
     </row>
@@ -7450,17 +7450,17 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\quest\naboo\theme_park_imperial_seller.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\quest\naboo\theme_park_imperial_rebel_trooper.lua</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>[('{\n\t        groups = {\n\t\t\t\t{group = "theme_park_loot_rocket", chance = 10000000}\n\t\t\t},\n\t\t\tlootChance = 10000000\n\t\t}', '{\n\t\t\t\t{group = "theme_park_loot_rocket", chance = 10000000}\n\t\t\t}', '{group = "theme_park_loot_rocket", chance = 10000000}')]</t>
+          <t>[('{\n\t        groups = {\n\t\t\t\t{group = "theme_park_loot_information", chance = 10000000},\n\t\t\t},\n\t\t\tlootChance = 10000000\n\t\t}', '{\n\t\t\t\t{group = "theme_park_loot_information", chance = 10000000},\n\t\t\t}', '{group = "theme_park_loot_information", chance = 10000000}')]</t>
         </is>
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>[('{\n\t \t\tgroups = {\n\t\t\t\t{group = "theme_park_loot_rocket", chance = 10000000}\n\t\t\t},\n\t\t\tlootChance = 10000000\n\t\t}', '{\n\t\t\t\t{group = "theme_park_loot_rocket", chance = 10000000}\n\t\t\t}', '{group = "theme_park_loot_rocket", chance = 10000000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "theme_park_loot_information", chance = 10000000},\n\t\t\t},\n\t\t\tlootChance = 10000000\n\t\t}', '{\n\t\t\t\t{group = "theme_park_loot_information", chance = 10000000},\n\t\t\t}', '{group = "theme_park_loot_information", chance = 10000000}')]</t>
         </is>
       </c>
     </row>
@@ -7470,17 +7470,17 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\quest\naboo\theme_park_imperial_thug.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\quest\naboo\theme_park_imperial_seller.lua</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>[('{\n\t        groups = {\n\t\t\t{group = "theme_park_loot_transponder", chance = 10000000},\n\t\t},\n\t\t\tlootChance = 10000000\n\t\t}', '{\n\t\t\t{group = "theme_park_loot_transponder", chance = 10000000},\n\t\t}', '{group = "theme_park_loot_transponder", chance = 10000000}')]</t>
+          <t>[('{\n\t        groups = {\n\t\t\t\t{group = "theme_park_loot_rocket", chance = 10000000}\n\t\t\t},\n\t\t\tlootChance = 10000000\n\t\t}', '{\n\t\t\t\t{group = "theme_park_loot_rocket", chance = 10000000}\n\t\t\t}', '{group = "theme_park_loot_rocket", chance = 10000000}')]</t>
         </is>
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "theme_park_loot_transponder", chance = 10000000},\n\t\t\t},\n\t\t\tlootChance = 10000000\n\t\t}', '{\n\t\t\t\t{group = "theme_park_loot_transponder", chance = 10000000},\n\t\t\t}', '{group = "theme_park_loot_transponder", chance = 10000000}')]</t>
+          <t>[('{\n\t \t\tgroups = {\n\t\t\t\t{group = "theme_park_loot_rocket", chance = 10000000}\n\t\t\t},\n\t\t\tlootChance = 10000000\n\t\t}', '{\n\t\t\t\t{group = "theme_park_loot_rocket", chance = 10000000}\n\t\t\t}', '{group = "theme_park_loot_rocket", chance = 10000000}')]</t>
         </is>
       </c>
     </row>
@@ -7490,17 +7490,17 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\quest\naboo\theme_park_imperial_thug_ringleader.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\quest\naboo\theme_park_imperial_thug.lua</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>[('{\n\t        groups = {\n\t\t\t{group = "theme_park_loot_plans", chance = 10000000},\n\t\t},\n\t\t\tlootChance = 10000000\n\t\t}', '{\n\t\t\t{group = "theme_park_loot_plans", chance = 10000000},\n\t\t}', '{group = "theme_park_loot_plans", chance = 10000000}')]</t>
+          <t>[('{\n\t        groups = {\n\t\t\t{group = "theme_park_loot_transponder", chance = 10000000},\n\t\t},\n\t\t\tlootChance = 10000000\n\t\t}', '{\n\t\t\t{group = "theme_park_loot_transponder", chance = 10000000},\n\t\t}', '{group = "theme_park_loot_transponder", chance = 10000000}')]</t>
         </is>
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "theme_park_loot_plans", chance = 10000000},\n\t\t\t},\n\t\t\tlootChance = 10000000\n\t\t}', '{\n\t\t\t\t{group = "theme_park_loot_plans", chance = 10000000},\n\t\t\t}', '{group = "theme_park_loot_plans", chance = 10000000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "theme_park_loot_transponder", chance = 10000000},\n\t\t\t},\n\t\t\tlootChance = 10000000\n\t\t}', '{\n\t\t\t\t{group = "theme_park_loot_transponder", chance = 10000000},\n\t\t\t}', '{group = "theme_park_loot_transponder", chance = 10000000}')]</t>
         </is>
       </c>
     </row>
@@ -7510,17 +7510,17 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\quest\rori\sindra_thug.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\quest\naboo\theme_park_imperial_thug_ringleader.lua</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 4000000},\n\t\t\t\t{group = "wearables_common", chance = 2000000},     \n\t\t\t\t{group = "rifles", chance = 1000000},\n\t\t\t\t{group = "pistols", chance = 1000000},\n\t\t\t\t{group = "melee_weapons", chance = 1000000},\n\t\t\t\t{group = "carbines", chance = 1000000},\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 4000000},\n\t\t\t\t{group = "wearables_common", chance = 2000000},     \n\t\t\t\t{group = "rifles", chance = 1000000},\n\t\t\t\t{group = "pistols", chance = 1000000},\n\t\t\t\t{group = "melee_weapons", chance = 1000000},\n\t\t\t\t{group = "carbines", chance = 1000000},\n\t\t\t}', '{group = "carbines", chance = 1000000}')]</t>
+          <t>[('{\n\t        groups = {\n\t\t\t{group = "theme_park_loot_plans", chance = 10000000},\n\t\t},\n\t\t\tlootChance = 10000000\n\t\t}', '{\n\t\t\t{group = "theme_park_loot_plans", chance = 10000000},\n\t\t}', '{group = "theme_park_loot_plans", chance = 10000000}')]</t>
         </is>
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 4000000},\n\t\t\t\t{group = "wearables_common", chance = 2000000},\n\t\t\t\t{group = "rifles", chance = 1000000},\n\t\t\t\t{group = "pistols", chance = 1000000},\n\t\t\t\t{group = "melee_weapons", chance = 1000000},\n\t\t\t\t{group = "carbines", chance = 1000000},\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 4000000},\n\t\t\t\t{group = "wearables_common", chance = 2000000},\n\t\t\t\t{group = "rifles", chance = 1000000},\n\t\t\t\t{group = "pistols", chance = 1000000},\n\t\t\t\t{group = "melee_weapons", chance = 1000000},\n\t\t\t\t{group = "carbines", chance = 1000000},\n\t\t\t}', '{group = "carbines", chance = 1000000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "theme_park_loot_plans", chance = 10000000},\n\t\t\t},\n\t\t\tlootChance = 10000000\n\t\t}', '{\n\t\t\t\t{group = "theme_park_loot_plans", chance = 10000000},\n\t\t\t}', '{group = "theme_park_loot_plans", chance = 10000000}')]</t>
         </is>
       </c>
     </row>
@@ -7530,12 +7530,12 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\quest\talus\hagrin_thug.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\quest\rori\sindra_thug.lua</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>[('{\n\t        \tgroups = {\n\t\t\t\t{group = "junk", chance = 4000000},\n\t\t\t\t{group = "wearables_common", chance = 2000000},\n\t\t\t\t{group = "rifles", chance = 1000000},\n\t\t\t\t{group = "pistols", chance = 1000000},\n\t\t\t\t{group = "melee_weapons", chance = 1000000},\n\t\t\t\t{group = "carbines", chance = 1000000},\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 4000000},\n\t\t\t\t{group = "wearables_common", chance = 2000000},\n\t\t\t\t{group = "rifles", chance = 1000000},\n\t\t\t\t{group = "pistols", chance = 1000000},\n\t\t\t\t{group = "melee_weapons", chance = 1000000},\n\t\t\t\t{group = "carbines", chance = 1000000},\n\t\t\t}', '{group = "carbines", chance = 1000000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 4000000},\n\t\t\t\t{group = "wearables_common", chance = 2000000},     \n\t\t\t\t{group = "rifles", chance = 1000000},\n\t\t\t\t{group = "pistols", chance = 1000000},\n\t\t\t\t{group = "melee_weapons", chance = 1000000},\n\t\t\t\t{group = "carbines", chance = 1000000},\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 4000000},\n\t\t\t\t{group = "wearables_common", chance = 2000000},     \n\t\t\t\t{group = "rifles", chance = 1000000},\n\t\t\t\t{group = "pistols", chance = 1000000},\n\t\t\t\t{group = "melee_weapons", chance = 1000000},\n\t\t\t\t{group = "carbines", chance = 1000000},\n\t\t\t}', '{group = "carbines", chance = 1000000}')]</t>
         </is>
       </c>
       <c r="D356" t="inlineStr">
@@ -7550,17 +7550,17 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\rori\black_sun_smuggler.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\quest\talus\hagrin_thug.lua</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups =\n\t\t\t{\n\t\t\t\t{group = "slicing_station_group", chance = 100 * (100000)}\n\t\t\t},\n\t\t\tlootChance = 3 * (100000)\n\t\t}', '{\n\t\t\t\t{group = "slicing_station_group", chance = 100 * (100000)}\n\t\t\t}', '{group = "slicing_station_group", chance = 100 * (100000)}')]</t>
+          <t>[('{\n\t        \tgroups = {\n\t\t\t\t{group = "junk", chance = 4000000},\n\t\t\t\t{group = "wearables_common", chance = 2000000},\n\t\t\t\t{group = "rifles", chance = 1000000},\n\t\t\t\t{group = "pistols", chance = 1000000},\n\t\t\t\t{group = "melee_weapons", chance = 1000000},\n\t\t\t\t{group = "carbines", chance = 1000000},\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 4000000},\n\t\t\t\t{group = "wearables_common", chance = 2000000},\n\t\t\t\t{group = "rifles", chance = 1000000},\n\t\t\t\t{group = "pistols", chance = 1000000},\n\t\t\t\t{group = "melee_weapons", chance = 1000000},\n\t\t\t\t{group = "carbines", chance = 1000000},\n\t\t\t}', '{group = "carbines", chance = 1000000}')]</t>
         </is>
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 6500000},\n\t\t\t\t{group = "pistols", chance = 800000},\n\t\t\t\t{group = "rifles", chance = 800000},\n\t\t\t\t{group = "carbines", chance = 800000},\n\t\t\t\t{group = "wearables_common", chance = 550000},\n\t\t\t\t{group = "wearables_uncommon", chance = 550000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 6500000},\n\t\t\t\t{group = "pistols", chance = 800000},\n\t\t\t\t{group = "rifles", chance = 800000},\n\t\t\t\t{group = "carbines", chance = 800000},\n\t\t\t\t{group = "wearables_common", chance = 550000},\n\t\t\t\t{group = "wearables_uncommon", chance = 550000}\n\t\t\t}', '{group = "wearables_uncommon", chance = 550000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 4000000},\n\t\t\t\t{group = "wearables_common", chance = 2000000},\n\t\t\t\t{group = "rifles", chance = 1000000},\n\t\t\t\t{group = "pistols", chance = 1000000},\n\t\t\t\t{group = "melee_weapons", chance = 1000000},\n\t\t\t\t{group = "carbines", chance = 1000000},\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 4000000},\n\t\t\t\t{group = "wearables_common", chance = 2000000},\n\t\t\t\t{group = "rifles", chance = 1000000},\n\t\t\t\t{group = "pistols", chance = 1000000},\n\t\t\t\t{group = "melee_weapons", chance = 1000000},\n\t\t\t\t{group = "carbines", chance = 1000000},\n\t\t\t}', '{group = "carbines", chance = 1000000}')]</t>
         </is>
       </c>
     </row>
@@ -7570,17 +7570,17 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\rori\cobral_mugger.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\rori\black_sun_smuggler.lua</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "airstrike_group", chance = 100 * (100000)},\n\t\t\t},\n\t\t\tlootChance = 1 * (50000), -- very rare drop\n\t\t}', '{\n\t\t\t\t{group = "airstrike_group", chance = 100 * (100000)},\n\t\t\t}', '{group = "airstrike_group", chance = 100 * (100000)}')]</t>
+          <t>[('{\n\t\t\tgroups =\n\t\t\t{\n\t\t\t\t{group = "slicing_station_group", chance = 100 * (100000)}\n\t\t\t},\n\t\t\tlootChance = 3 * (100000)\n\t\t}', '{\n\t\t\t\t{group = "slicing_station_group", chance = 100 * (100000)}\n\t\t\t}', '{group = "slicing_station_group", chance = 100 * (100000)}')]</t>
         </is>
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 3000000},\n\t\t\t\t{group = "wearables_common", chance = 2000000},\n\t\t\t\t{group = "loot_kit_parts", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 1000000},\n\t\t\t\t{group = "melee_weapons", chance = 2000000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 3000000},\n\t\t\t\t{group = "wearables_common", chance = 2000000},\n\t\t\t\t{group = "loot_kit_parts", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 1000000},\n\t\t\t\t{group = "melee_weapons", chance = 2000000}\n\t\t\t}', '{group = "melee_weapons", chance = 2000000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 6500000},\n\t\t\t\t{group = "pistols", chance = 800000},\n\t\t\t\t{group = "rifles", chance = 800000},\n\t\t\t\t{group = "carbines", chance = 800000},\n\t\t\t\t{group = "wearables_common", chance = 550000},\n\t\t\t\t{group = "wearables_uncommon", chance = 550000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 6500000},\n\t\t\t\t{group = "pistols", chance = 800000},\n\t\t\t\t{group = "rifles", chance = 800000},\n\t\t\t\t{group = "carbines", chance = 800000},\n\t\t\t\t{group = "wearables_common", chance = 550000},\n\t\t\t\t{group = "wearables_uncommon", chance = 550000}\n\t\t\t}', '{group = "wearables_uncommon", chance = 550000}')]</t>
         </is>
       </c>
     </row>
@@ -7590,17 +7590,17 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\rori\garyns_raider.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\rori\cobral_mugger.lua</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "combat_practice", chance = 100 * (100000)}\n\t\t\t},\n\t\t\tlootChance = 25 * (100000)\n\t\t}', '{\n\t\t\t\t{group = "combat_practice", chance = 100 * (100000)}\n\t\t\t}', '{group = "combat_practice", chance = 100 * (100000)}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "airstrike_group", chance = 100 * (100000)},\n\t\t\t},\n\t\t\tlootChance = 1 * (50000), -- very rare drop\n\t\t}', '{\n\t\t\t\t{group = "airstrike_group", chance = 100 * (100000)},\n\t\t\t}', '{group = "airstrike_group", chance = 100 * (100000)}')]</t>
         </is>
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 2000000},\n\t\t\t\t{group = "wearables_common", chance = 2000000},\n\t\t\t\t{group = "rifles", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 2000000},\n\t\t\t\t{group = "loot_kit_parts", chance = 2000000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 2000000},\n\t\t\t\t{group = "wearables_common", chance = 2000000},\n\t\t\t\t{group = "rifles", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 2000000},\n\t\t\t\t{group = "loot_kit_parts", chance = 2000000}\n\t\t\t}', '{group = "loot_kit_parts", chance = 2000000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 3000000},\n\t\t\t\t{group = "wearables_common", chance = 2000000},\n\t\t\t\t{group = "loot_kit_parts", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 1000000},\n\t\t\t\t{group = "melee_weapons", chance = 2000000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 3000000},\n\t\t\t\t{group = "wearables_common", chance = 2000000},\n\t\t\t\t{group = "loot_kit_parts", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 1000000},\n\t\t\t\t{group = "melee_weapons", chance = 2000000}\n\t\t\t}', '{group = "melee_weapons", chance = 2000000}')]</t>
         </is>
       </c>
     </row>
@@ -7610,17 +7610,17 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\rori\garyns_thief.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\rori\garyns_raider.lua</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "airstrike_group", chance = 100 * (100000)},\n\t\t\t},\n\t\t\tlootChance = 1 * (50000), -- very rare drop\n\t\t}', '{\n\t\t\t\t{group = "airstrike_group", chance = 100 * (100000)},\n\t\t\t}', '{group = "airstrike_group", chance = 100 * (100000)}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "combat_practice", chance = 100 * (100000)}\n\t\t\t},\n\t\t\tlootChance = 25 * (100000)\n\t\t}', '{\n\t\t\t\t{group = "combat_practice", chance = 100 * (100000)}\n\t\t\t}', '{group = "combat_practice", chance = 100 * (100000)}')]</t>
         </is>
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 2000000},\n\t\t\t\t{group = "wearables_common", chance = 2000000},\n\t\t\t\t{group = "pistols", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 2000000},\n\t\t\t\t{group = "loot_kit_parts", chance = 2000000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 2000000},\n\t\t\t\t{group = "wearables_common", chance = 2000000},\n\t\t\t\t{group = "pistols", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 2000000},\n\t\t\t\t{group = "loot_kit_parts", chance = 2000000}\n\t\t\t}', '{group = "loot_kit_parts", chance = 2000000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 2000000},\n\t\t\t\t{group = "wearables_common", chance = 2000000},\n\t\t\t\t{group = "rifles", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 2000000},\n\t\t\t\t{group = "loot_kit_parts", chance = 2000000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 2000000},\n\t\t\t\t{group = "wearables_common", chance = 2000000},\n\t\t\t\t{group = "rifles", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 2000000},\n\t\t\t\t{group = "loot_kit_parts", chance = 2000000}\n\t\t\t}', '{group = "loot_kit_parts", chance = 2000000}')]</t>
         </is>
       </c>
     </row>
@@ -7630,17 +7630,17 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\rori\kobola_assassin.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\rori\garyns_thief.lua</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "pelgo_pink", chance = 100 * (100000)},\n\t\t\t},\n\t\t\tlootChance = 3 * (100000)\n\t\t}', '{\n\t\t\t\t{group = "pelgo_pink", chance = 100 * (100000)},\n\t\t\t}', '{group = "pelgo_pink", chance = 100 * (100000)}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "airstrike_group", chance = 100 * (100000)},\n\t\t\t},\n\t\t\tlootChance = 1 * (50000), -- very rare drop\n\t\t}', '{\n\t\t\t\t{group = "airstrike_group", chance = 100 * (100000)},\n\t\t\t}', '{group = "airstrike_group", chance = 100 * (100000)}')]</t>
         </is>
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "pelgo_pink", chance = 100 * (100000)},\n\t\t\t},\n\t\t\tlootChance = 2 * (100000)\n\t\t}', '{\n\t\t\t\t{group = "pelgo_pink", chance = 100 * (100000)},\n\t\t\t}', '{group = "pelgo_pink", chance = 100 * (100000)}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 2000000},\n\t\t\t\t{group = "wearables_common", chance = 2000000},\n\t\t\t\t{group = "pistols", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 2000000},\n\t\t\t\t{group = "loot_kit_parts", chance = 2000000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 2000000},\n\t\t\t\t{group = "wearables_common", chance = 2000000},\n\t\t\t\t{group = "pistols", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 2000000},\n\t\t\t\t{group = "loot_kit_parts", chance = 2000000}\n\t\t\t}', '{group = "loot_kit_parts", chance = 2000000}')]</t>
         </is>
       </c>
     </row>
@@ -7650,7 +7650,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\rori\kobola_foreman.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\rori\kobola_assassin.lua</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -7670,7 +7670,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\rori\kobola_guard.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\rori\kobola_foreman.lua</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -7690,7 +7690,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\rori\kobola_miner.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\rori\kobola_guard.lua</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -7710,7 +7710,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\rori\kobola_pitboss.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\rori\kobola_miner.lua</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 2400000},\n\t\t\t\t{group = "tailor_components", chance = 2000000},\n\t\t\t\t{group = "loot_kit_parts", chance = 2000000},\n\t\t\t\t{group = "kobola_common", chance = 3600000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 2400000},\n\t\t\t\t{group = "tailor_components", chance = 2000000},\n\t\t\t\t{group = "loot_kit_parts", chance = 2000000},\n\t\t\t\t{group = "kobola_common", chance = 3600000}\n\t\t\t}', '{group = "kobola_common", chance = 3600000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "pelgo_pink", chance = 100 * (100000)},\n\t\t\t},\n\t\t\tlootChance = 2 * (100000)\n\t\t}', '{\n\t\t\t\t{group = "pelgo_pink", chance = 100 * (100000)},\n\t\t\t}', '{group = "pelgo_pink", chance = 100 * (100000)}')]</t>
         </is>
       </c>
     </row>
@@ -7730,17 +7730,17 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\rori\kobola_thief.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\rori\kobola_pitboss.lua</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "pelgo_pink", chance = 100 * (100000)},\n\t\t\t},\n\t\t\tlootChance = 5 * (100000)\n\t\t}', '{\n\t\t\t\t{group = "pelgo_pink", chance = 100 * (100000)},\n\t\t\t}', '{group = "pelgo_pink", chance = 100 * (100000)}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "pelgo_pink", chance = 100 * (100000)},\n\t\t\t},\n\t\t\tlootChance = 3 * (100000)\n\t\t}', '{\n\t\t\t\t{group = "pelgo_pink", chance = 100 * (100000)},\n\t\t\t}', '{group = "pelgo_pink", chance = 100 * (100000)}')]</t>
         </is>
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "pelgo_pink", chance = 100 * (100000)},\n\t\t\t},\n\t\t\tlootChance = 6 * (100000)\n\t\t}', '{\n\t\t\t\t{group = "pelgo_pink", chance = 100 * (100000)},\n\t\t\t}', '{group = "pelgo_pink", chance = 100 * (100000)}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 2400000},\n\t\t\t\t{group = "tailor_components", chance = 2000000},\n\t\t\t\t{group = "loot_kit_parts", chance = 2000000},\n\t\t\t\t{group = "kobola_common", chance = 3600000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 2400000},\n\t\t\t\t{group = "tailor_components", chance = 2000000},\n\t\t\t\t{group = "loot_kit_parts", chance = 2000000},\n\t\t\t\t{group = "kobola_common", chance = 3600000}\n\t\t\t}', '{group = "kobola_common", chance = 3600000}')]</t>
         </is>
       </c>
     </row>
@@ -7750,17 +7750,17 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\rori\neo_cobral_assassin.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\rori\kobola_thief.lua</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "inf_gold_4", chance =    100 * (100000)}\n\t\t\t},\n\t\t\tlootChance = 7 * (100000)\n\t\t}', '{\n\t\t\t\t{group = "inf_gold_4", chance =    100 * (100000)}\n\t\t\t}', '{group = "inf_gold_4", chance =    100 * (100000)}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "pelgo_pink", chance = 100 * (100000)},\n\t\t\t},\n\t\t\tlootChance = 5 * (100000)\n\t\t}', '{\n\t\t\t\t{group = "pelgo_pink", chance = 100 * (100000)},\n\t\t\t}', '{group = "pelgo_pink", chance = 100 * (100000)}')]</t>
         </is>
       </c>
       <c r="D367" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 2000000},\n\t\t\t\t{group = "wearables_common", chance = 2000000},\n\t\t\t\t{group = "melee_weapons", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 2000000},\n\t\t\t\t{group = "loot_kit_parts", chance = 2000000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 2000000},\n\t\t\t\t{group = "wearables_common", chance = 2000000},\n\t\t\t\t{group = "melee_weapons", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 2000000},\n\t\t\t\t{group = "loot_kit_parts", chance = 2000000}\n\t\t\t}', '{group = "loot_kit_parts", chance = 2000000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "pelgo_pink", chance = 100 * (100000)},\n\t\t\t},\n\t\t\tlootChance = 6 * (100000)\n\t\t}', '{\n\t\t\t\t{group = "pelgo_pink", chance = 100 * (100000)},\n\t\t\t}', '{group = "pelgo_pink", chance = 100 * (100000)}')]</t>
         </is>
       </c>
     </row>
@@ -7770,17 +7770,17 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\rori\neo_cobral_boss.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\rori\neo_cobral_assassin.lua</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "inf_gold_4", chance =    100 * (100000)}\n\t\t\t},\n\t\t\tlootChance = 12 * (100000)\n\t\t}', '{\n\t\t\t\t{group = "inf_gold_4", chance =    100 * (100000)}\n\t\t\t}', '{group = "inf_gold_4", chance =    100 * (100000)}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "inf_gold_4", chance =    100 * (100000)}\n\t\t\t},\n\t\t\tlootChance = 7 * (100000)\n\t\t}', '{\n\t\t\t\t{group = "inf_gold_4", chance =    100 * (100000)}\n\t\t\t}', '{group = "inf_gold_4", chance =    100 * (100000)}')]</t>
         </is>
       </c>
       <c r="D368" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 2000000},\n\t\t\t\t{group = "wearables_all", chance = 2000000},\n\t\t\t\t{group = "carbines", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 2000000},\n\t\t\t\t{group = "loot_kit_parts", chance = 2000000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 2000000},\n\t\t\t\t{group = "wearables_all", chance = 2000000},\n\t\t\t\t{group = "carbines", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 2000000},\n\t\t\t\t{group = "loot_kit_parts", chance = 2000000}\n\t\t\t}', '{group = "loot_kit_parts", chance = 2000000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 2000000},\n\t\t\t\t{group = "wearables_common", chance = 2000000},\n\t\t\t\t{group = "melee_weapons", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 2000000},\n\t\t\t\t{group = "loot_kit_parts", chance = 2000000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 2000000},\n\t\t\t\t{group = "wearables_common", chance = 2000000},\n\t\t\t\t{group = "melee_weapons", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 2000000},\n\t\t\t\t{group = "loot_kit_parts", chance = 2000000}\n\t\t\t}', '{group = "loot_kit_parts", chance = 2000000}')]</t>
         </is>
       </c>
     </row>
@@ -7790,17 +7790,17 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\rori\neo_cobral_thief.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\rori\neo_cobral_boss.lua</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "airstrike_group", chance = 100 * (100000)},\n\t\t\t},\n\t\t\tlootChance = 1 * (25000), -- very rare drop\n\t\t}', '{\n\t\t\t\t{group = "airstrike_group", chance = 100 * (100000)},\n\t\t\t}', '{group = "airstrike_group", chance = 100 * (100000)}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "inf_gold_4", chance =    100 * (100000)}\n\t\t\t},\n\t\t\tlootChance = 12 * (100000)\n\t\t}', '{\n\t\t\t\t{group = "inf_gold_4", chance =    100 * (100000)}\n\t\t\t}', '{group = "inf_gold_4", chance =    100 * (100000)}')]</t>
         </is>
       </c>
       <c r="D369" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 2000000},\n\t\t\t\t{group = "wearables_common", chance = 2000000},\n\t\t\t\t{group = "pistols", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 2000000},\n\t\t\t\t{group = "loot_kit_parts", chance = 2000000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 2000000},\n\t\t\t\t{group = "wearables_common", chance = 2000000},\n\t\t\t\t{group = "pistols", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 2000000},\n\t\t\t\t{group = "loot_kit_parts", chance = 2000000}\n\t\t\t}', '{group = "loot_kit_parts", chance = 2000000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 2000000},\n\t\t\t\t{group = "wearables_all", chance = 2000000},\n\t\t\t\t{group = "carbines", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 2000000},\n\t\t\t\t{group = "loot_kit_parts", chance = 2000000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 2000000},\n\t\t\t\t{group = "wearables_all", chance = 2000000},\n\t\t\t\t{group = "carbines", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 2000000},\n\t\t\t\t{group = "loot_kit_parts", chance = 2000000}\n\t\t\t}', '{group = "loot_kit_parts", chance = 2000000}')]</t>
         </is>
       </c>
     </row>
@@ -7810,17 +7810,17 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\rori\spice_collective_courier.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\rori\neo_cobral_thief.lua</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "art_illum11", chance = 10000000}\n\t\t\t},\n\t\t\tlootChance = 4500000\n\t\t}', '{\n\t\t\t\t{group = "art_illum11", chance = 10000000}\n\t\t\t}', '{group = "art_illum11", chance = 10000000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "airstrike_group", chance = 100 * (100000)},\n\t\t\t},\n\t\t\tlootChance = 1 * (25000), -- very rare drop\n\t\t}', '{\n\t\t\t\t{group = "airstrike_group", chance = 100 * (100000)},\n\t\t\t}', '{group = "airstrike_group", chance = 100 * (100000)}')]</t>
         </is>
       </c>
       <c r="D370" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 2000000},\n\t\t\t\t{group = "wearables_common", chance = 2000000},\n\t\t\t\t{group = "carbines", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 2000000},\n\t\t\t\t{group = "loot_kit_parts", chance = 2000000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 2000000},\n\t\t\t\t{group = "wearables_common", chance = 2000000},\n\t\t\t\t{group = "carbines", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 2000000},\n\t\t\t\t{group = "loot_kit_parts", chance = 2000000}\n\t\t\t}', '{group = "loot_kit_parts", chance = 2000000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 2000000},\n\t\t\t\t{group = "wearables_common", chance = 2000000},\n\t\t\t\t{group = "pistols", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 2000000},\n\t\t\t\t{group = "loot_kit_parts", chance = 2000000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 2000000},\n\t\t\t\t{group = "wearables_common", chance = 2000000},\n\t\t\t\t{group = "pistols", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 2000000},\n\t\t\t\t{group = "loot_kit_parts", chance = 2000000}\n\t\t\t}', '{group = "loot_kit_parts", chance = 2000000}')]</t>
         </is>
       </c>
     </row>
@@ -7830,12 +7830,12 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\rori\spice_collective_sentry.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\rori\spice_collective_courier.lua</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "combat_practice", chance = 100 * (100000)}\n\t\t\t},\n\t\t\tlootChance = 25 * (100000)\n\t\t}', '{\n\t\t\t\t{group = "combat_practice", chance = 100 * (100000)}\n\t\t\t}', '{group = "combat_practice", chance = 100 * (100000)}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "art_illum11", chance = 10000000}\n\t\t\t},\n\t\t\tlootChance = 4500000\n\t\t}', '{\n\t\t\t\t{group = "art_illum11", chance = 10000000}\n\t\t\t}', '{group = "art_illum11", chance = 10000000}')]</t>
         </is>
       </c>
       <c r="D371" t="inlineStr">
@@ -7850,17 +7850,17 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\talus\aakuan_anarchist.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\rori\spice_collective_sentry.lua</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 4000000},\n\t\t\t\t{group = "wearables_all", chance = 1000000},\n\t\t\t\t{group = "data_storage_unit_parts", chance = 1600000},\n\t\t\t\t{group = "aakuan_common", chance = 2300000},\n\t\t\t\t{group = "armor_attachments", chance = 500000},\n\t\t\t\t{group = "clothing_attachments", chance = 600000}\n\t\t\t},\n\t\t\tlootChance = 5000000,\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 4000000},\n\t\t\t\t{group = "wearables_all", chance = 1000000},\n\t\t\t\t{group = "data_storage_unit_parts", chance = 1600000},\n\t\t\t\t{group = "aakuan_common", chance = 2300000},\n\t\t\t\t{group = "armor_attachments", chance = 500000},\n\t\t\t\t{group = "clothing_attachments", chance = 600000}\n\t\t\t}', '{group = "clothing_attachments", chance = 600000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "combat_practice", chance = 100 * (100000)}\n\t\t\t},\n\t\t\tlootChance = 25 * (100000)\n\t\t}', '{\n\t\t\t\t{group = "combat_practice", chance = 100 * (100000)}\n\t\t\t}', '{group = "combat_practice", chance = 100 * (100000)}')]</t>
         </is>
       </c>
       <c r="D372" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 4000000},\n\t\t\t\t{group = "wearables_all", chance = 1000000},\n\t\t\t\t{group = "data_storage_unit_parts", chance = 1600000},\n\t\t\t\t{group = "aakuan_common", chance = 2300000},\n\t\t\t\t{group = "armor_attachments", chance = 500000},\n\t\t\t\t{group = "clothing_attachments", chance = 600000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 4000000},\n\t\t\t\t{group = "wearables_all", chance = 1000000},\n\t\t\t\t{group = "data_storage_unit_parts", chance = 1600000},\n\t\t\t\t{group = "aakuan_common", chance = 2300000},\n\t\t\t\t{group = "armor_attachments", chance = 500000},\n\t\t\t\t{group = "clothing_attachments", chance = 600000}\n\t\t\t}', '{group = "clothing_attachments", chance = 600000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 2000000},\n\t\t\t\t{group = "wearables_common", chance = 2000000},\n\t\t\t\t{group = "carbines", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 2000000},\n\t\t\t\t{group = "loot_kit_parts", chance = 2000000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 2000000},\n\t\t\t\t{group = "wearables_common", chance = 2000000},\n\t\t\t\t{group = "carbines", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 2000000},\n\t\t\t\t{group = "loot_kit_parts", chance = 2000000}\n\t\t\t}', '{group = "loot_kit_parts", chance = 2000000}')]</t>
         </is>
       </c>
     </row>
@@ -7870,7 +7870,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\talus\aakuan_assassin.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\talus\aakuan_anarchist.lua</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
@@ -7890,17 +7890,17 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\talus\aakuan_champion.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\talus\aakuan_assassin.lua</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 4000000},\n\t\t\t\t{group = "data_storage_unit_parts", chance = 2000000},\n\t\t\t\t{group = "aakuan_common", chance = 2600000},\n\t\t\t\t{group = "armor_attachments", chance = 600000},\n\t\t\t\t{group = "clothing_attachments", chance = 800000}\n\t\t\t},\n\t\t\tlootChance = 5000000,\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 4000000},\n\t\t\t\t{group = "data_storage_unit_parts", chance = 2000000},\n\t\t\t\t{group = "aakuan_common", chance = 2600000},\n\t\t\t\t{group = "armor_attachments", chance = 600000},\n\t\t\t\t{group = "clothing_attachments", chance = 800000}\n\t\t\t}', '{group = "clothing_attachments", chance = 800000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 4000000},\n\t\t\t\t{group = "wearables_all", chance = 1000000},\n\t\t\t\t{group = "data_storage_unit_parts", chance = 1600000},\n\t\t\t\t{group = "aakuan_common", chance = 2300000},\n\t\t\t\t{group = "armor_attachments", chance = 500000},\n\t\t\t\t{group = "clothing_attachments", chance = 600000}\n\t\t\t},\n\t\t\tlootChance = 5000000,\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 4000000},\n\t\t\t\t{group = "wearables_all", chance = 1000000},\n\t\t\t\t{group = "data_storage_unit_parts", chance = 1600000},\n\t\t\t\t{group = "aakuan_common", chance = 2300000},\n\t\t\t\t{group = "armor_attachments", chance = 500000},\n\t\t\t\t{group = "clothing_attachments", chance = 600000}\n\t\t\t}', '{group = "clothing_attachments", chance = 600000}')]</t>
         </is>
       </c>
       <c r="D374" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 4000000},\n\t\t\t\t{group = "data_storage_unit_parts", chance = 2000000},\n\t\t\t\t{group = "aakuan_common", chance = 2600000},\n\t\t\t\t{group = "armor_attachments", chance = 600000},\n\t\t\t\t{group = "clothing_attachments", chance = 800000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 4000000},\n\t\t\t\t{group = "data_storage_unit_parts", chance = 2000000},\n\t\t\t\t{group = "aakuan_common", chance = 2600000},\n\t\t\t\t{group = "armor_attachments", chance = 600000},\n\t\t\t\t{group = "clothing_attachments", chance = 800000}\n\t\t\t}', '{group = "clothing_attachments", chance = 800000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 4000000},\n\t\t\t\t{group = "wearables_all", chance = 1000000},\n\t\t\t\t{group = "data_storage_unit_parts", chance = 1600000},\n\t\t\t\t{group = "aakuan_common", chance = 2300000},\n\t\t\t\t{group = "armor_attachments", chance = 500000},\n\t\t\t\t{group = "clothing_attachments", chance = 600000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 4000000},\n\t\t\t\t{group = "wearables_all", chance = 1000000},\n\t\t\t\t{group = "data_storage_unit_parts", chance = 1600000},\n\t\t\t\t{group = "aakuan_common", chance = 2300000},\n\t\t\t\t{group = "armor_attachments", chance = 500000},\n\t\t\t\t{group = "clothing_attachments", chance = 600000}\n\t\t\t}', '{group = "clothing_attachments", chance = 600000}')]</t>
         </is>
       </c>
     </row>
@@ -7910,17 +7910,17 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\talus\aakuan_defender.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\talus\aakuan_champion.lua</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 4000000},\n\t\t\t\t{group = "wearables_all", chance = 1000000},\n\t\t\t\t{group = "data_storage_unit_parts", chance = 1600000},\n\t\t\t\t{group = "aakuan_common", chance = 2300000},\n\t\t\t\t{group = "armor_attachments", chance = 500000},\n\t\t\t\t{group = "clothing_attachments", chance = 600000}\n\t\t\t},\n\t\t\tlootChance = 5000000,\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 4000000},\n\t\t\t\t{group = "wearables_all", chance = 1000000},\n\t\t\t\t{group = "data_storage_unit_parts", chance = 1600000},\n\t\t\t\t{group = "aakuan_common", chance = 2300000},\n\t\t\t\t{group = "armor_attachments", chance = 500000},\n\t\t\t\t{group = "clothing_attachments", chance = 600000}\n\t\t\t}', '{group = "clothing_attachments", chance = 600000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 4000000},\n\t\t\t\t{group = "data_storage_unit_parts", chance = 2000000},\n\t\t\t\t{group = "aakuan_common", chance = 2600000},\n\t\t\t\t{group = "armor_attachments", chance = 600000},\n\t\t\t\t{group = "clothing_attachments", chance = 800000}\n\t\t\t},\n\t\t\tlootChance = 5000000,\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 4000000},\n\t\t\t\t{group = "data_storage_unit_parts", chance = 2000000},\n\t\t\t\t{group = "aakuan_common", chance = 2600000},\n\t\t\t\t{group = "armor_attachments", chance = 600000},\n\t\t\t\t{group = "clothing_attachments", chance = 800000}\n\t\t\t}', '{group = "clothing_attachments", chance = 800000}')]</t>
         </is>
       </c>
       <c r="D375" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 4000000},\n\t\t\t\t{group = "wearables_all", chance = 1000000},\n\t\t\t\t{group = "data_storage_unit_parts", chance = 1600000},\n\t\t\t\t{group = "aakuan_common", chance = 2300000},\n\t\t\t\t{group = "armor_attachments", chance = 500000},\n\t\t\t\t{group = "clothing_attachments", chance = 600000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 4000000},\n\t\t\t\t{group = "wearables_all", chance = 1000000},\n\t\t\t\t{group = "data_storage_unit_parts", chance = 1600000},\n\t\t\t\t{group = "aakuan_common", chance = 2300000},\n\t\t\t\t{group = "armor_attachments", chance = 500000},\n\t\t\t\t{group = "clothing_attachments", chance = 600000}\n\t\t\t}', '{group = "clothing_attachments", chance = 600000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 4000000},\n\t\t\t\t{group = "data_storage_unit_parts", chance = 2000000},\n\t\t\t\t{group = "aakuan_common", chance = 2600000},\n\t\t\t\t{group = "armor_attachments", chance = 600000},\n\t\t\t\t{group = "clothing_attachments", chance = 800000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 4000000},\n\t\t\t\t{group = "data_storage_unit_parts", chance = 2000000},\n\t\t\t\t{group = "aakuan_common", chance = 2600000},\n\t\t\t\t{group = "armor_attachments", chance = 600000},\n\t\t\t\t{group = "clothing_attachments", chance = 800000}\n\t\t\t}', '{group = "clothing_attachments", chance = 800000}')]</t>
         </is>
       </c>
     </row>
@@ -7930,7 +7930,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\talus\aakuan_follower.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\talus\aakuan_defender.lua</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
@@ -7950,7 +7950,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\talus\aakuan_guardian.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\talus\aakuan_follower.lua</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
@@ -7970,7 +7970,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\talus\aakuan_keeper.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\talus\aakuan_guardian.lua</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
@@ -7990,7 +7990,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\talus\aakuan_sentinel.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\talus\aakuan_keeper.lua</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
@@ -8010,7 +8010,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\talus\aakuan_spice_guard.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\talus\aakuan_sentinel.lua</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
@@ -8030,7 +8030,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\talus\aakuan_steward.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\talus\aakuan_spice_guard.lua</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
@@ -8050,7 +8050,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\talus\aakuan_warder.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\talus\aakuan_steward.lua</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
@@ -8070,17 +8070,17 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\talus\binayre_hooligan.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\talus\aakuan_warder.lua</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "pelgo_red", chance = 100 * (100000)},\n\t\t\t},\n\t\t\tlootChance = 3 * (100000)\n\t\t}', '{\n\t\t\t\t{group = "pelgo_red", chance = 100 * (100000)},\n\t\t\t}', '{group = "pelgo_red", chance = 100 * (100000)}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 4000000},\n\t\t\t\t{group = "wearables_all", chance = 1000000},\n\t\t\t\t{group = "data_storage_unit_parts", chance = 1600000},\n\t\t\t\t{group = "aakuan_common", chance = 2300000},\n\t\t\t\t{group = "armor_attachments", chance = 500000},\n\t\t\t\t{group = "clothing_attachments", chance = 600000}\n\t\t\t},\n\t\t\tlootChance = 5000000,\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 4000000},\n\t\t\t\t{group = "wearables_all", chance = 1000000},\n\t\t\t\t{group = "data_storage_unit_parts", chance = 1600000},\n\t\t\t\t{group = "aakuan_common", chance = 2300000},\n\t\t\t\t{group = "armor_attachments", chance = 500000},\n\t\t\t\t{group = "clothing_attachments", chance = 600000}\n\t\t\t}', '{group = "clothing_attachments", chance = 600000}')]</t>
         </is>
       </c>
       <c r="D383" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "pelgo_red", chance = 100 * (100000)},\n\t\t\t},\n\t\t\tlootChance = 2 * (100000)\n\t\t}', '{\n\t\t\t\t{group = "pelgo_red", chance = 100 * (100000)},\n\t\t\t}', '{group = "pelgo_red", chance = 100 * (100000)}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 4000000},\n\t\t\t\t{group = "wearables_all", chance = 1000000},\n\t\t\t\t{group = "data_storage_unit_parts", chance = 1600000},\n\t\t\t\t{group = "aakuan_common", chance = 2300000},\n\t\t\t\t{group = "armor_attachments", chance = 500000},\n\t\t\t\t{group = "clothing_attachments", chance = 600000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 4000000},\n\t\t\t\t{group = "wearables_all", chance = 1000000},\n\t\t\t\t{group = "data_storage_unit_parts", chance = 1600000},\n\t\t\t\t{group = "aakuan_common", chance = 2300000},\n\t\t\t\t{group = "armor_attachments", chance = 500000},\n\t\t\t\t{group = "clothing_attachments", chance = 600000}\n\t\t\t}', '{group = "clothing_attachments", chance = 600000}')]</t>
         </is>
       </c>
     </row>
@@ -8090,7 +8090,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\talus\binayre_pirate.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\talus\binayre_hooligan.lua</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
@@ -8110,7 +8110,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\talus\binayre_ruffian.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\talus\binayre_pirate.lua</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
@@ -8130,7 +8130,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\talus\binayre_scalawag.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\talus\binayre_ruffian.lua</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
@@ -8150,12 +8150,12 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\talus\binayre_smuggler.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\talus\binayre_scalawag.lua</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "pelgo_red", chance = 100 * (100000)},\n\t\t\t},\n\t\t\tlootChance = 6 * (100000)\n\t\t}', '{\n\t\t\t\t{group = "pelgo_red", chance = 100 * (100000)},\n\t\t\t}', '{group = "pelgo_red", chance = 100 * (100000)}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "pelgo_red", chance = 100 * (100000)},\n\t\t\t},\n\t\t\tlootChance = 3 * (100000)\n\t\t}', '{\n\t\t\t\t{group = "pelgo_red", chance = 100 * (100000)},\n\t\t\t}', '{group = "pelgo_red", chance = 100 * (100000)}')]</t>
         </is>
       </c>
       <c r="D387" t="inlineStr">
@@ -8170,17 +8170,17 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\talus\fed_dub_patrolman.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\talus\binayre_smuggler.lua</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "combat_practice", chance = 100 * (100000)}\n\t\t\t},\n\t\t\tlootChance = 25 * (100000)\n\t\t}', '{\n\t\t\t\t{group = "combat_practice", chance = 100 * (100000)}\n\t\t\t}', '{group = "combat_practice", chance = 100 * (100000)}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "pelgo_red", chance = 100 * (100000)},\n\t\t\t},\n\t\t\tlootChance = 6 * (100000)\n\t\t}', '{\n\t\t\t\t{group = "pelgo_red", chance = 100 * (100000)},\n\t\t\t}', '{group = "pelgo_red", chance = 100 * (100000)}')]</t>
         </is>
       </c>
       <c r="D388" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 3000000},\n\t\t\t\t{group = "wearables_common", chance = 2000000},\n\t\t\t\t{group = "pistols", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 1500000},\n\t\t\t\t{group = "loot_kit_parts", chance = 1500000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 3000000},\n\t\t\t\t{group = "wearables_common", chance = 2000000},\n\t\t\t\t{group = "pistols", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 1500000},\n\t\t\t\t{group = "loot_kit_parts", chance = 1500000}\n\t\t\t}', '{group = "loot_kit_parts", chance = 1500000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "pelgo_red", chance = 100 * (100000)},\n\t\t\t},\n\t\t\tlootChance = 2 * (100000)\n\t\t}', '{\n\t\t\t\t{group = "pelgo_red", chance = 100 * (100000)},\n\t\t\t}', '{group = "pelgo_red", chance = 100 * (100000)}')]</t>
         </is>
       </c>
     </row>
@@ -8190,17 +8190,17 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\talus\lost_aqualish_bomber.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\talus\fed_dub_patrolman.lua</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "pelgo_blue", chance = 100 * (100000)},\n\t\t\t},\n\t\t\tlootChance = 3 * (100000)\n\t\t}', '{\n\t\t\t\t{group = "pelgo_blue", chance = 100 * (100000)},\n\t\t\t}', '{group = "pelgo_blue", chance = 100 * (100000)}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "combat_practice", chance = 100 * (100000)}\n\t\t\t},\n\t\t\tlootChance = 25 * (100000)\n\t\t}', '{\n\t\t\t\t{group = "combat_practice", chance = 100 * (100000)}\n\t\t\t}', '{group = "combat_practice", chance = 100 * (100000)}')]</t>
         </is>
       </c>
       <c r="D389" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "pelgo_blue", chance = 100 * (100000)},\n\t\t\t},\n\t\t\tlootChance = 2 * (100000)\n\t\t}', '{\n\t\t\t\t{group = "pelgo_blue", chance = 100 * (100000)},\n\t\t\t}', '{group = "pelgo_blue", chance = 100 * (100000)}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 3000000},\n\t\t\t\t{group = "wearables_common", chance = 2000000},\n\t\t\t\t{group = "pistols", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 1500000},\n\t\t\t\t{group = "loot_kit_parts", chance = 1500000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 3000000},\n\t\t\t\t{group = "wearables_common", chance = 2000000},\n\t\t\t\t{group = "pistols", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 1500000},\n\t\t\t\t{group = "loot_kit_parts", chance = 1500000}\n\t\t\t}', '{group = "loot_kit_parts", chance = 1500000}')]</t>
         </is>
       </c>
     </row>
@@ -8210,7 +8210,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\talus\lost_aqualish_captain.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\talus\lost_aqualish_bomber.lua</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
@@ -8220,7 +8220,7 @@
       </c>
       <c r="D390" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 3000000},\n\t\t\t\t{group = "wearables_common", chance = 2000000},\n\t\t\t\t{group = "heavy_weapons", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 1500000},\n\t\t\t\t{group = "loot_kit_parts", chance = 1500000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 3000000},\n\t\t\t\t{group = "wearables_common", chance = 2000000},\n\t\t\t\t{group = "heavy_weapons", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 1500000},\n\t\t\t\t{group = "loot_kit_parts", chance = 1500000}\n\t\t\t}', '{group = "loot_kit_parts", chance = 1500000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "pelgo_blue", chance = 100 * (100000)},\n\t\t\t},\n\t\t\tlootChance = 2 * (100000)\n\t\t}', '{\n\t\t\t\t{group = "pelgo_blue", chance = 100 * (100000)},\n\t\t\t}', '{group = "pelgo_blue", chance = 100 * (100000)}')]</t>
         </is>
       </c>
     </row>
@@ -8230,7 +8230,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\talus\lost_aqualish_commando.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\talus\lost_aqualish_captain.lua</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
@@ -8240,7 +8240,7 @@
       </c>
       <c r="D391" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "pelgo_blue", chance = 100 * (100000)},\n\t\t\t},\n\t\t\tlootChance = 2 * (100000)\n\t\t}', '{\n\t\t\t\t{group = "pelgo_blue", chance = 100 * (100000)},\n\t\t\t}', '{group = "pelgo_blue", chance = 100 * (100000)}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 3000000},\n\t\t\t\t{group = "wearables_common", chance = 2000000},\n\t\t\t\t{group = "heavy_weapons", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 1500000},\n\t\t\t\t{group = "loot_kit_parts", chance = 1500000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 3000000},\n\t\t\t\t{group = "wearables_common", chance = 2000000},\n\t\t\t\t{group = "heavy_weapons", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 1500000},\n\t\t\t\t{group = "loot_kit_parts", chance = 1500000}\n\t\t\t}', '{group = "loot_kit_parts", chance = 1500000}')]</t>
         </is>
       </c>
     </row>
@@ -8250,7 +8250,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\talus\lost_aqualish_infiltrator.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\talus\lost_aqualish_commando.lua</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
@@ -8270,7 +8270,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\talus\lost_aqualish_marksman.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\talus\lost_aqualish_infiltrator.lua</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
@@ -8280,7 +8280,7 @@
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 2500000},\n\t\t\t\t{group = "wearables_common", chance = 2000000},\n\t\t\t\t{group = "rifles", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 1500000},\n\t\t\t\t{group = "loot_kit_parts", chance = 1500000},\n\t\t\t\t{group = "color_crystals", chance = 500000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 2500000},\n\t\t\t\t{group = "wearables_common", chance = 2000000},\n\t\t\t\t{group = "rifles", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 1500000},\n\t\t\t\t{group = "loot_kit_parts", chance = 1500000},\n\t\t\t\t{group = "color_crystals", chance = 500000}\n\t\t\t}', '{group = "color_crystals", chance = 500000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "pelgo_blue", chance = 100 * (100000)},\n\t\t\t},\n\t\t\tlootChance = 2 * (100000)\n\t\t}', '{\n\t\t\t\t{group = "pelgo_blue", chance = 100 * (100000)},\n\t\t\t}', '{group = "pelgo_blue", chance = 100 * (100000)}')]</t>
         </is>
       </c>
     </row>
@@ -8290,7 +8290,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\talus\lost_aqualish_soldier.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\talus\lost_aqualish_marksman.lua</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
@@ -8300,7 +8300,7 @@
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "pelgo_blue", chance = 100 * (100000)},\n\t\t\t},\n\t\t\tlootChance = 2 * (100000)\n\t\t}', '{\n\t\t\t\t{group = "pelgo_blue", chance = 100 * (100000)},\n\t\t\t}', '{group = "pelgo_blue", chance = 100 * (100000)}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 2500000},\n\t\t\t\t{group = "wearables_common", chance = 2000000},\n\t\t\t\t{group = "rifles", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 1500000},\n\t\t\t\t{group = "loot_kit_parts", chance = 1500000},\n\t\t\t\t{group = "color_crystals", chance = 500000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 2500000},\n\t\t\t\t{group = "wearables_common", chance = 2000000},\n\t\t\t\t{group = "rifles", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 1500000},\n\t\t\t\t{group = "loot_kit_parts", chance = 1500000},\n\t\t\t\t{group = "color_crystals", chance = 500000}\n\t\t\t}', '{group = "color_crystals", chance = 500000}')]</t>
         </is>
       </c>
     </row>
@@ -8310,7 +8310,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\talus\lost_aqualish_warrior.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\talus\lost_aqualish_soldier.lua</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
@@ -8330,17 +8330,17 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\talus\talus_liberation_party_volunteer.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\talus\lost_aqualish_warrior.lua</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "combat_practice", chance = 100 * (100000)}\n\t\t\t},\n\t\t\tlootChance = 25 * (100000)\n\t\t}', '{\n\t\t\t\t{group = "combat_practice", chance = 100 * (100000)}\n\t\t\t}', '{group = "combat_practice", chance = 100 * (100000)}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "pelgo_blue", chance = 100 * (100000)},\n\t\t\t},\n\t\t\tlootChance = 3 * (100000)\n\t\t}', '{\n\t\t\t\t{group = "pelgo_blue", chance = 100 * (100000)},\n\t\t\t}', '{group = "pelgo_blue", chance = 100 * (100000)}')]</t>
         </is>
       </c>
       <c r="D396" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 3000000},\n\t\t\t\t{group = "wearables_common", chance = 2000000},\n\t\t\t\t{group = "melee_weapons", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 1500000},\n\t\t\t\t{group = "loot_kit_parts", chance = 1500000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 3000000},\n\t\t\t\t{group = "wearables_common", chance = 2000000},\n\t\t\t\t{group = "melee_weapons", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 1500000},\n\t\t\t\t{group = "loot_kit_parts", chance = 1500000}\n\t\t\t}', '{group = "loot_kit_parts", chance = 1500000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "pelgo_blue", chance = 100 * (100000)},\n\t\t\t},\n\t\t\tlootChance = 2 * (100000)\n\t\t}', '{\n\t\t\t\t{group = "pelgo_blue", chance = 100 * (100000)},\n\t\t\t}', '{group = "pelgo_blue", chance = 100 * (100000)}')]</t>
         </is>
       </c>
     </row>
@@ -8350,17 +8350,17 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\tatooine\alkhara_bandit.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\talus\talus_liberation_party_volunteer.lua</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = \n\t\t\t{\n\t\t\t\t{group = "eta1_armor_group", chance = 10000000},\n\t\t\t},\n\t\t\tlootChance = 6 * (100000), -- 2% chance for this group\n\t\t}', '{\n\t\t\t\t{group = "eta1_armor_group", chance = 10000000},\n\t\t\t}', '{group = "eta1_armor_group", chance = 10000000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "combat_practice", chance = 100 * (100000)}\n\t\t\t},\n\t\t\tlootChance = 25 * (100000)\n\t\t}', '{\n\t\t\t\t{group = "combat_practice", chance = 100 * (100000)}\n\t\t\t}', '{group = "combat_practice", chance = 100 * (100000)}')]</t>
         </is>
       </c>
       <c r="D397" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 2550000},\n\t\t\t\t{group = "wearables_common", chance = 2000000},\n\t\t\t\t{group = "pistols", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 1500000},\n\t\t\t\t{group = "loot_kit_parts", chance = 1500000},\n\t\t\t\t{group = "alkhara_common", chance = 450000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 2550000},\n\t\t\t\t{group = "wearables_common", chance = 2000000},\n\t\t\t\t{group = "pistols", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 1500000},\n\t\t\t\t{group = "loot_kit_parts", chance = 1500000},\n\t\t\t\t{group = "alkhara_common", chance = 450000}\n\t\t\t}', '{group = "alkhara_common", chance = 450000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 3000000},\n\t\t\t\t{group = "wearables_common", chance = 2000000},\n\t\t\t\t{group = "melee_weapons", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 1500000},\n\t\t\t\t{group = "loot_kit_parts", chance = 1500000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 3000000},\n\t\t\t\t{group = "wearables_common", chance = 2000000},\n\t\t\t\t{group = "melee_weapons", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 1500000},\n\t\t\t\t{group = "loot_kit_parts", chance = 1500000}\n\t\t\t}', '{group = "loot_kit_parts", chance = 1500000}')]</t>
         </is>
       </c>
     </row>
@@ -8370,17 +8370,17 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\tatooine\alkhara_bandit_king.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\tatooine\alkhara_bandit.lua</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = \n\t\t\t{\n\t\t\t\t{group = "eta1_armor_group", chance = 10000000},\n\t\t\t},\n\t\t\tlootChance = 10 * (100000), \n\t\t}', '{\n\t\t\t\t{group = "eta1_armor_group", chance = 10000000},\n\t\t\t}', '{group = "eta1_armor_group", chance = 10000000}')]</t>
+          <t>[('{\n\t\t\tgroups = \n\t\t\t{\n\t\t\t\t{group = "eta1_armor_group", chance = 10000000},\n\t\t\t},\n\t\t\tlootChance = 6 * (100000), -- 2% chance for this group\n\t\t}', '{\n\t\t\t\t{group = "eta1_armor_group", chance = 10000000},\n\t\t\t}', '{group = "eta1_armor_group", chance = 10000000}')]</t>
         </is>
       </c>
       <c r="D398" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 2550000},\n\t\t\t\t{group = "wearables_common", chance = 2000000},\n\t\t\t\t{group = "rifles", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 1500000},\n\t\t\t\t{group = "loot_kit_parts", chance = 1500000},\n\t\t\t\t{group = "alkhara_common", chance = 450000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 2550000},\n\t\t\t\t{group = "wearables_common", chance = 2000000},\n\t\t\t\t{group = "rifles", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 1500000},\n\t\t\t\t{group = "loot_kit_parts", chance = 1500000},\n\t\t\t\t{group = "alkhara_common", chance = 450000}\n\t\t\t}', '{group = "alkhara_common", chance = 450000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 2550000},\n\t\t\t\t{group = "wearables_common", chance = 2000000},\n\t\t\t\t{group = "pistols", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 1500000},\n\t\t\t\t{group = "loot_kit_parts", chance = 1500000},\n\t\t\t\t{group = "alkhara_common", chance = 450000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 2550000},\n\t\t\t\t{group = "wearables_common", chance = 2000000},\n\t\t\t\t{group = "pistols", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 1500000},\n\t\t\t\t{group = "loot_kit_parts", chance = 1500000},\n\t\t\t\t{group = "alkhara_common", chance = 450000}\n\t\t\t}', '{group = "alkhara_common", chance = 450000}')]</t>
         </is>
       </c>
     </row>
@@ -8390,17 +8390,17 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\tatooine\alkhara_champion.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\tatooine\alkhara_bandit_king.lua</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = \n\t\t\t{\n\t\t\t\t{group = "eta1_armor_group", chance = 10000000},\n\t\t\t},\n\t\t\tlootChance = 8 * (100000), -- 2% chance for this group\n\t\t}', '{\n\t\t\t\t{group = "eta1_armor_group", chance = 10000000},\n\t\t\t}', '{group = "eta1_armor_group", chance = 10000000}')]</t>
+          <t>[('{\n\t\t\tgroups = \n\t\t\t{\n\t\t\t\t{group = "eta1_armor_group", chance = 10000000},\n\t\t\t},\n\t\t\tlootChance = 10 * (100000), \n\t\t}', '{\n\t\t\t\t{group = "eta1_armor_group", chance = 10000000},\n\t\t\t}', '{group = "eta1_armor_group", chance = 10000000}')]</t>
         </is>
       </c>
       <c r="D399" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 2000000},\n\t\t\t\t{group = "wearables_common", chance = 2000000},\n\t\t\t\t{group = "carbines", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 1500000},\n\t\t\t\t{group = "loot_kit_parts", chance = 1500000},\n\t\t\t\t{group = "alkhara_common", chance = 450000},\n\t\t\t\t{group = "color_crystals", chance = 550000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 2000000},\n\t\t\t\t{group = "wearables_common", chance = 2000000},\n\t\t\t\t{group = "carbines", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 1500000},\n\t\t\t\t{group = "loot_kit_parts", chance = 1500000},\n\t\t\t\t{group = "alkhara_common", chance = 450000},\n\t\t\t\t{group = "color_crystals", chance = 550000}\n\t\t\t}', '{group = "color_crystals", chance = 550000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 2550000},\n\t\t\t\t{group = "wearables_common", chance = 2000000},\n\t\t\t\t{group = "rifles", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 1500000},\n\t\t\t\t{group = "loot_kit_parts", chance = 1500000},\n\t\t\t\t{group = "alkhara_common", chance = 450000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 2550000},\n\t\t\t\t{group = "wearables_common", chance = 2000000},\n\t\t\t\t{group = "rifles", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 1500000},\n\t\t\t\t{group = "loot_kit_parts", chance = 1500000},\n\t\t\t\t{group = "alkhara_common", chance = 450000}\n\t\t\t}', '{group = "alkhara_common", chance = 450000}')]</t>
         </is>
       </c>
     </row>
@@ -8410,17 +8410,17 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\tatooine\alkhara_lieutenant.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\tatooine\alkhara_champion.lua</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = \n\t\t\t{\n\t\t\t\t{group = "eta1_armor_group", chance = 10000000},\n\t\t\t},\n\t\t\tlootChance = 7 * (100000), -- 2% chance for this group\n\t\t}', '{\n\t\t\t\t{group = "eta1_armor_group", chance = 10000000},\n\t\t\t}', '{group = "eta1_armor_group", chance = 10000000}')]</t>
+          <t>[('{\n\t\t\tgroups = \n\t\t\t{\n\t\t\t\t{group = "eta1_armor_group", chance = 10000000},\n\t\t\t},\n\t\t\tlootChance = 8 * (100000), -- 2% chance for this group\n\t\t}', '{\n\t\t\t\t{group = "eta1_armor_group", chance = 10000000},\n\t\t\t}', '{group = "eta1_armor_group", chance = 10000000}')]</t>
         </is>
       </c>
       <c r="D400" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 2550000},\n\t\t\t\t{group = "wearables_common", chance = 2000000},\n\t\t\t\t{group = "pistols", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 1500000},\n\t\t\t\t{group = "loot_kit_parts", chance = 1500000},\n\t\t\t\t{group = "alkhara_common", chance = 450000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 2550000},\n\t\t\t\t{group = "wearables_common", chance = 2000000},\n\t\t\t\t{group = "pistols", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 1500000},\n\t\t\t\t{group = "loot_kit_parts", chance = 1500000},\n\t\t\t\t{group = "alkhara_common", chance = 450000}\n\t\t\t}', '{group = "alkhara_common", chance = 450000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 2000000},\n\t\t\t\t{group = "wearables_common", chance = 2000000},\n\t\t\t\t{group = "carbines", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 1500000},\n\t\t\t\t{group = "loot_kit_parts", chance = 1500000},\n\t\t\t\t{group = "alkhara_common", chance = 450000},\n\t\t\t\t{group = "color_crystals", chance = 550000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 2000000},\n\t\t\t\t{group = "wearables_common", chance = 2000000},\n\t\t\t\t{group = "carbines", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 1500000},\n\t\t\t\t{group = "loot_kit_parts", chance = 1500000},\n\t\t\t\t{group = "alkhara_common", chance = 450000},\n\t\t\t\t{group = "color_crystals", chance = 550000}\n\t\t\t}', '{group = "color_crystals", chance = 550000}')]</t>
         </is>
       </c>
     </row>
@@ -8430,17 +8430,17 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\tatooine\canyon_krayt_dragon.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\tatooine\alkhara_lieutenant.lua</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>[('{\n\t        groups = {\n\t\t\t\t{group = "krayt_pearls", chance = 10000000},\n\t\t\t},\n\t\t\tlootChance = 1000000   -- 10%\n\t\t}', '{\n\t\t\t\t{group = "krayt_pearls", chance = 10000000},\n\t\t\t}', '{group = "krayt_pearls", chance = 10000000}')]</t>
+          <t>[('{\n\t\t\tgroups = \n\t\t\t{\n\t\t\t\t{group = "eta1_armor_group", chance = 10000000},\n\t\t\t},\n\t\t\tlootChance = 7 * (100000), -- 2% chance for this group\n\t\t}', '{\n\t\t\t\t{group = "eta1_armor_group", chance = 10000000},\n\t\t\t}', '{group = "eta1_armor_group", chance = 10000000}')]</t>
         </is>
       </c>
       <c r="D401" t="inlineStr">
         <is>
-          <t>[('{\n\t        groups = {\n\t\t\t\t{group = "krayt_dragon_common", chance = 3500000},\n\t\t\t\t{group = "krayt_tissue_uncommon", chance = 2500000},\n\t\t\t\t{group = "armor_all", chance = 2000000},\n\t\t\t\t{group = "weapons_all", chance = 2000000},\n\t\t\t},\n\t\t\tlootChance = 6500000\n\t\t}', '{\n\t\t\t\t{group = "krayt_dragon_common", chance = 3500000},\n\t\t\t\t{group = "krayt_tissue_uncommon", chance = 2500000},\n\t\t\t\t{group = "armor_all", chance = 2000000},\n\t\t\t\t{group = "weapons_all", chance = 2000000},\n\t\t\t}', '{group = "weapons_all", chance = 2000000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 2550000},\n\t\t\t\t{group = "wearables_common", chance = 2000000},\n\t\t\t\t{group = "pistols", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 1500000},\n\t\t\t\t{group = "loot_kit_parts", chance = 1500000},\n\t\t\t\t{group = "alkhara_common", chance = 450000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 2550000},\n\t\t\t\t{group = "wearables_common", chance = 2000000},\n\t\t\t\t{group = "pistols", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 1500000},\n\t\t\t\t{group = "loot_kit_parts", chance = 1500000},\n\t\t\t\t{group = "alkhara_common", chance = 450000}\n\t\t\t}', '{group = "alkhara_common", chance = 450000}')]</t>
         </is>
       </c>
     </row>
@@ -8450,17 +8450,17 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\tatooine\desert_demon_bodyguard.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\tatooine\canyon_krayt_dragon.lua</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "art_illum17", chance = 10000000}\n\t\t\t},\n\t\t\tlootChance = 500000\n\t\t}', '{\n\t\t\t\t{group = "art_illum17", chance = 10000000}\n\t\t\t}', '{group = "art_illum17", chance = 10000000}')]</t>
+          <t>[('{\n\t        groups = {\n\t\t\t\t{group = "krayt_pearls", chance = 10000000},\n\t\t\t},\n\t\t\tlootChance = 1000000   -- 10%\n\t\t}', '{\n\t\t\t\t{group = "krayt_pearls", chance = 10000000},\n\t\t\t}', '{group = "krayt_pearls", chance = 10000000}')]</t>
         </is>
       </c>
       <c r="D402" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 2500000},\n\t\t\t\t{group = "wearables_common", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 1500000},\n\t\t\t\t{group = "loot_kit_parts", chance = 1500000},\n\t\t\t\t{group = "printer_parts", chance = 1000000},\n\t\t\t\t{group = "desert_demon_common", chance = 1500000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 2500000},\n\t\t\t\t{group = "wearables_common", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 1500000},\n\t\t\t\t{group = "loot_kit_parts", chance = 1500000},\n\t\t\t\t{group = "printer_parts", chance = 1000000},\n\t\t\t\t{group = "desert_demon_common", chance = 1500000}\n\t\t\t}', '{group = "desert_demon_common", chance = 1500000}')]</t>
+          <t>[('{\n\t        groups = {\n\t\t\t\t{group = "krayt_dragon_common", chance = 3500000},\n\t\t\t\t{group = "krayt_tissue_uncommon", chance = 2500000},\n\t\t\t\t{group = "armor_all", chance = 2000000},\n\t\t\t\t{group = "weapons_all", chance = 2000000},\n\t\t\t},\n\t\t\tlootChance = 6500000\n\t\t}', '{\n\t\t\t\t{group = "krayt_dragon_common", chance = 3500000},\n\t\t\t\t{group = "krayt_tissue_uncommon", chance = 2500000},\n\t\t\t\t{group = "armor_all", chance = 2000000},\n\t\t\t\t{group = "weapons_all", chance = 2000000},\n\t\t\t}', '{group = "weapons_all", chance = 2000000}')]</t>
         </is>
       </c>
     </row>
@@ -8470,12 +8470,12 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\tatooine\desert_demon_brawler.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\tatooine\desert_demon_bodyguard.lua</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "combat_practice", chance = 100 * (100000)}\n\t\t\t},\n\t\t\tlootChance = 25 * (100000)\n\t\t}', '{\n\t\t\t\t{group = "combat_practice", chance = 100 * (100000)}\n\t\t\t}', '{group = "combat_practice", chance = 100 * (100000)}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "art_illum17", chance = 10000000}\n\t\t\t},\n\t\t\tlootChance = 500000\n\t\t}', '{\n\t\t\t\t{group = "art_illum17", chance = 10000000}\n\t\t\t}', '{group = "art_illum17", chance = 10000000}')]</t>
         </is>
       </c>
       <c r="D403" t="inlineStr">
@@ -8490,12 +8490,12 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\tatooine\desert_demon_leader.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\tatooine\desert_demon_brawler.lua</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "art_illum17", chance = 10000000}\n\t\t\t},\n\t\t\tlootChance = 2500000\n\t\t}', '{\n\t\t\t\t{group = "art_illum17", chance = 10000000}\n\t\t\t}', '{group = "art_illum17", chance = 10000000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "combat_practice", chance = 100 * (100000)}\n\t\t\t},\n\t\t\tlootChance = 25 * (100000)\n\t\t}', '{\n\t\t\t\t{group = "combat_practice", chance = 100 * (100000)}\n\t\t\t}', '{group = "combat_practice", chance = 100 * (100000)}')]</t>
         </is>
       </c>
       <c r="D404" t="inlineStr">
@@ -8510,17 +8510,17 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\tatooine\dim_u_cleric.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\tatooine\desert_demon_leader.lua</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "art_illum2", chance = 10000000}\n\t\t\t},\n\t\t\tlootChance = 500000\n\t\t}', '{\n\t\t\t\t{group = "art_illum2", chance = 10000000}\n\t\t\t}', '{group = "art_illum2", chance = 10000000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "art_illum17", chance = 10000000}\n\t\t\t},\n\t\t\tlootChance = 2500000\n\t\t}', '{\n\t\t\t\t{group = "art_illum17", chance = 10000000}\n\t\t\t}', '{group = "art_illum17", chance = 10000000}')]</t>
         </is>
       </c>
       <c r="D405" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 4500000},\n\t\t\t\t{group = "wearables_common", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 1500000},\n\t\t\t\t{group = "loot_kit_parts", chance = 1500000},\n\t\t\t\t{group = "dim_u_common", chance = 500000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 4500000},\n\t\t\t\t{group = "wearables_common", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 1500000},\n\t\t\t\t{group = "loot_kit_parts", chance = 1500000},\n\t\t\t\t{group = "dim_u_common", chance = 500000}\n\t\t\t}', '{group = "dim_u_common", chance = 500000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 2500000},\n\t\t\t\t{group = "wearables_common", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 1500000},\n\t\t\t\t{group = "loot_kit_parts", chance = 1500000},\n\t\t\t\t{group = "printer_parts", chance = 1000000},\n\t\t\t\t{group = "desert_demon_common", chance = 1500000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 2500000},\n\t\t\t\t{group = "wearables_common", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 1500000},\n\t\t\t\t{group = "loot_kit_parts", chance = 1500000},\n\t\t\t\t{group = "printer_parts", chance = 1000000},\n\t\t\t\t{group = "desert_demon_common", chance = 1500000}\n\t\t\t}', '{group = "desert_demon_common", chance = 1500000}')]</t>
         </is>
       </c>
     </row>
@@ -8530,12 +8530,12 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\tatooine\dim_u_monk.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\tatooine\dim_u_cleric.lua</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "art_illum2", chance = 10000000}\n\t\t\t},\n\t\t\tlootChance = 4500000\n\t\t}', '{\n\t\t\t\t{group = "art_illum2", chance = 10000000}\n\t\t\t}', '{group = "art_illum2", chance = 10000000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "art_illum2", chance = 10000000}\n\t\t\t},\n\t\t\tlootChance = 500000\n\t\t}', '{\n\t\t\t\t{group = "art_illum2", chance = 10000000}\n\t\t\t}', '{group = "art_illum2", chance = 10000000}')]</t>
         </is>
       </c>
       <c r="D406" t="inlineStr">
@@ -8550,17 +8550,17 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\tatooine\evil_hermit.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\tatooine\dim_u_monk.lua</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "combat_practice", chance = 100 * (100000)}\n\t\t\t},\n\t\t\tlootChance = 25 * (100000)\n\t\t}', '{\n\t\t\t\t{group = "combat_practice", chance = 100 * (100000)}\n\t\t\t}', '{group = "combat_practice", chance = 100 * (100000)}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "art_illum2", chance = 10000000}\n\t\t\t},\n\t\t\tlootChance = 4500000\n\t\t}', '{\n\t\t\t\t{group = "art_illum2", chance = 10000000}\n\t\t\t}', '{group = "art_illum2", chance = 10000000}')]</t>
         </is>
       </c>
       <c r="D407" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 4000000},\n\t\t\t\t{group = "wearables_common", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 1500000},\n\t\t\t\t{group = "loot_kit_parts", chance = 1500000},\n\t\t\t\t{group = "printer_parts", chance = 1000000},\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 4000000},\n\t\t\t\t{group = "wearables_common", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 1500000},\n\t\t\t\t{group = "loot_kit_parts", chance = 1500000},\n\t\t\t\t{group = "printer_parts", chance = 1000000},\n\t\t\t}', '{group = "printer_parts", chance = 1000000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 4500000},\n\t\t\t\t{group = "wearables_common", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 1500000},\n\t\t\t\t{group = "loot_kit_parts", chance = 1500000},\n\t\t\t\t{group = "dim_u_common", chance = 500000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 4500000},\n\t\t\t\t{group = "wearables_common", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 1500000},\n\t\t\t\t{group = "loot_kit_parts", chance = 1500000},\n\t\t\t\t{group = "dim_u_common", chance = 500000}\n\t\t\t}', '{group = "dim_u_common", chance = 500000}')]</t>
         </is>
       </c>
     </row>
@@ -8570,7 +8570,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\tatooine\evil_nomad.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\tatooine\evil_hermit.lua</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
@@ -8590,7 +8590,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\tatooine\evil_settler.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\tatooine\evil_nomad.lua</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
@@ -8610,17 +8610,17 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\tatooine\giant_canyon_krayt_dragon.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\tatooine\evil_settler.lua</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "captain_ring_group", chance = 10000000},\n\t\t\t},\n\t\t\tlootChance = .15 * (100000)\n\t\t}', '{\n\t\t\t\t{group = "captain_ring_group", chance = 10000000},\n\t\t\t}', '{group = "captain_ring_group", chance = 10000000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "combat_practice", chance = 100 * (100000)}\n\t\t\t},\n\t\t\tlootChance = 25 * (100000)\n\t\t}', '{\n\t\t\t\t{group = "combat_practice", chance = 100 * (100000)}\n\t\t\t}', '{group = "combat_practice", chance = 100 * (100000)}')]</t>
         </is>
       </c>
       <c r="D410" t="inlineStr">
         <is>
-          <t>[('{\n\t        groups = {\n\t\t\t\t{group = "krayt_dragon_common", chance = 2500000},\n\t\t\t\t{group = "krayt_tissue_uncommon", chance = 2000000},\n\t\t\t\t{group = "krayt_pearls", chance = 1500000},\n\t\t\t\t{group = "armor_all", chance = 2000000},\n\t\t\t\t{group = "weapons_all", chance = 2000000},\n\t\t\t},\n\t\t\tlootChance = 7000000\n\t\t}', '{\n\t\t\t\t{group = "krayt_dragon_common", chance = 2500000},\n\t\t\t\t{group = "krayt_tissue_uncommon", chance = 2000000},\n\t\t\t\t{group = "krayt_pearls", chance = 1500000},\n\t\t\t\t{group = "armor_all", chance = 2000000},\n\t\t\t\t{group = "weapons_all", chance = 2000000},\n\t\t\t}', '{group = "weapons_all", chance = 2000000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 4000000},\n\t\t\t\t{group = "wearables_common", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 1500000},\n\t\t\t\t{group = "loot_kit_parts", chance = 1500000},\n\t\t\t\t{group = "printer_parts", chance = 1000000},\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 4000000},\n\t\t\t\t{group = "wearables_common", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 1500000},\n\t\t\t\t{group = "loot_kit_parts", chance = 1500000},\n\t\t\t\t{group = "printer_parts", chance = 1000000},\n\t\t\t}', '{group = "printer_parts", chance = 1000000}')]</t>
         </is>
       </c>
     </row>
@@ -8630,17 +8630,17 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\tatooine\jabba_assassin.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\tatooine\giant_canyon_krayt_dragon.lua</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "pelgo_yellow", chance = 100 * (100000)},\n\t\t\t},\n\t\t\tlootChance = 3 * (100000)\n\t\t}', '{\n\t\t\t\t{group = "pelgo_yellow", chance = 100 * (100000)},\n\t\t\t}', '{group = "pelgo_yellow", chance = 100 * (100000)}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "captain_ring_group", chance = 10000000},\n\t\t\t},\n\t\t\tlootChance = .15 * (100000)\n\t\t}', '{\n\t\t\t\t{group = "captain_ring_group", chance = 10000000},\n\t\t\t}', '{group = "captain_ring_group", chance = 10000000}')]</t>
         </is>
       </c>
       <c r="D411" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "pelgo_yellow", chance = 100 * (100000)},\n\t\t\t},\n\t\t\tlootChance = 2 * (100000)\n\t\t}', '{\n\t\t\t\t{group = "pelgo_yellow", chance = 100 * (100000)},\n\t\t\t}', '{group = "pelgo_yellow", chance = 100 * (100000)}')]</t>
+          <t>[('{\n\t        groups = {\n\t\t\t\t{group = "krayt_dragon_common", chance = 2500000},\n\t\t\t\t{group = "krayt_tissue_uncommon", chance = 2000000},\n\t\t\t\t{group = "krayt_pearls", chance = 1500000},\n\t\t\t\t{group = "armor_all", chance = 2000000},\n\t\t\t\t{group = "weapons_all", chance = 2000000},\n\t\t\t},\n\t\t\tlootChance = 7000000\n\t\t}', '{\n\t\t\t\t{group = "krayt_dragon_common", chance = 2500000},\n\t\t\t\t{group = "krayt_tissue_uncommon", chance = 2000000},\n\t\t\t\t{group = "krayt_pearls", chance = 1500000},\n\t\t\t\t{group = "armor_all", chance = 2000000},\n\t\t\t\t{group = "weapons_all", chance = 2000000},\n\t\t\t}', '{group = "weapons_all", chance = 2000000}')]</t>
         </is>
       </c>
     </row>
@@ -8650,12 +8650,12 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\tatooine\jabba_compound_guard.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\tatooine\jabba_assassin.lua</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "pelgo_yellow", chance = 100 * (100000)},\n\t\t\t},\n\t\t\tlootChance = 4 * (100000)\n\t\t}', '{\n\t\t\t\t{group = "pelgo_yellow", chance = 100 * (100000)},\n\t\t\t}', '{group = "pelgo_yellow", chance = 100 * (100000)}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "pelgo_yellow", chance = 100 * (100000)},\n\t\t\t},\n\t\t\tlootChance = 3 * (100000)\n\t\t}', '{\n\t\t\t\t{group = "pelgo_yellow", chance = 100 * (100000)},\n\t\t\t}', '{group = "pelgo_yellow", chance = 100 * (100000)}')]</t>
         </is>
       </c>
       <c r="D412" t="inlineStr">
@@ -8670,12 +8670,12 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\tatooine\jabba_enforcer.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\tatooine\jabba_compound_guard.lua</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "pelgo_yellow", chance = 100 * (100000)},\n\t\t\t},\n\t\t\tlootChance = 3 * (100000)\n\t\t}', '{\n\t\t\t\t{group = "pelgo_yellow", chance = 100 * (100000)},\n\t\t\t}', '{group = "pelgo_yellow", chance = 100 * (100000)}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "pelgo_yellow", chance = 100 * (100000)},\n\t\t\t},\n\t\t\tlootChance = 4 * (100000)\n\t\t}', '{\n\t\t\t\t{group = "pelgo_yellow", chance = 100 * (100000)},\n\t\t\t}', '{group = "pelgo_yellow", chance = 100 * (100000)}')]</t>
         </is>
       </c>
       <c r="D413" t="inlineStr">
@@ -8690,12 +8690,12 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\tatooine\jabba_henchman.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\tatooine\jabba_enforcer.lua</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "combat_practice", chance = 100 * (100000)}\n\t\t\t},\n\t\t\tlootChance = 25 * (100000)\n\t\t}', '{\n\t\t\t\t{group = "combat_practice", chance = 100 * (100000)}\n\t\t\t}', '{group = "combat_practice", chance = 100 * (100000)}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "pelgo_yellow", chance = 100 * (100000)},\n\t\t\t},\n\t\t\tlootChance = 3 * (100000)\n\t\t}', '{\n\t\t\t\t{group = "pelgo_yellow", chance = 100 * (100000)},\n\t\t\t}', '{group = "pelgo_yellow", chance = 100 * (100000)}')]</t>
         </is>
       </c>
       <c r="D414" t="inlineStr">
@@ -8710,17 +8710,17 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\tatooine\jawa_leader.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\tatooine\jabba_henchman.lua</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 4000000},\n\t\t\t\t{group = "jawa_common", chance = 2500000},\n\t\t\t\t{group = "armor_all", chance = 800000},\n\t\t\t\t{group = "tailor_components", chance = 1000000},\n\t\t\t\t{group = "loot_kit_parts", chance = 1500000},\n\t\t\t\t{group = "color_crystals", chance = 200000},\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 4000000},\n\t\t\t\t{group = "jawa_common", chance = 2500000},\n\t\t\t\t{group = "armor_all", chance = 800000},\n\t\t\t\t{group = "tailor_components", chance = 1000000},\n\t\t\t\t{group = "loot_kit_parts", chance = 1500000},\n\t\t\t\t{group = "color_crystals", chance = 200000},\n\t\t\t}', '{group = "color_crystals", chance = 200000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "combat_practice", chance = 100 * (100000)}\n\t\t\t},\n\t\t\tlootChance = 25 * (100000)\n\t\t}', '{\n\t\t\t\t{group = "combat_practice", chance = 100 * (100000)}\n\t\t\t}', '{group = "combat_practice", chance = 100 * (100000)}')]</t>
         </is>
       </c>
       <c r="D415" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 5000000},\n\t\t\t\t{group = "jawa_common", chance = 1500000},\n\t\t\t\t{group = "armor_all", chance = 800000},\n\t\t\t\t{group = "tailor_components", chance = 1000000},\n\t\t\t\t{group = "loot_kit_parts", chance = 1500000},\n\t\t\t\t{group = "color_crystals", chance = 200000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 5000000},\n\t\t\t\t{group = "jawa_common", chance = 1500000},\n\t\t\t\t{group = "armor_all", chance = 800000},\n\t\t\t\t{group = "tailor_components", chance = 1000000},\n\t\t\t\t{group = "loot_kit_parts", chance = 1500000},\n\t\t\t\t{group = "color_crystals", chance = 200000}\n\t\t\t}', '{group = "color_crystals", chance = 200000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "pelgo_yellow", chance = 100 * (100000)},\n\t\t\t},\n\t\t\tlootChance = 2 * (100000)\n\t\t}', '{\n\t\t\t\t{group = "pelgo_yellow", chance = 100 * (100000)},\n\t\t\t}', '{group = "pelgo_yellow", chance = 100 * (100000)}')]</t>
         </is>
       </c>
     </row>
@@ -8730,12 +8730,12 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\tatooine\jawa_smuggler.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\tatooine\jawa_leader.lua</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "slicing_station_group", chance = 100 * (100000)}\n\t\t\t},\n\t\t\tlootChance = 2 * (100000)\n\t\t}', '{\n\t\t\t\t{group = "slicing_station_group", chance = 100 * (100000)}\n\t\t\t}', '{group = "slicing_station_group", chance = 100 * (100000)}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 4000000},\n\t\t\t\t{group = "jawa_common", chance = 2500000},\n\t\t\t\t{group = "armor_all", chance = 800000},\n\t\t\t\t{group = "tailor_components", chance = 1000000},\n\t\t\t\t{group = "loot_kit_parts", chance = 1500000},\n\t\t\t\t{group = "color_crystals", chance = 200000},\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 4000000},\n\t\t\t\t{group = "jawa_common", chance = 2500000},\n\t\t\t\t{group = "armor_all", chance = 800000},\n\t\t\t\t{group = "tailor_components", chance = 1000000},\n\t\t\t\t{group = "loot_kit_parts", chance = 1500000},\n\t\t\t\t{group = "color_crystals", chance = 200000},\n\t\t\t}', '{group = "color_crystals", chance = 200000}')]</t>
         </is>
       </c>
       <c r="D416" t="inlineStr">
@@ -8750,12 +8750,12 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\tatooine\jawa_thief.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\tatooine\jawa_smuggler.lua</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "combat_practice", chance = 100 * (100000)}\n\t\t\t},\n\t\t\tlootChance = 25 * (100000)\n\t\t}', '{\n\t\t\t\t{group = "combat_practice", chance = 100 * (100000)}\n\t\t\t}', '{group = "combat_practice", chance = 100 * (100000)}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "slicing_station_group", chance = 100 * (100000)}\n\t\t\t},\n\t\t\tlootChance = 2 * (100000)\n\t\t}', '{\n\t\t\t\t{group = "slicing_station_group", chance = 100 * (100000)}\n\t\t\t}', '{group = "slicing_station_group", chance = 100 * (100000)}')]</t>
         </is>
       </c>
       <c r="D417" t="inlineStr">
@@ -8770,17 +8770,17 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\tatooine\juvenile_canyon_krayt_dragon.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\tatooine\jawa_thief.lua</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>[('{\n\t        groups = {\n\t\t\t\t{group = "krayt_dragon_common", chance = 3000000},\n\t\t\t\t{group = "armor_all", chance = 3500000},\n\t\t\t\t{group = "weapons_all", chance = 3500000},\n\t\t\t},\n\t\t\tlootChance = 2500000,\n\t\t}', '{\n\t\t\t\t{group = "krayt_dragon_common", chance = 3000000},\n\t\t\t\t{group = "armor_all", chance = 3500000},\n\t\t\t\t{group = "weapons_all", chance = 3500000},\n\t\t\t}', '{group = "weapons_all", chance = 3500000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "combat_practice", chance = 100 * (100000)}\n\t\t\t},\n\t\t\tlootChance = 25 * (100000)\n\t\t}', '{\n\t\t\t\t{group = "combat_practice", chance = 100 * (100000)}\n\t\t\t}', '{group = "combat_practice", chance = 100 * (100000)}')]</t>
         </is>
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>[('{\n\t        groups = {\n\t\t\t\t{group = "krayt_tissue_common", chance = 2500000},\n\t\t\t\t{group = "krayt_dragon_common", chance = 3500000},\n\t\t\t\t{group = "armor_all", chance = 2000000},\n\t\t\t\t{group = "weapons_all", chance = 2000000},\n\t\t\t},\n\t\t\tlootChance = 3440000\n\t\t}', '{\n\t\t\t\t{group = "krayt_tissue_common", chance = 2500000},\n\t\t\t\t{group = "krayt_dragon_common", chance = 3500000},\n\t\t\t\t{group = "armor_all", chance = 2000000},\n\t\t\t\t{group = "weapons_all", chance = 2000000},\n\t\t\t}', '{group = "weapons_all", chance = 2000000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 5000000},\n\t\t\t\t{group = "jawa_common", chance = 1500000},\n\t\t\t\t{group = "armor_all", chance = 800000},\n\t\t\t\t{group = "tailor_components", chance = 1000000},\n\t\t\t\t{group = "loot_kit_parts", chance = 1500000},\n\t\t\t\t{group = "color_crystals", chance = 200000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 5000000},\n\t\t\t\t{group = "jawa_common", chance = 1500000},\n\t\t\t\t{group = "armor_all", chance = 800000},\n\t\t\t\t{group = "tailor_components", chance = 1000000},\n\t\t\t\t{group = "loot_kit_parts", chance = 1500000},\n\t\t\t\t{group = "color_crystals", chance = 200000}\n\t\t\t}', '{group = "color_crystals", chance = 200000}')]</t>
         </is>
       </c>
     </row>
@@ -8790,17 +8790,17 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\tatooine\krayt_dragon_adolescent.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\tatooine\juvenile_canyon_krayt_dragon.lua</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>[('{\n\t        groups = {\n\t\t\t\t{group = "krayt_pearls", chance = 10000000},\n\t\t\t},\n\t\t\tlootChance = 1500000 -- 15% chance for this group\n\t\t}', '{\n\t\t\t\t{group = "krayt_pearls", chance = 10000000},\n\t\t\t}', '{group = "krayt_pearls", chance = 10000000}')]</t>
+          <t>[('{\n\t        groups = {\n\t\t\t\t{group = "krayt_dragon_common", chance = 3000000},\n\t\t\t\t{group = "armor_all", chance = 3500000},\n\t\t\t\t{group = "weapons_all", chance = 3500000},\n\t\t\t},\n\t\t\tlootChance = 2500000,\n\t\t}', '{\n\t\t\t\t{group = "krayt_dragon_common", chance = 3000000},\n\t\t\t\t{group = "armor_all", chance = 3500000},\n\t\t\t\t{group = "weapons_all", chance = 3500000},\n\t\t\t}', '{group = "weapons_all", chance = 3500000}')]</t>
         </is>
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t>[('{\n\t        groups = {\n\t\t\t\t{group = "krayt_tissue_rare", chance = 2000000},\n\t\t\t\t{group = "krayt_dragon_common", chance = 2500000},\n\t\t\t\t{group = "krayt_pearls", chance = 1500000},\n\t\t\t\t{group = "armor_all", chance = 2000000},\n\t\t\t\t{group = "weapons_all", chance = 2000000},\n\t\t\t},\n\t\t\tlootChance = 7720000\n\t\t}', '{\n\t\t\t\t{group = "krayt_tissue_rare", chance = 2000000},\n\t\t\t\t{group = "krayt_dragon_common", chance = 2500000},\n\t\t\t\t{group = "krayt_pearls", chance = 1500000},\n\t\t\t\t{group = "armor_all", chance = 2000000},\n\t\t\t\t{group = "weapons_all", chance = 2000000},\n\t\t\t}', '{group = "weapons_all", chance = 2000000}')]</t>
+          <t>[('{\n\t        groups = {\n\t\t\t\t{group = "krayt_tissue_common", chance = 2500000},\n\t\t\t\t{group = "krayt_dragon_common", chance = 3500000},\n\t\t\t\t{group = "armor_all", chance = 2000000},\n\t\t\t\t{group = "weapons_all", chance = 2000000},\n\t\t\t},\n\t\t\tlootChance = 3440000\n\t\t}', '{\n\t\t\t\t{group = "krayt_tissue_common", chance = 2500000},\n\t\t\t\t{group = "krayt_dragon_common", chance = 3500000},\n\t\t\t\t{group = "armor_all", chance = 2000000},\n\t\t\t\t{group = "weapons_all", chance = 2000000},\n\t\t\t}', '{group = "weapons_all", chance = 2000000}')]</t>
         </is>
       </c>
     </row>
@@ -8810,12 +8810,12 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\tatooine\krayt_dragon_ancient.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\tatooine\krayt_dragon_adolescent.lua</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>[('{\n\t        groups = {\n\t\t\t\t{group = "krayt_pearls", chance = 10000000},\n\t\t\t},\n\t\t\tlootChance = 1000000    -- 10% chance for this group\n\t\t}', '{\n\t\t\t\t{group = "krayt_pearls", chance = 10000000},\n\t\t\t}', '{group = "krayt_pearls", chance = 10000000}')]</t>
+          <t>[('{\n\t        groups = {\n\t\t\t\t{group = "krayt_pearls", chance = 10000000},\n\t\t\t},\n\t\t\tlootChance = 1500000 -- 15% chance for this group\n\t\t}', '{\n\t\t\t\t{group = "krayt_pearls", chance = 10000000},\n\t\t\t}', '{group = "krayt_pearls", chance = 10000000}')]</t>
         </is>
       </c>
       <c r="D420" t="inlineStr">
@@ -8830,7 +8830,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\tatooine\krayt_dragon_grand.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\tatooine\krayt_dragon_ancient.lua</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -8850,17 +8850,17 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\tatooine\sennex_guard.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\tatooine\krayt_dragon_grand.lua</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "combat_practice", chance = 100 * (100000)}\n\t\t\t},\n\t\t\tlootChance = 25 * (100000)\n\t\t}', '{\n\t\t\t\t{group = "combat_practice", chance = 100 * (100000)}\n\t\t\t}', '{group = "combat_practice", chance = 100 * (100000)}')]</t>
+          <t>[('{\n\t        groups = {\n\t\t\t\t{group = "krayt_pearls", chance = 10000000},\n\t\t\t},\n\t\t\tlootChance = 1000000    -- 10% chance for this group\n\t\t}', '{\n\t\t\t\t{group = "krayt_pearls", chance = 10000000},\n\t\t\t}', '{group = "krayt_pearls", chance = 10000000}')]</t>
         </is>
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 3000000},\n\t\t\t\t{group = "wearables_common", chance = 1500000},\n\t\t\t\t{group = "wearables_uncommon", chance = 500000},\n\t\t\t\t{group = "heavy_weapons", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 1500000},\n\t\t\t\t{group = "loot_kit_parts", chance = 1500000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 3000000},\n\t\t\t\t{group = "wearables_common", chance = 1500000},\n\t\t\t\t{group = "wearables_uncommon", chance = 500000},\n\t\t\t\t{group = "heavy_weapons", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 1500000},\n\t\t\t\t{group = "loot_kit_parts", chance = 1500000}\n\t\t\t}', '{group = "loot_kit_parts", chance = 1500000}')]</t>
+          <t>[('{\n\t        groups = {\n\t\t\t\t{group = "krayt_tissue_rare", chance = 2000000},\n\t\t\t\t{group = "krayt_dragon_common", chance = 2500000},\n\t\t\t\t{group = "krayt_pearls", chance = 1500000},\n\t\t\t\t{group = "armor_all", chance = 2000000},\n\t\t\t\t{group = "weapons_all", chance = 2000000},\n\t\t\t},\n\t\t\tlootChance = 7720000\n\t\t}', '{\n\t\t\t\t{group = "krayt_tissue_rare", chance = 2000000},\n\t\t\t\t{group = "krayt_dragon_common", chance = 2500000},\n\t\t\t\t{group = "krayt_pearls", chance = 1500000},\n\t\t\t\t{group = "armor_all", chance = 2000000},\n\t\t\t\t{group = "weapons_all", chance = 2000000},\n\t\t\t}', '{group = "weapons_all", chance = 2000000}')]</t>
         </is>
       </c>
     </row>
@@ -8870,17 +8870,17 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\tatooine\tusken_executioner.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\tatooine\sennex_guard.lua</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "power_crystals", chance = 2000000},\n\t\t\t\t{group = "armor_attachments", chance = 2000000},      -- 50% * 20% = 10%\n\t\t\t\t{group = "clothing_attachments", chance = 2000000},   -- 50% * 20% = 10%\n\t\t\t\t{group = "wearables_rare", chance = 2000000},\n\t\t\t\t{group = "wearables_scarce", chance = 1000000},\n\t\t\t\t{group = "vehicle_house_group", chance = 1000000},    -- 50% * 10% = 5%\n\t\t\t},\n\t\t\tlootChance = 5000000,  -- 50% chance for this group\n\t\t}', '{\n\t\t\t\t{group = "power_crystals", chance = 2000000},\n\t\t\t\t{group = "armor_attachments", chance = 2000000},      -- 50% * 20% = 10%\n\t\t\t\t{group = "clothing_attachments", chance = 2000000},   -- 50% * 20% = 10%\n\t\t\t\t{group = "wearables_rare", chance = 2000000},\n\t\t\t\t{group = "wearables_scarce", chance = 1000000},\n\t\t\t\t{group = "vehicle_house_group", chance = 1000000},    -- 50% * 10% = 5%\n\t\t\t}', '{group = "vehicle_house_group", chance = 1000000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "combat_practice", chance = 100 * (100000)}\n\t\t\t},\n\t\t\tlootChance = 25 * (100000)\n\t\t}', '{\n\t\t\t\t{group = "combat_practice", chance = 100 * (100000)}\n\t\t\t}', '{group = "combat_practice", chance = 100 * (100000)}')]</t>
         </is>
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 1500000},\n\t\t\t\t{group = "tusken_common", chance = 3000000},\n\t\t\t\t{group = "wearables_scarce", chance = 2000000},\n\t\t\t\t{group = "bone_armor", chance = 750000},\n\t\t\t\t{group = "chitin_armor", chance = 750000},\n\t\t\t\t{group = "armor_attachments", chance = 500000},\n\t\t\t\t{group = "clothing_attachments", chance = 500000},\n\t\t\t\t{group = "color_crystals", chance = 500000},\n\t\t\t\t{group = "power_crystals", chance = 500000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 1500000},\n\t\t\t\t{group = "tusken_common", chance = 3000000},\n\t\t\t\t{group = "wearables_scarce", chance = 2000000},\n\t\t\t\t{group = "bone_armor", chance = 750000},\n\t\t\t\t{group = "chitin_armor", chance = 750000},\n\t\t\t\t{group = "armor_attachments", chance = 500000},\n\t\t\t\t{group = "clothing_attachments", chance = 500000},\n\t\t\t\t{group = "color_crystals", chance = 500000},\n\t\t\t\t{group = "power_crystals", chance = 500000}\n\t\t\t}', '{group = "power_crystals", chance = 500000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 3000000},\n\t\t\t\t{group = "wearables_common", chance = 1500000},\n\t\t\t\t{group = "wearables_uncommon", chance = 500000},\n\t\t\t\t{group = "heavy_weapons", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 1500000},\n\t\t\t\t{group = "loot_kit_parts", chance = 1500000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 3000000},\n\t\t\t\t{group = "wearables_common", chance = 1500000},\n\t\t\t\t{group = "wearables_uncommon", chance = 500000},\n\t\t\t\t{group = "heavy_weapons", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 1500000},\n\t\t\t\t{group = "loot_kit_parts", chance = 1500000}\n\t\t\t}', '{group = "loot_kit_parts", chance = 1500000}')]</t>
         </is>
       </c>
     </row>
@@ -8890,12 +8890,12 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\tatooine\tusken_observer.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\tatooine\tusken_executioner.lua</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\n\t\t\t\t{group = "rifles", chance = 2500000},\n\t\t\t\t{group = "pistols", chance = 2500000},\n\t\t\t\t{group = "carbines", chance = 2500000},\n\t\t\t\t{group = "wearables_common", chance = 2500000},\n\t\t\t},\n\t\t\tlootChance = 5000000,   -- 50% chance for this group\n\t\t}', '{\n\n\t\t\t\t{group = "rifles", chance = 2500000},\n\t\t\t\t{group = "pistols", chance = 2500000},\n\t\t\t\t{group = "carbines", chance = 2500000},\n\t\t\t\t{group = "wearables_common", chance = 2500000},\n\t\t\t}', '{group = "wearables_common", chance = 2500000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "power_crystals", chance = 2000000},\n\t\t\t\t{group = "armor_attachments", chance = 2000000},      -- 50% * 20% = 10%\n\t\t\t\t{group = "clothing_attachments", chance = 2000000},   -- 50% * 20% = 10%\n\t\t\t\t{group = "wearables_rare", chance = 2000000},\n\t\t\t\t{group = "wearables_scarce", chance = 1000000},\n\t\t\t\t{group = "vehicle_house_group", chance = 1000000},    -- 50% * 10% = 5%\n\t\t\t},\n\t\t\tlootChance = 5000000,  -- 50% chance for this group\n\t\t}', '{\n\t\t\t\t{group = "power_crystals", chance = 2000000},\n\t\t\t\t{group = "armor_attachments", chance = 2000000},      -- 50% * 20% = 10%\n\t\t\t\t{group = "clothing_attachments", chance = 2000000},   -- 50% * 20% = 10%\n\t\t\t\t{group = "wearables_rare", chance = 2000000},\n\t\t\t\t{group = "wearables_scarce", chance = 1000000},\n\t\t\t\t{group = "vehicle_house_group", chance = 1000000},    -- 50% * 10% = 5%\n\t\t\t}', '{group = "vehicle_house_group", chance = 1000000}')]</t>
         </is>
       </c>
       <c r="D424" t="inlineStr">
@@ -8910,7 +8910,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\tatooine\tusken_witch_doctor.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\tatooine\tusken_observer.lua</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -8930,17 +8930,17 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\tatooine\valarian_compound_guard.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\tatooine\tusken_witch_doctor.lua</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = \n\t\t\t{\n\t\t\t\t{group = "eta1_cockpit_group", chance = 10000000},\n\t\t\t},\n\t\t\tlootChance = 9 * (100000), \n\t\t}', '{\n\t\t\t\t{group = "eta1_cockpit_group", chance = 10000000},\n\t\t\t}', '{group = "eta1_cockpit_group", chance = 10000000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\n\t\t\t\t{group = "rifles", chance = 2500000},\n\t\t\t\t{group = "pistols", chance = 2500000},\n\t\t\t\t{group = "carbines", chance = 2500000},\n\t\t\t\t{group = "wearables_common", chance = 2500000},\n\t\t\t},\n\t\t\tlootChance = 5000000,   -- 50% chance for this group\n\t\t}', '{\n\n\t\t\t\t{group = "rifles", chance = 2500000},\n\t\t\t\t{group = "pistols", chance = 2500000},\n\t\t\t\t{group = "carbines", chance = 2500000},\n\t\t\t\t{group = "wearables_common", chance = 2500000},\n\t\t\t}', '{group = "wearables_common", chance = 2500000}')]</t>
         </is>
       </c>
       <c r="D426" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 2000000},\n\t\t\t\t{group = "wearables_common", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 1000000},\n\t\t\t\t{group = "loot_kit_parts", chance = 2000000},\n\t\t\t\t{group = "printer_parts", chance = 1500000},\n\t\t\t\t{group = "valarian_common", chance = 1500000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 2000000},\n\t\t\t\t{group = "wearables_common", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 1000000},\n\t\t\t\t{group = "loot_kit_parts", chance = 2000000},\n\t\t\t\t{group = "printer_parts", chance = 1500000},\n\t\t\t\t{group = "valarian_common", chance = 1500000}\n\t\t\t}', '{group = "valarian_common", chance = 1500000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 1500000},\n\t\t\t\t{group = "tusken_common", chance = 3000000},\n\t\t\t\t{group = "wearables_scarce", chance = 2000000},\n\t\t\t\t{group = "bone_armor", chance = 750000},\n\t\t\t\t{group = "chitin_armor", chance = 750000},\n\t\t\t\t{group = "armor_attachments", chance = 500000},\n\t\t\t\t{group = "clothing_attachments", chance = 500000},\n\t\t\t\t{group = "color_crystals", chance = 500000},\n\t\t\t\t{group = "power_crystals", chance = 500000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 1500000},\n\t\t\t\t{group = "tusken_common", chance = 3000000},\n\t\t\t\t{group = "wearables_scarce", chance = 2000000},\n\t\t\t\t{group = "bone_armor", chance = 750000},\n\t\t\t\t{group = "chitin_armor", chance = 750000},\n\t\t\t\t{group = "armor_attachments", chance = 500000},\n\t\t\t\t{group = "clothing_attachments", chance = 500000},\n\t\t\t\t{group = "color_crystals", chance = 500000},\n\t\t\t\t{group = "power_crystals", chance = 500000}\n\t\t\t}', '{group = "power_crystals", chance = 500000}')]</t>
         </is>
       </c>
     </row>
@@ -8950,12 +8950,12 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\tatooine\valarian_enforcer.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\tatooine\valarian_compound_guard.lua</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = \n\t\t\t{\n\t\t\t\t{group = "eta1_cockpit_group", chance = 10000000},\n\t\t\t},\n\t\t\tlootChance = 12 * (100000), \n\t\t}', '{\n\t\t\t\t{group = "eta1_cockpit_group", chance = 10000000},\n\t\t\t}', '{group = "eta1_cockpit_group", chance = 10000000}')]</t>
+          <t>[('{\n\t\t\tgroups = \n\t\t\t{\n\t\t\t\t{group = "eta1_cockpit_group", chance = 10000000},\n\t\t\t},\n\t\t\tlootChance = 9 * (100000), \n\t\t}', '{\n\t\t\t\t{group = "eta1_cockpit_group", chance = 10000000},\n\t\t\t}', '{group = "eta1_cockpit_group", chance = 10000000}')]</t>
         </is>
       </c>
       <c r="D427" t="inlineStr">
@@ -8970,12 +8970,12 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\tatooine\valarian_henchman.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\tatooine\valarian_enforcer.lua</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = \n\t\t\t{\n\t\t\t\t{group = "eta1_cockpit_group", chance = 10000000},\n\t\t\t},\n\t\t\tlootChance = 7 * (100000), \n\t\t}', '{\n\t\t\t\t{group = "eta1_cockpit_group", chance = 10000000},\n\t\t\t}', '{group = "eta1_cockpit_group", chance = 10000000}')]</t>
+          <t>[('{\n\t\t\tgroups = \n\t\t\t{\n\t\t\t\t{group = "eta1_cockpit_group", chance = 10000000},\n\t\t\t},\n\t\t\tlootChance = 12 * (100000), \n\t\t}', '{\n\t\t\t\t{group = "eta1_cockpit_group", chance = 10000000},\n\t\t\t}', '{group = "eta1_cockpit_group", chance = 10000000}')]</t>
         </is>
       </c>
       <c r="D428" t="inlineStr">
@@ -8990,12 +8990,12 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\tatooine\valarian_scout.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\tatooine\valarian_henchman.lua</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = \n\t\t\t{\n\t\t\t\t{group = "eta1_cockpit_group", chance = 10000000},\n\t\t\t},\n\t\t\tlootChance = 3 * (100000), \n\t\t}', '{\n\t\t\t\t{group = "eta1_cockpit_group", chance = 10000000},\n\t\t\t}', '{group = "eta1_cockpit_group", chance = 10000000}')]</t>
+          <t>[('{\n\t\t\tgroups = \n\t\t\t{\n\t\t\t\t{group = "eta1_cockpit_group", chance = 10000000},\n\t\t\t},\n\t\t\tlootChance = 7 * (100000), \n\t\t}', '{\n\t\t\t\t{group = "eta1_cockpit_group", chance = 10000000},\n\t\t\t}', '{group = "eta1_cockpit_group", chance = 10000000}')]</t>
         </is>
       </c>
       <c r="D429" t="inlineStr">
@@ -9010,12 +9010,12 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\tatooine\valarian_swooper.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\tatooine\valarian_scout.lua</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = \n\t\t\t{\n\t\t\t\t{group = "eta1_cockpit_group", chance = 10000000},\n\t\t\t},\n\t\t\tlootChance = 5 * (100000), \n\t\t}', '{\n\t\t\t\t{group = "eta1_cockpit_group", chance = 10000000},\n\t\t\t}', '{group = "eta1_cockpit_group", chance = 10000000}')]</t>
+          <t>[('{\n\t\t\tgroups = \n\t\t\t{\n\t\t\t\t{group = "eta1_cockpit_group", chance = 10000000},\n\t\t\t},\n\t\t\tlootChance = 3 * (100000), \n\t\t}', '{\n\t\t\t\t{group = "eta1_cockpit_group", chance = 10000000},\n\t\t\t}', '{group = "eta1_cockpit_group", chance = 10000000}')]</t>
         </is>
       </c>
       <c r="D430" t="inlineStr">
@@ -9030,12 +9030,12 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\tatooine\valarian_swooper_leader.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\tatooine\valarian_swooper.lua</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = \n\t\t\t{\n\t\t\t\t{group = "eta1_cockpit_group", chance = 10000000},\n\t\t\t},\n\t\t\tlootChance = 7 * (100000), \n\t\t}', '{\n\t\t\t\t{group = "eta1_cockpit_group", chance = 10000000},\n\t\t\t}', '{group = "eta1_cockpit_group", chance = 10000000}')]</t>
+          <t>[('{\n\t\t\tgroups = \n\t\t\t{\n\t\t\t\t{group = "eta1_cockpit_group", chance = 10000000},\n\t\t\t},\n\t\t\tlootChance = 5 * (100000), \n\t\t}', '{\n\t\t\t\t{group = "eta1_cockpit_group", chance = 10000000},\n\t\t\t}', '{group = "eta1_cockpit_group", chance = 10000000}')]</t>
         </is>
       </c>
       <c r="D431" t="inlineStr">
@@ -9050,12 +9050,12 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\tatooine\valarian_thief.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\tatooine\valarian_swooper_leader.lua</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = \n\t\t\t{\n\t\t\t\t{group = "eta1_cockpit_group", chance = 10000000},\n\t\t\t},\n\t\t\tlootChance = 12 * (100000), \n\t\t}', '{\n\t\t\t\t{group = "eta1_cockpit_group", chance = 10000000},\n\t\t\t}', '{group = "eta1_cockpit_group", chance = 10000000}')]</t>
+          <t>[('{\n\t\t\tgroups = \n\t\t\t{\n\t\t\t\t{group = "eta1_cockpit_group", chance = 10000000},\n\t\t\t},\n\t\t\tlootChance = 7 * (100000), \n\t\t}', '{\n\t\t\t\t{group = "eta1_cockpit_group", chance = 10000000},\n\t\t\t}', '{group = "eta1_cockpit_group", chance = 10000000}')]</t>
         </is>
       </c>
       <c r="D432" t="inlineStr">
@@ -9070,12 +9070,12 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\tatooine\valarian_thug.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\tatooine\valarian_thief.lua</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = \n\t\t\t{\n\t\t\t\t{group = "eta1_cockpit_group", chance = 10000000},\n\t\t\t},\n\t\t\tlootChance = 1 * (100000), \n\t\t}', '{\n\t\t\t\t{group = "eta1_cockpit_group", chance = 10000000},\n\t\t\t}', '{group = "eta1_cockpit_group", chance = 10000000}')]</t>
+          <t>[('{\n\t\t\tgroups = \n\t\t\t{\n\t\t\t\t{group = "eta1_cockpit_group", chance = 10000000},\n\t\t\t},\n\t\t\tlootChance = 12 * (100000), \n\t\t}', '{\n\t\t\t\t{group = "eta1_cockpit_group", chance = 10000000},\n\t\t\t}', '{group = "eta1_cockpit_group", chance = 10000000}')]</t>
         </is>
       </c>
       <c r="D433" t="inlineStr">
@@ -9090,17 +9090,17 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\tatooine\weequay_captain.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\tatooine\valarian_thug.lua</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "art_illum14", chance = 10000000}\n\t\t\t},\n\t\t\tlootChance = 2500000\n\t\t}', '{\n\t\t\t\t{group = "art_illum14", chance = 10000000}\n\t\t\t}', '{group = "art_illum14", chance = 10000000}')]</t>
+          <t>[('{\n\t\t\tgroups = \n\t\t\t{\n\t\t\t\t{group = "eta1_cockpit_group", chance = 10000000},\n\t\t\t},\n\t\t\tlootChance = 1 * (100000), \n\t\t}', '{\n\t\t\t\t{group = "eta1_cockpit_group", chance = 10000000},\n\t\t\t}', '{group = "eta1_cockpit_group", chance = 10000000}')]</t>
         </is>
       </c>
       <c r="D434" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 2500000},\n\t\t\t\t{group = "wearables_common", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 1500000},\n\t\t\t\t{group = "loot_kit_parts", chance = 2000000},\n\t\t\t\t{group = "printer_parts", chance = 1000000},\n\t\t\t\t{group = "weequay_common", chance = 500000},\n\t\t\t\t{group = "color_crystals", chance = 500000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 2500000},\n\t\t\t\t{group = "wearables_common", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 1500000},\n\t\t\t\t{group = "loot_kit_parts", chance = 2000000},\n\t\t\t\t{group = "printer_parts", chance = 1000000},\n\t\t\t\t{group = "weequay_common", chance = 500000},\n\t\t\t\t{group = "color_crystals", chance = 500000}\n\t\t\t}', '{group = "color_crystals", chance = 500000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 2000000},\n\t\t\t\t{group = "wearables_common", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 1000000},\n\t\t\t\t{group = "loot_kit_parts", chance = 2000000},\n\t\t\t\t{group = "printer_parts", chance = 1500000},\n\t\t\t\t{group = "valarian_common", chance = 1500000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 2000000},\n\t\t\t\t{group = "wearables_common", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 1000000},\n\t\t\t\t{group = "loot_kit_parts", chance = 2000000},\n\t\t\t\t{group = "printer_parts", chance = 1500000},\n\t\t\t\t{group = "valarian_common", chance = 1500000}\n\t\t\t}', '{group = "valarian_common", chance = 1500000}')]</t>
         </is>
       </c>
     </row>
@@ -9110,17 +9110,17 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\thug\dark_adept.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\tatooine\weequay_captain.lua</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>[('{ -- Jedi Specific Loot Group\n\t\t\tgroups = \n\t\t\t{\t\n\t\t\t\t{group = "jedi_clothing_attachments", chance = 5000000},\n\t\t\t\t{group = "named_crystals", chance = 5000000},\n\t\t\t},\n\t\t\tlootChance = 500000,\n\t\t}', '{\t\n\t\t\t\t{group = "jedi_clothing_attachments", chance = 5000000},\n\t\t\t\t{group = "named_crystals", chance = 5000000},\n\t\t\t}', '{group = "named_crystals", chance = 5000000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "art_illum14", chance = 10000000}\n\t\t\t},\n\t\t\tlootChance = 2500000\n\t\t}', '{\n\t\t\t\t{group = "art_illum14", chance = 10000000}\n\t\t\t}', '{group = "art_illum14", chance = 10000000}')]</t>
         </is>
       </c>
       <c r="D435" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "holocron_dark", chance = 400000},\n\t\t\t\t{group = "holocron_light", chance = 400000},\n\t\t\t\t{group = "power_crystals", chance = 400000},\n\t\t\t\t{group = "color_crystals", chance = 1000000},\n\t\t\t\t{group = "rifles", chance = 1300000},\n\t\t\t\t{group = "pistols", chance = 1300000},\n\t\t\t\t{group = "melee_weapons", chance = 1300000},\n\t\t\t\t{group = "armor_attachments", chance = 900000},\n\t\t\t\t{group = "clothing_attachments", chance = 900000},\n\t\t\t\t{group = "carbines", chance = 1300000},\n\t\t\t\t{group = "wearables_rare", chance = 800000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "holocron_dark", chance = 400000},\n\t\t\t\t{group = "holocron_light", chance = 400000},\n\t\t\t\t{group = "power_crystals", chance = 400000},\n\t\t\t\t{group = "color_crystals", chance = 1000000},\n\t\t\t\t{group = "rifles", chance = 1300000},\n\t\t\t\t{group = "pistols", chance = 1300000},\n\t\t\t\t{group = "melee_weapons", chance = 1300000},\n\t\t\t\t{group = "armor_attachments", chance = 900000},\n\t\t\t\t{group = "clothing_attachments", chance = 900000},\n\t\t\t\t{group = "carbines", chance = 1300000},\n\t\t\t\t{group = "wearables_rare", chance = 800000}\n\t\t\t}', '{group = "wearables_rare", chance = 800000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 2500000},\n\t\t\t\t{group = "wearables_common", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 1500000},\n\t\t\t\t{group = "loot_kit_parts", chance = 2000000},\n\t\t\t\t{group = "printer_parts", chance = 1000000},\n\t\t\t\t{group = "weequay_common", chance = 500000},\n\t\t\t\t{group = "color_crystals", chance = 500000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 2500000},\n\t\t\t\t{group = "wearables_common", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 1500000},\n\t\t\t\t{group = "loot_kit_parts", chance = 2000000},\n\t\t\t\t{group = "printer_parts", chance = 1000000},\n\t\t\t\t{group = "weequay_common", chance = 500000},\n\t\t\t\t{group = "color_crystals", chance = 500000}\n\t\t\t}', '{group = "color_crystals", chance = 500000}')]</t>
         </is>
       </c>
     </row>
@@ -9130,17 +9130,17 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\thug\dark_jedi_knight.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\thug\dark_adept.lua</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t>[('{ \t-- Jedi Specific Loot Group 2 - 15%\n\t\t\tgroups ={\n\t\t\t\t{group = "jedi_clothing_attachments", chance = 5000000},\t-- 15% * 50% = 7.5%\n\t\t\t\t{group = "ngerobes1", chance = 5000000}\t                    -- 15% * 50% = 7.5%\n\t\t\n\t\t\t},\n\t\t\tlootChance = 1500000,\n\t\t}', '{\n\t\t\t\t{group = "jedi_clothing_attachments", chance = 5000000},\t-- 15% * 50% = 7.5%\n\t\t\t\t{group = "ngerobes1", chance = 5000000}\t                    -- 15% * 50% = 7.5%\n\t\t\n\t\t\t}', '{group = "ngerobes1", chance = 5000000}')]</t>
+          <t>[('{ -- Jedi Specific Loot Group\n\t\t\tgroups = \n\t\t\t{\t\n\t\t\t\t{group = "jedi_clothing_attachments", chance = 5000000},\n\t\t\t\t{group = "named_crystals", chance = 5000000},\n\t\t\t},\n\t\t\tlootChance = 500000,\n\t\t}', '{\t\n\t\t\t\t{group = "jedi_clothing_attachments", chance = 5000000},\n\t\t\t\t{group = "named_crystals", chance = 5000000},\n\t\t\t}', '{group = "named_crystals", chance = 5000000}')]</t>
         </is>
       </c>
       <c r="D436" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "holocron_dark", chance = 600000},\n\t\t\t\t{group = "holocron_light", chance = 600000},\n\t\t\t\t{group = "power_crystals", chance = 600000},\n\t\t\t\t{group = "rifles", chance = 1300000},\n\t\t\t\t{group = "pistols", chance = 1300000},\n\t\t\t\t{group = "melee_weapons", chance = 1300000},\n\t\t\t\t{group = "armor_attachments", chance = 1100000},\n\t\t\t\t{group = "clothing_attachments", chance = 1100000},\n\t\t\t\t{group = "carbines", chance = 1300000},\n\t\t\t\t{group = "dark_jedi_common", chance = 800000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "holocron_dark", chance = 600000},\n\t\t\t\t{group = "holocron_light", chance = 600000},\n\t\t\t\t{group = "power_crystals", chance = 600000},\n\t\t\t\t{group = "rifles", chance = 1300000},\n\t\t\t\t{group = "pistols", chance = 1300000},\n\t\t\t\t{group = "melee_weapons", chance = 1300000},\n\t\t\t\t{group = "armor_attachments", chance = 1100000},\n\t\t\t\t{group = "clothing_attachments", chance = 1100000},\n\t\t\t\t{group = "carbines", chance = 1300000},\n\t\t\t\t{group = "dark_jedi_common", chance = 800000}\n\t\t\t}', '{group = "dark_jedi_common", chance = 800000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "holocron_dark", chance = 400000},\n\t\t\t\t{group = "holocron_light", chance = 400000},\n\t\t\t\t{group = "power_crystals", chance = 400000},\n\t\t\t\t{group = "color_crystals", chance = 1000000},\n\t\t\t\t{group = "rifles", chance = 1300000},\n\t\t\t\t{group = "pistols", chance = 1300000},\n\t\t\t\t{group = "melee_weapons", chance = 1300000},\n\t\t\t\t{group = "armor_attachments", chance = 900000},\n\t\t\t\t{group = "clothing_attachments", chance = 900000},\n\t\t\t\t{group = "carbines", chance = 1300000},\n\t\t\t\t{group = "wearables_rare", chance = 800000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "holocron_dark", chance = 400000},\n\t\t\t\t{group = "holocron_light", chance = 400000},\n\t\t\t\t{group = "power_crystals", chance = 400000},\n\t\t\t\t{group = "color_crystals", chance = 1000000},\n\t\t\t\t{group = "rifles", chance = 1300000},\n\t\t\t\t{group = "pistols", chance = 1300000},\n\t\t\t\t{group = "melee_weapons", chance = 1300000},\n\t\t\t\t{group = "armor_attachments", chance = 900000},\n\t\t\t\t{group = "clothing_attachments", chance = 900000},\n\t\t\t\t{group = "carbines", chance = 1300000},\n\t\t\t\t{group = "wearables_rare", chance = 800000}\n\t\t\t}', '{group = "wearables_rare", chance = 800000}')]</t>
         </is>
       </c>
     </row>
@@ -9150,12 +9150,12 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\thug\dark_jedi_master.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\thug\dark_jedi_knight.lua</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "art_forcewithyou1", chance = 10000000}\n\t\t\t},\n\t\t\tlootChance = 300000\n\t\t}', '{\n\t\t\t\t{group = "art_forcewithyou1", chance = 10000000}\n\t\t\t}', '{group = "art_forcewithyou1", chance = 10000000}')]</t>
+          <t>[('{ \t-- Jedi Specific Loot Group 2 - 15%\n\t\t\tgroups ={\n\t\t\t\t{group = "jedi_clothing_attachments", chance = 5000000},\t-- 15% * 50% = 7.5%\n\t\t\t\t{group = "ngerobes1", chance = 5000000}\t                    -- 15% * 50% = 7.5%\n\t\t\n\t\t\t},\n\t\t\tlootChance = 1500000,\n\t\t}', '{\n\t\t\t\t{group = "jedi_clothing_attachments", chance = 5000000},\t-- 15% * 50% = 7.5%\n\t\t\t\t{group = "ngerobes1", chance = 5000000}\t                    -- 15% * 50% = 7.5%\n\t\t\n\t\t\t}', '{group = "ngerobes1", chance = 5000000}')]</t>
         </is>
       </c>
       <c r="D437" t="inlineStr">
@@ -9170,17 +9170,17 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\thug\mercenary.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\thug\dark_jedi_master.lua</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>[('', '', '')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "art_forcewithyou1", chance = 10000000}\n\t\t\t},\n\t\t\tlootChance = 300000\n\t\t}', '{\n\t\t\t\t{group = "art_forcewithyou1", chance = 10000000}\n\t\t\t}', '{group = "art_forcewithyou1", chance = 10000000}')]</t>
         </is>
       </c>
       <c r="D438" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 10000000},\n\t\t\t},\n\t\t\tlootChance = 5000000\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 10000000},\n\t\t\t}', '{group = "junk", chance = 10000000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "holocron_dark", chance = 600000},\n\t\t\t\t{group = "holocron_light", chance = 600000},\n\t\t\t\t{group = "power_crystals", chance = 600000},\n\t\t\t\t{group = "rifles", chance = 1300000},\n\t\t\t\t{group = "pistols", chance = 1300000},\n\t\t\t\t{group = "melee_weapons", chance = 1300000},\n\t\t\t\t{group = "armor_attachments", chance = 1100000},\n\t\t\t\t{group = "clothing_attachments", chance = 1100000},\n\t\t\t\t{group = "carbines", chance = 1300000},\n\t\t\t\t{group = "dark_jedi_common", chance = 800000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "holocron_dark", chance = 600000},\n\t\t\t\t{group = "holocron_light", chance = 600000},\n\t\t\t\t{group = "power_crystals", chance = 600000},\n\t\t\t\t{group = "rifles", chance = 1300000},\n\t\t\t\t{group = "pistols", chance = 1300000},\n\t\t\t\t{group = "melee_weapons", chance = 1300000},\n\t\t\t\t{group = "armor_attachments", chance = 1100000},\n\t\t\t\t{group = "clothing_attachments", chance = 1100000},\n\t\t\t\t{group = "carbines", chance = 1300000},\n\t\t\t\t{group = "dark_jedi_common", chance = 800000}\n\t\t\t}', '{group = "dark_jedi_common", chance = 800000}')]</t>
         </is>
       </c>
     </row>
@@ -9190,17 +9190,17 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\thug\pirate_armsman.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\thug\mercenary.lua</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 3000000},\n\t\t\t\t{group = "wearables_common", chance = 2000000},\n\t\t\t\t{group = "loot_kit_parts", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 1000000},\n\t\t\t\t{group = "armor_attachments", chance = 1000000},\n\t\t\t\t{group = "clothing_attachments", chance = 1000000},\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 3000000},\n\t\t\t\t{group = "wearables_common", chance = 2000000},\n\t\t\t\t{group = "loot_kit_parts", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 1000000},\n\t\t\t\t{group = "armor_attachments", chance = 1000000},\n\t\t\t\t{group = "clothing_attachments", chance = 1000000},\n\t\t\t}', '{group = "clothing_attachments", chance = 1000000}')]</t>
+          <t>[('', '', '')]</t>
         </is>
       </c>
       <c r="D439" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 4000000},\n\t\t\t\t{group = "wearables_common", chance = 3000000},\n\t\t\t\t{group = "loot_kit_parts", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 1000000},\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 4000000},\n\t\t\t\t{group = "wearables_common", chance = 3000000},\n\t\t\t\t{group = "loot_kit_parts", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 1000000},\n\t\t\t}', '{group = "tailor_components", chance = 1000000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 10000000},\n\t\t\t},\n\t\t\tlootChance = 5000000\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 10000000},\n\t\t\t}', '{group = "junk", chance = 10000000}')]</t>
         </is>
       </c>
     </row>
@@ -9210,12 +9210,12 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\thug\pirate_leader.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\thug\pirate_armsman.lua</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 3000000},\n\t\t\t\t{group = "wearables_common", chance = 3000000},\n\t\t\t\t{group = "loot_kit_parts", chance = 1000000},\n\t\t\t\t{group = "tailor_components", chance = 1000000},\n\t\t\t\t{group = "armor_attachments", chance = 1000000},\n\t\t\t\t{group = "clothing_attachments", chance = 1000000},\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 3000000},\n\t\t\t\t{group = "wearables_common", chance = 3000000},\n\t\t\t\t{group = "loot_kit_parts", chance = 1000000},\n\t\t\t\t{group = "tailor_components", chance = 1000000},\n\t\t\t\t{group = "armor_attachments", chance = 1000000},\n\t\t\t\t{group = "clothing_attachments", chance = 1000000},\n\t\t\t}', '{group = "clothing_attachments", chance = 1000000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 3000000},\n\t\t\t\t{group = "wearables_common", chance = 2000000},\n\t\t\t\t{group = "loot_kit_parts", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 1000000},\n\t\t\t\t{group = "armor_attachments", chance = 1000000},\n\t\t\t\t{group = "clothing_attachments", chance = 1000000},\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 3000000},\n\t\t\t\t{group = "wearables_common", chance = 2000000},\n\t\t\t\t{group = "loot_kit_parts", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 1000000},\n\t\t\t\t{group = "armor_attachments", chance = 1000000},\n\t\t\t\t{group = "clothing_attachments", chance = 1000000},\n\t\t\t}', '{group = "clothing_attachments", chance = 1000000}')]</t>
         </is>
       </c>
       <c r="D440" t="inlineStr">
@@ -9230,17 +9230,17 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\thug\smuggler.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\thug\pirate_leader.lua</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "slicing_station_group", chance = 100 * (100000)}\n\t\t\t},\n\t\t\tlootChance = 3 * (100000)\n\t\t}', '{\n\t\t\t\t{group = "slicing_station_group", chance = 100 * (100000)}\n\t\t\t}', '{group = "slicing_station_group", chance = 100 * (100000)}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 3000000},\n\t\t\t\t{group = "wearables_common", chance = 3000000},\n\t\t\t\t{group = "loot_kit_parts", chance = 1000000},\n\t\t\t\t{group = "tailor_components", chance = 1000000},\n\t\t\t\t{group = "armor_attachments", chance = 1000000},\n\t\t\t\t{group = "clothing_attachments", chance = 1000000},\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 3000000},\n\t\t\t\t{group = "wearables_common", chance = 3000000},\n\t\t\t\t{group = "loot_kit_parts", chance = 1000000},\n\t\t\t\t{group = "tailor_components", chance = 1000000},\n\t\t\t\t{group = "armor_attachments", chance = 1000000},\n\t\t\t\t{group = "clothing_attachments", chance = 1000000},\n\t\t\t}', '{group = "clothing_attachments", chance = 1000000}')]</t>
         </is>
       </c>
       <c r="D441" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 4000000},\n\t\t\t\t{group = "wearables_common", chance = 2000000},\n\t\t\t\t{group = "rifles", chance = 1000000},\n\t\t\t\t{group = "pistols", chance = 1000000},\n\t\t\t\t{group = "melee_weapons", chance = 1000000},\n\t\t\t\t{group = "carbines", chance = 1000000},\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 4000000},\n\t\t\t\t{group = "wearables_common", chance = 2000000},\n\t\t\t\t{group = "rifles", chance = 1000000},\n\t\t\t\t{group = "pistols", chance = 1000000},\n\t\t\t\t{group = "melee_weapons", chance = 1000000},\n\t\t\t\t{group = "carbines", chance = 1000000},\n\t\t\t}', '{group = "carbines", chance = 1000000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 4000000},\n\t\t\t\t{group = "wearables_common", chance = 3000000},\n\t\t\t\t{group = "loot_kit_parts", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 1000000},\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 4000000},\n\t\t\t\t{group = "wearables_common", chance = 3000000},\n\t\t\t\t{group = "loot_kit_parts", chance = 2000000},\n\t\t\t\t{group = "tailor_components", chance = 1000000},\n\t\t\t}', '{group = "tailor_components", chance = 1000000}')]</t>
         </is>
       </c>
     </row>
@@ -9250,17 +9250,17 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\townsperson\commoner_technician.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\thug\smuggler.lua</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
         <is>
-          <t>[('', '', '')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "slicing_station_group", chance = 100 * (100000)}\n\t\t\t},\n\t\t\tlootChance = 3 * (100000)\n\t\t}', '{\n\t\t\t\t{group = "slicing_station_group", chance = 100 * (100000)}\n\t\t\t}', '{group = "slicing_station_group", chance = 100 * (100000)}')]</t>
         </is>
       </c>
       <c r="D442" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 10000000},\n\t\t\t},\n\t\t\tlootChance = 5000000\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 10000000},\n\t\t\t}', '{group = "junk", chance = 10000000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 4000000},\n\t\t\t\t{group = "wearables_common", chance = 2000000},\n\t\t\t\t{group = "rifles", chance = 1000000},\n\t\t\t\t{group = "pistols", chance = 1000000},\n\t\t\t\t{group = "melee_weapons", chance = 1000000},\n\t\t\t\t{group = "carbines", chance = 1000000},\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 4000000},\n\t\t\t\t{group = "wearables_common", chance = 2000000},\n\t\t\t\t{group = "rifles", chance = 1000000},\n\t\t\t\t{group = "pistols", chance = 1000000},\n\t\t\t\t{group = "melee_weapons", chance = 1000000},\n\t\t\t\t{group = "carbines", chance = 1000000},\n\t\t\t}', '{group = "carbines", chance = 1000000}')]</t>
         </is>
       </c>
     </row>
@@ -9270,17 +9270,17 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\yavin4\hooded_crystal_snake.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\townsperson\commoner_technician.lua</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>[('', '', ''), ('{\n\t\t\tgroups = {\n\t\t\t\t{group = "small_generic_windowed_house_s02_group", chance = 10000000}\n\t\t\t},\n\t\t\tlootChance = 350000 -- 3.5% chance for this loot group.   It should be approximately 10.1% chance for group of 3 boss mobs.\n\t\t}', '{\n\t\t\t\t{group = "small_generic_windowed_house_s02_group", chance = 10000000}\n\t\t\t}', '{group = "small_generic_windowed_house_s02_group", chance = 10000000}')]</t>
+          <t>[('', '', '')]</t>
         </is>
       </c>
       <c r="D443" t="inlineStr">
         <is>
-          <t>[('', '', '')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 10000000},\n\t\t\t},\n\t\t\tlootChance = 5000000\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 10000000},\n\t\t\t}', '{group = "junk", chance = 10000000}')]</t>
         </is>
       </c>
     </row>
@@ -9290,17 +9290,17 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\yavin4\hutt_expeditionary_force_surveyor.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\yavin4\hooded_crystal_snake.lua</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "art_illum19", chance = 10000000}\n\t\t\t},\n\t\t\tlootChance = 3500000\n\t\t}', '{\n\t\t\t\t{group = "art_illum19", chance = 10000000}\n\t\t\t}', '{group = "art_illum19", chance = 10000000}')]</t>
+          <t>[('', '', ''), ('{\n\t\t\tgroups = {\n\t\t\t\t{group = "small_generic_windowed_house_s02_group", chance = 10000000}\n\t\t\t},\n\t\t\tlootChance = 350000 -- 3.5% chance for this loot group.   It should be approximately 10.1% chance for group of 3 boss mobs.\n\t\t}', '{\n\t\t\t\t{group = "small_generic_windowed_house_s02_group", chance = 10000000}\n\t\t\t}', '{group = "small_generic_windowed_house_s02_group", chance = 10000000}')]</t>
         </is>
       </c>
       <c r="D444" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 3400000},\n\t\t\t\t{group = "tailor_components", chance = 1000000},\n\t\t\t\t{group = "loot_kit_parts", chance = 1000000},\n\t\t\t\t{group = "color_crystals", chance = 200000},\n\t\t\t\t{group = "power_crystals", chance = 200000},\n\t\t\t\t{group = "pistols", chance = 600000},\n\t\t\t\t{group = "carbines", chance = 600000},\n\t\t\t\t{group = "rifles", chance = 600000},\n\t\t\t\t{group = "clothing_attachments", chance = 200000},\n\t\t\t\t{group = "armor_attachments", chance = 200000},\n\t\t\t\t{group = "hutt_exp_common", chance = 2000000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 3400000},\n\t\t\t\t{group = "tailor_components", chance = 1000000},\n\t\t\t\t{group = "loot_kit_parts", chance = 1000000},\n\t\t\t\t{group = "color_crystals", chance = 200000},\n\t\t\t\t{group = "power_crystals", chance = 200000},\n\t\t\t\t{group = "pistols", chance = 600000},\n\t\t\t\t{group = "carbines", chance = 600000},\n\t\t\t\t{group = "rifles", chance = 600000},\n\t\t\t\t{group = "clothing_attachments", chance = 200000},\n\t\t\t\t{group = "armor_attachments", chance = 200000},\n\t\t\t\t{group = "hutt_exp_common", chance = 2000000}\n\t\t\t}', '{group = "hutt_exp_common", chance = 2000000}')]</t>
+          <t>[('', '', '')]</t>
         </is>
       </c>
     </row>
@@ -9310,12 +9310,12 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\yavin4\hutt_expeditonary_force_leader.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\yavin4\hutt_expeditionary_force_surveyor.lua</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "airstrike_group", chance = 100 * (100000)},\n\t\t\t},\n\t\t\tlootChance = 1 * (50000), -- very rare drop\n\t\t}', '{\n\t\t\t\t{group = "airstrike_group", chance = 100 * (100000)},\n\t\t\t}', '{group = "airstrike_group", chance = 100 * (100000)}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "art_illum19", chance = 10000000}\n\t\t\t},\n\t\t\tlootChance = 3500000\n\t\t}', '{\n\t\t\t\t{group = "art_illum19", chance = 10000000}\n\t\t\t}', '{group = "art_illum19", chance = 10000000}')]</t>
         </is>
       </c>
       <c r="D445" t="inlineStr">
@@ -9330,12 +9330,12 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\yavin4\hutt_expeditonary_force_member.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\yavin4\hutt_expeditonary_force_leader.lua</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "combat_practice", chance = 100 * (100000)}\n\t\t\t},\n\t\t\tlootChance = 25 * (100000)\n\t\t}', '{\n\t\t\t\t{group = "combat_practice", chance = 100 * (100000)}\n\t\t\t}', '{group = "combat_practice", chance = 100 * (100000)}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "airstrike_group", chance = 100 * (100000)},\n\t\t\t},\n\t\t\tlootChance = 1 * (50000), -- very rare drop\n\t\t}', '{\n\t\t\t\t{group = "airstrike_group", chance = 100 * (100000)},\n\t\t\t}', '{group = "airstrike_group", chance = 100 * (100000)}')]</t>
         </is>
       </c>
       <c r="D446" t="inlineStr">
@@ -9350,17 +9350,17 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\yavin4\kliknik_defender.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\yavin4\hutt_expeditonary_force_member.lua</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>[('{\n\t        groups = {\n\t\t\t\t{group = "kliknik_common", chance = 10000000}\n\t\t\t},\n\t\t\tlootChance = 1540000\n\t\t}', '{\n\t\t\t\t{group = "kliknik_common", chance = 10000000}\n\t\t\t}', '{group = "kliknik_common", chance = 10000000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "combat_practice", chance = 100 * (100000)}\n\t\t\t},\n\t\t\tlootChance = 25 * (100000)\n\t\t}', '{\n\t\t\t\t{group = "combat_practice", chance = 100 * (100000)}\n\t\t\t}', '{group = "combat_practice", chance = 100 * (100000)}')]</t>
         </is>
       </c>
       <c r="D447" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "kliknik_common", chance = 10000000}\n\t\t\t},\n\t\t\tlootChance = 1540000\n\t\t}', '{\n\t\t\t\t{group = "kliknik_common", chance = 10000000}\n\t\t\t}', '{group = "kliknik_common", chance = 10000000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "junk", chance = 3400000},\n\t\t\t\t{group = "tailor_components", chance = 1000000},\n\t\t\t\t{group = "loot_kit_parts", chance = 1000000},\n\t\t\t\t{group = "color_crystals", chance = 200000},\n\t\t\t\t{group = "power_crystals", chance = 200000},\n\t\t\t\t{group = "pistols", chance = 600000},\n\t\t\t\t{group = "carbines", chance = 600000},\n\t\t\t\t{group = "rifles", chance = 600000},\n\t\t\t\t{group = "clothing_attachments", chance = 200000},\n\t\t\t\t{group = "armor_attachments", chance = 200000},\n\t\t\t\t{group = "hutt_exp_common", chance = 2000000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "junk", chance = 3400000},\n\t\t\t\t{group = "tailor_components", chance = 1000000},\n\t\t\t\t{group = "loot_kit_parts", chance = 1000000},\n\t\t\t\t{group = "color_crystals", chance = 200000},\n\t\t\t\t{group = "power_crystals", chance = 200000},\n\t\t\t\t{group = "pistols", chance = 600000},\n\t\t\t\t{group = "carbines", chance = 600000},\n\t\t\t\t{group = "rifles", chance = 600000},\n\t\t\t\t{group = "clothing_attachments", chance = 200000},\n\t\t\t\t{group = "armor_attachments", chance = 200000},\n\t\t\t\t{group = "hutt_exp_common", chance = 2000000}\n\t\t\t}', '{group = "hutt_exp_common", chance = 2000000}')]</t>
         </is>
       </c>
     </row>
@@ -9370,17 +9370,17 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\yavin4\stranded_imperial_soldier.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\yavin4\kliknik_defender.lua</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "combat_practice", chance = 100 * (100000)}\n\t\t\t},\n\t\t\tlootChance = 25 * (100000)\n\t\t}', '{\n\t\t\t\t{group = "combat_practice", chance = 100 * (100000)}\n\t\t\t}', '{group = "combat_practice", chance = 100 * (100000)}')]</t>
+          <t>[('{\n\t        groups = {\n\t\t\t\t{group = "kliknik_common", chance = 10000000}\n\t\t\t},\n\t\t\tlootChance = 1540000\n\t\t}', '{\n\t\t\t\t{group = "kliknik_common", chance = 10000000}\n\t\t\t}', '{group = "kliknik_common", chance = 10000000}')]</t>
         </is>
       </c>
       <c r="D448" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "color_crystals", chance = 100000},\n\t\t\t\t{group = "junk", chance = 4700000},\n\t\t\t\t{group = "rifles", chance = 1000000},\n\t\t\t\t{group = "pistols", chance = 1000000},\n\t\t\t\t{group = "melee_weapons", chance = 1000000},\n\t\t\t\t{group = "carbines", chance = 1000000},\n\t\t\t\t{group = "clothing_attachments", chance = 100000},\n\t\t\t\t{group = "armor_attachments", chance = 100000},\n\t\t\t\t{group = "wearables_common", chance = 1000000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "color_crystals", chance = 100000},\n\t\t\t\t{group = "junk", chance = 4700000},\n\t\t\t\t{group = "rifles", chance = 1000000},\n\t\t\t\t{group = "pistols", chance = 1000000},\n\t\t\t\t{group = "melee_weapons", chance = 1000000},\n\t\t\t\t{group = "carbines", chance = 1000000},\n\t\t\t\t{group = "clothing_attachments", chance = 100000},\n\t\t\t\t{group = "armor_attachments", chance = 100000},\n\t\t\t\t{group = "wearables_common", chance = 1000000}\n\t\t\t}', '{group = "wearables_common", chance = 1000000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "kliknik_common", chance = 10000000}\n\t\t\t},\n\t\t\tlootChance = 1540000\n\t\t}', '{\n\t\t\t\t{group = "kliknik_common", chance = 10000000}\n\t\t\t}', '{group = "kliknik_common", chance = 10000000}')]</t>
         </is>
       </c>
     </row>
@@ -9390,7 +9390,7 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\yavin4\stranded_rebel_soldier.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\yavin4\stranded_imperial_soldier.lua</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
@@ -9410,17 +9410,17 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\yavin4\swarming_kliknik.lua</t>
+          <t>C:\Users\micha\Documents\source\wun1\MMOCoreORB\bin\scripts\mobile\\yavin4\stranded_rebel_soldier.lua</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t>[('{\n\t        groups = {\n\t\t\t\t{group = "kliknik_common", chance = 10000000}\n\t\t\t},\n\t\t\tlootChance = 1200000\n\t\t}', '{\n\t\t\t\t{group = "kliknik_common", chance = 10000000}\n\t\t\t}', '{group = "kliknik_common", chance = 10000000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "combat_practice", chance = 100 * (100000)}\n\t\t\t},\n\t\t\tlootChance = 25 * (100000)\n\t\t}', '{\n\t\t\t\t{group = "combat_practice", chance = 100 * (100000)}\n\t\t\t}', '{group = "combat_practice", chance = 100 * (100000)}')]</t>
         </is>
       </c>
       <c r="D450" t="inlineStr">
         <is>
-          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "kliknik_common", chance = 10000000}\n\t\t\t},\n\t\t\tlootChance = 1200000\n\t\t}', '{\n\t\t\t\t{group = "kliknik_common", chance = 10000000}\n\t\t\t}', '{group = "kliknik_common", chance = 10000000}')]</t>
+          <t>[('{\n\t\t\tgroups = {\n\t\t\t\t{group = "color_crystals", chance = 100000},\n\t\t\t\t{group = "junk", chance = 4700000},\n\t\t\t\t{group = "rifles", chance = 1000000},\n\t\t\t\t{group = "pistols", chance = 1000000},\n\t\t\t\t{group = "melee_weapons", chance = 1000000},\n\t\t\t\t{group = "carbines", chance = 1000000},\n\t\t\t\t{group = "clothing_attachments", chance = 100000},\n\t\t\t\t{group = "armor_attachments", chance = 100000},\n\t\t\t\t{group = "wearables_common", chance = 1000000}\n\t\t\t}\n\t\t}', '{\n\t\t\t\t{group = "color_crystals", chance = 100000},\n\t\t\t\t{group = "junk", chance = 4700000},\n\t\t\t\t{group = "rifles", chance = 1000000},\n\t\t\t\t{group = "pistols", chance = 1000000},\n\t\t\t\t{group = "melee_weapons", chance = 1000000},\n\t\t\t\t{group = "carbines", chance = 1000000},\n\t\t\t\t{group = "clothing_attachments", chance = 100000},\n\t\t\t\t{group = "armor_attachments", chance = 100000},\n\t\t\t\t{group = "wearables_common", chance = 1000000}\n\t\t\t}', '{group = "wearables_common", chance = 1000000}')]</t>
         </is>
       </c>
     </row>
